--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="515">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -1403,6 +1403,363 @@
   <si>
     <t>7. Summary</t>
   </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>10. Working with Arrays</t>
+  </si>
+  <si>
+    <t>2. Java Primitive Arrays</t>
+  </si>
+  <si>
+    <t>3. Assisted Practice: Arrays in Action</t>
+  </si>
+  <si>
+    <t>4. Array Value Allocation</t>
+  </si>
+  <si>
+    <t>5. Assisted Practice: Accessing and Iterating Arrays</t>
+  </si>
+  <si>
+    <t>6. Assisted Practice: Sorting Arrays</t>
+  </si>
+  <si>
+    <t>7. Assisted Practice: Searching Arrays</t>
+  </si>
+  <si>
+    <t>8.  Understanding Array Comparison</t>
+  </si>
+  <si>
+    <t>9. Assisted Practice: Varargs and the Java "main" Method</t>
+  </si>
+  <si>
+    <t>10. Summary</t>
+  </si>
+  <si>
+    <t>11. Regular Expressions</t>
+  </si>
+  <si>
+    <t>1. String Matching with Regular Expressions</t>
+  </si>
+  <si>
+    <t>2. String Class Support for Regular Expressions</t>
+  </si>
+  <si>
+    <t>3. Dedicated Regular Expression Classes</t>
+  </si>
+  <si>
+    <t>4. Metacharacters</t>
+  </si>
+  <si>
+    <t>5. Character Class</t>
+  </si>
+  <si>
+    <t>6. Predefined Character Classes</t>
+  </si>
+  <si>
+    <t>7. Quantifiers</t>
+  </si>
+  <si>
+    <t>8. Boundary Matches</t>
+  </si>
+  <si>
+    <t>9. Assisted Practice: RegEx in practice</t>
+  </si>
+  <si>
+    <t>Section-End Project - Lesson 2</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>12. Multithreading and Concurrency</t>
+  </si>
+  <si>
+    <t>2.  A Quick Look at the Basics</t>
+  </si>
+  <si>
+    <t>3. The Move to Multithreading</t>
+  </si>
+  <si>
+    <t>4. Java Threading Foundation</t>
+  </si>
+  <si>
+    <t>5. Creating A thread By Extending The Thread class</t>
+  </si>
+  <si>
+    <t>6.  Thread Management Details</t>
+  </si>
+  <si>
+    <t>7. Concurrency Issues</t>
+  </si>
+  <si>
+    <t>8.  What Is a Race Condition in Concurrent Programming?</t>
+  </si>
+  <si>
+    <t>9.  Analysis of a Race Condition in the Singleton Pattern</t>
+  </si>
+  <si>
+    <t>10. Synchronizing Code to Prevent Race Conditions</t>
+  </si>
+  <si>
+    <t>11. Understanding the Lock Object in Synchronization</t>
+  </si>
+  <si>
+    <t>12. Understanding Synchronization Over Multiple Methods</t>
+  </si>
+  <si>
+    <t>13. Assisted Practice: A Race Condition in Action, and How to Fix It</t>
+  </si>
+  <si>
+    <t>14. Coordinating Method Access</t>
+  </si>
+  <si>
+    <t>15. Manual Synchronization</t>
+  </si>
+  <si>
+    <t>16. Thread Priorities</t>
+  </si>
+  <si>
+    <t>17. Assisted Practice: Set the Priority for Threads</t>
+  </si>
+  <si>
+    <t>18. Summary</t>
+  </si>
+  <si>
+    <t>13. Implementing the ProducerConsumer Pattern Using Wait  Notify</t>
+  </si>
+  <si>
+    <t>1.  Introduction: Agenda of the Module</t>
+  </si>
+  <si>
+    <t>2.  Launching a Task in a New Thread with the Runnable Pattern</t>
+  </si>
+  <si>
+    <t>3.  How to Stop a Thread Using the interrupt() Method</t>
+  </si>
+  <si>
+    <t>4.  Implementing a First Producer/Consumer Example</t>
+  </si>
+  <si>
+    <t>5.  A First Synchronized Version of the Producer/Consumer</t>
+  </si>
+  <si>
+    <t>6.  What Is Needed to Fix This First, Flawed Version</t>
+  </si>
+  <si>
+    <t>7.  Understanding How the wait() and notify() Methods Work</t>
+  </si>
+  <si>
+    <t>8.  Fixing the Producer / Consumer Code Using Wait / Notify</t>
+  </si>
+  <si>
+    <t>9.  Understanding How Synchronization Works with wait() and notify()</t>
+  </si>
+  <si>
+    <t>10.  Assisted Practice: Unsynchronized, Flawed Producer/Consumer in Action</t>
+  </si>
+  <si>
+    <t>11. Assisted Practice: Synchronized, Flawed Producer/Consumer in Action</t>
+  </si>
+  <si>
+    <t>12. Assisted Practice: wait/notify, Correct Producer/Consumer in Action</t>
+  </si>
+  <si>
+    <t>13. Understanding the States of a Thread</t>
+  </si>
+  <si>
+    <t>14. Understanding the State Diagram of a Thread</t>
+  </si>
+  <si>
+    <t>15. Wrap-up on the State of a Thread</t>
+  </si>
+  <si>
+    <t>16.  Wrap-up of the Module</t>
+  </si>
+  <si>
+    <t>14. Persisting Objects with Serialization</t>
+  </si>
+  <si>
+    <t>2. Java Serialization Overview</t>
+  </si>
+  <si>
+    <t>3. Being Serializable</t>
+  </si>
+  <si>
+    <t>4. Serializing/Deserializing an Object</t>
+  </si>
+  <si>
+    <t>5. Transient Fields</t>
+  </si>
+  <si>
+    <t>6. Assisted Practice: Serialize and deserialize an object</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>15. Handling Exceptions in Java</t>
+  </si>
+  <si>
+    <t>1. Course Overview</t>
+  </si>
+  <si>
+    <t>2. Working with try/catch</t>
+  </si>
+  <si>
+    <t>3. Handling Cleanup</t>
+  </si>
+  <si>
+    <t>4. Implementing try/catch/finally</t>
+  </si>
+  <si>
+    <t>5. Automating Cleanup</t>
+  </si>
+  <si>
+    <t>6. Transitioning from Manual to Automatic Cleanup</t>
+  </si>
+  <si>
+    <t>16. Understanding Exception Types</t>
+  </si>
+  <si>
+    <t>4. Exceptions Can Be Handled by Type</t>
+  </si>
+  <si>
+    <t>5. Checked and Unchecked Exceptions</t>
+  </si>
+  <si>
+    <t>6. Handling Multiple Exceptions</t>
+  </si>
+  <si>
+    <t>7. Handling Unchecked Exceptions</t>
+  </si>
+  <si>
+    <t>8. Exceptions and Methods</t>
+  </si>
+  <si>
+    <t>9. Handling Exceptions Across Methods</t>
+  </si>
+  <si>
+    <t>17. Creating Custom Exceptions</t>
+  </si>
+  <si>
+    <t>2. Create and Throw an Exception</t>
+  </si>
+  <si>
+    <t>3. Throwing an Exception</t>
+  </si>
+  <si>
+    <t>4. Custom Exceptions</t>
+  </si>
+  <si>
+    <t>5. Declaring a Custom Exception</t>
+  </si>
+  <si>
+    <t>6. Throwing a Custom Exception</t>
+  </si>
+  <si>
+    <t>7. Chained Exceptions</t>
+  </si>
+  <si>
+    <t>8. Chaining Exceptions Together</t>
+  </si>
+  <si>
+    <t>9.  Accessing a Chained Exception</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>18. Input and Output with Streams and Files</t>
+  </si>
+  <si>
+    <t>2. Streams Overview</t>
+  </si>
+  <si>
+    <t>3. Reading and Writing with Streams</t>
+  </si>
+  <si>
+    <t>4. Common Stream Classes</t>
+  </si>
+  <si>
+    <t>5. Stream Errors and Cleanup</t>
+  </si>
+  <si>
+    <t>6. Assisted Practice: Working with Try-with-resources Part 1</t>
+  </si>
+  <si>
+    <t>7. Assisted Practice: Working with Try-with-resources Part 2</t>
+  </si>
+  <si>
+    <t>8. Chaining Streams</t>
+  </si>
+  <si>
+    <t>9. File and Buffered Streams</t>
+  </si>
+  <si>
+    <t>10. The StandardOpenOption Parameter</t>
+  </si>
+  <si>
+    <t>11. Assisted Practice:  Using Java Files Open Options</t>
+  </si>
+  <si>
+    <t>12. Setup Maven Project and Test Class</t>
+  </si>
+  <si>
+    <t>13. Opening a File for Reading and Writing</t>
+  </si>
+  <si>
+    <t>14.  Creating a SPARSE File</t>
+  </si>
+  <si>
+    <t>15. Keeping the File Synchronized</t>
+  </si>
+  <si>
+    <t>16. Deleting the File After Closing the Stream</t>
+  </si>
+  <si>
+    <t>17. Summary</t>
+  </si>
+  <si>
+    <t>19. Executing Java Applications</t>
+  </si>
+  <si>
+    <t>1. Module Intro: Executing Java Applications</t>
+  </si>
+  <si>
+    <t>2. Writing a Main Method</t>
+  </si>
+  <si>
+    <t>3. Creating Console Output</t>
+  </si>
+  <si>
+    <t>4. Using the Command Line</t>
+  </si>
+  <si>
+    <t>5. Module Summary: Executing Java Applications</t>
+  </si>
+  <si>
+    <t>20. Packages and Classes</t>
+  </si>
+  <si>
+    <t>1. Module Intro: Packages and Classes</t>
+  </si>
+  <si>
+    <t>2. Classes</t>
+  </si>
+  <si>
+    <t>3. Packages</t>
+  </si>
+  <si>
+    <t>4. Class Structure</t>
+  </si>
+  <si>
+    <t>5. Classes and Objects</t>
+  </si>
+  <si>
+    <t>6. Module Summary: Packages and Classes</t>
+  </si>
 </sst>
 </file>
 
@@ -1411,10 +1768,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1472,6 +1829,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14.05"/>
+      <color rgb="FFEFEFEF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -1498,14 +1868,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,31 +1903,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1553,6 +1916,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1571,33 +1942,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1610,8 +1987,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,24 +2004,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -1703,7 +2073,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,49 +2181,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,19 +2217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,37 +2235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,49 +2253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,11 +2299,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1953,11 +2339,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1977,15 +2369,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2001,33 +2384,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2045,135 +2415,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2216,230 +2586,236 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2764,8 +3140,8 @@
   <sheetPr/>
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2777,3388 +3153,3388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" ht="25.5" spans="1:4">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="24" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:4">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="29" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" ht="38.25" spans="1:4">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="63.75" spans="1:4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:4">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" spans="1:4">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="31" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="31" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:4">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="31" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="31" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="29" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="30"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" ht="76.5" spans="1:4">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="31" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="32" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="31" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="76.5" spans="1:4">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="31" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="31" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="31" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="31" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:4">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="31" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="31" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="76.5" spans="1:4">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="31" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="35" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="31" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="31" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="28"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="34" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="27"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27" t="s">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="29" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27" t="s">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="27" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="27" t="s">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" ht="51" spans="1:4">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="27" t="s">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" ht="38.25" spans="1:4">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="27" t="s">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="27" t="s">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="28"/>
+      <c r="D67" s="30"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="29" t="s">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="30"/>
+      <c r="D68" s="32"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="27"/>
+      <c r="D70" s="29"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="27" t="s">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="27" t="s">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="29" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="27" t="s">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="27" t="s">
+      <c r="D74" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27" t="s">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="27" t="s">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="27" t="s">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27" t="s">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27" t="s">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="27" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="27" t="s">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27" t="s">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="27" t="s">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="27" t="s">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27" t="s">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27" t="s">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" spans="1:4">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="27" t="s">
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="29" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="88" ht="51" spans="1:4">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27" t="s">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27" t="s">
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="28"/>
+      <c r="D89" s="30"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="29" t="s">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="30"/>
+      <c r="D90" s="32"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="21"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="23"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="36" t="s">
+      <c r="A92" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="37"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="39"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C93" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="39" t="s">
+      <c r="D93" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C94" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="43"/>
+      <c r="D94" s="45"/>
     </row>
     <row r="95" ht="76.5" spans="1:4">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="42" t="s">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="D95" s="45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="42" t="s">
+      <c r="A96" s="46"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="43" t="s">
+      <c r="D96" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" ht="51" spans="1:4">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="42" t="s">
+      <c r="A97" s="46"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="45" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="98" ht="38.25" spans="1:4">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="42" t="s">
+      <c r="A98" s="46"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D98" s="43" t="s">
+      <c r="D98" s="45" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="42" t="s">
+      <c r="A99" s="46"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D99" s="43" t="s">
+      <c r="D99" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" ht="51" spans="1:4">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="42" t="s">
+      <c r="A100" s="46"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="43" t="s">
+      <c r="D100" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="44"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="42" t="s">
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" ht="51" spans="1:4">
-      <c r="A102" s="44"/>
-      <c r="B102" s="44"/>
-      <c r="C102" s="42" t="s">
+      <c r="A102" s="46"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="D102" s="45" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="44"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="42" t="s">
+      <c r="A103" s="46"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D103" s="43" t="s">
+      <c r="D103" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104" ht="38.25" spans="1:4">
-      <c r="A104" s="44"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="42" t="s">
+      <c r="A104" s="46"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D104" s="43" t="s">
+      <c r="D104" s="45" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="42" t="s">
+      <c r="A105" s="46"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" ht="25.5" spans="1:4">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="42" t="s">
+      <c r="A106" s="46"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D106" s="45" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="42" t="s">
+      <c r="A107" s="46"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D107" s="45" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="45" t="s">
+      <c r="A108" s="46"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="43" t="s">
+      <c r="D108" s="45" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="45" t="s">
+      <c r="A109" s="46"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="43" t="s">
+      <c r="D109" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="45" t="s">
+      <c r="A110" s="46"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="43" t="s">
+      <c r="D110" s="45" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="45" t="s">
+      <c r="A111" s="46"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="D111" s="43" t="s">
+      <c r="D111" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="44"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="45" t="s">
+      <c r="A112" s="46"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="43" t="s">
+      <c r="D112" s="45" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="44"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="45" t="s">
+      <c r="A113" s="46"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D113" s="43" t="s">
+      <c r="D113" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="44"/>
-      <c r="B114" s="44"/>
-      <c r="C114" s="42" t="s">
+      <c r="A114" s="46"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="43" t="s">
+      <c r="D114" s="45" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="44"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="42" t="s">
+      <c r="A115" s="46"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="D115" s="43" t="s">
+      <c r="D115" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="44"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="42" t="s">
+      <c r="A116" s="46"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="46"/>
+      <c r="D116" s="48"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="44"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="47" t="s">
+      <c r="A117" s="46"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="48"/>
+      <c r="D117" s="50"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="19"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="21"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="23"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B119" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="42" t="s">
+      <c r="C119" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="49"/>
+      <c r="D119" s="51"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="26"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="42" t="s">
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D120" s="49" t="s">
+      <c r="D120" s="51" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="26"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="42" t="s">
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D121" s="49" t="s">
+      <c r="D121" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="26"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="42" t="s">
+      <c r="A122" s="28"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D122" s="49" t="s">
+      <c r="D122" s="51" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="123" ht="38.25" spans="1:4">
-      <c r="A123" s="26"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="42" t="s">
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="D123" s="50" t="s">
+      <c r="D123" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="26"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="42" t="s">
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="D124" s="49" t="s">
+      <c r="D124" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" ht="25.5" spans="1:4">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="42" t="s">
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D125" s="50" t="s">
+      <c r="D125" s="52" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="26"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="42" t="s">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="49" t="s">
+      <c r="D126" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" ht="38.25" spans="1:4">
-      <c r="A127" s="26"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="42" t="s">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D127" s="50" t="s">
+      <c r="D127" s="52" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="42" t="s">
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D128" s="49" t="s">
+      <c r="D128" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="42" t="s">
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D129" s="49" t="s">
+      <c r="D129" s="51" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="130" ht="38.25" spans="1:4">
-      <c r="A130" s="26"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="42" t="s">
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D130" s="50" t="s">
+      <c r="D130" s="52" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="42" t="s">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="49" t="s">
+      <c r="D131" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="26"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="42" t="s">
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D132" s="46"/>
+      <c r="D132" s="48"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="26"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="51" t="s">
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="52"/>
+      <c r="D133" s="54"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="21"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="23"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="40" t="s">
+      <c r="A135" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B135" s="53" t="s">
+      <c r="B135" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C135" s="42" t="s">
+      <c r="C135" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="46"/>
+      <c r="D135" s="48"/>
     </row>
     <row r="136" ht="76.5" spans="1:4">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
-      <c r="C136" s="42" t="s">
+      <c r="A136" s="46"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D136" s="43" t="s">
+      <c r="D136" s="45" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="44"/>
-      <c r="B137" s="44"/>
-      <c r="C137" s="42" t="s">
+      <c r="A137" s="46"/>
+      <c r="B137" s="46"/>
+      <c r="C137" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D137" s="43" t="s">
+      <c r="D137" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="42" t="s">
+      <c r="A138" s="46"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D138" s="43" t="s">
+      <c r="D138" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="44"/>
-      <c r="B139" s="44"/>
-      <c r="C139" s="42" t="s">
+      <c r="A139" s="46"/>
+      <c r="B139" s="46"/>
+      <c r="C139" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D139" s="43" t="s">
+      <c r="D139" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" ht="25.5" spans="1:4">
-      <c r="A140" s="44"/>
-      <c r="B140" s="44"/>
-      <c r="C140" s="42" t="s">
+      <c r="A140" s="46"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="50" t="s">
+      <c r="D140" s="52" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="44"/>
-      <c r="B141" s="44"/>
-      <c r="C141" s="42" t="s">
+      <c r="A141" s="46"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D141" s="43" t="s">
+      <c r="D141" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="44"/>
-      <c r="B142" s="44"/>
-      <c r="C142" s="42" t="s">
+      <c r="A142" s="46"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D142" s="43" t="s">
+      <c r="D142" s="45" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="143" ht="63.75" spans="1:4">
-      <c r="A143" s="44"/>
-      <c r="B143" s="44"/>
-      <c r="C143" s="45" t="s">
+      <c r="A143" s="46"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="43" t="s">
+      <c r="D143" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="44"/>
-      <c r="B144" s="44"/>
-      <c r="C144" s="45" t="s">
+      <c r="A144" s="46"/>
+      <c r="B144" s="46"/>
+      <c r="C144" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D144" s="43" t="s">
+      <c r="D144" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" ht="51" spans="1:4">
-      <c r="A145" s="44"/>
-      <c r="B145" s="44"/>
-      <c r="C145" s="42" t="s">
+      <c r="A145" s="46"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="50" t="s">
+      <c r="D145" s="52" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="146" ht="51" spans="1:4">
-      <c r="A146" s="44"/>
-      <c r="B146" s="44"/>
-      <c r="C146" s="42" t="s">
+      <c r="A146" s="46"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D146" s="50" t="s">
+      <c r="D146" s="52" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="44"/>
-      <c r="B147" s="44"/>
-      <c r="C147" s="42" t="s">
+      <c r="A147" s="46"/>
+      <c r="B147" s="46"/>
+      <c r="C147" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D147" s="43" t="s">
+      <c r="D147" s="45" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="44"/>
-      <c r="B148" s="44"/>
-      <c r="C148" s="42" t="s">
+      <c r="A148" s="46"/>
+      <c r="B148" s="46"/>
+      <c r="C148" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D148" s="50" t="s">
+      <c r="D148" s="52" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="44"/>
-      <c r="B149" s="44"/>
-      <c r="C149" s="42" t="s">
+      <c r="A149" s="46"/>
+      <c r="B149" s="46"/>
+      <c r="C149" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D149" s="43" t="s">
+      <c r="D149" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="44"/>
-      <c r="B150" s="44"/>
-      <c r="C150" s="42" t="s">
+      <c r="A150" s="46"/>
+      <c r="B150" s="46"/>
+      <c r="C150" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D150" s="50" t="s">
+      <c r="D150" s="52" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="44"/>
-      <c r="B151" s="44"/>
-      <c r="C151" s="42" t="s">
+      <c r="A151" s="46"/>
+      <c r="B151" s="46"/>
+      <c r="C151" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D151" s="43" t="s">
+      <c r="D151" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="44"/>
-      <c r="B152" s="44"/>
-      <c r="C152" s="54" t="s">
+      <c r="A152" s="46"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="D152" s="55" t="s">
+      <c r="D152" s="57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="44"/>
-      <c r="B153" s="44"/>
-      <c r="C153" s="54" t="s">
+      <c r="A153" s="46"/>
+      <c r="B153" s="46"/>
+      <c r="C153" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="D153" s="56" t="s">
+      <c r="D153" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="44"/>
-      <c r="B154" s="44"/>
-      <c r="C154" s="42" t="s">
+      <c r="A154" s="46"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="46"/>
+      <c r="D154" s="48"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="44"/>
-      <c r="B155" s="44"/>
-      <c r="C155" s="47" t="s">
+      <c r="A155" s="46"/>
+      <c r="B155" s="46"/>
+      <c r="C155" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="48"/>
+      <c r="D155" s="50"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="21"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="23"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="40" t="s">
+      <c r="A157" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B157" s="53" t="s">
+      <c r="B157" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C157" s="42" t="s">
+      <c r="C157" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="46"/>
+      <c r="D157" s="48"/>
     </row>
     <row r="158" ht="38.25" spans="1:4">
-      <c r="A158" s="44"/>
-      <c r="B158" s="44"/>
-      <c r="C158" s="42" t="s">
+      <c r="A158" s="46"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D158" s="43" t="s">
+      <c r="D158" s="45" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="44"/>
-      <c r="B159" s="44"/>
-      <c r="C159" s="42" t="s">
+      <c r="A159" s="46"/>
+      <c r="B159" s="46"/>
+      <c r="C159" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D159" s="43" t="s">
+      <c r="D159" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="160" ht="51" spans="1:4">
-      <c r="A160" s="44"/>
-      <c r="B160" s="44"/>
-      <c r="C160" s="42" t="s">
+      <c r="A160" s="46"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="D160" s="43" t="s">
+      <c r="D160" s="45" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="161" ht="114.75" spans="1:4">
-      <c r="A161" s="44"/>
-      <c r="B161" s="44"/>
-      <c r="C161" s="42" t="s">
+      <c r="A161" s="46"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D161" s="43" t="s">
+      <c r="D161" s="45" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="44"/>
-      <c r="B162" s="44"/>
-      <c r="C162" s="42" t="s">
+      <c r="A162" s="46"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D162" s="43" t="s">
+      <c r="D162" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" ht="76.5" spans="1:4">
-      <c r="A163" s="44"/>
-      <c r="B163" s="44"/>
-      <c r="C163" s="42" t="s">
+      <c r="A163" s="46"/>
+      <c r="B163" s="46"/>
+      <c r="C163" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D163" s="43" t="s">
+      <c r="D163" s="45" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="44"/>
-      <c r="B164" s="44"/>
-      <c r="C164" s="42" t="s">
+      <c r="A164" s="46"/>
+      <c r="B164" s="46"/>
+      <c r="C164" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D164" s="43" t="s">
+      <c r="D164" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="165" ht="140.25" spans="1:4">
-      <c r="A165" s="44"/>
-      <c r="B165" s="44"/>
-      <c r="C165" s="42" t="s">
+      <c r="A165" s="46"/>
+      <c r="B165" s="46"/>
+      <c r="C165" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D165" s="43" t="s">
+      <c r="D165" s="45" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="44"/>
-      <c r="B166" s="44"/>
-      <c r="C166" s="42" t="s">
+      <c r="A166" s="46"/>
+      <c r="B166" s="46"/>
+      <c r="C166" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D166" s="43" t="s">
+      <c r="D166" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="167" ht="25.5" spans="1:4">
-      <c r="A167" s="44"/>
-      <c r="B167" s="44"/>
-      <c r="C167" s="42" t="s">
+      <c r="A167" s="46"/>
+      <c r="B167" s="46"/>
+      <c r="C167" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D167" s="43" t="s">
+      <c r="D167" s="45" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="168" ht="38.25" spans="1:4">
-      <c r="A168" s="44"/>
-      <c r="B168" s="44"/>
-      <c r="C168" s="42" t="s">
+      <c r="A168" s="46"/>
+      <c r="B168" s="46"/>
+      <c r="C168" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D168" s="43" t="s">
+      <c r="D168" s="45" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="44"/>
-      <c r="B169" s="44"/>
-      <c r="C169" s="42" t="s">
+      <c r="A169" s="46"/>
+      <c r="B169" s="46"/>
+      <c r="C169" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D169" s="43" t="s">
+      <c r="D169" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="44"/>
-      <c r="B170" s="44"/>
-      <c r="C170" s="42" t="s">
+      <c r="A170" s="46"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D170" s="46"/>
+      <c r="D170" s="48"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="44"/>
-      <c r="B171" s="44"/>
-      <c r="C171" s="47" t="s">
+      <c r="A171" s="46"/>
+      <c r="B171" s="46"/>
+      <c r="C171" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D171" s="48"/>
+      <c r="D171" s="50"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="19"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="21"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="23"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="57"/>
-      <c r="B173" s="57"/>
-      <c r="C173" s="58" t="s">
+      <c r="A173" s="59"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D173" s="37"/>
+      <c r="D173" s="39"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="16" t="s">
+      <c r="A174" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C174" s="59" t="s">
+      <c r="C174" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="60" t="s">
+      <c r="D174" s="62" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="23" t="s">
+      <c r="A175" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="22" t="s">
+      <c r="B175" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C175" s="42" t="s">
+      <c r="C175" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D175" s="61"/>
+      <c r="D175" s="63"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="26"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="42" t="s">
+      <c r="A176" s="28"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D176" s="61" t="s">
+      <c r="D176" s="63" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="26"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="42" t="s">
+      <c r="A177" s="28"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D177" s="61" t="s">
+      <c r="D177" s="63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="26"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="54" t="s">
+      <c r="A178" s="28"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="D178" s="62" t="s">
+      <c r="D178" s="64" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="179" ht="51" spans="1:4">
-      <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="54" t="s">
+      <c r="A179" s="28"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="D179" s="63" t="s">
+      <c r="D179" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="26"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="54" t="s">
+      <c r="A180" s="28"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="D180" s="62" t="s">
+      <c r="D180" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="181" ht="25.5" spans="1:4">
-      <c r="A181" s="26"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="42" t="s">
+      <c r="A181" s="28"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D181" s="64" t="s">
+      <c r="D181" s="66" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="26"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="42" t="s">
+      <c r="A182" s="28"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D182" s="61" t="s">
+      <c r="D182" s="63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" ht="25.5" spans="1:4">
-      <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="42" t="s">
+      <c r="A183" s="28"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="D183" s="64" t="s">
+      <c r="D183" s="66" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="26"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="42" t="s">
+      <c r="A184" s="28"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="65"/>
+      <c r="D184" s="67"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="26"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="51" t="s">
+      <c r="A185" s="28"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="66"/>
+      <c r="D185" s="68"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="19"/>
-      <c r="B186" s="19"/>
-      <c r="C186" s="67"/>
-      <c r="D186" s="38"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="69"/>
+      <c r="D186" s="40"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="23" t="s">
+      <c r="A187" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C187" s="42" t="s">
+      <c r="C187" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D187" s="61"/>
+      <c r="D187" s="63"/>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="26"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="54" t="s">
+      <c r="A188" s="28"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="D188" s="54" t="s">
+      <c r="D188" s="56" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="26"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="54" t="s">
+      <c r="A189" s="28"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="D189" s="54" t="s">
+      <c r="D189" s="56" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="26"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="54" t="s">
+      <c r="A190" s="28"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="D190" s="62" t="s">
+      <c r="D190" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="26"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="54" t="s">
+      <c r="A191" s="28"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="D191" s="54" t="s">
+      <c r="D191" s="56" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="26"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="54" t="s">
+      <c r="A192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="D192" s="54" t="s">
+      <c r="D192" s="56" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="26"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="54" t="s">
+      <c r="A193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="D193" s="62" t="s">
+      <c r="D193" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="26"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="54" t="s">
+      <c r="A194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="D194" s="54" t="s">
+      <c r="D194" s="56" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="26"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="54" t="s">
+      <c r="A195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="D195" s="62" t="s">
+      <c r="D195" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="26"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="54" t="s">
+      <c r="A196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D196" s="62" t="s">
+      <c r="D196" s="64" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="26"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="54" t="s">
+      <c r="A197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D197" s="62" t="s">
+      <c r="D197" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" ht="25.5" spans="1:4">
-      <c r="A198" s="26"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="54" t="s">
+      <c r="A198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="D198" s="63" t="s">
+      <c r="D198" s="65" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="199" ht="25.5" spans="1:4">
-      <c r="A199" s="26"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="54" t="s">
+      <c r="A199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="D199" s="63" t="s">
+      <c r="D199" s="65" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="26"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="54" t="s">
+      <c r="A200" s="28"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="D200" s="62" t="s">
+      <c r="D200" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="54" t="s">
+      <c r="A201" s="28"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="D201" s="62" t="s">
+      <c r="D201" s="64" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="26"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="54" t="s">
+      <c r="A202" s="28"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="D202" s="62" t="s">
+      <c r="D202" s="64" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="26"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="54" t="s">
+      <c r="A203" s="28"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D203" s="62" t="s">
+      <c r="D203" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="26"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="54" t="s">
+      <c r="A204" s="28"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D204" s="68"/>
+      <c r="D204" s="70"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="26"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="51" t="s">
+      <c r="A205" s="28"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D205" s="66"/>
+      <c r="D205" s="68"/>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="19"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="67"/>
-      <c r="D206" s="38"/>
+      <c r="A206" s="21"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="69"/>
+      <c r="D206" s="40"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="40" t="s">
+      <c r="A207" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B207" s="40" t="s">
+      <c r="B207" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="C207" s="45" t="s">
+      <c r="C207" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D207" s="69"/>
+      <c r="D207" s="71"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="26"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="70" t="s">
+      <c r="A208" s="28"/>
+      <c r="B208" s="28"/>
+      <c r="C208" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="D208" s="69" t="s">
+      <c r="D208" s="71" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="26"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="70" t="s">
+      <c r="A209" s="28"/>
+      <c r="B209" s="28"/>
+      <c r="C209" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="D209" s="69" t="s">
+      <c r="D209" s="71" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="26"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="70" t="s">
+      <c r="A210" s="28"/>
+      <c r="B210" s="28"/>
+      <c r="C210" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="D210" s="69" t="s">
+      <c r="D210" s="71" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="26"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="70" t="s">
+      <c r="A211" s="28"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="D211" s="69" t="s">
+      <c r="D211" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="26"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="71" t="s">
+      <c r="A212" s="28"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="D212" s="72" t="s">
+      <c r="D212" s="74" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="26"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="71" t="s">
+      <c r="A213" s="28"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="D213" s="72" t="s">
+      <c r="D213" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="26"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="70" t="s">
+      <c r="A214" s="28"/>
+      <c r="B214" s="28"/>
+      <c r="C214" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="D214" s="69" t="s">
+      <c r="D214" s="71" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="26"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="70" t="s">
+      <c r="A215" s="28"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="D215" s="69" t="s">
+      <c r="D215" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="26"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="70" t="s">
+      <c r="A216" s="28"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="D216" s="69" t="s">
+      <c r="D216" s="71" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="26"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="70" t="s">
+      <c r="A217" s="28"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="D217" s="69" t="s">
+      <c r="D217" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="26"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="70" t="s">
+      <c r="A218" s="28"/>
+      <c r="B218" s="28"/>
+      <c r="C218" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="D218" s="69" t="s">
+      <c r="D218" s="71" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="26"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="70" t="s">
+      <c r="A219" s="28"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="D219" s="69" t="s">
+      <c r="D219" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="26"/>
-      <c r="B220" s="26"/>
-      <c r="C220" s="70" t="s">
+      <c r="A220" s="28"/>
+      <c r="B220" s="28"/>
+      <c r="C220" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="D220" s="69" t="s">
+      <c r="D220" s="71" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="26"/>
-      <c r="B221" s="26"/>
-      <c r="C221" s="70" t="s">
+      <c r="A221" s="28"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="D221" s="69" t="s">
+      <c r="D221" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="26"/>
-      <c r="B222" s="26"/>
-      <c r="C222" s="42" t="s">
+      <c r="A222" s="28"/>
+      <c r="B222" s="28"/>
+      <c r="C222" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D222" s="65"/>
+      <c r="D222" s="67"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="26"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="51" t="s">
+      <c r="A223" s="28"/>
+      <c r="B223" s="28"/>
+      <c r="C223" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D223" s="66"/>
+      <c r="D223" s="68"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="19"/>
-      <c r="B224" s="19"/>
-      <c r="C224" s="67"/>
-      <c r="D224" s="38"/>
+      <c r="A224" s="21"/>
+      <c r="B224" s="21"/>
+      <c r="C224" s="69"/>
+      <c r="D224" s="40"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="35" t="s">
+      <c r="A225" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B225" s="35" t="s">
+      <c r="B225" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C225" s="42" t="s">
+      <c r="C225" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D225" s="61"/>
+      <c r="D225" s="63"/>
     </row>
     <row r="226" ht="89.25" spans="1:4">
-      <c r="A226" s="26"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="73" t="s">
+      <c r="A226" s="28"/>
+      <c r="B226" s="28"/>
+      <c r="C226" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="D226" s="72" t="s">
+      <c r="D226" s="74" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="227" ht="51" spans="1:4">
-      <c r="A227" s="26"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="73" t="s">
+      <c r="A227" s="28"/>
+      <c r="B227" s="28"/>
+      <c r="C227" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="D227" s="72" t="s">
+      <c r="D227" s="74" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="73" t="s">
+      <c r="A228" s="28"/>
+      <c r="B228" s="28"/>
+      <c r="C228" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="D228" s="68" t="s">
+      <c r="D228" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="229" ht="63.75" spans="1:4">
-      <c r="A229" s="26"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="73" t="s">
+      <c r="A229" s="28"/>
+      <c r="B229" s="28"/>
+      <c r="C229" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="D229" s="72" t="s">
+      <c r="D229" s="74" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="26"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="73" t="s">
+      <c r="A230" s="28"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="D230" s="68" t="s">
+      <c r="D230" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="65" t="s">
+      <c r="A231" s="28"/>
+      <c r="B231" s="28"/>
+      <c r="C231" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D231" s="74"/>
+      <c r="D231" s="76"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="26"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="51" t="s">
+      <c r="A232" s="28"/>
+      <c r="B232" s="28"/>
+      <c r="C232" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D232" s="66"/>
+      <c r="D232" s="68"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="19"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="67"/>
-      <c r="D233" s="38"/>
+      <c r="A233" s="21"/>
+      <c r="B233" s="21"/>
+      <c r="C233" s="69"/>
+      <c r="D233" s="40"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="57"/>
-      <c r="B234" s="57"/>
-      <c r="C234" s="75" t="s">
+      <c r="A234" s="59"/>
+      <c r="B234" s="59"/>
+      <c r="C234" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="D234" s="76"/>
+      <c r="D234" s="78"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="16" t="s">
+      <c r="A235" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B235" s="16" t="s">
+      <c r="B235" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C235" s="16" t="s">
+      <c r="C235" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="39" t="s">
+      <c r="D235" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="35" t="s">
+      <c r="A236" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="35" t="s">
+      <c r="B236" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C236" s="77" t="s">
+      <c r="C236" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D236" s="43"/>
+      <c r="D236" s="45"/>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="77" t="s">
+      <c r="A237" s="28"/>
+      <c r="B237" s="28"/>
+      <c r="C237" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="D237" s="43" t="s">
+      <c r="D237" s="45" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="26"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="44"/>
-      <c r="D238" s="43" t="s">
+      <c r="A238" s="28"/>
+      <c r="B238" s="28"/>
+      <c r="C238" s="46"/>
+      <c r="D238" s="45" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="26"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="44"/>
-      <c r="D239" s="43" t="s">
+      <c r="A239" s="28"/>
+      <c r="B239" s="28"/>
+      <c r="C239" s="46"/>
+      <c r="D239" s="45" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="26"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="44"/>
-      <c r="D240" s="43" t="s">
+      <c r="A240" s="28"/>
+      <c r="B240" s="28"/>
+      <c r="C240" s="46"/>
+      <c r="D240" s="45" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="26"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="44"/>
-      <c r="D241" s="43" t="s">
+      <c r="A241" s="28"/>
+      <c r="B241" s="28"/>
+      <c r="C241" s="46"/>
+      <c r="D241" s="45" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="78" t="s">
+      <c r="A242" s="28"/>
+      <c r="B242" s="28"/>
+      <c r="C242" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="D242" s="43" t="s">
+      <c r="D242" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="77" t="s">
+      <c r="A243" s="28"/>
+      <c r="B243" s="28"/>
+      <c r="C243" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="D243" s="43" t="s">
+      <c r="D243" s="45" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="26"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="44"/>
-      <c r="D244" s="43" t="s">
+      <c r="A244" s="28"/>
+      <c r="B244" s="28"/>
+      <c r="C244" s="46"/>
+      <c r="D244" s="45" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="245" ht="153" spans="1:4">
-      <c r="A245" s="26"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="77" t="s">
+      <c r="A245" s="28"/>
+      <c r="B245" s="28"/>
+      <c r="C245" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="D245" s="43" t="s">
+      <c r="D245" s="45" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="26"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="77" t="s">
+      <c r="A246" s="28"/>
+      <c r="B246" s="28"/>
+      <c r="C246" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="D246" s="43" t="s">
+      <c r="D246" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="26"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="77" t="s">
+      <c r="A247" s="28"/>
+      <c r="B247" s="28"/>
+      <c r="C247" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="D247" s="43" t="s">
+      <c r="D247" s="45" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="26"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="44"/>
-      <c r="D248" s="43" t="s">
+      <c r="A248" s="28"/>
+      <c r="B248" s="28"/>
+      <c r="C248" s="46"/>
+      <c r="D248" s="45" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="26"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="44"/>
-      <c r="D249" s="43" t="s">
+      <c r="A249" s="28"/>
+      <c r="B249" s="28"/>
+      <c r="C249" s="46"/>
+      <c r="D249" s="45" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="26"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="44"/>
-      <c r="D250" s="43" t="s">
+      <c r="A250" s="28"/>
+      <c r="B250" s="28"/>
+      <c r="C250" s="46"/>
+      <c r="D250" s="45" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="26"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="44"/>
-      <c r="D251" s="43" t="s">
+      <c r="A251" s="28"/>
+      <c r="B251" s="28"/>
+      <c r="C251" s="46"/>
+      <c r="D251" s="45" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="26"/>
-      <c r="B252" s="26"/>
-      <c r="C252" s="44"/>
-      <c r="D252" s="43" t="s">
+      <c r="A252" s="28"/>
+      <c r="B252" s="28"/>
+      <c r="C252" s="46"/>
+      <c r="D252" s="45" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="26"/>
-      <c r="B253" s="26"/>
-      <c r="C253" s="44"/>
-      <c r="D253" s="43" t="s">
+      <c r="A253" s="28"/>
+      <c r="B253" s="28"/>
+      <c r="C253" s="46"/>
+      <c r="D253" s="45" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="26"/>
-      <c r="B254" s="26"/>
-      <c r="C254" s="77" t="s">
+      <c r="A254" s="28"/>
+      <c r="B254" s="28"/>
+      <c r="C254" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="D254" s="43" t="s">
+      <c r="D254" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="77" t="s">
+      <c r="A255" s="28"/>
+      <c r="B255" s="28"/>
+      <c r="C255" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="D255" s="43" t="s">
+      <c r="D255" s="45" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="44"/>
-      <c r="D256" s="79" t="s">
+      <c r="A256" s="28"/>
+      <c r="B256" s="28"/>
+      <c r="C256" s="46"/>
+      <c r="D256" s="81" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="26"/>
-      <c r="B257" s="26"/>
-      <c r="C257" s="44"/>
-      <c r="D257" s="79" t="s">
+      <c r="A257" s="28"/>
+      <c r="B257" s="28"/>
+      <c r="C257" s="46"/>
+      <c r="D257" s="81" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="26"/>
-      <c r="B258" s="26"/>
-      <c r="C258" s="77" t="s">
+      <c r="A258" s="28"/>
+      <c r="B258" s="28"/>
+      <c r="C258" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="D258" s="43" t="s">
+      <c r="D258" s="45" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="26"/>
-      <c r="B259" s="26"/>
-      <c r="C259" s="44"/>
-      <c r="D259" s="43" t="s">
+      <c r="A259" s="28"/>
+      <c r="B259" s="28"/>
+      <c r="C259" s="46"/>
+      <c r="D259" s="45" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="26"/>
-      <c r="B260" s="26"/>
-      <c r="C260" s="44"/>
-      <c r="D260" s="43" t="s">
+      <c r="A260" s="28"/>
+      <c r="B260" s="28"/>
+      <c r="C260" s="46"/>
+      <c r="D260" s="45" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="26"/>
-      <c r="B261" s="26"/>
-      <c r="C261" s="44"/>
-      <c r="D261" s="43" t="s">
+      <c r="A261" s="28"/>
+      <c r="B261" s="28"/>
+      <c r="C261" s="46"/>
+      <c r="D261" s="45" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="26"/>
-      <c r="B262" s="26"/>
-      <c r="C262" s="77" t="s">
+      <c r="A262" s="28"/>
+      <c r="B262" s="28"/>
+      <c r="C262" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="D262" s="43" t="s">
+      <c r="D262" s="45" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="26"/>
-      <c r="B263" s="26"/>
-      <c r="C263" s="80" t="s">
+      <c r="A263" s="28"/>
+      <c r="B263" s="28"/>
+      <c r="C263" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D263" s="81"/>
+      <c r="D263" s="83"/>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="26"/>
-      <c r="B264" s="26"/>
-      <c r="C264" s="82" t="s">
+      <c r="A264" s="28"/>
+      <c r="B264" s="28"/>
+      <c r="C264" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D264" s="52"/>
+      <c r="D264" s="54"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="19"/>
-      <c r="B265" s="19"/>
-      <c r="C265" s="20"/>
-      <c r="D265" s="21"/>
+      <c r="A265" s="21"/>
+      <c r="B265" s="21"/>
+      <c r="C265" s="22"/>
+      <c r="D265" s="23"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="35" t="s">
+      <c r="A266" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B266" s="40" t="s">
+      <c r="B266" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C266" s="64" t="s">
+      <c r="C266" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D266" s="43"/>
+      <c r="D266" s="45"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="26"/>
-      <c r="B267" s="26"/>
-      <c r="C267" s="71" t="s">
+      <c r="A267" s="28"/>
+      <c r="B267" s="28"/>
+      <c r="C267" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="D267" s="83" t="s">
+      <c r="D267" s="85" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="26"/>
-      <c r="B268" s="26"/>
-      <c r="C268" s="71" t="s">
+      <c r="A268" s="28"/>
+      <c r="B268" s="28"/>
+      <c r="C268" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="D268" s="83" t="s">
+      <c r="D268" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="269" ht="25.5" spans="1:4">
-      <c r="A269" s="26"/>
-      <c r="B269" s="26"/>
-      <c r="C269" s="71" t="s">
+      <c r="A269" s="28"/>
+      <c r="B269" s="28"/>
+      <c r="C269" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="D269" s="63" t="s">
+      <c r="D269" s="65" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="26"/>
-      <c r="B270" s="26"/>
-      <c r="C270" s="71" t="s">
+      <c r="A270" s="28"/>
+      <c r="B270" s="28"/>
+      <c r="C270" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="D270" s="68" t="s">
+      <c r="D270" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="271" ht="38.25" spans="1:4">
-      <c r="A271" s="26"/>
-      <c r="B271" s="26"/>
-      <c r="C271" s="71" t="s">
+      <c r="A271" s="28"/>
+      <c r="B271" s="28"/>
+      <c r="C271" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="D271" s="72" t="s">
+      <c r="D271" s="74" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="26"/>
-      <c r="B272" s="26"/>
-      <c r="C272" s="71" t="s">
+      <c r="A272" s="28"/>
+      <c r="B272" s="28"/>
+      <c r="C272" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="D272" s="68" t="s">
+      <c r="D272" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="273" ht="38.25" spans="1:4">
-      <c r="A273" s="26"/>
-      <c r="B273" s="26"/>
-      <c r="C273" s="71" t="s">
+      <c r="A273" s="28"/>
+      <c r="B273" s="28"/>
+      <c r="C273" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="D273" s="63" t="s">
+      <c r="D273" s="65" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="26"/>
-      <c r="B274" s="26"/>
-      <c r="C274" s="71" t="s">
+      <c r="A274" s="28"/>
+      <c r="B274" s="28"/>
+      <c r="C274" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="D274" s="68" t="s">
+      <c r="D274" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="275" ht="38.25" spans="1:4">
-      <c r="A275" s="26"/>
-      <c r="B275" s="26"/>
-      <c r="C275" s="71" t="s">
+      <c r="A275" s="28"/>
+      <c r="B275" s="28"/>
+      <c r="C275" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="D275" s="63" t="s">
+      <c r="D275" s="65" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="26"/>
-      <c r="B276" s="26"/>
-      <c r="C276" s="71" t="s">
+      <c r="A276" s="28"/>
+      <c r="B276" s="28"/>
+      <c r="C276" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="D276" s="83" t="s">
+      <c r="D276" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="26"/>
-      <c r="B277" s="26"/>
-      <c r="C277" s="42" t="s">
+      <c r="A277" s="28"/>
+      <c r="B277" s="28"/>
+      <c r="C277" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D277" s="46"/>
+      <c r="D277" s="48"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="26"/>
-      <c r="B278" s="26"/>
-      <c r="C278" s="51" t="s">
+      <c r="A278" s="28"/>
+      <c r="B278" s="28"/>
+      <c r="C278" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D278" s="52"/>
+      <c r="D278" s="54"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="19"/>
-      <c r="B279" s="19"/>
-      <c r="C279" s="20"/>
-      <c r="D279" s="21"/>
+      <c r="A279" s="21"/>
+      <c r="B279" s="21"/>
+      <c r="C279" s="22"/>
+      <c r="D279" s="23"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="40" t="s">
+      <c r="A280" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B280" s="40" t="s">
+      <c r="B280" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="C280" s="32" t="s">
+      <c r="C280" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D280" s="55"/>
+      <c r="D280" s="57"/>
     </row>
     <row r="281" ht="25.5" spans="1:4">
-      <c r="A281" s="26"/>
-      <c r="B281" s="26"/>
-      <c r="C281" s="84" t="s">
+      <c r="A281" s="28"/>
+      <c r="B281" s="28"/>
+      <c r="C281" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="D281" s="56" t="s">
+      <c r="D281" s="58" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="282" ht="25.5" spans="1:4">
-      <c r="A282" s="26"/>
-      <c r="B282" s="26"/>
-      <c r="C282" s="31" t="s">
+      <c r="A282" s="28"/>
+      <c r="B282" s="28"/>
+      <c r="C282" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="D282" s="56" t="s">
+      <c r="D282" s="58" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="26"/>
-      <c r="B283" s="26"/>
-      <c r="C283" s="31" t="s">
+      <c r="A283" s="28"/>
+      <c r="B283" s="28"/>
+      <c r="C283" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="D283" s="85" t="s">
+      <c r="D283" s="87" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="284" ht="63.75" spans="1:4">
-      <c r="A284" s="26"/>
-      <c r="B284" s="26"/>
-      <c r="C284" s="31" t="s">
+      <c r="A284" s="28"/>
+      <c r="B284" s="28"/>
+      <c r="C284" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="D284" s="56" t="s">
+      <c r="D284" s="58" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="285" ht="38.25" spans="1:4">
-      <c r="A285" s="26"/>
-      <c r="B285" s="26"/>
-      <c r="C285" s="84" t="s">
+      <c r="A285" s="28"/>
+      <c r="B285" s="28"/>
+      <c r="C285" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="D285" s="56" t="s">
+      <c r="D285" s="58" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="26"/>
-      <c r="B286" s="26"/>
-      <c r="C286" s="84" t="s">
+      <c r="A286" s="28"/>
+      <c r="B286" s="28"/>
+      <c r="C286" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="D286" s="83" t="s">
+      <c r="D286" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="287" ht="25.5" spans="1:4">
-      <c r="A287" s="26"/>
-      <c r="B287" s="26"/>
-      <c r="C287" s="84" t="s">
+      <c r="A287" s="28"/>
+      <c r="B287" s="28"/>
+      <c r="C287" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="D287" s="56" t="s">
+      <c r="D287" s="58" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="26"/>
-      <c r="B288" s="26"/>
-      <c r="C288" s="84" t="s">
+      <c r="A288" s="28"/>
+      <c r="B288" s="28"/>
+      <c r="C288" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="D288" s="83" t="s">
+      <c r="D288" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="289" ht="38.25" spans="1:4">
-      <c r="A289" s="26"/>
-      <c r="B289" s="26"/>
-      <c r="C289" s="84" t="s">
+      <c r="A289" s="28"/>
+      <c r="B289" s="28"/>
+      <c r="C289" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="D289" s="56" t="s">
+      <c r="D289" s="58" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="26"/>
-      <c r="B290" s="26"/>
-      <c r="C290" s="84" t="s">
+      <c r="A290" s="28"/>
+      <c r="B290" s="28"/>
+      <c r="C290" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="D290" s="83" t="s">
+      <c r="D290" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="291" ht="38.25" spans="1:4">
-      <c r="A291" s="26"/>
-      <c r="B291" s="26"/>
-      <c r="C291" s="84" t="s">
+      <c r="A291" s="28"/>
+      <c r="B291" s="28"/>
+      <c r="C291" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="D291" s="56" t="s">
+      <c r="D291" s="58" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="26"/>
-      <c r="B292" s="26"/>
-      <c r="C292" s="31" t="s">
+      <c r="A292" s="28"/>
+      <c r="B292" s="28"/>
+      <c r="C292" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="D292" s="83" t="s">
+      <c r="D292" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="293" ht="51" spans="1:4">
-      <c r="A293" s="26"/>
-      <c r="B293" s="26"/>
-      <c r="C293" s="84" t="s">
+      <c r="A293" s="28"/>
+      <c r="B293" s="28"/>
+      <c r="C293" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="D293" s="56" t="s">
+      <c r="D293" s="58" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="26"/>
-      <c r="B294" s="26"/>
-      <c r="C294" s="31" t="s">
+      <c r="A294" s="28"/>
+      <c r="B294" s="28"/>
+      <c r="C294" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D294" s="85" t="s">
+      <c r="D294" s="87" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="295" ht="51" spans="1:4">
-      <c r="A295" s="26"/>
-      <c r="B295" s="26"/>
-      <c r="C295" s="84" t="s">
+      <c r="A295" s="28"/>
+      <c r="B295" s="28"/>
+      <c r="C295" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="D295" s="56" t="s">
+      <c r="D295" s="58" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="296" ht="51" spans="1:4">
-      <c r="A296" s="26"/>
-      <c r="B296" s="26"/>
-      <c r="C296" s="84" t="s">
+      <c r="A296" s="28"/>
+      <c r="B296" s="28"/>
+      <c r="C296" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="D296" s="56" t="s">
+      <c r="D296" s="58" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="26"/>
-      <c r="B297" s="26"/>
-      <c r="C297" s="84" t="s">
+      <c r="A297" s="28"/>
+      <c r="B297" s="28"/>
+      <c r="C297" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="D297" s="85" t="s">
+      <c r="D297" s="87" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="298" ht="63.75" spans="1:4">
-      <c r="A298" s="26"/>
-      <c r="B298" s="26"/>
-      <c r="C298" s="84" t="s">
+      <c r="A298" s="28"/>
+      <c r="B298" s="28"/>
+      <c r="C298" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="D298" s="56" t="s">
+      <c r="D298" s="58" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="26"/>
-      <c r="B299" s="26"/>
-      <c r="C299" s="84" t="s">
+      <c r="A299" s="28"/>
+      <c r="B299" s="28"/>
+      <c r="C299" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="D299" s="85" t="s">
+      <c r="D299" s="87" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="300" ht="51" spans="1:4">
-      <c r="A300" s="26"/>
-      <c r="B300" s="26"/>
-      <c r="C300" s="84" t="s">
+      <c r="A300" s="28"/>
+      <c r="B300" s="28"/>
+      <c r="C300" s="86" t="s">
         <v>272</v>
       </c>
-      <c r="D300" s="56" t="s">
+      <c r="D300" s="58" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="26"/>
-      <c r="B301" s="26"/>
-      <c r="C301" s="31" t="s">
+      <c r="A301" s="28"/>
+      <c r="B301" s="28"/>
+      <c r="C301" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="D301" s="85" t="s">
+      <c r="D301" s="87" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="26"/>
-      <c r="B302" s="26"/>
-      <c r="C302" s="86" t="s">
+      <c r="A302" s="28"/>
+      <c r="B302" s="28"/>
+      <c r="C302" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="D302" s="81"/>
+      <c r="D302" s="83"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="26"/>
-      <c r="B303" s="26"/>
-      <c r="C303" s="87" t="s">
+      <c r="A303" s="28"/>
+      <c r="B303" s="28"/>
+      <c r="C303" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D303" s="48"/>
+      <c r="D303" s="50"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="19"/>
-      <c r="B304" s="19"/>
-      <c r="C304" s="20"/>
-      <c r="D304" s="21"/>
+      <c r="A304" s="21"/>
+      <c r="B304" s="21"/>
+      <c r="C304" s="22"/>
+      <c r="D304" s="23"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="88" t="s">
+      <c r="A305" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="B305" s="88"/>
-      <c r="C305" s="88"/>
-      <c r="D305" s="88"/>
+      <c r="B305" s="90"/>
+      <c r="C305" s="90"/>
+      <c r="D305" s="90"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="16" t="s">
+      <c r="A306" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B306" s="17" t="s">
+      <c r="B306" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C306" s="59" t="s">
+      <c r="C306" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D306" s="18" t="s">
+      <c r="D306" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="89" t="s">
+      <c r="A307" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B307" s="90" t="s">
+      <c r="B307" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="C307" s="91" t="s">
+      <c r="C307" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D307" s="92"/>
+      <c r="D307" s="94"/>
     </row>
     <row r="308" ht="25.5" spans="1:4">
-      <c r="A308" s="93"/>
-      <c r="B308" s="94"/>
-      <c r="C308" s="91" t="s">
+      <c r="A308" s="95"/>
+      <c r="B308" s="96"/>
+      <c r="C308" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="D308" s="92" t="s">
+      <c r="D308" s="94" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="309" ht="25.5" spans="1:4">
-      <c r="A309" s="93"/>
-      <c r="B309" s="94"/>
-      <c r="C309" s="91" t="s">
+      <c r="A309" s="95"/>
+      <c r="B309" s="96"/>
+      <c r="C309" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="D309" s="92" t="s">
+      <c r="D309" s="94" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="310" ht="25.5" spans="1:4">
-      <c r="A310" s="93"/>
-      <c r="B310" s="94"/>
-      <c r="C310" s="91" t="s">
+      <c r="A310" s="95"/>
+      <c r="B310" s="96"/>
+      <c r="C310" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="D310" s="92" t="s">
+      <c r="D310" s="94" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="93"/>
-      <c r="B311" s="94"/>
-      <c r="C311" s="91" t="s">
+      <c r="A311" s="95"/>
+      <c r="B311" s="96"/>
+      <c r="C311" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="D311" s="92" t="s">
+      <c r="D311" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="312" ht="89.25" spans="1:4">
-      <c r="A312" s="93"/>
-      <c r="B312" s="94"/>
-      <c r="C312" s="91" t="s">
+      <c r="A312" s="95"/>
+      <c r="B312" s="96"/>
+      <c r="C312" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="D312" s="92" t="s">
+      <c r="D312" s="94" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="93"/>
-      <c r="B313" s="94"/>
-      <c r="C313" s="91" t="s">
+      <c r="A313" s="95"/>
+      <c r="B313" s="96"/>
+      <c r="C313" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="D313" s="92" t="s">
+      <c r="D313" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="314" ht="38.25" spans="1:4">
-      <c r="A314" s="93"/>
-      <c r="B314" s="94"/>
-      <c r="C314" s="91" t="s">
+      <c r="A314" s="95"/>
+      <c r="B314" s="96"/>
+      <c r="C314" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="D314" s="92" t="s">
+      <c r="D314" s="94" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="93"/>
-      <c r="B315" s="94"/>
-      <c r="C315" s="91" t="s">
+      <c r="A315" s="95"/>
+      <c r="B315" s="96"/>
+      <c r="C315" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="D315" s="92" t="s">
+      <c r="D315" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="316" ht="89.25" spans="1:4">
-      <c r="A316" s="93"/>
-      <c r="B316" s="94"/>
-      <c r="C316" s="91" t="s">
+      <c r="A316" s="95"/>
+      <c r="B316" s="96"/>
+      <c r="C316" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="D316" s="92" t="s">
+      <c r="D316" s="94" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="93"/>
-      <c r="B317" s="94"/>
-      <c r="C317" s="91" t="s">
+      <c r="A317" s="95"/>
+      <c r="B317" s="96"/>
+      <c r="C317" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="D317" s="92" t="s">
+      <c r="D317" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="318" ht="63.75" spans="1:4">
-      <c r="A318" s="93"/>
-      <c r="B318" s="94"/>
-      <c r="C318" s="91" t="s">
+      <c r="A318" s="95"/>
+      <c r="B318" s="96"/>
+      <c r="C318" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="D318" s="92" t="s">
+      <c r="D318" s="94" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="93"/>
-      <c r="B319" s="94"/>
-      <c r="C319" s="91" t="s">
+      <c r="A319" s="95"/>
+      <c r="B319" s="96"/>
+      <c r="C319" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="D319" s="92" t="s">
+      <c r="D319" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="93"/>
-      <c r="B320" s="94"/>
-      <c r="C320" s="91" t="s">
+      <c r="A320" s="95"/>
+      <c r="B320" s="96"/>
+      <c r="C320" s="93" t="s">
         <v>291</v>
       </c>
-      <c r="D320" s="92" t="s">
+      <c r="D320" s="94" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="93"/>
-      <c r="B321" s="94"/>
-      <c r="C321" s="91" t="s">
+      <c r="A321" s="95"/>
+      <c r="B321" s="96"/>
+      <c r="C321" s="93" t="s">
         <v>291</v>
       </c>
-      <c r="D321" s="92" t="s">
+      <c r="D321" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="322" ht="25.5" spans="1:4">
-      <c r="A322" s="93"/>
-      <c r="B322" s="94"/>
-      <c r="C322" s="91" t="s">
+      <c r="A322" s="95"/>
+      <c r="B322" s="96"/>
+      <c r="C322" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="D322" s="92" t="s">
+      <c r="D322" s="94" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="93"/>
-      <c r="B323" s="94"/>
-      <c r="C323" s="91" t="s">
+      <c r="A323" s="95"/>
+      <c r="B323" s="96"/>
+      <c r="C323" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="D323" s="92" t="s">
+      <c r="D323" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="93"/>
-      <c r="B324" s="94"/>
-      <c r="C324" s="91" t="s">
+      <c r="A324" s="95"/>
+      <c r="B324" s="96"/>
+      <c r="C324" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D324" s="92"/>
+      <c r="D324" s="94"/>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="93"/>
-      <c r="B325" s="94"/>
-      <c r="C325" s="95" t="s">
+      <c r="A325" s="95"/>
+      <c r="B325" s="96"/>
+      <c r="C325" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D325" s="87"/>
+      <c r="D325" s="89"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="19"/>
-      <c r="B326" s="19"/>
-      <c r="C326" s="67"/>
-      <c r="D326" s="21"/>
+      <c r="A326" s="21"/>
+      <c r="B326" s="21"/>
+      <c r="C326" s="69"/>
+      <c r="D326" s="23"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="19"/>
-      <c r="B327" s="19"/>
-      <c r="C327" s="67"/>
-      <c r="D327" s="21"/>
+      <c r="A327" s="21"/>
+      <c r="B327" s="21"/>
+      <c r="C327" s="69"/>
+      <c r="D327" s="23"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="35" t="s">
+      <c r="A328" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B328" s="35" t="s">
+      <c r="B328" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="C328" s="64" t="s">
+      <c r="C328" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D328" s="77"/>
+      <c r="D328" s="79"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="26"/>
-      <c r="B329" s="26"/>
-      <c r="C329" s="70" t="s">
+      <c r="A329" s="28"/>
+      <c r="B329" s="28"/>
+      <c r="C329" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="D329" s="77" t="s">
+      <c r="D329" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="26"/>
-      <c r="B330" s="26"/>
-      <c r="C330" s="70" t="s">
+      <c r="A330" s="28"/>
+      <c r="B330" s="28"/>
+      <c r="C330" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="D330" s="77" t="s">
+      <c r="D330" s="79" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="26"/>
-      <c r="B331" s="26"/>
-      <c r="C331" s="70" t="s">
+      <c r="A331" s="28"/>
+      <c r="B331" s="28"/>
+      <c r="C331" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="D331" s="77" t="s">
+      <c r="D331" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="26"/>
-      <c r="B332" s="26"/>
-      <c r="C332" s="70" t="s">
+      <c r="A332" s="28"/>
+      <c r="B332" s="28"/>
+      <c r="C332" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="D332" s="77" t="s">
+      <c r="D332" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="26"/>
-      <c r="B333" s="26"/>
-      <c r="C333" s="70" t="s">
+      <c r="A333" s="28"/>
+      <c r="B333" s="28"/>
+      <c r="C333" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="D333" s="77" t="s">
+      <c r="D333" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="26"/>
-      <c r="B334" s="26"/>
-      <c r="C334" s="70" t="s">
+      <c r="A334" s="28"/>
+      <c r="B334" s="28"/>
+      <c r="C334" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="D334" s="77" t="s">
+      <c r="D334" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="26"/>
-      <c r="B335" s="26"/>
-      <c r="C335" s="70" t="s">
+      <c r="A335" s="28"/>
+      <c r="B335" s="28"/>
+      <c r="C335" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="D335" s="77" t="s">
+      <c r="D335" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="26"/>
-      <c r="B336" s="26"/>
-      <c r="C336" s="45" t="s">
+      <c r="A336" s="28"/>
+      <c r="B336" s="28"/>
+      <c r="C336" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D336" s="28"/>
+      <c r="D336" s="30"/>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="26"/>
-      <c r="B337" s="26"/>
-      <c r="C337" s="95" t="s">
+      <c r="A337" s="28"/>
+      <c r="B337" s="28"/>
+      <c r="C337" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D337" s="87"/>
+      <c r="D337" s="89"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="19"/>
-      <c r="B338" s="19"/>
-      <c r="C338" s="67"/>
-      <c r="D338" s="21"/>
+      <c r="A338" s="21"/>
+      <c r="B338" s="21"/>
+      <c r="C338" s="69"/>
+      <c r="D338" s="23"/>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="35" t="s">
+      <c r="A339" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B339" s="35" t="s">
+      <c r="B339" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="C339" s="45" t="s">
+      <c r="C339" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="D339" s="77" t="s">
+      <c r="D339" s="79" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="26"/>
-      <c r="B340" s="26"/>
-      <c r="C340" s="74"/>
-      <c r="D340" s="77" t="s">
+      <c r="A340" s="28"/>
+      <c r="B340" s="28"/>
+      <c r="C340" s="76"/>
+      <c r="D340" s="79" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="26"/>
-      <c r="B341" s="26"/>
-      <c r="C341" s="74"/>
-      <c r="D341" s="77" t="s">
+      <c r="A341" s="28"/>
+      <c r="B341" s="28"/>
+      <c r="C341" s="76"/>
+      <c r="D341" s="79" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="26"/>
-      <c r="B342" s="26"/>
-      <c r="C342" s="74"/>
-      <c r="D342" s="77" t="s">
+      <c r="A342" s="28"/>
+      <c r="B342" s="28"/>
+      <c r="C342" s="76"/>
+      <c r="D342" s="79" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="26"/>
-      <c r="B343" s="26"/>
-      <c r="C343" s="74"/>
-      <c r="D343" s="77" t="s">
+      <c r="A343" s="28"/>
+      <c r="B343" s="28"/>
+      <c r="C343" s="76"/>
+      <c r="D343" s="79" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="26"/>
-      <c r="B344" s="26"/>
-      <c r="C344" s="74"/>
-      <c r="D344" s="77" t="s">
+      <c r="A344" s="28"/>
+      <c r="B344" s="28"/>
+      <c r="C344" s="76"/>
+      <c r="D344" s="79" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="26"/>
-      <c r="B345" s="26"/>
-      <c r="C345" s="74"/>
-      <c r="D345" s="77" t="s">
+      <c r="A345" s="28"/>
+      <c r="B345" s="28"/>
+      <c r="C345" s="76"/>
+      <c r="D345" s="79" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="26"/>
-      <c r="B346" s="26"/>
-      <c r="C346" s="74"/>
-      <c r="D346" s="77" t="s">
+      <c r="A346" s="28"/>
+      <c r="B346" s="28"/>
+      <c r="C346" s="76"/>
+      <c r="D346" s="79" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="26"/>
-      <c r="B347" s="26"/>
-      <c r="C347" s="74"/>
-      <c r="D347" s="77" t="s">
+      <c r="A347" s="28"/>
+      <c r="B347" s="28"/>
+      <c r="C347" s="76"/>
+      <c r="D347" s="79" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="26"/>
-      <c r="B348" s="26"/>
-      <c r="C348" s="70" t="s">
+      <c r="A348" s="28"/>
+      <c r="B348" s="28"/>
+      <c r="C348" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="D348" s="77" t="s">
+      <c r="D348" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="26"/>
-      <c r="B349" s="26"/>
-      <c r="C349" s="70" t="s">
+      <c r="A349" s="28"/>
+      <c r="B349" s="28"/>
+      <c r="C349" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="D349" s="77" t="s">
+      <c r="D349" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="26"/>
-      <c r="B350" s="26"/>
-      <c r="C350" s="70" t="s">
+      <c r="A350" s="28"/>
+      <c r="B350" s="28"/>
+      <c r="C350" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="D350" s="77" t="s">
+      <c r="D350" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="26"/>
-      <c r="B351" s="26"/>
-      <c r="C351" s="70" t="s">
+      <c r="A351" s="28"/>
+      <c r="B351" s="28"/>
+      <c r="C351" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="D351" s="77" t="s">
+      <c r="D351" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="26"/>
-      <c r="B352" s="26"/>
-      <c r="C352" s="45" t="s">
+      <c r="A352" s="28"/>
+      <c r="B352" s="28"/>
+      <c r="C352" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D352" s="28"/>
+      <c r="D352" s="30"/>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="26"/>
-      <c r="B353" s="26"/>
-      <c r="C353" s="95" t="s">
+      <c r="A353" s="28"/>
+      <c r="B353" s="28"/>
+      <c r="C353" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D353" s="87"/>
+      <c r="D353" s="89"/>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="19"/>
-      <c r="B354" s="19"/>
-      <c r="C354" s="67"/>
-      <c r="D354" s="21"/>
+      <c r="A354" s="21"/>
+      <c r="B354" s="21"/>
+      <c r="C354" s="69"/>
+      <c r="D354" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -6220,12 +6596,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6869,20 +7245,1087 @@
         <v>395</v>
       </c>
     </row>
-    <row r="78" ht="9" customHeight="1" spans="2:4">
+    <row r="78" ht="9" customHeight="1" spans="1:4">
+      <c r="A78" s="4"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
     </row>
+    <row r="79" ht="24.75" spans="1:4">
+      <c r="A79" s="4"/>
+      <c r="B79" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" spans="1:4">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="15"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="D101" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="102" ht="10" customHeight="1" spans="1:4">
+      <c r="A102" s="4"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" ht="24.75" spans="2:4">
+      <c r="B103" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" spans="1:4">
+      <c r="A122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="15"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" spans="1:4">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="147" ht="9" customHeight="1" spans="1:4">
+      <c r="A147" s="4"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+    </row>
+    <row r="148" ht="24.75" spans="1:4">
+      <c r="A148" s="4"/>
+      <c r="B148" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4"/>
+      <c r="B149" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="4"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="4"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" spans="1:4">
+      <c r="A158" s="4"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="15"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4"/>
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="4"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="4"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="4"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="4"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="4"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="4"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="4"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="4"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="4"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="178" ht="18" spans="1:4">
+      <c r="A178" s="4"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+    </row>
+    <row r="179" ht="24.75" spans="1:4">
+      <c r="A179" s="4"/>
+      <c r="B179" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="4"/>
+      <c r="B180" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="4"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="4"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="4"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="4"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="4"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="4"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="4"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="4"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="4"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="4"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="4"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="4"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" spans="1:3">
+      <c r="A197" s="4"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="12"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="4"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="4"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="4"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="4"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="4"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="4"/>
+      <c r="B203" s="17"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="4"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="4"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="4"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="4"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="4"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="4"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="210" ht="10" customHeight="1" spans="1:4">
+      <c r="A210" s="4"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="36">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B179:D179"/>
     <mergeCell ref="A3:A19"/>
-    <mergeCell ref="A20:A77"/>
+    <mergeCell ref="A20:A102"/>
+    <mergeCell ref="A104:A210"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="B20:B34"/>
     <mergeCell ref="B37:B77"/>
+    <mergeCell ref="B80:B101"/>
+    <mergeCell ref="B104:B146"/>
+    <mergeCell ref="B149:B177"/>
+    <mergeCell ref="B180:B209"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C20:C26"/>
@@ -6892,6 +8335,17 @@
     <mergeCell ref="C51:C59"/>
     <mergeCell ref="C61:C68"/>
     <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C80:C89"/>
+    <mergeCell ref="C91:C100"/>
+    <mergeCell ref="C104:C121"/>
+    <mergeCell ref="C123:C138"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="C149:C157"/>
+    <mergeCell ref="C159:C166"/>
+    <mergeCell ref="C168:C177"/>
+    <mergeCell ref="C180:C196"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="C204:C209"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -1766,9 +1766,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="34">
@@ -1866,24 +1866,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1896,19 +1911,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1919,9 +1948,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1942,14 +1971,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1957,16 +1978,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1981,39 +2010,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -2073,7 +2073,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,19 +2103,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2109,91 +2193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2217,7 +2217,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2229,31 +2247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2297,78 +2297,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2394,18 +2322,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2415,131 +2415,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3140,8 +3140,8 @@
   <sheetPr/>
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6599,7 +6599,7 @@
   <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E$1:F$1048576"/>
     </sheetView>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="546">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -1760,16 +1760,109 @@
   <si>
     <t>6. Module Summary: Packages and Classes</t>
   </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>21. What Is Object Orientation?</t>
+  </si>
+  <si>
+    <t>1. Overview</t>
+  </si>
+  <si>
+    <t>2. What is Object Orientation?</t>
+  </si>
+  <si>
+    <t>3. From Use Cases to Conceptual Classes</t>
+  </si>
+  <si>
+    <t>4. Class Relations</t>
+  </si>
+  <si>
+    <t>5. Deriving Software Classes, Part 1</t>
+  </si>
+  <si>
+    <t>6. Deriving Software Classes, Part 2</t>
+  </si>
+  <si>
+    <t>7. Assisted Practice: Instance and Static Methods</t>
+  </si>
+  <si>
+    <t>8. Module Wrap Up</t>
+  </si>
+  <si>
+    <t>22. Principles of Object Oriented Programming</t>
+  </si>
+  <si>
+    <t>2. Agenda of the Course</t>
+  </si>
+  <si>
+    <t>3. The Four Principles of Object Oriented Programming</t>
+  </si>
+  <si>
+    <t>4. Abstracting Concrete Ideas to Create Classes and Objects</t>
+  </si>
+  <si>
+    <t>5. Encapsulating Data to Control the State of Your Object</t>
+  </si>
+  <si>
+    <t>6. Assisted Practice: Using Encapsulation to Validate the State of an Object</t>
+  </si>
+  <si>
+    <t>7. Module Wrap Up</t>
+  </si>
+  <si>
+    <t>23. Method Overloading &amp; Overriding</t>
+  </si>
+  <si>
+    <t>1. Method Overloading</t>
+  </si>
+  <si>
+    <t>2. Method Overriding</t>
+  </si>
+  <si>
+    <t>3. Final Methods</t>
+  </si>
+  <si>
+    <t>4. Abstract Methods</t>
+  </si>
+  <si>
+    <t>5. Assisted Practice: Implementing Method Overloading</t>
+  </si>
+  <si>
+    <t>6. Multiple Inheritance in Java</t>
+  </si>
+  <si>
+    <t>7. What is Inheritance?</t>
+  </si>
+  <si>
+    <t>8. Simple Example of Inheritance</t>
+  </si>
+  <si>
+    <t>9. What is meant by Multiple Inheritance?</t>
+  </si>
+  <si>
+    <t>10. Example of  Multiple Inheritance</t>
+  </si>
+  <si>
+    <t>11. What is Diamond Problem?</t>
+  </si>
+  <si>
+    <t>12. Multiple Inheritance using Interfaces</t>
+  </si>
+  <si>
+    <t>13. Recap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1867,9 +1960,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1881,24 +1989,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1919,13 +2018,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1934,52 +2026,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1995,7 +2051,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2004,6 +2060,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2073,31 +2166,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2115,7 +2196,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,79 +2322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2211,49 +2340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2312,17 +2405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2362,15 +2444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2388,6 +2461,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2397,15 +2490,15 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2415,131 +2508,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6596,12 +6689,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:F$1048576"/>
+      <selection pane="bottomLeft" activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -8308,17 +8401,276 @@
       <c r="C210" s="14"/>
       <c r="D210" s="14"/>
     </row>
+    <row r="211" ht="24.75" spans="1:4">
+      <c r="A211" s="4"/>
+      <c r="B211" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="4"/>
+      <c r="B212" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="4"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="4"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="4"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="4"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="4"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="4"/>
+      <c r="B218" s="17"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="4"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="220" ht="24.75" spans="1:4">
+      <c r="A220" s="4"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="4"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="4"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="4"/>
+      <c r="B223" s="17"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="4"/>
+      <c r="B224" s="17"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="4"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="4"/>
+      <c r="B226" s="17"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="4"/>
+      <c r="B227" s="17"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" spans="1:4">
+      <c r="A228" s="4"/>
+      <c r="B228" s="17"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="9"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="4"/>
+      <c r="B229" s="17"/>
+      <c r="C229" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="4"/>
+      <c r="B230" s="17"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="4"/>
+      <c r="B231" s="17"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="4"/>
+      <c r="B232" s="17"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="4"/>
+      <c r="B233" s="17"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="4"/>
+      <c r="B234" s="17"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="4"/>
+      <c r="B235" s="17"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="4"/>
+      <c r="B236" s="17"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="4"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="4"/>
+      <c r="B238" s="17"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="4"/>
+      <c r="B239" s="17"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="4"/>
+      <c r="B240" s="17"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="4"/>
+      <c r="B241" s="17"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="242" ht="8" customHeight="1" spans="1:4">
+      <c r="A242" s="4"/>
+      <c r="B242" s="16"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="41">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="B103:D103"/>
     <mergeCell ref="B148:D148"/>
     <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B211:D211"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="A20:A102"/>
-    <mergeCell ref="A104:A210"/>
+    <mergeCell ref="A104:A242"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="B20:B34"/>
     <mergeCell ref="B37:B77"/>
@@ -8326,6 +8678,7 @@
     <mergeCell ref="B104:B146"/>
     <mergeCell ref="B149:B177"/>
     <mergeCell ref="B180:B209"/>
+    <mergeCell ref="B212:B241"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C20:C26"/>
@@ -8346,6 +8699,9 @@
     <mergeCell ref="C180:C196"/>
     <mergeCell ref="C198:C202"/>
     <mergeCell ref="C204:C209"/>
+    <mergeCell ref="C212:C219"/>
+    <mergeCell ref="C221:C227"/>
+    <mergeCell ref="C229:C241"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -595,8 +595,7 @@
     <t>Spring Containers</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Containers and its uses</t>
+    <t>Containers and its uses</t>
   </si>
   <si>
     <t>Default and Custom Event Handling</t>
@@ -1859,10 +1858,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1959,6 +1958,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1966,8 +1988,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1981,21 +2027,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2010,64 +2072,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2088,25 +2102,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -2166,7 +2165,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2178,13 +2189,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,13 +2261,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2214,67 +2333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2286,67 +2345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,16 +2390,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2444,17 +2443,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2469,36 +2486,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2508,131 +2507,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3233,8 +3232,8 @@
   <sheetPr/>
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6691,8 +6690,8 @@
   <sheetPr/>
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D246" sqref="D246"/>
     </sheetView>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="708">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -1852,18 +1852,504 @@
   <si>
     <t>13. Recap</t>
   </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>24. Introduction to Data Structures</t>
+  </si>
+  <si>
+    <t>Course Overview</t>
+  </si>
+  <si>
+    <t>2. Data Structure Line Up</t>
+  </si>
+  <si>
+    <t>3. What Are Data Structures?</t>
+  </si>
+  <si>
+    <t>4. Data Structure Characteristics</t>
+  </si>
+  <si>
+    <t>5. Summary</t>
+  </si>
+  <si>
+    <t>10. Random Access File class</t>
+  </si>
+  <si>
+    <t>11. Class Declaration</t>
+  </si>
+  <si>
+    <t>12. RandomAccessFile Methods in Java</t>
+  </si>
+  <si>
+    <t>13. Assisted Practice: Creating and Using a Random Access File object</t>
+  </si>
+  <si>
+    <t>14. Java.io.Console class</t>
+  </si>
+  <si>
+    <t>15. Java.io.Console methods</t>
+  </si>
+  <si>
+    <t>16. Assisted Practice: ConsoleAssisted Practice.java</t>
+  </si>
+  <si>
+    <t>25. Storing and Accessing Data</t>
+  </si>
+  <si>
+    <t>1.Introduction</t>
+  </si>
+  <si>
+    <t>2. Why Arrays?</t>
+  </si>
+  <si>
+    <t>3. Properties of Arrays</t>
+  </si>
+  <si>
+    <t>4. Array Syntax</t>
+  </si>
+  <si>
+    <t>5. Array Rotation Problem Statement</t>
+  </si>
+  <si>
+    <t>Problem Statement</t>
+  </si>
+  <si>
+    <t>Types of Array Rotation in Java</t>
+  </si>
+  <si>
+    <t>Left Array Rotation</t>
+  </si>
+  <si>
+    <t>Right Array Rotation</t>
+  </si>
+  <si>
+    <t>6. Assisted Practice: Array Rotation</t>
+  </si>
+  <si>
+    <t>7.  Order Statistics</t>
+  </si>
+  <si>
+    <t>8.  Assisted Practice: Order Statistics - K’th smallest element in an unsorted array using sorting</t>
+  </si>
+  <si>
+    <t>9.  Assisted Practice: Range Queries</t>
+  </si>
+  <si>
+    <t>10. Assisted Practice: Multidimensional Arrays</t>
+  </si>
+  <si>
+    <t>26. Linked Lists</t>
+  </si>
+  <si>
+    <t>2. Introducing Linked Lists</t>
+  </si>
+  <si>
+    <t>3. Nodes and Node Chaining</t>
+  </si>
+  <si>
+    <t>4. Singly and Doubly Linked Lists</t>
+  </si>
+  <si>
+    <t>5. Adding Items to Linked Lists</t>
+  </si>
+  <si>
+    <t>6. Finding Items</t>
+  </si>
+  <si>
+    <t>7. Removing Items</t>
+  </si>
+  <si>
+    <t>8. Linked List Enumeration</t>
+  </si>
+  <si>
+    <t>9. Sorted Lists</t>
+  </si>
+  <si>
+    <t>10. Assisted Practice : Singly Linked List Implementation in Java</t>
+  </si>
+  <si>
+    <t>Create Node</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>11. Assisted Practice : Doubly Linked List Implementation in Java</t>
+  </si>
+  <si>
+    <t>12. Assisted Practice : Circular Linked List Implementation in Java</t>
+  </si>
+  <si>
+    <t>Implementation in Java</t>
+  </si>
+  <si>
+    <t>Inserting Elements</t>
+  </si>
+  <si>
+    <t>Finding an Element</t>
+  </si>
+  <si>
+    <t>Deleting an Element</t>
+  </si>
+  <si>
+    <t>Traversing the List</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>13. Summary</t>
+  </si>
+  <si>
+    <t>27. Stacks and Queues</t>
+  </si>
+  <si>
+    <t>1. Module Introduction</t>
+  </si>
+  <si>
+    <t>2. Stacks</t>
+  </si>
+  <si>
+    <t>3. Queues</t>
+  </si>
+  <si>
+    <t>4. Doubly Ended Queue</t>
+  </si>
+  <si>
+    <t>5. Top and Its Value</t>
+  </si>
+  <si>
+    <t>6. Applications of Stack in Data Structure:</t>
+  </si>
+  <si>
+    <t>7. Assisted Practice:  Operations performed on a Stack</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Create a Stack</t>
+  </si>
+  <si>
+    <t>Synchronization for Stack</t>
+  </si>
+  <si>
+    <t>Add into a Stack</t>
+  </si>
+  <si>
+    <t>Retrieve from a Stack</t>
+  </si>
+  <si>
+    <t>Search for an Element in a Stack</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Getting Index of Element</t>
+  </si>
+  <si>
+    <t>Remove Elements from a Stack</t>
+  </si>
+  <si>
+    <t>Removing Specified Elements</t>
+  </si>
+  <si>
+    <t>Removing Multiple Elements</t>
+  </si>
+  <si>
+    <t>Removing Elements Using Filter</t>
+  </si>
+  <si>
+    <t>Iterate Over a Stack</t>
+  </si>
+  <si>
+    <t>Stream API for the Java Stack</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>8. Applications of Queue in Data Structure:</t>
+  </si>
+  <si>
+    <t>9. Assisted Practice:  Operations performed on a Queue</t>
+  </si>
+  <si>
+    <t>2. Visualizing the Queue</t>
+  </si>
+  <si>
+    <t>3. Core Methods</t>
+  </si>
+  <si>
+    <t>4. AbstractQueue</t>
+  </si>
+  <si>
+    <t>Sub-interfaces</t>
+  </si>
+  <si>
+    <t>Blocking Queues</t>
+  </si>
+  <si>
+    <t>Transfer Queues</t>
+  </si>
+  <si>
+    <t>Deques</t>
+  </si>
+  <si>
+    <t>Priority Queues</t>
+  </si>
+  <si>
+    <t>Thread Safety</t>
+  </si>
+  <si>
+    <t>10. Introduction to the Java ArrayDeque</t>
+  </si>
+  <si>
+    <t>The API at a Glance</t>
+  </si>
+  <si>
+    <t>Using Methods</t>
+  </si>
+  <si>
+    <t>Using ArrayDeque as a Stack</t>
+  </si>
+  <si>
+    <t>Using ArrayDeque as a Queue</t>
+  </si>
+  <si>
+    <t>How's ArrayDeque Implemented</t>
+  </si>
+  <si>
+    <t>ArrayDeque as Stack</t>
+  </si>
+  <si>
+    <t>ArrayDeque as Queue</t>
+  </si>
+  <si>
+    <t>Notes on ArrayDeque</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>Lesson 5</t>
+  </si>
+  <si>
+    <t>28. Sorting and Searching Array Data</t>
+  </si>
+  <si>
+    <t>2. Sorting and How We Measure It</t>
+  </si>
+  <si>
+    <t>3. Bubble Sort</t>
+  </si>
+  <si>
+    <t>4. Assisted Practice: Bubble Sort Algorithm</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Complexity and Optimization</t>
+  </si>
+  <si>
+    <t>5. Insertion Sort</t>
+  </si>
+  <si>
+    <t>6. Assisted Practice: Insertion Sort Algorithm</t>
+  </si>
+  <si>
+    <t>2. Pseudocode</t>
+  </si>
+  <si>
+    <t>3. Imperative Implementation</t>
+  </si>
+  <si>
+    <t>4. Recursive Implementation</t>
+  </si>
+  <si>
+    <t>5. Time and Space Complexity</t>
+  </si>
+  <si>
+    <t>6. Conclusion</t>
+  </si>
+  <si>
+    <t>7. Merge Sort</t>
+  </si>
+  <si>
+    <t>8. Assisted Practice: Merge Sort Algorithm</t>
+  </si>
+  <si>
+    <t>2. The Algorithm</t>
+  </si>
+  <si>
+    <t>3. Implementation</t>
+  </si>
+  <si>
+    <t>4. Complexity</t>
+  </si>
+  <si>
+    <t>5. Conclusion</t>
+  </si>
+  <si>
+    <t>9. Quicksort</t>
+  </si>
+  <si>
+    <t>10. Assisted Practice: Quicksort Algorithm</t>
+  </si>
+  <si>
+    <t>2. QuickSort Algorithm</t>
+  </si>
+  <si>
+    <t>2.1. Algorithm Steps</t>
+  </si>
+  <si>
+    <t>2.2. Choosing the Optimal Pivot</t>
+  </si>
+  <si>
+    <t>3. Implementation in Java</t>
+  </si>
+  <si>
+    <t>4. Algorithm Analysis</t>
+  </si>
+  <si>
+    <t>4.1. Time Complexity</t>
+  </si>
+  <si>
+    <t>4.2. QuickSort vs MergeSort</t>
+  </si>
+  <si>
+    <t>11. Selection Sort</t>
+  </si>
+  <si>
+    <t>12. Assisted Practice: Selection Sort Algorithm</t>
+  </si>
+  <si>
+    <t>2. Algorithm Overview</t>
+  </si>
+  <si>
+    <t>2.1. An Example</t>
+  </si>
+  <si>
+    <t>3. Implementation</t>
+  </si>
+  <si>
+    <t>4. Performance Overview</t>
+  </si>
+  <si>
+    <t>4.1. Time</t>
+  </si>
+  <si>
+    <t>4.2. Space</t>
+  </si>
+  <si>
+    <t>13. Linear Search</t>
+  </si>
+  <si>
+    <t>14. Assisted Practice: Linear Search algorithm</t>
+  </si>
+  <si>
+    <t>15. Binary Search</t>
+  </si>
+  <si>
+    <t>16. Assisted Practice: Binary Search Algorithm</t>
+  </si>
+  <si>
+    <t>2. Need for Efficient Search</t>
+  </si>
+  <si>
+    <t>3. Binary Search</t>
+  </si>
+  <si>
+    <t>3.1. Iterative Implementation</t>
+  </si>
+  <si>
+    <t>3.2. Recursive Implementation</t>
+  </si>
+  <si>
+    <t>3.3. Using Arrays.binarySearch()</t>
+  </si>
+  <si>
+    <t>3.4. Using Collections.binarySearch()</t>
+  </si>
+  <si>
+    <t>3.5. Performance</t>
+  </si>
+  <si>
+    <t>4. Conclusion</t>
+  </si>
+  <si>
+    <t>17. Exponential Search</t>
+  </si>
+  <si>
+    <t>Understanding Exponential Search</t>
+  </si>
+  <si>
+    <t>Consider a sorted Array</t>
+  </si>
+  <si>
+    <t>18. Exponential Search Algorithm</t>
+  </si>
+  <si>
+    <t>19. Performance</t>
+  </si>
+  <si>
+    <t>20. Assisted Practice: Exponential Search Algorithm</t>
+  </si>
+  <si>
+    <t>21. Graphs</t>
+  </si>
+  <si>
+    <t>22. Minimum Spanning Tree</t>
+  </si>
+  <si>
+    <t>Prim's Algorithm</t>
+  </si>
+  <si>
+    <t>23. Assisted Practice: Minimum Spanning Tree</t>
+  </si>
+  <si>
+    <t>24. Index Mapping (or Trivial Hashing)</t>
+  </si>
+  <si>
+    <t>29. Analysis of Algorithms</t>
+  </si>
+  <si>
+    <t>1. Analysis of Algorithms</t>
+  </si>
+  <si>
+    <t>2. Big-O Notation</t>
+  </si>
+  <si>
+    <t>3. Big-O Examples</t>
+  </si>
+  <si>
+    <t>4. Big-O Summary</t>
+  </si>
+  <si>
+    <t>5. Big Omega</t>
+  </si>
+  <si>
+    <t>6. Big Theta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1935,6 +2421,13 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF738F93"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -1958,17 +2451,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1981,6 +2465,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1988,9 +2480,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2013,6 +2521,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2024,6 +2539,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2045,9 +2568,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2059,44 +2582,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2165,7 +2658,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2177,19 +2736,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2201,13 +2760,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,55 +2796,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2279,31 +2826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2315,37 +2838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2390,16 +2883,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2429,25 +2942,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2475,29 +2979,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2507,135 +3000,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2684,210 +3177,239 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2895,19 +3417,7 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3232,8 +3742,8 @@
   <sheetPr/>
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3245,3388 +3755,3388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" ht="25.5" spans="1:4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:4">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="26" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" ht="38.25" spans="1:4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="26" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:4">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="26" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="63.75" spans="1:4">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="26" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:4">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="26" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="26" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" spans="1:4">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="33" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="33" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="33" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="33" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:4">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="33" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="33" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="31" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="29"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" ht="76.5" spans="1:4">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="33" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="33" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="34" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="33" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="76.5" spans="1:4">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="33" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="33" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="33" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="33" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:4">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="33" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="33" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="76.5" spans="1:4">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="33" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="33" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="33" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="30"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="36" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="36"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="36" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="29" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="29" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="29" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="29" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="29" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" ht="51" spans="1:4">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="29" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="29" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" ht="38.25" spans="1:4">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="29" t="s">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="29" t="s">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="29" t="s">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="30"/>
+      <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="31" t="s">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="32"/>
+      <c r="D68" s="39"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="29"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="29" t="s">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="36" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="29" t="s">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="29" t="s">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="29" t="s">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="29" t="s">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="29" t="s">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="29" t="s">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="36" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="29" t="s">
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="29" t="s">
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="29" t="s">
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="29" t="s">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29" t="s">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="29" t="s">
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="36" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="29" t="s">
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="29" t="s">
+      <c r="A85" s="35"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="29" t="s">
+      <c r="A86" s="35"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" spans="1:4">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="29" t="s">
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="D87" s="36" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="88" ht="51" spans="1:4">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="29" t="s">
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="36" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="29" t="s">
+      <c r="A89" s="35"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="30"/>
+      <c r="D89" s="37"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="31" t="s">
+      <c r="A90" s="35"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="32"/>
+      <c r="D90" s="39"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="23"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="39"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="46"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="D93" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="44" t="s">
+      <c r="C94" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="45"/>
+      <c r="D94" s="52"/>
     </row>
     <row r="95" ht="76.5" spans="1:4">
-      <c r="A95" s="46"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="44" t="s">
+      <c r="A95" s="53"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D95" s="45" t="s">
+      <c r="D95" s="52" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="46"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="44" t="s">
+      <c r="A96" s="53"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="45" t="s">
+      <c r="D96" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" ht="51" spans="1:4">
-      <c r="A97" s="46"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="44" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D97" s="45" t="s">
+      <c r="D97" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="98" ht="38.25" spans="1:4">
-      <c r="A98" s="46"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="44" t="s">
+      <c r="A98" s="53"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D98" s="45" t="s">
+      <c r="D98" s="52" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="46"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="44" t="s">
+      <c r="A99" s="53"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D99" s="45" t="s">
+      <c r="D99" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" ht="51" spans="1:4">
-      <c r="A100" s="46"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="44" t="s">
+      <c r="A100" s="53"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="45" t="s">
+      <c r="D100" s="52" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="44" t="s">
+      <c r="A101" s="53"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="45" t="s">
+      <c r="D101" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" ht="51" spans="1:4">
-      <c r="A102" s="46"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="44" t="s">
+      <c r="A102" s="53"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="45" t="s">
+      <c r="D102" s="52" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="46"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="44" t="s">
+      <c r="A103" s="53"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104" ht="38.25" spans="1:4">
-      <c r="A104" s="46"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="44" t="s">
+      <c r="A104" s="53"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D104" s="45" t="s">
+      <c r="D104" s="52" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="46"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="44" t="s">
+      <c r="A105" s="53"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D105" s="45" t="s">
+      <c r="D105" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" ht="25.5" spans="1:4">
-      <c r="A106" s="46"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="44" t="s">
+      <c r="A106" s="53"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="45" t="s">
+      <c r="D106" s="52" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="46"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="44" t="s">
+      <c r="A107" s="53"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="45" t="s">
+      <c r="D107" s="52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="46"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="47" t="s">
+      <c r="A108" s="53"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="45" t="s">
+      <c r="D108" s="52" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="46"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="47" t="s">
+      <c r="A109" s="53"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="45" t="s">
+      <c r="D109" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="46"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="47" t="s">
+      <c r="A110" s="53"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="45" t="s">
+      <c r="D110" s="52" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="46"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="47" t="s">
+      <c r="A111" s="53"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D111" s="45" t="s">
+      <c r="D111" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="47" t="s">
+      <c r="A112" s="53"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="45" t="s">
+      <c r="D112" s="52" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="46"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="47" t="s">
+      <c r="A113" s="53"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D113" s="45" t="s">
+      <c r="D113" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="46"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="44" t="s">
+      <c r="A114" s="53"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="45" t="s">
+      <c r="D114" s="52" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="46"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="44" t="s">
+      <c r="A115" s="53"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D115" s="45" t="s">
+      <c r="D115" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="46"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="44" t="s">
+      <c r="A116" s="53"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="48"/>
+      <c r="D116" s="55"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="46"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="49" t="s">
+      <c r="A117" s="53"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="50"/>
+      <c r="D117" s="57"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="21"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="23"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="30"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="44" t="s">
+      <c r="C119" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="51"/>
+      <c r="D119" s="58"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="28"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="44" t="s">
+      <c r="A120" s="35"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D120" s="51" t="s">
+      <c r="D120" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="28"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="44" t="s">
+      <c r="A121" s="35"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D121" s="51" t="s">
+      <c r="D121" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="28"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="44" t="s">
+      <c r="A122" s="35"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D122" s="51" t="s">
+      <c r="D122" s="58" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="123" ht="38.25" spans="1:4">
-      <c r="A123" s="28"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="44" t="s">
+      <c r="A123" s="35"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D123" s="52" t="s">
+      <c r="D123" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="28"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="44" t="s">
+      <c r="A124" s="35"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D124" s="51" t="s">
+      <c r="D124" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" ht="25.5" spans="1:4">
-      <c r="A125" s="28"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="44" t="s">
+      <c r="A125" s="35"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D125" s="52" t="s">
+      <c r="D125" s="59" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="28"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="44" t="s">
+      <c r="A126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="51" t="s">
+      <c r="D126" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" ht="38.25" spans="1:4">
-      <c r="A127" s="28"/>
-      <c r="B127" s="28"/>
-      <c r="C127" s="44" t="s">
+      <c r="A127" s="35"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D127" s="52" t="s">
+      <c r="D127" s="59" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="28"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="44" t="s">
+      <c r="A128" s="35"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D128" s="51" t="s">
+      <c r="D128" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="28"/>
-      <c r="B129" s="28"/>
-      <c r="C129" s="44" t="s">
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="58" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="130" ht="38.25" spans="1:4">
-      <c r="A130" s="28"/>
-      <c r="B130" s="28"/>
-      <c r="C130" s="44" t="s">
+      <c r="A130" s="35"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D130" s="52" t="s">
+      <c r="D130" s="59" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="28"/>
-      <c r="B131" s="28"/>
-      <c r="C131" s="44" t="s">
+      <c r="A131" s="35"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="51" t="s">
+      <c r="D131" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="28"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="44" t="s">
+      <c r="A132" s="35"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D132" s="48"/>
+      <c r="D132" s="55"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="53" t="s">
+      <c r="A133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="54"/>
+      <c r="D133" s="61"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="21"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="23"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="30"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="42" t="s">
+      <c r="A135" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B135" s="55" t="s">
+      <c r="B135" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C135" s="44" t="s">
+      <c r="C135" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="48"/>
+      <c r="D135" s="55"/>
     </row>
     <row r="136" ht="76.5" spans="1:4">
-      <c r="A136" s="46"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="44" t="s">
+      <c r="A136" s="53"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D136" s="45" t="s">
+      <c r="D136" s="52" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="46"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="44" t="s">
+      <c r="A137" s="53"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D137" s="45" t="s">
+      <c r="D137" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="46"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="44" t="s">
+      <c r="A138" s="53"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D138" s="45" t="s">
+      <c r="D138" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="46"/>
-      <c r="B139" s="46"/>
-      <c r="C139" s="44" t="s">
+      <c r="A139" s="53"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="D139" s="45" t="s">
+      <c r="D139" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" ht="25.5" spans="1:4">
-      <c r="A140" s="46"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="44" t="s">
+      <c r="A140" s="53"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="52" t="s">
+      <c r="D140" s="59" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="46"/>
-      <c r="B141" s="46"/>
-      <c r="C141" s="44" t="s">
+      <c r="A141" s="53"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D141" s="45" t="s">
+      <c r="D141" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="46"/>
-      <c r="B142" s="46"/>
-      <c r="C142" s="44" t="s">
+      <c r="A142" s="53"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="D142" s="45" t="s">
+      <c r="D142" s="52" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="143" ht="63.75" spans="1:4">
-      <c r="A143" s="46"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="47" t="s">
+      <c r="A143" s="53"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="45" t="s">
+      <c r="D143" s="52" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="46"/>
-      <c r="B144" s="46"/>
-      <c r="C144" s="47" t="s">
+      <c r="A144" s="53"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D144" s="45" t="s">
+      <c r="D144" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" ht="51" spans="1:4">
-      <c r="A145" s="46"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="44" t="s">
+      <c r="A145" s="53"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="52" t="s">
+      <c r="D145" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="146" ht="51" spans="1:4">
-      <c r="A146" s="46"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="44" t="s">
+      <c r="A146" s="53"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="D146" s="52" t="s">
+      <c r="D146" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="46"/>
-      <c r="B147" s="46"/>
-      <c r="C147" s="44" t="s">
+      <c r="A147" s="53"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D147" s="45" t="s">
+      <c r="D147" s="52" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="46"/>
-      <c r="B148" s="46"/>
-      <c r="C148" s="44" t="s">
+      <c r="A148" s="53"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D148" s="52" t="s">
+      <c r="D148" s="59" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="46"/>
-      <c r="B149" s="46"/>
-      <c r="C149" s="44" t="s">
+      <c r="A149" s="53"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D149" s="45" t="s">
+      <c r="D149" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="46"/>
-      <c r="B150" s="46"/>
-      <c r="C150" s="44" t="s">
+      <c r="A150" s="53"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D150" s="52" t="s">
+      <c r="D150" s="59" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="46"/>
-      <c r="B151" s="46"/>
-      <c r="C151" s="44" t="s">
+      <c r="A151" s="53"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D151" s="45" t="s">
+      <c r="D151" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="46"/>
-      <c r="B152" s="46"/>
-      <c r="C152" s="56" t="s">
+      <c r="A152" s="53"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D152" s="57" t="s">
+      <c r="D152" s="64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="46"/>
-      <c r="B153" s="46"/>
-      <c r="C153" s="56" t="s">
+      <c r="A153" s="53"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D153" s="58" t="s">
+      <c r="D153" s="65" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="46"/>
-      <c r="B154" s="46"/>
-      <c r="C154" s="44" t="s">
+      <c r="A154" s="53"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="48"/>
+      <c r="D154" s="55"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="46"/>
-      <c r="B155" s="46"/>
-      <c r="C155" s="49" t="s">
+      <c r="A155" s="53"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="50"/>
+      <c r="D155" s="57"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="21"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="23"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="30"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="42" t="s">
+      <c r="A157" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B157" s="55" t="s">
+      <c r="B157" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="C157" s="44" t="s">
+      <c r="C157" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="48"/>
+      <c r="D157" s="55"/>
     </row>
     <row r="158" ht="38.25" spans="1:4">
-      <c r="A158" s="46"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="44" t="s">
+      <c r="A158" s="53"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D158" s="45" t="s">
+      <c r="D158" s="52" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="46"/>
-      <c r="B159" s="46"/>
-      <c r="C159" s="44" t="s">
+      <c r="A159" s="53"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="D159" s="45" t="s">
+      <c r="D159" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="160" ht="51" spans="1:4">
-      <c r="A160" s="46"/>
-      <c r="B160" s="46"/>
-      <c r="C160" s="44" t="s">
+      <c r="A160" s="53"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D160" s="45" t="s">
+      <c r="D160" s="52" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="161" ht="114.75" spans="1:4">
-      <c r="A161" s="46"/>
-      <c r="B161" s="46"/>
-      <c r="C161" s="44" t="s">
+      <c r="A161" s="53"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D161" s="45" t="s">
+      <c r="D161" s="52" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="46"/>
-      <c r="B162" s="46"/>
-      <c r="C162" s="44" t="s">
+      <c r="A162" s="53"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D162" s="45" t="s">
+      <c r="D162" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" ht="76.5" spans="1:4">
-      <c r="A163" s="46"/>
-      <c r="B163" s="46"/>
-      <c r="C163" s="44" t="s">
+      <c r="A163" s="53"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D163" s="45" t="s">
+      <c r="D163" s="52" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="46"/>
-      <c r="B164" s="46"/>
-      <c r="C164" s="44" t="s">
+      <c r="A164" s="53"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="D164" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="165" ht="140.25" spans="1:4">
-      <c r="A165" s="46"/>
-      <c r="B165" s="46"/>
-      <c r="C165" s="44" t="s">
+      <c r="A165" s="53"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D165" s="45" t="s">
+      <c r="D165" s="52" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="46"/>
-      <c r="B166" s="46"/>
-      <c r="C166" s="44" t="s">
+      <c r="A166" s="53"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D166" s="45" t="s">
+      <c r="D166" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="167" ht="25.5" spans="1:4">
-      <c r="A167" s="46"/>
-      <c r="B167" s="46"/>
-      <c r="C167" s="44" t="s">
+      <c r="A167" s="53"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="D167" s="45" t="s">
+      <c r="D167" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="168" ht="38.25" spans="1:4">
-      <c r="A168" s="46"/>
-      <c r="B168" s="46"/>
-      <c r="C168" s="44" t="s">
+      <c r="A168" s="53"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D168" s="45" t="s">
+      <c r="D168" s="52" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="46"/>
-      <c r="B169" s="46"/>
-      <c r="C169" s="44" t="s">
+      <c r="A169" s="53"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D169" s="45" t="s">
+      <c r="D169" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="46"/>
-      <c r="B170" s="46"/>
-      <c r="C170" s="44" t="s">
+      <c r="A170" s="53"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D170" s="48"/>
+      <c r="D170" s="55"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="46"/>
-      <c r="B171" s="46"/>
-      <c r="C171" s="49" t="s">
+      <c r="A171" s="53"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D171" s="50"/>
+      <c r="D171" s="57"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="21"/>
-      <c r="B172" s="21"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="23"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="30"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="59"/>
-      <c r="B173" s="59"/>
-      <c r="C173" s="60" t="s">
+      <c r="A173" s="66"/>
+      <c r="B173" s="66"/>
+      <c r="C173" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D173" s="39"/>
+      <c r="D173" s="46"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B174" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C174" s="61" t="s">
+      <c r="C174" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="62" t="s">
+      <c r="D174" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="25" t="s">
+      <c r="A175" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="24" t="s">
+      <c r="B175" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C175" s="44" t="s">
+      <c r="C175" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D175" s="63"/>
+      <c r="D175" s="70"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="28"/>
-      <c r="B176" s="28"/>
-      <c r="C176" s="44" t="s">
+      <c r="A176" s="35"/>
+      <c r="B176" s="35"/>
+      <c r="C176" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="D176" s="63" t="s">
+      <c r="D176" s="70" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="28"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="44" t="s">
+      <c r="A177" s="35"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="D177" s="63" t="s">
+      <c r="D177" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="28"/>
-      <c r="B178" s="28"/>
-      <c r="C178" s="56" t="s">
+      <c r="A178" s="35"/>
+      <c r="B178" s="35"/>
+      <c r="C178" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="D178" s="64" t="s">
+      <c r="D178" s="71" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="179" ht="51" spans="1:4">
-      <c r="A179" s="28"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="56" t="s">
+      <c r="A179" s="35"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="D179" s="65" t="s">
+      <c r="D179" s="72" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="28"/>
-      <c r="B180" s="28"/>
-      <c r="C180" s="56" t="s">
+      <c r="A180" s="35"/>
+      <c r="B180" s="35"/>
+      <c r="C180" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="D180" s="64" t="s">
+      <c r="D180" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="181" ht="25.5" spans="1:4">
-      <c r="A181" s="28"/>
-      <c r="B181" s="28"/>
-      <c r="C181" s="44" t="s">
+      <c r="A181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D181" s="66" t="s">
+      <c r="D181" s="73" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="28"/>
-      <c r="B182" s="28"/>
-      <c r="C182" s="44" t="s">
+      <c r="A182" s="35"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D182" s="63" t="s">
+      <c r="D182" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" ht="25.5" spans="1:4">
-      <c r="A183" s="28"/>
-      <c r="B183" s="28"/>
-      <c r="C183" s="44" t="s">
+      <c r="A183" s="35"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="D183" s="66" t="s">
+      <c r="D183" s="73" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="28"/>
-      <c r="B184" s="28"/>
-      <c r="C184" s="44" t="s">
+      <c r="A184" s="35"/>
+      <c r="B184" s="35"/>
+      <c r="C184" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="67"/>
+      <c r="D184" s="74"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="28"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="53" t="s">
+      <c r="A185" s="35"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="68"/>
+      <c r="D185" s="75"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="21"/>
-      <c r="B186" s="21"/>
-      <c r="C186" s="69"/>
-      <c r="D186" s="40"/>
+      <c r="A186" s="28"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="76"/>
+      <c r="D186" s="47"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="25" t="s">
+      <c r="A187" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="24" t="s">
+      <c r="B187" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C187" s="44" t="s">
+      <c r="C187" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D187" s="63"/>
+      <c r="D187" s="70"/>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="28"/>
-      <c r="B188" s="28"/>
-      <c r="C188" s="56" t="s">
+      <c r="A188" s="35"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="D188" s="56" t="s">
+      <c r="D188" s="63" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="28"/>
-      <c r="B189" s="28"/>
-      <c r="C189" s="56" t="s">
+      <c r="A189" s="35"/>
+      <c r="B189" s="35"/>
+      <c r="C189" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="D189" s="56" t="s">
+      <c r="D189" s="63" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="28"/>
-      <c r="B190" s="28"/>
-      <c r="C190" s="56" t="s">
+      <c r="A190" s="35"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="D190" s="64" t="s">
+      <c r="D190" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="28"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="56" t="s">
+      <c r="A191" s="35"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="D191" s="56" t="s">
+      <c r="D191" s="63" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="28"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="56" t="s">
+      <c r="A192" s="35"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D192" s="56" t="s">
+      <c r="D192" s="63" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="28"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="56" t="s">
+      <c r="A193" s="35"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D193" s="64" t="s">
+      <c r="D193" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="28"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="56" t="s">
+      <c r="A194" s="35"/>
+      <c r="B194" s="35"/>
+      <c r="C194" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D194" s="56" t="s">
+      <c r="D194" s="63" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="28"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="56" t="s">
+      <c r="A195" s="35"/>
+      <c r="B195" s="35"/>
+      <c r="C195" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D195" s="64" t="s">
+      <c r="D195" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="28"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="56" t="s">
+      <c r="A196" s="35"/>
+      <c r="B196" s="35"/>
+      <c r="C196" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D196" s="64" t="s">
+      <c r="D196" s="71" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="28"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="56" t="s">
+      <c r="A197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D197" s="64" t="s">
+      <c r="D197" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" ht="25.5" spans="1:4">
-      <c r="A198" s="28"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="56" t="s">
+      <c r="A198" s="35"/>
+      <c r="B198" s="35"/>
+      <c r="C198" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="D198" s="65" t="s">
+      <c r="D198" s="72" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="199" ht="25.5" spans="1:4">
-      <c r="A199" s="28"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="56" t="s">
+      <c r="A199" s="35"/>
+      <c r="B199" s="35"/>
+      <c r="C199" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="D199" s="65" t="s">
+      <c r="D199" s="72" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="28"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="56" t="s">
+      <c r="A200" s="35"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="D200" s="64" t="s">
+      <c r="D200" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="28"/>
-      <c r="B201" s="28"/>
-      <c r="C201" s="56" t="s">
+      <c r="A201" s="35"/>
+      <c r="B201" s="35"/>
+      <c r="C201" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="D201" s="64" t="s">
+      <c r="D201" s="71" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="28"/>
-      <c r="B202" s="28"/>
-      <c r="C202" s="56" t="s">
+      <c r="A202" s="35"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="D202" s="64" t="s">
+      <c r="D202" s="71" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="28"/>
-      <c r="B203" s="28"/>
-      <c r="C203" s="56" t="s">
+      <c r="A203" s="35"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="D203" s="64" t="s">
+      <c r="D203" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="28"/>
-      <c r="B204" s="28"/>
-      <c r="C204" s="56" t="s">
+      <c r="A204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D204" s="70"/>
+      <c r="D204" s="77"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="28"/>
-      <c r="B205" s="28"/>
-      <c r="C205" s="53" t="s">
+      <c r="A205" s="35"/>
+      <c r="B205" s="35"/>
+      <c r="C205" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D205" s="68"/>
+      <c r="D205" s="75"/>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="21"/>
-      <c r="B206" s="21"/>
-      <c r="C206" s="69"/>
-      <c r="D206" s="40"/>
+      <c r="A206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="76"/>
+      <c r="D206" s="47"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="42" t="s">
+      <c r="A207" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B207" s="42" t="s">
+      <c r="B207" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C207" s="47" t="s">
+      <c r="C207" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D207" s="71"/>
+      <c r="D207" s="78"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="28"/>
-      <c r="B208" s="28"/>
-      <c r="C208" s="72" t="s">
+      <c r="A208" s="35"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="D208" s="71" t="s">
+      <c r="D208" s="78" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="28"/>
-      <c r="B209" s="28"/>
-      <c r="C209" s="72" t="s">
+      <c r="A209" s="35"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="D209" s="71" t="s">
+      <c r="D209" s="78" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="28"/>
-      <c r="B210" s="28"/>
-      <c r="C210" s="72" t="s">
+      <c r="A210" s="35"/>
+      <c r="B210" s="35"/>
+      <c r="C210" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="D210" s="71" t="s">
+      <c r="D210" s="78" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="28"/>
-      <c r="B211" s="28"/>
-      <c r="C211" s="72" t="s">
+      <c r="A211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="D211" s="71" t="s">
+      <c r="D211" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="28"/>
-      <c r="B212" s="28"/>
-      <c r="C212" s="73" t="s">
+      <c r="A212" s="35"/>
+      <c r="B212" s="35"/>
+      <c r="C212" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="D212" s="74" t="s">
+      <c r="D212" s="81" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="28"/>
-      <c r="B213" s="28"/>
-      <c r="C213" s="73" t="s">
+      <c r="A213" s="35"/>
+      <c r="B213" s="35"/>
+      <c r="C213" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="D213" s="74" t="s">
+      <c r="D213" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="28"/>
-      <c r="B214" s="28"/>
-      <c r="C214" s="72" t="s">
+      <c r="A214" s="35"/>
+      <c r="B214" s="35"/>
+      <c r="C214" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D214" s="71" t="s">
+      <c r="D214" s="78" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="28"/>
-      <c r="B215" s="28"/>
-      <c r="C215" s="72" t="s">
+      <c r="A215" s="35"/>
+      <c r="B215" s="35"/>
+      <c r="C215" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D215" s="71" t="s">
+      <c r="D215" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="28"/>
-      <c r="B216" s="28"/>
-      <c r="C216" s="72" t="s">
+      <c r="A216" s="35"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="D216" s="71" t="s">
+      <c r="D216" s="78" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="28"/>
-      <c r="B217" s="28"/>
-      <c r="C217" s="72" t="s">
+      <c r="A217" s="35"/>
+      <c r="B217" s="35"/>
+      <c r="C217" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="D217" s="71" t="s">
+      <c r="D217" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="28"/>
-      <c r="B218" s="28"/>
-      <c r="C218" s="72" t="s">
+      <c r="A218" s="35"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="D218" s="71" t="s">
+      <c r="D218" s="78" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="28"/>
-      <c r="B219" s="28"/>
-      <c r="C219" s="72" t="s">
+      <c r="A219" s="35"/>
+      <c r="B219" s="35"/>
+      <c r="C219" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="D219" s="71" t="s">
+      <c r="D219" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="28"/>
-      <c r="B220" s="28"/>
-      <c r="C220" s="72" t="s">
+      <c r="A220" s="35"/>
+      <c r="B220" s="35"/>
+      <c r="C220" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="D220" s="71" t="s">
+      <c r="D220" s="78" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="28"/>
-      <c r="B221" s="28"/>
-      <c r="C221" s="72" t="s">
+      <c r="A221" s="35"/>
+      <c r="B221" s="35"/>
+      <c r="C221" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="D221" s="71" t="s">
+      <c r="D221" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="28"/>
-      <c r="B222" s="28"/>
-      <c r="C222" s="44" t="s">
+      <c r="A222" s="35"/>
+      <c r="B222" s="35"/>
+      <c r="C222" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D222" s="67"/>
+      <c r="D222" s="74"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="28"/>
-      <c r="B223" s="28"/>
-      <c r="C223" s="53" t="s">
+      <c r="A223" s="35"/>
+      <c r="B223" s="35"/>
+      <c r="C223" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D223" s="68"/>
+      <c r="D223" s="75"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="21"/>
-      <c r="B224" s="21"/>
-      <c r="C224" s="69"/>
-      <c r="D224" s="40"/>
+      <c r="A224" s="28"/>
+      <c r="B224" s="28"/>
+      <c r="C224" s="76"/>
+      <c r="D224" s="47"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="37" t="s">
+      <c r="A225" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B225" s="37" t="s">
+      <c r="B225" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C225" s="44" t="s">
+      <c r="C225" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D225" s="63"/>
+      <c r="D225" s="70"/>
     </row>
     <row r="226" ht="89.25" spans="1:4">
-      <c r="A226" s="28"/>
-      <c r="B226" s="28"/>
-      <c r="C226" s="75" t="s">
+      <c r="A226" s="35"/>
+      <c r="B226" s="35"/>
+      <c r="C226" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="D226" s="74" t="s">
+      <c r="D226" s="81" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="227" ht="51" spans="1:4">
-      <c r="A227" s="28"/>
-      <c r="B227" s="28"/>
-      <c r="C227" s="75" t="s">
+      <c r="A227" s="35"/>
+      <c r="B227" s="35"/>
+      <c r="C227" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="D227" s="74" t="s">
+      <c r="D227" s="81" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="28"/>
-      <c r="B228" s="28"/>
-      <c r="C228" s="75" t="s">
+      <c r="A228" s="35"/>
+      <c r="B228" s="35"/>
+      <c r="C228" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="D228" s="70" t="s">
+      <c r="D228" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="229" ht="63.75" spans="1:4">
-      <c r="A229" s="28"/>
-      <c r="B229" s="28"/>
-      <c r="C229" s="75" t="s">
+      <c r="A229" s="35"/>
+      <c r="B229" s="35"/>
+      <c r="C229" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="D229" s="74" t="s">
+      <c r="D229" s="81" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="28"/>
-      <c r="B230" s="28"/>
-      <c r="C230" s="75" t="s">
+      <c r="A230" s="35"/>
+      <c r="B230" s="35"/>
+      <c r="C230" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="D230" s="70" t="s">
+      <c r="D230" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="28"/>
-      <c r="B231" s="28"/>
-      <c r="C231" s="67" t="s">
+      <c r="A231" s="35"/>
+      <c r="B231" s="35"/>
+      <c r="C231" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="D231" s="76"/>
+      <c r="D231" s="83"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="28"/>
-      <c r="B232" s="28"/>
-      <c r="C232" s="53" t="s">
+      <c r="A232" s="35"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D232" s="68"/>
+      <c r="D232" s="75"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="21"/>
-      <c r="B233" s="21"/>
-      <c r="C233" s="69"/>
-      <c r="D233" s="40"/>
+      <c r="A233" s="28"/>
+      <c r="B233" s="28"/>
+      <c r="C233" s="76"/>
+      <c r="D233" s="47"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="59"/>
-      <c r="B234" s="59"/>
-      <c r="C234" s="77" t="s">
+      <c r="A234" s="66"/>
+      <c r="B234" s="66"/>
+      <c r="C234" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="D234" s="78"/>
+      <c r="D234" s="85"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="18" t="s">
+      <c r="A235" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B235" s="18" t="s">
+      <c r="B235" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C235" s="18" t="s">
+      <c r="C235" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="41" t="s">
+      <c r="D235" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="37" t="s">
+      <c r="A236" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="37" t="s">
+      <c r="B236" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="C236" s="79" t="s">
+      <c r="C236" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D236" s="45"/>
+      <c r="D236" s="52"/>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="28"/>
-      <c r="B237" s="28"/>
-      <c r="C237" s="79" t="s">
+      <c r="A237" s="35"/>
+      <c r="B237" s="35"/>
+      <c r="C237" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="D237" s="45" t="s">
+      <c r="D237" s="52" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="28"/>
-      <c r="B238" s="28"/>
-      <c r="C238" s="46"/>
-      <c r="D238" s="45" t="s">
+      <c r="A238" s="35"/>
+      <c r="B238" s="35"/>
+      <c r="C238" s="53"/>
+      <c r="D238" s="52" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="28"/>
-      <c r="B239" s="28"/>
-      <c r="C239" s="46"/>
-      <c r="D239" s="45" t="s">
+      <c r="A239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="53"/>
+      <c r="D239" s="52" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="28"/>
-      <c r="B240" s="28"/>
-      <c r="C240" s="46"/>
-      <c r="D240" s="45" t="s">
+      <c r="A240" s="35"/>
+      <c r="B240" s="35"/>
+      <c r="C240" s="53"/>
+      <c r="D240" s="52" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="28"/>
-      <c r="B241" s="28"/>
-      <c r="C241" s="46"/>
-      <c r="D241" s="45" t="s">
+      <c r="A241" s="35"/>
+      <c r="B241" s="35"/>
+      <c r="C241" s="53"/>
+      <c r="D241" s="52" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="28"/>
-      <c r="B242" s="28"/>
-      <c r="C242" s="80" t="s">
+      <c r="A242" s="35"/>
+      <c r="B242" s="35"/>
+      <c r="C242" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="D242" s="45" t="s">
+      <c r="D242" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="28"/>
-      <c r="B243" s="28"/>
-      <c r="C243" s="79" t="s">
+      <c r="A243" s="35"/>
+      <c r="B243" s="35"/>
+      <c r="C243" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D243" s="45" t="s">
+      <c r="D243" s="52" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="28"/>
-      <c r="B244" s="28"/>
-      <c r="C244" s="46"/>
-      <c r="D244" s="45" t="s">
+      <c r="A244" s="35"/>
+      <c r="B244" s="35"/>
+      <c r="C244" s="53"/>
+      <c r="D244" s="52" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="245" ht="153" spans="1:4">
-      <c r="A245" s="28"/>
-      <c r="B245" s="28"/>
-      <c r="C245" s="79" t="s">
+      <c r="A245" s="35"/>
+      <c r="B245" s="35"/>
+      <c r="C245" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="D245" s="45" t="s">
+      <c r="D245" s="52" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="28"/>
-      <c r="B246" s="28"/>
-      <c r="C246" s="79" t="s">
+      <c r="A246" s="35"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="D246" s="45" t="s">
+      <c r="D246" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="28"/>
-      <c r="B247" s="28"/>
-      <c r="C247" s="79" t="s">
+      <c r="A247" s="35"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="D247" s="45" t="s">
+      <c r="D247" s="52" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="28"/>
-      <c r="B248" s="28"/>
-      <c r="C248" s="46"/>
-      <c r="D248" s="45" t="s">
+      <c r="A248" s="35"/>
+      <c r="B248" s="35"/>
+      <c r="C248" s="53"/>
+      <c r="D248" s="52" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="28"/>
-      <c r="B249" s="28"/>
-      <c r="C249" s="46"/>
-      <c r="D249" s="45" t="s">
+      <c r="A249" s="35"/>
+      <c r="B249" s="35"/>
+      <c r="C249" s="53"/>
+      <c r="D249" s="52" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="28"/>
-      <c r="B250" s="28"/>
-      <c r="C250" s="46"/>
-      <c r="D250" s="45" t="s">
+      <c r="A250" s="35"/>
+      <c r="B250" s="35"/>
+      <c r="C250" s="53"/>
+      <c r="D250" s="52" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="28"/>
-      <c r="B251" s="28"/>
-      <c r="C251" s="46"/>
-      <c r="D251" s="45" t="s">
+      <c r="A251" s="35"/>
+      <c r="B251" s="35"/>
+      <c r="C251" s="53"/>
+      <c r="D251" s="52" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="28"/>
-      <c r="B252" s="28"/>
-      <c r="C252" s="46"/>
-      <c r="D252" s="45" t="s">
+      <c r="A252" s="35"/>
+      <c r="B252" s="35"/>
+      <c r="C252" s="53"/>
+      <c r="D252" s="52" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="28"/>
-      <c r="B253" s="28"/>
-      <c r="C253" s="46"/>
-      <c r="D253" s="45" t="s">
+      <c r="A253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="53"/>
+      <c r="D253" s="52" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="28"/>
-      <c r="B254" s="28"/>
-      <c r="C254" s="79" t="s">
+      <c r="A254" s="35"/>
+      <c r="B254" s="35"/>
+      <c r="C254" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="D254" s="45" t="s">
+      <c r="D254" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="28"/>
-      <c r="B255" s="28"/>
-      <c r="C255" s="79" t="s">
+      <c r="A255" s="35"/>
+      <c r="B255" s="35"/>
+      <c r="C255" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="D255" s="45" t="s">
+      <c r="D255" s="52" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="28"/>
-      <c r="B256" s="28"/>
-      <c r="C256" s="46"/>
-      <c r="D256" s="81" t="s">
+      <c r="A256" s="35"/>
+      <c r="B256" s="35"/>
+      <c r="C256" s="53"/>
+      <c r="D256" s="88" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="28"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="46"/>
-      <c r="D257" s="81" t="s">
+      <c r="A257" s="35"/>
+      <c r="B257" s="35"/>
+      <c r="C257" s="53"/>
+      <c r="D257" s="88" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="28"/>
-      <c r="B258" s="28"/>
-      <c r="C258" s="79" t="s">
+      <c r="A258" s="35"/>
+      <c r="B258" s="35"/>
+      <c r="C258" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="D258" s="45" t="s">
+      <c r="D258" s="52" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="28"/>
-      <c r="B259" s="28"/>
-      <c r="C259" s="46"/>
-      <c r="D259" s="45" t="s">
+      <c r="A259" s="35"/>
+      <c r="B259" s="35"/>
+      <c r="C259" s="53"/>
+      <c r="D259" s="52" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="28"/>
-      <c r="B260" s="28"/>
-      <c r="C260" s="46"/>
-      <c r="D260" s="45" t="s">
+      <c r="A260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="53"/>
+      <c r="D260" s="52" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="28"/>
-      <c r="B261" s="28"/>
-      <c r="C261" s="46"/>
-      <c r="D261" s="45" t="s">
+      <c r="A261" s="35"/>
+      <c r="B261" s="35"/>
+      <c r="C261" s="53"/>
+      <c r="D261" s="52" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="28"/>
-      <c r="B262" s="28"/>
-      <c r="C262" s="79" t="s">
+      <c r="A262" s="35"/>
+      <c r="B262" s="35"/>
+      <c r="C262" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="D262" s="45" t="s">
+      <c r="D262" s="52" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="28"/>
-      <c r="B263" s="28"/>
-      <c r="C263" s="82" t="s">
+      <c r="A263" s="35"/>
+      <c r="B263" s="35"/>
+      <c r="C263" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D263" s="83"/>
+      <c r="D263" s="90"/>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="28"/>
-      <c r="B264" s="28"/>
-      <c r="C264" s="84" t="s">
+      <c r="A264" s="35"/>
+      <c r="B264" s="35"/>
+      <c r="C264" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D264" s="54"/>
+      <c r="D264" s="61"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="21"/>
-      <c r="B265" s="21"/>
-      <c r="C265" s="22"/>
-      <c r="D265" s="23"/>
+      <c r="A265" s="28"/>
+      <c r="B265" s="28"/>
+      <c r="C265" s="29"/>
+      <c r="D265" s="30"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="37" t="s">
+      <c r="A266" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B266" s="42" t="s">
+      <c r="B266" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="C266" s="66" t="s">
+      <c r="C266" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D266" s="45"/>
+      <c r="D266" s="52"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="28"/>
-      <c r="B267" s="28"/>
-      <c r="C267" s="73" t="s">
+      <c r="A267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="D267" s="85" t="s">
+      <c r="D267" s="92" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="28"/>
-      <c r="B268" s="28"/>
-      <c r="C268" s="73" t="s">
+      <c r="A268" s="35"/>
+      <c r="B268" s="35"/>
+      <c r="C268" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="D268" s="85" t="s">
+      <c r="D268" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="269" ht="25.5" spans="1:4">
-      <c r="A269" s="28"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="73" t="s">
+      <c r="A269" s="35"/>
+      <c r="B269" s="35"/>
+      <c r="C269" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D269" s="65" t="s">
+      <c r="D269" s="72" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="28"/>
-      <c r="B270" s="28"/>
-      <c r="C270" s="73" t="s">
+      <c r="A270" s="35"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D270" s="70" t="s">
+      <c r="D270" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="271" ht="38.25" spans="1:4">
-      <c r="A271" s="28"/>
-      <c r="B271" s="28"/>
-      <c r="C271" s="73" t="s">
+      <c r="A271" s="35"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D271" s="74" t="s">
+      <c r="D271" s="81" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="28"/>
-      <c r="B272" s="28"/>
-      <c r="C272" s="73" t="s">
+      <c r="A272" s="35"/>
+      <c r="B272" s="35"/>
+      <c r="C272" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D272" s="70" t="s">
+      <c r="D272" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="273" ht="38.25" spans="1:4">
-      <c r="A273" s="28"/>
-      <c r="B273" s="28"/>
-      <c r="C273" s="73" t="s">
+      <c r="A273" s="35"/>
+      <c r="B273" s="35"/>
+      <c r="C273" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="D273" s="65" t="s">
+      <c r="D273" s="72" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="28"/>
-      <c r="B274" s="28"/>
-      <c r="C274" s="73" t="s">
+      <c r="A274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="D274" s="70" t="s">
+      <c r="D274" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="275" ht="38.25" spans="1:4">
-      <c r="A275" s="28"/>
-      <c r="B275" s="28"/>
-      <c r="C275" s="73" t="s">
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="D275" s="65" t="s">
+      <c r="D275" s="72" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="28"/>
-      <c r="B276" s="28"/>
-      <c r="C276" s="73" t="s">
+      <c r="A276" s="35"/>
+      <c r="B276" s="35"/>
+      <c r="C276" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="D276" s="85" t="s">
+      <c r="D276" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="28"/>
-      <c r="B277" s="28"/>
-      <c r="C277" s="44" t="s">
+      <c r="A277" s="35"/>
+      <c r="B277" s="35"/>
+      <c r="C277" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D277" s="48"/>
+      <c r="D277" s="55"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="28"/>
-      <c r="B278" s="28"/>
-      <c r="C278" s="53" t="s">
+      <c r="A278" s="35"/>
+      <c r="B278" s="35"/>
+      <c r="C278" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D278" s="54"/>
+      <c r="D278" s="61"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="21"/>
-      <c r="B279" s="21"/>
-      <c r="C279" s="22"/>
-      <c r="D279" s="23"/>
+      <c r="A279" s="28"/>
+      <c r="B279" s="28"/>
+      <c r="C279" s="29"/>
+      <c r="D279" s="30"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="42" t="s">
+      <c r="A280" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B280" s="42" t="s">
+      <c r="B280" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="C280" s="34" t="s">
+      <c r="C280" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D280" s="57"/>
+      <c r="D280" s="64"/>
     </row>
     <row r="281" ht="25.5" spans="1:4">
-      <c r="A281" s="28"/>
-      <c r="B281" s="28"/>
-      <c r="C281" s="86" t="s">
+      <c r="A281" s="35"/>
+      <c r="B281" s="35"/>
+      <c r="C281" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="D281" s="58" t="s">
+      <c r="D281" s="65" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="282" ht="25.5" spans="1:4">
-      <c r="A282" s="28"/>
-      <c r="B282" s="28"/>
-      <c r="C282" s="33" t="s">
+      <c r="A282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="D282" s="58" t="s">
+      <c r="D282" s="65" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="28"/>
-      <c r="B283" s="28"/>
-      <c r="C283" s="33" t="s">
+      <c r="A283" s="35"/>
+      <c r="B283" s="35"/>
+      <c r="C283" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="D283" s="87" t="s">
+      <c r="D283" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="284" ht="63.75" spans="1:4">
-      <c r="A284" s="28"/>
-      <c r="B284" s="28"/>
-      <c r="C284" s="33" t="s">
+      <c r="A284" s="35"/>
+      <c r="B284" s="35"/>
+      <c r="C284" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="D284" s="58" t="s">
+      <c r="D284" s="65" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="285" ht="38.25" spans="1:4">
-      <c r="A285" s="28"/>
-      <c r="B285" s="28"/>
-      <c r="C285" s="86" t="s">
+      <c r="A285" s="35"/>
+      <c r="B285" s="35"/>
+      <c r="C285" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="D285" s="58" t="s">
+      <c r="D285" s="65" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="28"/>
-      <c r="B286" s="28"/>
-      <c r="C286" s="86" t="s">
+      <c r="A286" s="35"/>
+      <c r="B286" s="35"/>
+      <c r="C286" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="D286" s="85" t="s">
+      <c r="D286" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="287" ht="25.5" spans="1:4">
-      <c r="A287" s="28"/>
-      <c r="B287" s="28"/>
-      <c r="C287" s="86" t="s">
+      <c r="A287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="D287" s="58" t="s">
+      <c r="D287" s="65" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="28"/>
-      <c r="B288" s="28"/>
-      <c r="C288" s="86" t="s">
+      <c r="A288" s="35"/>
+      <c r="B288" s="35"/>
+      <c r="C288" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="D288" s="85" t="s">
+      <c r="D288" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="289" ht="38.25" spans="1:4">
-      <c r="A289" s="28"/>
-      <c r="B289" s="28"/>
-      <c r="C289" s="86" t="s">
+      <c r="A289" s="35"/>
+      <c r="B289" s="35"/>
+      <c r="C289" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="D289" s="58" t="s">
+      <c r="D289" s="65" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="28"/>
-      <c r="B290" s="28"/>
-      <c r="C290" s="86" t="s">
+      <c r="A290" s="35"/>
+      <c r="B290" s="35"/>
+      <c r="C290" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="D290" s="85" t="s">
+      <c r="D290" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="291" ht="38.25" spans="1:4">
-      <c r="A291" s="28"/>
-      <c r="B291" s="28"/>
-      <c r="C291" s="86" t="s">
+      <c r="A291" s="35"/>
+      <c r="B291" s="35"/>
+      <c r="C291" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="D291" s="58" t="s">
+      <c r="D291" s="65" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="28"/>
-      <c r="B292" s="28"/>
-      <c r="C292" s="33" t="s">
+      <c r="A292" s="35"/>
+      <c r="B292" s="35"/>
+      <c r="C292" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="D292" s="85" t="s">
+      <c r="D292" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="293" ht="51" spans="1:4">
-      <c r="A293" s="28"/>
-      <c r="B293" s="28"/>
-      <c r="C293" s="86" t="s">
+      <c r="A293" s="35"/>
+      <c r="B293" s="35"/>
+      <c r="C293" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="D293" s="58" t="s">
+      <c r="D293" s="65" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="28"/>
-      <c r="B294" s="28"/>
-      <c r="C294" s="33" t="s">
+      <c r="A294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="D294" s="87" t="s">
+      <c r="D294" s="94" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="295" ht="51" spans="1:4">
-      <c r="A295" s="28"/>
-      <c r="B295" s="28"/>
-      <c r="C295" s="86" t="s">
+      <c r="A295" s="35"/>
+      <c r="B295" s="35"/>
+      <c r="C295" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="D295" s="58" t="s">
+      <c r="D295" s="65" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="296" ht="51" spans="1:4">
-      <c r="A296" s="28"/>
-      <c r="B296" s="28"/>
-      <c r="C296" s="86" t="s">
+      <c r="A296" s="35"/>
+      <c r="B296" s="35"/>
+      <c r="C296" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="D296" s="58" t="s">
+      <c r="D296" s="65" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="28"/>
-      <c r="B297" s="28"/>
-      <c r="C297" s="86" t="s">
+      <c r="A297" s="35"/>
+      <c r="B297" s="35"/>
+      <c r="C297" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="D297" s="87" t="s">
+      <c r="D297" s="94" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="298" ht="63.75" spans="1:4">
-      <c r="A298" s="28"/>
-      <c r="B298" s="28"/>
-      <c r="C298" s="86" t="s">
+      <c r="A298" s="35"/>
+      <c r="B298" s="35"/>
+      <c r="C298" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="D298" s="58" t="s">
+      <c r="D298" s="65" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="28"/>
-      <c r="B299" s="28"/>
-      <c r="C299" s="86" t="s">
+      <c r="A299" s="35"/>
+      <c r="B299" s="35"/>
+      <c r="C299" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="D299" s="87" t="s">
+      <c r="D299" s="94" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="300" ht="51" spans="1:4">
-      <c r="A300" s="28"/>
-      <c r="B300" s="28"/>
-      <c r="C300" s="86" t="s">
+      <c r="A300" s="35"/>
+      <c r="B300" s="35"/>
+      <c r="C300" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="D300" s="58" t="s">
+      <c r="D300" s="65" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="28"/>
-      <c r="B301" s="28"/>
-      <c r="C301" s="33" t="s">
+      <c r="A301" s="35"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="D301" s="87" t="s">
+      <c r="D301" s="94" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="28"/>
-      <c r="B302" s="28"/>
-      <c r="C302" s="88" t="s">
+      <c r="A302" s="35"/>
+      <c r="B302" s="35"/>
+      <c r="C302" s="95" t="s">
         <v>274</v>
       </c>
-      <c r="D302" s="83"/>
+      <c r="D302" s="90"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="28"/>
-      <c r="B303" s="28"/>
-      <c r="C303" s="89" t="s">
+      <c r="A303" s="35"/>
+      <c r="B303" s="35"/>
+      <c r="C303" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D303" s="50"/>
+      <c r="D303" s="57"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="21"/>
-      <c r="B304" s="21"/>
-      <c r="C304" s="22"/>
-      <c r="D304" s="23"/>
+      <c r="A304" s="28"/>
+      <c r="B304" s="28"/>
+      <c r="C304" s="29"/>
+      <c r="D304" s="30"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="90" t="s">
+      <c r="A305" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="B305" s="90"/>
-      <c r="C305" s="90"/>
-      <c r="D305" s="90"/>
+      <c r="B305" s="97"/>
+      <c r="C305" s="97"/>
+      <c r="D305" s="97"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="18" t="s">
+      <c r="A306" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B306" s="19" t="s">
+      <c r="B306" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C306" s="61" t="s">
+      <c r="C306" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D306" s="20" t="s">
+      <c r="D306" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="91" t="s">
+      <c r="A307" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B307" s="92" t="s">
+      <c r="B307" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="C307" s="93" t="s">
+      <c r="C307" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="D307" s="94"/>
+      <c r="D307" s="101"/>
     </row>
     <row r="308" ht="25.5" spans="1:4">
-      <c r="A308" s="95"/>
-      <c r="B308" s="96"/>
-      <c r="C308" s="93" t="s">
+      <c r="A308" s="102"/>
+      <c r="B308" s="103"/>
+      <c r="C308" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="D308" s="94" t="s">
+      <c r="D308" s="101" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="309" ht="25.5" spans="1:4">
-      <c r="A309" s="95"/>
-      <c r="B309" s="96"/>
-      <c r="C309" s="93" t="s">
+      <c r="A309" s="102"/>
+      <c r="B309" s="103"/>
+      <c r="C309" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="D309" s="94" t="s">
+      <c r="D309" s="101" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="310" ht="25.5" spans="1:4">
-      <c r="A310" s="95"/>
-      <c r="B310" s="96"/>
-      <c r="C310" s="93" t="s">
+      <c r="A310" s="102"/>
+      <c r="B310" s="103"/>
+      <c r="C310" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="D310" s="94" t="s">
+      <c r="D310" s="101" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="95"/>
-      <c r="B311" s="96"/>
-      <c r="C311" s="93" t="s">
+      <c r="A311" s="102"/>
+      <c r="B311" s="103"/>
+      <c r="C311" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="D311" s="94" t="s">
+      <c r="D311" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="312" ht="89.25" spans="1:4">
-      <c r="A312" s="95"/>
-      <c r="B312" s="96"/>
-      <c r="C312" s="93" t="s">
+      <c r="A312" s="102"/>
+      <c r="B312" s="103"/>
+      <c r="C312" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="D312" s="94" t="s">
+      <c r="D312" s="101" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="95"/>
-      <c r="B313" s="96"/>
-      <c r="C313" s="93" t="s">
+      <c r="A313" s="102"/>
+      <c r="B313" s="103"/>
+      <c r="C313" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="D313" s="94" t="s">
+      <c r="D313" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="314" ht="38.25" spans="1:4">
-      <c r="A314" s="95"/>
-      <c r="B314" s="96"/>
-      <c r="C314" s="93" t="s">
+      <c r="A314" s="102"/>
+      <c r="B314" s="103"/>
+      <c r="C314" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="D314" s="94" t="s">
+      <c r="D314" s="101" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="95"/>
-      <c r="B315" s="96"/>
-      <c r="C315" s="93" t="s">
+      <c r="A315" s="102"/>
+      <c r="B315" s="103"/>
+      <c r="C315" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="D315" s="94" t="s">
+      <c r="D315" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="316" ht="89.25" spans="1:4">
-      <c r="A316" s="95"/>
-      <c r="B316" s="96"/>
-      <c r="C316" s="93" t="s">
+      <c r="A316" s="102"/>
+      <c r="B316" s="103"/>
+      <c r="C316" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="D316" s="94" t="s">
+      <c r="D316" s="101" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="95"/>
-      <c r="B317" s="96"/>
-      <c r="C317" s="93" t="s">
+      <c r="A317" s="102"/>
+      <c r="B317" s="103"/>
+      <c r="C317" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="D317" s="94" t="s">
+      <c r="D317" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="318" ht="63.75" spans="1:4">
-      <c r="A318" s="95"/>
-      <c r="B318" s="96"/>
-      <c r="C318" s="93" t="s">
+      <c r="A318" s="102"/>
+      <c r="B318" s="103"/>
+      <c r="C318" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="D318" s="94" t="s">
+      <c r="D318" s="101" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="95"/>
-      <c r="B319" s="96"/>
-      <c r="C319" s="93" t="s">
+      <c r="A319" s="102"/>
+      <c r="B319" s="103"/>
+      <c r="C319" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="D319" s="94" t="s">
+      <c r="D319" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="95"/>
-      <c r="B320" s="96"/>
-      <c r="C320" s="93" t="s">
+      <c r="A320" s="102"/>
+      <c r="B320" s="103"/>
+      <c r="C320" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="D320" s="94" t="s">
+      <c r="D320" s="101" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="95"/>
-      <c r="B321" s="96"/>
-      <c r="C321" s="93" t="s">
+      <c r="A321" s="102"/>
+      <c r="B321" s="103"/>
+      <c r="C321" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="D321" s="94" t="s">
+      <c r="D321" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="322" ht="25.5" spans="1:4">
-      <c r="A322" s="95"/>
-      <c r="B322" s="96"/>
-      <c r="C322" s="93" t="s">
+      <c r="A322" s="102"/>
+      <c r="B322" s="103"/>
+      <c r="C322" s="100" t="s">
         <v>293</v>
       </c>
-      <c r="D322" s="94" t="s">
+      <c r="D322" s="101" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="95"/>
-      <c r="B323" s="96"/>
-      <c r="C323" s="93" t="s">
+      <c r="A323" s="102"/>
+      <c r="B323" s="103"/>
+      <c r="C323" s="100" t="s">
         <v>295</v>
       </c>
-      <c r="D323" s="94" t="s">
+      <c r="D323" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="95"/>
-      <c r="B324" s="96"/>
-      <c r="C324" s="93" t="s">
+      <c r="A324" s="102"/>
+      <c r="B324" s="103"/>
+      <c r="C324" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="D324" s="94"/>
+      <c r="D324" s="101"/>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="95"/>
-      <c r="B325" s="96"/>
-      <c r="C325" s="97" t="s">
+      <c r="A325" s="102"/>
+      <c r="B325" s="103"/>
+      <c r="C325" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D325" s="89"/>
+      <c r="D325" s="96"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="21"/>
-      <c r="B326" s="21"/>
-      <c r="C326" s="69"/>
-      <c r="D326" s="23"/>
+      <c r="A326" s="28"/>
+      <c r="B326" s="28"/>
+      <c r="C326" s="76"/>
+      <c r="D326" s="30"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="21"/>
-      <c r="B327" s="21"/>
-      <c r="C327" s="69"/>
-      <c r="D327" s="23"/>
+      <c r="A327" s="28"/>
+      <c r="B327" s="28"/>
+      <c r="C327" s="76"/>
+      <c r="D327" s="30"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="37" t="s">
+      <c r="A328" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B328" s="37" t="s">
+      <c r="B328" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="C328" s="66" t="s">
+      <c r="C328" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D328" s="79"/>
+      <c r="D328" s="86"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="28"/>
-      <c r="B329" s="28"/>
-      <c r="C329" s="72" t="s">
+      <c r="A329" s="35"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="D329" s="79" t="s">
+      <c r="D329" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="28"/>
-      <c r="B330" s="28"/>
-      <c r="C330" s="72" t="s">
+      <c r="A330" s="35"/>
+      <c r="B330" s="35"/>
+      <c r="C330" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="D330" s="79" t="s">
+      <c r="D330" s="86" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="28"/>
-      <c r="B331" s="28"/>
-      <c r="C331" s="72" t="s">
+      <c r="A331" s="35"/>
+      <c r="B331" s="35"/>
+      <c r="C331" s="79" t="s">
         <v>299</v>
       </c>
-      <c r="D331" s="79" t="s">
+      <c r="D331" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="28"/>
-      <c r="B332" s="28"/>
-      <c r="C332" s="72" t="s">
+      <c r="A332" s="35"/>
+      <c r="B332" s="35"/>
+      <c r="C332" s="79" t="s">
         <v>300</v>
       </c>
-      <c r="D332" s="79" t="s">
+      <c r="D332" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="28"/>
-      <c r="B333" s="28"/>
-      <c r="C333" s="72" t="s">
+      <c r="A333" s="35"/>
+      <c r="B333" s="35"/>
+      <c r="C333" s="79" t="s">
         <v>301</v>
       </c>
-      <c r="D333" s="79" t="s">
+      <c r="D333" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="28"/>
-      <c r="B334" s="28"/>
-      <c r="C334" s="72" t="s">
+      <c r="A334" s="35"/>
+      <c r="B334" s="35"/>
+      <c r="C334" s="79" t="s">
         <v>302</v>
       </c>
-      <c r="D334" s="79" t="s">
+      <c r="D334" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="28"/>
-      <c r="B335" s="28"/>
-      <c r="C335" s="72" t="s">
+      <c r="A335" s="35"/>
+      <c r="B335" s="35"/>
+      <c r="C335" s="79" t="s">
         <v>303</v>
       </c>
-      <c r="D335" s="79" t="s">
+      <c r="D335" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="28"/>
-      <c r="B336" s="28"/>
-      <c r="C336" s="47" t="s">
+      <c r="A336" s="35"/>
+      <c r="B336" s="35"/>
+      <c r="C336" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D336" s="30"/>
+      <c r="D336" s="37"/>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="28"/>
-      <c r="B337" s="28"/>
-      <c r="C337" s="97" t="s">
+      <c r="A337" s="35"/>
+      <c r="B337" s="35"/>
+      <c r="C337" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D337" s="89"/>
+      <c r="D337" s="96"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="21"/>
-      <c r="B338" s="21"/>
-      <c r="C338" s="69"/>
-      <c r="D338" s="23"/>
+      <c r="A338" s="28"/>
+      <c r="B338" s="28"/>
+      <c r="C338" s="76"/>
+      <c r="D338" s="30"/>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="37" t="s">
+      <c r="A339" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B339" s="37" t="s">
+      <c r="B339" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="C339" s="47" t="s">
+      <c r="C339" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="D339" s="79" t="s">
+      <c r="D339" s="86" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="28"/>
-      <c r="B340" s="28"/>
-      <c r="C340" s="76"/>
-      <c r="D340" s="79" t="s">
+      <c r="A340" s="35"/>
+      <c r="B340" s="35"/>
+      <c r="C340" s="83"/>
+      <c r="D340" s="86" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="28"/>
-      <c r="B341" s="28"/>
-      <c r="C341" s="76"/>
-      <c r="D341" s="79" t="s">
+      <c r="A341" s="35"/>
+      <c r="B341" s="35"/>
+      <c r="C341" s="83"/>
+      <c r="D341" s="86" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="28"/>
-      <c r="B342" s="28"/>
-      <c r="C342" s="76"/>
-      <c r="D342" s="79" t="s">
+      <c r="A342" s="35"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="83"/>
+      <c r="D342" s="86" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="28"/>
-      <c r="B343" s="28"/>
-      <c r="C343" s="76"/>
-      <c r="D343" s="79" t="s">
+      <c r="A343" s="35"/>
+      <c r="B343" s="35"/>
+      <c r="C343" s="83"/>
+      <c r="D343" s="86" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="28"/>
-      <c r="B344" s="28"/>
-      <c r="C344" s="76"/>
-      <c r="D344" s="79" t="s">
+      <c r="A344" s="35"/>
+      <c r="B344" s="35"/>
+      <c r="C344" s="83"/>
+      <c r="D344" s="86" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="28"/>
-      <c r="B345" s="28"/>
-      <c r="C345" s="76"/>
-      <c r="D345" s="79" t="s">
+      <c r="A345" s="35"/>
+      <c r="B345" s="35"/>
+      <c r="C345" s="83"/>
+      <c r="D345" s="86" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="28"/>
-      <c r="B346" s="28"/>
-      <c r="C346" s="76"/>
-      <c r="D346" s="79" t="s">
+      <c r="A346" s="35"/>
+      <c r="B346" s="35"/>
+      <c r="C346" s="83"/>
+      <c r="D346" s="86" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="28"/>
-      <c r="B347" s="28"/>
-      <c r="C347" s="76"/>
-      <c r="D347" s="79" t="s">
+      <c r="A347" s="35"/>
+      <c r="B347" s="35"/>
+      <c r="C347" s="83"/>
+      <c r="D347" s="86" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="28"/>
-      <c r="B348" s="28"/>
-      <c r="C348" s="72" t="s">
+      <c r="A348" s="35"/>
+      <c r="B348" s="35"/>
+      <c r="C348" s="79" t="s">
         <v>315</v>
       </c>
-      <c r="D348" s="79" t="s">
+      <c r="D348" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="28"/>
-      <c r="B349" s="28"/>
-      <c r="C349" s="72" t="s">
+      <c r="A349" s="35"/>
+      <c r="B349" s="35"/>
+      <c r="C349" s="79" t="s">
         <v>316</v>
       </c>
-      <c r="D349" s="79" t="s">
+      <c r="D349" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="28"/>
-      <c r="B350" s="28"/>
-      <c r="C350" s="72" t="s">
+      <c r="A350" s="35"/>
+      <c r="B350" s="35"/>
+      <c r="C350" s="79" t="s">
         <v>317</v>
       </c>
-      <c r="D350" s="79" t="s">
+      <c r="D350" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="28"/>
-      <c r="B351" s="28"/>
-      <c r="C351" s="72" t="s">
+      <c r="A351" s="35"/>
+      <c r="B351" s="35"/>
+      <c r="C351" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="D351" s="79" t="s">
+      <c r="D351" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="28"/>
-      <c r="B352" s="28"/>
-      <c r="C352" s="47" t="s">
+      <c r="A352" s="35"/>
+      <c r="B352" s="35"/>
+      <c r="C352" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D352" s="30"/>
+      <c r="D352" s="37"/>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="28"/>
-      <c r="B353" s="28"/>
-      <c r="C353" s="97" t="s">
+      <c r="A353" s="35"/>
+      <c r="B353" s="35"/>
+      <c r="C353" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D353" s="89"/>
+      <c r="D353" s="96"/>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="21"/>
-      <c r="B354" s="21"/>
-      <c r="C354" s="69"/>
-      <c r="D354" s="23"/>
+      <c r="A354" s="28"/>
+      <c r="B354" s="28"/>
+      <c r="C354" s="76"/>
+      <c r="D354" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -6688,12 +7198,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D426"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D246" sqref="D246"/>
+      <selection pane="bottomLeft" activeCell="A348" sqref="A348:A426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6701,7 +7211,7 @@
     <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="44.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74" style="1" customWidth="1"/>
+    <col min="4" max="4" width="89.5714285714286" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
@@ -8658,8 +9168,1485 @@
       <c r="C242" s="14"/>
       <c r="D242" s="14"/>
     </row>
+    <row r="243" ht="24.75" spans="2:4">
+      <c r="B243" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+    </row>
+    <row r="244" ht="11" customHeight="1" spans="1:4">
+      <c r="A244" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B244" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="19"/>
+      <c r="B245" s="17"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="19"/>
+      <c r="B246" s="17"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="19"/>
+      <c r="B247" s="17"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="19"/>
+      <c r="B248" s="17"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="19"/>
+      <c r="B249" s="17"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="19"/>
+      <c r="B250" s="17"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="19"/>
+      <c r="B251" s="17"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="19"/>
+      <c r="B252" s="17"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="19"/>
+      <c r="B253" s="17"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="19"/>
+      <c r="B254" s="17"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="19"/>
+      <c r="B255" s="17"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="19"/>
+      <c r="B256" s="17"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="19"/>
+      <c r="B257" s="17"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="19"/>
+      <c r="B258" s="17"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="19"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="19"/>
+      <c r="B260" s="17"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="19"/>
+      <c r="B261" s="17"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="262" ht="15.75" spans="1:3">
+      <c r="A262" s="19"/>
+      <c r="B262" s="17"/>
+      <c r="C262" s="12"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="19"/>
+      <c r="B263" s="17"/>
+      <c r="C263" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="19"/>
+      <c r="B264" s="17"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="19"/>
+      <c r="B265" s="17"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="19"/>
+      <c r="B266" s="17"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="19"/>
+      <c r="B267" s="17"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="19"/>
+      <c r="B268" s="17"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="19"/>
+      <c r="B269" s="17"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="19"/>
+      <c r="B270" s="17"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="19"/>
+      <c r="B271" s="17"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="19"/>
+      <c r="B272" s="17"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="19"/>
+      <c r="B273" s="17"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="19"/>
+      <c r="B274" s="17"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="19"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="19"/>
+      <c r="B276" s="17"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="277" ht="18" spans="1:4">
+      <c r="A277" s="19"/>
+      <c r="B277" s="17"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="9"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="19"/>
+      <c r="B278" s="17"/>
+      <c r="C278" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="19"/>
+      <c r="B279" s="17"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="19"/>
+      <c r="B280" s="17"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="19"/>
+      <c r="B281" s="17"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="19"/>
+      <c r="B282" s="17"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="19"/>
+      <c r="B283" s="17"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="19"/>
+      <c r="B284" s="17"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="19"/>
+      <c r="B285" s="17"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="19"/>
+      <c r="B286" s="17"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="19"/>
+      <c r="B287" s="17"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="19"/>
+      <c r="B288" s="17"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="19"/>
+      <c r="B289" s="17"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="19"/>
+      <c r="B290" s="17"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="19"/>
+      <c r="B291" s="17"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="19"/>
+      <c r="B292" s="17"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="19"/>
+      <c r="B293" s="17"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="19"/>
+      <c r="B294" s="17"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="19"/>
+      <c r="B295" s="17"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="19"/>
+      <c r="B296" s="17"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="19"/>
+      <c r="B297" s="17"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="19"/>
+      <c r="B298" s="17"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="299" ht="15.75" spans="1:4">
+      <c r="A299" s="19"/>
+      <c r="B299" s="17"/>
+      <c r="C299" s="8"/>
+      <c r="D299" s="21"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="19"/>
+      <c r="B300" s="17"/>
+      <c r="C300" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="19"/>
+      <c r="B301" s="17"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="19"/>
+      <c r="B302" s="17"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="19"/>
+      <c r="B303" s="17"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="9" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="19"/>
+      <c r="B304" s="17"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="19"/>
+      <c r="B305" s="17"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="19"/>
+      <c r="B306" s="17"/>
+      <c r="C306" s="6"/>
+      <c r="D306" s="9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="19"/>
+      <c r="B307" s="17"/>
+      <c r="C307" s="6"/>
+      <c r="D307" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="19"/>
+      <c r="B308" s="17"/>
+      <c r="C308" s="6"/>
+      <c r="D308" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="19"/>
+      <c r="B309" s="17"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="19"/>
+      <c r="B310" s="17"/>
+      <c r="C310" s="6"/>
+      <c r="D310" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="19"/>
+      <c r="B311" s="17"/>
+      <c r="C311" s="6"/>
+      <c r="D311" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="19"/>
+      <c r="B312" s="17"/>
+      <c r="C312" s="6"/>
+      <c r="D312" s="9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="19"/>
+      <c r="B313" s="17"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="9" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="19"/>
+      <c r="B314" s="17"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="9" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="19"/>
+      <c r="B315" s="17"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="9" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="19"/>
+      <c r="B316" s="17"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="19"/>
+      <c r="B317" s="17"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="19"/>
+      <c r="B318" s="17"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="19"/>
+      <c r="B319" s="17"/>
+      <c r="C319" s="6"/>
+      <c r="D319" s="9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="19"/>
+      <c r="B320" s="17"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="19"/>
+      <c r="B321" s="17"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="19"/>
+      <c r="B322" s="17"/>
+      <c r="C322" s="6"/>
+      <c r="D322" s="9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="19"/>
+      <c r="B323" s="17"/>
+      <c r="C323" s="6"/>
+      <c r="D323" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="19"/>
+      <c r="B324" s="17"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="19"/>
+      <c r="B325" s="17"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="19"/>
+      <c r="B326" s="17"/>
+      <c r="C326" s="6"/>
+      <c r="D326" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="19"/>
+      <c r="B327" s="17"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="19"/>
+      <c r="B328" s="17"/>
+      <c r="C328" s="6"/>
+      <c r="D328" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="19"/>
+      <c r="B329" s="17"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="19"/>
+      <c r="B330" s="17"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="19"/>
+      <c r="B331" s="17"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="19"/>
+      <c r="B332" s="17"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="19"/>
+      <c r="B333" s="17"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="19"/>
+      <c r="B334" s="17"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="19"/>
+      <c r="B335" s="17"/>
+      <c r="C335" s="6"/>
+      <c r="D335" s="9" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="19"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="19"/>
+      <c r="B337" s="17"/>
+      <c r="C337" s="6"/>
+      <c r="D337" s="9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="19"/>
+      <c r="B338" s="17"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="19"/>
+      <c r="B339" s="17"/>
+      <c r="C339" s="6"/>
+      <c r="D339" s="9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="19"/>
+      <c r="B340" s="17"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="9" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="19"/>
+      <c r="B341" s="17"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="19"/>
+      <c r="B342" s="17"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="9" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="19"/>
+      <c r="B343" s="17"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="19"/>
+      <c r="B344" s="17"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="9" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="19"/>
+      <c r="B345" s="17"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="346" ht="9" customHeight="1" spans="1:4">
+      <c r="A346" s="19"/>
+      <c r="B346" s="16"/>
+      <c r="C346" s="14"/>
+      <c r="D346" s="14"/>
+    </row>
+    <row r="347" ht="24.75" spans="2:4">
+      <c r="B347" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C347" s="3"/>
+      <c r="D347" s="3"/>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C348" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="18"/>
+      <c r="B349" s="5"/>
+      <c r="C349" s="22"/>
+      <c r="D349" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="18"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="22"/>
+      <c r="D350" s="9" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="18"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="22"/>
+      <c r="D351" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="18"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="22"/>
+      <c r="D352" s="9" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="18"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="22"/>
+      <c r="D353" s="9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="18"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="22"/>
+      <c r="D354" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="18"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="22"/>
+      <c r="D355" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="18"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="22"/>
+      <c r="D356" s="9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="18"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="22"/>
+      <c r="D357" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="18"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="22"/>
+      <c r="D358" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="18"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="22"/>
+      <c r="D359" s="9" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="18"/>
+      <c r="B360" s="5"/>
+      <c r="C360" s="22"/>
+      <c r="D360" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="18"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="22"/>
+      <c r="D361" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="18"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="22"/>
+      <c r="D362" s="9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="18"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="22"/>
+      <c r="D363" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="18"/>
+      <c r="B364" s="5"/>
+      <c r="C364" s="22"/>
+      <c r="D364" s="9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="18"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="22"/>
+      <c r="D365" s="9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="18"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="22"/>
+      <c r="D366" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="18"/>
+      <c r="B367" s="5"/>
+      <c r="C367" s="22"/>
+      <c r="D367" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="18"/>
+      <c r="B368" s="5"/>
+      <c r="C368" s="22"/>
+      <c r="D368" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="18"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="22"/>
+      <c r="D369" s="9" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="18"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="22"/>
+      <c r="D370" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="18"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="22"/>
+      <c r="D371" s="9" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="18"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="22"/>
+      <c r="D372" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="18"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="22"/>
+      <c r="D373" s="9" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="18"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="22"/>
+      <c r="D374" s="9" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="18"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="22"/>
+      <c r="D375" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="18"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="22"/>
+      <c r="D376" s="9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="18"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="22"/>
+      <c r="D377" s="9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="18"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="22"/>
+      <c r="D378" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="18"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="22"/>
+      <c r="D379" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="18"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="22"/>
+      <c r="D380" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="18"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="22"/>
+      <c r="D381" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="18"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="22"/>
+      <c r="D382" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="18"/>
+      <c r="B383" s="5"/>
+      <c r="C383" s="22"/>
+      <c r="D383" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="18"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="22"/>
+      <c r="D384" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="18"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="22"/>
+      <c r="D385" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="18"/>
+      <c r="B386" s="5"/>
+      <c r="C386" s="22"/>
+      <c r="D386" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="18"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="22"/>
+      <c r="D387" s="9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="18"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="22"/>
+      <c r="D388" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="18"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="22"/>
+      <c r="D389" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="18"/>
+      <c r="B390" s="5"/>
+      <c r="C390" s="22"/>
+      <c r="D390" s="9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="18"/>
+      <c r="B391" s="5"/>
+      <c r="C391" s="22"/>
+      <c r="D391" s="9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="18"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="22"/>
+      <c r="D392" s="9" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="18"/>
+      <c r="B393" s="5"/>
+      <c r="C393" s="22"/>
+      <c r="D393" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="18"/>
+      <c r="B394" s="5"/>
+      <c r="C394" s="22"/>
+      <c r="D394" s="9" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="18"/>
+      <c r="B395" s="5"/>
+      <c r="C395" s="22"/>
+      <c r="D395" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="18"/>
+      <c r="B396" s="5"/>
+      <c r="C396" s="22"/>
+      <c r="D396" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="18"/>
+      <c r="B397" s="5"/>
+      <c r="C397" s="22"/>
+      <c r="D397" s="9" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="18"/>
+      <c r="B398" s="5"/>
+      <c r="C398" s="22"/>
+      <c r="D398" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="18"/>
+      <c r="B399" s="5"/>
+      <c r="C399" s="22"/>
+      <c r="D399" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="18"/>
+      <c r="B400" s="5"/>
+      <c r="C400" s="22"/>
+      <c r="D400" s="9" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="18"/>
+      <c r="B401" s="5"/>
+      <c r="C401" s="22"/>
+      <c r="D401" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="18"/>
+      <c r="B402" s="5"/>
+      <c r="C402" s="22"/>
+      <c r="D402" s="9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="18"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="22"/>
+      <c r="D403" s="9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="18"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="22"/>
+      <c r="D404" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="18"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="22"/>
+      <c r="D405" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="18"/>
+      <c r="B406" s="5"/>
+      <c r="C406" s="22"/>
+      <c r="D406" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="18"/>
+      <c r="B407" s="5"/>
+      <c r="C407" s="22"/>
+      <c r="D407" s="9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="18"/>
+      <c r="B408" s="5"/>
+      <c r="C408" s="22"/>
+      <c r="D408" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="18"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="22"/>
+      <c r="D409" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="18"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="22"/>
+      <c r="D410" s="9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="18"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="22"/>
+      <c r="D411" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="18"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="22"/>
+      <c r="D412" s="9" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="18"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="22"/>
+      <c r="D413" s="9" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="18"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="22"/>
+      <c r="D414" s="9" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="18"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="22"/>
+      <c r="D415" s="9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="18"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="22"/>
+      <c r="D416" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="18"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="22"/>
+      <c r="D417" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="18"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="22"/>
+      <c r="D418" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="419" ht="18" spans="1:4">
+      <c r="A419" s="18"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="23"/>
+      <c r="D419" s="21"/>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="18"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="D420" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="18"/>
+      <c r="B421" s="5"/>
+      <c r="C421" s="22"/>
+      <c r="D421" s="9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="18"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="22"/>
+      <c r="D422" s="9" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="18"/>
+      <c r="B423" s="5"/>
+      <c r="C423" s="22"/>
+      <c r="D423" s="9" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="18"/>
+      <c r="B424" s="5"/>
+      <c r="C424" s="22"/>
+      <c r="D424" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="18"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="22"/>
+      <c r="D425" s="9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="426" ht="10" customHeight="1" spans="1:4">
+      <c r="A426" s="18"/>
+      <c r="B426" s="24"/>
+      <c r="C426" s="24"/>
+      <c r="D426" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="53">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B79:D79"/>
@@ -8667,9 +10654,13 @@
     <mergeCell ref="B148:D148"/>
     <mergeCell ref="B179:D179"/>
     <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B243:D243"/>
+    <mergeCell ref="B347:D347"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="A20:A102"/>
     <mergeCell ref="A104:A242"/>
+    <mergeCell ref="A244:A346"/>
+    <mergeCell ref="A348:A426"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="B20:B34"/>
     <mergeCell ref="B37:B77"/>
@@ -8678,6 +10669,8 @@
     <mergeCell ref="B149:B177"/>
     <mergeCell ref="B180:B209"/>
     <mergeCell ref="B212:B241"/>
+    <mergeCell ref="B244:B345"/>
+    <mergeCell ref="B348:B425"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C20:C26"/>
@@ -8701,6 +10694,12 @@
     <mergeCell ref="C212:C219"/>
     <mergeCell ref="C221:C227"/>
     <mergeCell ref="C229:C241"/>
+    <mergeCell ref="C244:C261"/>
+    <mergeCell ref="C263:C276"/>
+    <mergeCell ref="C278:C298"/>
+    <mergeCell ref="C300:C345"/>
+    <mergeCell ref="C348:C418"/>
+    <mergeCell ref="C420:C425"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="701">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -1874,27 +1874,6 @@
     <t>5. Summary</t>
   </si>
   <si>
-    <t>10. Random Access File class</t>
-  </si>
-  <si>
-    <t>11. Class Declaration</t>
-  </si>
-  <si>
-    <t>12. RandomAccessFile Methods in Java</t>
-  </si>
-  <si>
-    <t>13. Assisted Practice: Creating and Using a Random Access File object</t>
-  </si>
-  <si>
-    <t>14. Java.io.Console class</t>
-  </si>
-  <si>
-    <t>15. Java.io.Console methods</t>
-  </si>
-  <si>
-    <t>16. Assisted Practice: ConsoleAssisted Practice.java</t>
-  </si>
-  <si>
     <t>25. Storing and Accessing Data</t>
   </si>
   <si>
@@ -2344,9 +2323,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="35">
@@ -2451,8 +2430,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2465,16 +2473,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2483,22 +2491,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2513,17 +2505,24 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2539,14 +2538,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2568,21 +2559,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2593,12 +2578,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -2658,7 +2637,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2670,7 +2673,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2682,7 +2709,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2694,67 +2793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2766,79 +2805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2883,16 +2862,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2904,15 +2883,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2942,6 +2912,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2952,21 +2946,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2982,7 +2961,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3000,135 +2979,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3176,12 +3155,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3755,3388 +3728,3388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" ht="25.5" spans="1:4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="33" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:4">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="33" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="38" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" ht="38.25" spans="1:4">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="33" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="33" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:4">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="33" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="33" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="63.75" spans="1:4">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="33" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="33" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:4">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="33" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="33" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="33" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="33" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" spans="1:4">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="40" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="40" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="40" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="40" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="40" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="40" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="35"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="38" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" ht="76.5" spans="1:4">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="40" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="40" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="41" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="40" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="76.5" spans="1:4">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="40" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="40" t="s">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="40" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="40" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:4">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="40" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="34" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="40" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="76.5" spans="1:4">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="40" t="s">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="40" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="40" t="s">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="40" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="36" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="37"/>
+      <c r="D46" s="35"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="43" t="s">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="43"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="36"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="36" t="s">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="34" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="36" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="36" t="s">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="36" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="36" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="36" t="s">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="36" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="34" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="36" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="36" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="36" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="36" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="36" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="36" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" ht="51" spans="1:4">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="36" t="s">
+      <c r="D63" s="34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="36" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D64" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" ht="38.25" spans="1:4">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="36" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D65" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="36" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="36" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="37"/>
+      <c r="D67" s="35"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="38" t="s">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="30"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="36"/>
+      <c r="D70" s="34"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="36" t="s">
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="34" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="36" t="s">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="36" t="s">
+      <c r="D72" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="36" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="36" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="36" t="s">
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="34" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="36" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="34" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="36" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="36" t="s">
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="34" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="36" t="s">
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="36" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="34" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="36" t="s">
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="36" t="s">
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="D83" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="36" t="s">
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D84" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="36" t="s">
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="D85" s="34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="35"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="36" t="s">
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D86" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" spans="1:4">
-      <c r="A87" s="35"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="36" t="s">
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="36" t="s">
+      <c r="D87" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="88" ht="51" spans="1:4">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="36" t="s">
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="36" t="s">
+      <c r="D88" s="34" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="36" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="37"/>
+      <c r="D89" s="35"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="35"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="38" t="s">
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="39"/>
+      <c r="D90" s="37"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="30"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="28"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="45" t="s">
+      <c r="A92" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="46"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="44"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="47" t="s">
+      <c r="C93" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="48" t="s">
+      <c r="D93" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="52"/>
+      <c r="D94" s="50"/>
     </row>
     <row r="95" ht="76.5" spans="1:4">
-      <c r="A95" s="53"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="51" t="s">
+      <c r="A95" s="51"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D95" s="52" t="s">
+      <c r="D95" s="50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="53"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="51" t="s">
+      <c r="A96" s="51"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="52" t="s">
+      <c r="D96" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" ht="51" spans="1:4">
-      <c r="A97" s="53"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="51" t="s">
+      <c r="A97" s="51"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D97" s="52" t="s">
+      <c r="D97" s="50" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="98" ht="38.25" spans="1:4">
-      <c r="A98" s="53"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="51" t="s">
+      <c r="A98" s="51"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D98" s="52" t="s">
+      <c r="D98" s="50" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="53"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="51" t="s">
+      <c r="A99" s="51"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D99" s="52" t="s">
+      <c r="D99" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" ht="51" spans="1:4">
-      <c r="A100" s="53"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="51" t="s">
+      <c r="A100" s="51"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="52" t="s">
+      <c r="D100" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="53"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="51" t="s">
+      <c r="A101" s="51"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="52" t="s">
+      <c r="D101" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" ht="51" spans="1:4">
-      <c r="A102" s="53"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="51" t="s">
+      <c r="A102" s="51"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="52" t="s">
+      <c r="D102" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="53"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="51" t="s">
+      <c r="A103" s="51"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D103" s="52" t="s">
+      <c r="D103" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104" ht="38.25" spans="1:4">
-      <c r="A104" s="53"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="51" t="s">
+      <c r="A104" s="51"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D104" s="52" t="s">
+      <c r="D104" s="50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="53"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="51" t="s">
+      <c r="A105" s="51"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D105" s="52" t="s">
+      <c r="D105" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" ht="25.5" spans="1:4">
-      <c r="A106" s="53"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="51" t="s">
+      <c r="A106" s="51"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="52" t="s">
+      <c r="D106" s="50" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="53"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="51" t="s">
+      <c r="A107" s="51"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="52" t="s">
+      <c r="D107" s="50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="53"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="54" t="s">
+      <c r="A108" s="51"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="52" t="s">
+      <c r="D108" s="50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54" t="s">
+      <c r="A109" s="51"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="52" t="s">
+      <c r="D109" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="53"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="54" t="s">
+      <c r="A110" s="51"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="52" t="s">
+      <c r="D110" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="53"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="54" t="s">
+      <c r="A111" s="51"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D111" s="52" t="s">
+      <c r="D111" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="53"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="54" t="s">
+      <c r="A112" s="51"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="52" t="s">
+      <c r="D112" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="53"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="54" t="s">
+      <c r="A113" s="51"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D113" s="52" t="s">
+      <c r="D113" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="53"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="51" t="s">
+      <c r="A114" s="51"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="52" t="s">
+      <c r="D114" s="50" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="53"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="51" t="s">
+      <c r="A115" s="51"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D115" s="52" t="s">
+      <c r="D115" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="53"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="51" t="s">
+      <c r="A116" s="51"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="55"/>
+      <c r="D116" s="53"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="53"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="56" t="s">
+      <c r="A117" s="51"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="57"/>
+      <c r="D117" s="55"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="30"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="28"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="32" t="s">
+      <c r="A119" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="51" t="s">
+      <c r="C119" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="58"/>
+      <c r="D119" s="56"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="35"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="51" t="s">
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D120" s="58" t="s">
+      <c r="D120" s="56" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="35"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="51" t="s">
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D121" s="58" t="s">
+      <c r="D121" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="35"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="51" t="s">
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D122" s="58" t="s">
+      <c r="D122" s="56" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="123" ht="38.25" spans="1:4">
-      <c r="A123" s="35"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="51" t="s">
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D123" s="59" t="s">
+      <c r="D123" s="57" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="35"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="51" t="s">
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D124" s="58" t="s">
+      <c r="D124" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" ht="25.5" spans="1:4">
-      <c r="A125" s="35"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="51" t="s">
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="D125" s="59" t="s">
+      <c r="D125" s="57" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="35"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="51" t="s">
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="58" t="s">
+      <c r="D126" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" ht="38.25" spans="1:4">
-      <c r="A127" s="35"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="51" t="s">
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D127" s="59" t="s">
+      <c r="D127" s="57" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="35"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="51" t="s">
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D128" s="58" t="s">
+      <c r="D128" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="35"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="51" t="s">
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D129" s="56" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="130" ht="38.25" spans="1:4">
-      <c r="A130" s="35"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="51" t="s">
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D130" s="59" t="s">
+      <c r="D130" s="57" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="35"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="51" t="s">
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="58" t="s">
+      <c r="D131" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="35"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="51" t="s">
+      <c r="A132" s="33"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D132" s="55"/>
+      <c r="D132" s="53"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="35"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="60" t="s">
+      <c r="A133" s="33"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="61"/>
+      <c r="D133" s="59"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="28"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="30"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="28"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="49" t="s">
+      <c r="A135" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B135" s="62" t="s">
+      <c r="B135" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C135" s="51" t="s">
+      <c r="C135" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="55"/>
+      <c r="D135" s="53"/>
     </row>
     <row r="136" ht="76.5" spans="1:4">
-      <c r="A136" s="53"/>
-      <c r="B136" s="53"/>
-      <c r="C136" s="51" t="s">
+      <c r="A136" s="51"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D136" s="52" t="s">
+      <c r="D136" s="50" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="53"/>
-      <c r="B137" s="53"/>
-      <c r="C137" s="51" t="s">
+      <c r="A137" s="51"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="D137" s="52" t="s">
+      <c r="D137" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="53"/>
-      <c r="B138" s="53"/>
-      <c r="C138" s="51" t="s">
+      <c r="A138" s="51"/>
+      <c r="B138" s="51"/>
+      <c r="C138" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D138" s="52" t="s">
+      <c r="D138" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="53"/>
-      <c r="B139" s="53"/>
-      <c r="C139" s="51" t="s">
+      <c r="A139" s="51"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D139" s="52" t="s">
+      <c r="D139" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" ht="25.5" spans="1:4">
-      <c r="A140" s="53"/>
-      <c r="B140" s="53"/>
-      <c r="C140" s="51" t="s">
+      <c r="A140" s="51"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="59" t="s">
+      <c r="D140" s="57" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="53"/>
-      <c r="B141" s="53"/>
-      <c r="C141" s="51" t="s">
+      <c r="A141" s="51"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D141" s="52" t="s">
+      <c r="D141" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="53"/>
-      <c r="B142" s="53"/>
-      <c r="C142" s="51" t="s">
+      <c r="A142" s="51"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D142" s="52" t="s">
+      <c r="D142" s="50" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="143" ht="63.75" spans="1:4">
-      <c r="A143" s="53"/>
-      <c r="B143" s="53"/>
-      <c r="C143" s="54" t="s">
+      <c r="A143" s="51"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="52" t="s">
+      <c r="D143" s="50" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="53"/>
-      <c r="B144" s="53"/>
-      <c r="C144" s="54" t="s">
+      <c r="A144" s="51"/>
+      <c r="B144" s="51"/>
+      <c r="C144" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D144" s="52" t="s">
+      <c r="D144" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" ht="51" spans="1:4">
-      <c r="A145" s="53"/>
-      <c r="B145" s="53"/>
-      <c r="C145" s="51" t="s">
+      <c r="A145" s="51"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="59" t="s">
+      <c r="D145" s="57" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="146" ht="51" spans="1:4">
-      <c r="A146" s="53"/>
-      <c r="B146" s="53"/>
-      <c r="C146" s="51" t="s">
+      <c r="A146" s="51"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D146" s="59" t="s">
+      <c r="D146" s="57" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="53"/>
-      <c r="B147" s="53"/>
-      <c r="C147" s="51" t="s">
+      <c r="A147" s="51"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D147" s="52" t="s">
+      <c r="D147" s="50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="53"/>
-      <c r="B148" s="53"/>
-      <c r="C148" s="51" t="s">
+      <c r="A148" s="51"/>
+      <c r="B148" s="51"/>
+      <c r="C148" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D148" s="59" t="s">
+      <c r="D148" s="57" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="53"/>
-      <c r="B149" s="53"/>
-      <c r="C149" s="51" t="s">
+      <c r="A149" s="51"/>
+      <c r="B149" s="51"/>
+      <c r="C149" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D149" s="52" t="s">
+      <c r="D149" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="53"/>
-      <c r="B150" s="53"/>
-      <c r="C150" s="51" t="s">
+      <c r="A150" s="51"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D150" s="59" t="s">
+      <c r="D150" s="57" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="53"/>
-      <c r="B151" s="53"/>
-      <c r="C151" s="51" t="s">
+      <c r="A151" s="51"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D151" s="52" t="s">
+      <c r="D151" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="53"/>
-      <c r="B152" s="53"/>
-      <c r="C152" s="63" t="s">
+      <c r="A152" s="51"/>
+      <c r="B152" s="51"/>
+      <c r="C152" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="D152" s="64" t="s">
+      <c r="D152" s="62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="53"/>
-      <c r="B153" s="53"/>
-      <c r="C153" s="63" t="s">
+      <c r="A153" s="51"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="D153" s="65" t="s">
+      <c r="D153" s="63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="53"/>
-      <c r="B154" s="53"/>
-      <c r="C154" s="51" t="s">
+      <c r="A154" s="51"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="55"/>
+      <c r="D154" s="53"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="53"/>
-      <c r="B155" s="53"/>
-      <c r="C155" s="56" t="s">
+      <c r="A155" s="51"/>
+      <c r="B155" s="51"/>
+      <c r="C155" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="57"/>
+      <c r="D155" s="55"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="28"/>
-      <c r="B156" s="28"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="30"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="28"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="49" t="s">
+      <c r="A157" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B157" s="62" t="s">
+      <c r="B157" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C157" s="51" t="s">
+      <c r="C157" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="55"/>
+      <c r="D157" s="53"/>
     </row>
     <row r="158" ht="38.25" spans="1:4">
-      <c r="A158" s="53"/>
-      <c r="B158" s="53"/>
-      <c r="C158" s="51" t="s">
+      <c r="A158" s="51"/>
+      <c r="B158" s="51"/>
+      <c r="C158" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D158" s="52" t="s">
+      <c r="D158" s="50" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="53"/>
-      <c r="B159" s="53"/>
-      <c r="C159" s="51" t="s">
+      <c r="A159" s="51"/>
+      <c r="B159" s="51"/>
+      <c r="C159" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D159" s="52" t="s">
+      <c r="D159" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="160" ht="51" spans="1:4">
-      <c r="A160" s="53"/>
-      <c r="B160" s="53"/>
-      <c r="C160" s="51" t="s">
+      <c r="A160" s="51"/>
+      <c r="B160" s="51"/>
+      <c r="C160" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D160" s="52" t="s">
+      <c r="D160" s="50" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="161" ht="114.75" spans="1:4">
-      <c r="A161" s="53"/>
-      <c r="B161" s="53"/>
-      <c r="C161" s="51" t="s">
+      <c r="A161" s="51"/>
+      <c r="B161" s="51"/>
+      <c r="C161" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D161" s="52" t="s">
+      <c r="D161" s="50" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="53"/>
-      <c r="B162" s="53"/>
-      <c r="C162" s="51" t="s">
+      <c r="A162" s="51"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D162" s="52" t="s">
+      <c r="D162" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" ht="76.5" spans="1:4">
-      <c r="A163" s="53"/>
-      <c r="B163" s="53"/>
-      <c r="C163" s="51" t="s">
+      <c r="A163" s="51"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D163" s="52" t="s">
+      <c r="D163" s="50" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="53"/>
-      <c r="B164" s="53"/>
-      <c r="C164" s="51" t="s">
+      <c r="A164" s="51"/>
+      <c r="B164" s="51"/>
+      <c r="C164" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D164" s="52" t="s">
+      <c r="D164" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="165" ht="140.25" spans="1:4">
-      <c r="A165" s="53"/>
-      <c r="B165" s="53"/>
-      <c r="C165" s="51" t="s">
+      <c r="A165" s="51"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D165" s="52" t="s">
+      <c r="D165" s="50" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="53"/>
-      <c r="B166" s="53"/>
-      <c r="C166" s="51" t="s">
+      <c r="A166" s="51"/>
+      <c r="B166" s="51"/>
+      <c r="C166" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D166" s="52" t="s">
+      <c r="D166" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="167" ht="25.5" spans="1:4">
-      <c r="A167" s="53"/>
-      <c r="B167" s="53"/>
-      <c r="C167" s="51" t="s">
+      <c r="A167" s="51"/>
+      <c r="B167" s="51"/>
+      <c r="C167" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="D167" s="52" t="s">
+      <c r="D167" s="50" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="168" ht="38.25" spans="1:4">
-      <c r="A168" s="53"/>
-      <c r="B168" s="53"/>
-      <c r="C168" s="51" t="s">
+      <c r="A168" s="51"/>
+      <c r="B168" s="51"/>
+      <c r="C168" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D168" s="52" t="s">
+      <c r="D168" s="50" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="53"/>
-      <c r="B169" s="53"/>
-      <c r="C169" s="51" t="s">
+      <c r="A169" s="51"/>
+      <c r="B169" s="51"/>
+      <c r="C169" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D169" s="52" t="s">
+      <c r="D169" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="53"/>
-      <c r="B170" s="53"/>
-      <c r="C170" s="51" t="s">
+      <c r="A170" s="51"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D170" s="55"/>
+      <c r="D170" s="53"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="53"/>
-      <c r="B171" s="53"/>
-      <c r="C171" s="56" t="s">
+      <c r="A171" s="51"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D171" s="57"/>
+      <c r="D171" s="55"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="28"/>
-      <c r="B172" s="28"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="30"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="28"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="66"/>
-      <c r="B173" s="66"/>
-      <c r="C173" s="67" t="s">
+      <c r="A173" s="64"/>
+      <c r="B173" s="64"/>
+      <c r="C173" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="D173" s="46"/>
+      <c r="D173" s="44"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B174" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C174" s="68" t="s">
+      <c r="C174" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="69" t="s">
+      <c r="D174" s="67" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="32" t="s">
+      <c r="A175" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="31" t="s">
+      <c r="B175" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C175" s="51" t="s">
+      <c r="C175" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D175" s="70"/>
+      <c r="D175" s="68"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="35"/>
-      <c r="B176" s="35"/>
-      <c r="C176" s="51" t="s">
+      <c r="A176" s="33"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D176" s="70" t="s">
+      <c r="D176" s="68" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="35"/>
-      <c r="B177" s="35"/>
-      <c r="C177" s="51" t="s">
+      <c r="A177" s="33"/>
+      <c r="B177" s="33"/>
+      <c r="C177" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D177" s="70" t="s">
+      <c r="D177" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="35"/>
-      <c r="B178" s="35"/>
-      <c r="C178" s="63" t="s">
+      <c r="A178" s="33"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="D178" s="71" t="s">
+      <c r="D178" s="69" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="179" ht="51" spans="1:4">
-      <c r="A179" s="35"/>
-      <c r="B179" s="35"/>
-      <c r="C179" s="63" t="s">
+      <c r="A179" s="33"/>
+      <c r="B179" s="33"/>
+      <c r="C179" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D179" s="72" t="s">
+      <c r="D179" s="70" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="35"/>
-      <c r="B180" s="35"/>
-      <c r="C180" s="63" t="s">
+      <c r="A180" s="33"/>
+      <c r="B180" s="33"/>
+      <c r="C180" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D180" s="71" t="s">
+      <c r="D180" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="181" ht="25.5" spans="1:4">
-      <c r="A181" s="35"/>
-      <c r="B181" s="35"/>
-      <c r="C181" s="51" t="s">
+      <c r="A181" s="33"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="D181" s="73" t="s">
+      <c r="D181" s="71" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="35"/>
-      <c r="B182" s="35"/>
-      <c r="C182" s="51" t="s">
+      <c r="A182" s="33"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="D182" s="70" t="s">
+      <c r="D182" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" ht="25.5" spans="1:4">
-      <c r="A183" s="35"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="51" t="s">
+      <c r="A183" s="33"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D183" s="73" t="s">
+      <c r="D183" s="71" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="35"/>
-      <c r="B184" s="35"/>
-      <c r="C184" s="51" t="s">
+      <c r="A184" s="33"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="74"/>
+      <c r="D184" s="72"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="35"/>
-      <c r="B185" s="35"/>
-      <c r="C185" s="60" t="s">
+      <c r="A185" s="33"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="75"/>
+      <c r="D185" s="73"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="28"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="76"/>
-      <c r="D186" s="47"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="74"/>
+      <c r="D186" s="45"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="32" t="s">
+      <c r="A187" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="31" t="s">
+      <c r="B187" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="C187" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D187" s="70"/>
+      <c r="D187" s="68"/>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="35"/>
-      <c r="B188" s="35"/>
-      <c r="C188" s="63" t="s">
+      <c r="A188" s="33"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D188" s="63" t="s">
+      <c r="D188" s="61" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="35"/>
-      <c r="B189" s="35"/>
-      <c r="C189" s="63" t="s">
+      <c r="A189" s="33"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="D189" s="63" t="s">
+      <c r="D189" s="61" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="35"/>
-      <c r="B190" s="35"/>
-      <c r="C190" s="63" t="s">
+      <c r="A190" s="33"/>
+      <c r="B190" s="33"/>
+      <c r="C190" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="D190" s="71" t="s">
+      <c r="D190" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="35"/>
-      <c r="B191" s="35"/>
-      <c r="C191" s="63" t="s">
+      <c r="A191" s="33"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="D191" s="63" t="s">
+      <c r="D191" s="61" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="35"/>
-      <c r="B192" s="35"/>
-      <c r="C192" s="63" t="s">
+      <c r="A192" s="33"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="D192" s="63" t="s">
+      <c r="D192" s="61" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="35"/>
-      <c r="B193" s="35"/>
-      <c r="C193" s="63" t="s">
+      <c r="A193" s="33"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="D193" s="71" t="s">
+      <c r="D193" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="35"/>
-      <c r="B194" s="35"/>
-      <c r="C194" s="63" t="s">
+      <c r="A194" s="33"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D194" s="63" t="s">
+      <c r="D194" s="61" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="35"/>
-      <c r="B195" s="35"/>
-      <c r="C195" s="63" t="s">
+      <c r="A195" s="33"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D195" s="71" t="s">
+      <c r="D195" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="35"/>
-      <c r="B196" s="35"/>
-      <c r="C196" s="63" t="s">
+      <c r="A196" s="33"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D196" s="71" t="s">
+      <c r="D196" s="69" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="35"/>
-      <c r="B197" s="35"/>
-      <c r="C197" s="63" t="s">
+      <c r="A197" s="33"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D197" s="71" t="s">
+      <c r="D197" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" ht="25.5" spans="1:4">
-      <c r="A198" s="35"/>
-      <c r="B198" s="35"/>
-      <c r="C198" s="63" t="s">
+      <c r="A198" s="33"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="D198" s="72" t="s">
+      <c r="D198" s="70" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="199" ht="25.5" spans="1:4">
-      <c r="A199" s="35"/>
-      <c r="B199" s="35"/>
-      <c r="C199" s="63" t="s">
+      <c r="A199" s="33"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D199" s="72" t="s">
+      <c r="D199" s="70" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="35"/>
-      <c r="B200" s="35"/>
-      <c r="C200" s="63" t="s">
+      <c r="A200" s="33"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="D200" s="71" t="s">
+      <c r="D200" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="35"/>
-      <c r="B201" s="35"/>
-      <c r="C201" s="63" t="s">
+      <c r="A201" s="33"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="D201" s="71" t="s">
+      <c r="D201" s="69" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="35"/>
-      <c r="B202" s="35"/>
-      <c r="C202" s="63" t="s">
+      <c r="A202" s="33"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="D202" s="71" t="s">
+      <c r="D202" s="69" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="35"/>
-      <c r="B203" s="35"/>
-      <c r="C203" s="63" t="s">
+      <c r="A203" s="33"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="D203" s="71" t="s">
+      <c r="D203" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="35"/>
-      <c r="B204" s="35"/>
-      <c r="C204" s="63" t="s">
+      <c r="A204" s="33"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D204" s="77"/>
+      <c r="D204" s="75"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="35"/>
-      <c r="B205" s="35"/>
-      <c r="C205" s="60" t="s">
+      <c r="A205" s="33"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D205" s="75"/>
+      <c r="D205" s="73"/>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="28"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="76"/>
-      <c r="D206" s="47"/>
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="74"/>
+      <c r="D206" s="45"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="49" t="s">
+      <c r="A207" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B207" s="49" t="s">
+      <c r="B207" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C207" s="54" t="s">
+      <c r="C207" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D207" s="78"/>
+      <c r="D207" s="76"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="35"/>
-      <c r="B208" s="35"/>
-      <c r="C208" s="79" t="s">
+      <c r="A208" s="33"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="D208" s="78" t="s">
+      <c r="D208" s="76" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="35"/>
-      <c r="B209" s="35"/>
-      <c r="C209" s="79" t="s">
+      <c r="A209" s="33"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="D209" s="78" t="s">
+      <c r="D209" s="76" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="35"/>
-      <c r="B210" s="35"/>
-      <c r="C210" s="79" t="s">
+      <c r="A210" s="33"/>
+      <c r="B210" s="33"/>
+      <c r="C210" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="D210" s="78" t="s">
+      <c r="D210" s="76" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="35"/>
-      <c r="B211" s="35"/>
-      <c r="C211" s="79" t="s">
+      <c r="A211" s="33"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="D211" s="78" t="s">
+      <c r="D211" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="35"/>
-      <c r="B212" s="35"/>
-      <c r="C212" s="80" t="s">
+      <c r="A212" s="33"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="D212" s="81" t="s">
+      <c r="D212" s="79" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="35"/>
-      <c r="B213" s="35"/>
-      <c r="C213" s="80" t="s">
+      <c r="A213" s="33"/>
+      <c r="B213" s="33"/>
+      <c r="C213" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="D213" s="81" t="s">
+      <c r="D213" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="35"/>
-      <c r="B214" s="35"/>
-      <c r="C214" s="79" t="s">
+      <c r="A214" s="33"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="D214" s="78" t="s">
+      <c r="D214" s="76" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="35"/>
-      <c r="B215" s="35"/>
-      <c r="C215" s="79" t="s">
+      <c r="A215" s="33"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="D215" s="78" t="s">
+      <c r="D215" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="35"/>
-      <c r="B216" s="35"/>
-      <c r="C216" s="79" t="s">
+      <c r="A216" s="33"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="D216" s="78" t="s">
+      <c r="D216" s="76" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="35"/>
-      <c r="B217" s="35"/>
-      <c r="C217" s="79" t="s">
+      <c r="A217" s="33"/>
+      <c r="B217" s="33"/>
+      <c r="C217" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="D217" s="78" t="s">
+      <c r="D217" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="35"/>
-      <c r="B218" s="35"/>
-      <c r="C218" s="79" t="s">
+      <c r="A218" s="33"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="D218" s="78" t="s">
+      <c r="D218" s="76" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="35"/>
-      <c r="B219" s="35"/>
-      <c r="C219" s="79" t="s">
+      <c r="A219" s="33"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="D219" s="78" t="s">
+      <c r="D219" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="35"/>
-      <c r="B220" s="35"/>
-      <c r="C220" s="79" t="s">
+      <c r="A220" s="33"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="D220" s="78" t="s">
+      <c r="D220" s="76" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="35"/>
-      <c r="B221" s="35"/>
-      <c r="C221" s="79" t="s">
+      <c r="A221" s="33"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="D221" s="78" t="s">
+      <c r="D221" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="35"/>
-      <c r="B222" s="35"/>
-      <c r="C222" s="51" t="s">
+      <c r="A222" s="33"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D222" s="74"/>
+      <c r="D222" s="72"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="35"/>
-      <c r="B223" s="35"/>
-      <c r="C223" s="60" t="s">
+      <c r="A223" s="33"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D223" s="75"/>
+      <c r="D223" s="73"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="28"/>
-      <c r="B224" s="28"/>
-      <c r="C224" s="76"/>
-      <c r="D224" s="47"/>
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="74"/>
+      <c r="D224" s="45"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="44" t="s">
+      <c r="A225" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B225" s="44" t="s">
+      <c r="B225" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C225" s="51" t="s">
+      <c r="C225" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D225" s="70"/>
+      <c r="D225" s="68"/>
     </row>
     <row r="226" ht="89.25" spans="1:4">
-      <c r="A226" s="35"/>
-      <c r="B226" s="35"/>
-      <c r="C226" s="82" t="s">
+      <c r="A226" s="33"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="D226" s="81" t="s">
+      <c r="D226" s="79" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="227" ht="51" spans="1:4">
-      <c r="A227" s="35"/>
-      <c r="B227" s="35"/>
-      <c r="C227" s="82" t="s">
+      <c r="A227" s="33"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="D227" s="81" t="s">
+      <c r="D227" s="79" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="35"/>
-      <c r="B228" s="35"/>
-      <c r="C228" s="82" t="s">
+      <c r="A228" s="33"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="D228" s="77" t="s">
+      <c r="D228" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="229" ht="63.75" spans="1:4">
-      <c r="A229" s="35"/>
-      <c r="B229" s="35"/>
-      <c r="C229" s="82" t="s">
+      <c r="A229" s="33"/>
+      <c r="B229" s="33"/>
+      <c r="C229" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="D229" s="81" t="s">
+      <c r="D229" s="79" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="35"/>
-      <c r="B230" s="35"/>
-      <c r="C230" s="82" t="s">
+      <c r="A230" s="33"/>
+      <c r="B230" s="33"/>
+      <c r="C230" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="D230" s="77" t="s">
+      <c r="D230" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="35"/>
-      <c r="B231" s="35"/>
-      <c r="C231" s="74" t="s">
+      <c r="A231" s="33"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="D231" s="83"/>
+      <c r="D231" s="81"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="35"/>
-      <c r="B232" s="35"/>
-      <c r="C232" s="60" t="s">
+      <c r="A232" s="33"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D232" s="75"/>
+      <c r="D232" s="73"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="28"/>
-      <c r="B233" s="28"/>
-      <c r="C233" s="76"/>
-      <c r="D233" s="47"/>
+      <c r="A233" s="26"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="74"/>
+      <c r="D233" s="45"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="66"/>
-      <c r="B234" s="66"/>
-      <c r="C234" s="84" t="s">
+      <c r="A234" s="64"/>
+      <c r="B234" s="64"/>
+      <c r="C234" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="D234" s="85"/>
+      <c r="D234" s="83"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="25" t="s">
+      <c r="A235" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B235" s="25" t="s">
+      <c r="B235" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C235" s="25" t="s">
+      <c r="C235" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="48" t="s">
+      <c r="D235" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="44" t="s">
+      <c r="A236" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="44" t="s">
+      <c r="B236" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C236" s="86" t="s">
+      <c r="C236" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D236" s="52"/>
+      <c r="D236" s="50"/>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="35"/>
-      <c r="B237" s="35"/>
-      <c r="C237" s="86" t="s">
+      <c r="A237" s="33"/>
+      <c r="B237" s="33"/>
+      <c r="C237" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="D237" s="52" t="s">
+      <c r="D237" s="50" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="35"/>
-      <c r="B238" s="35"/>
-      <c r="C238" s="53"/>
-      <c r="D238" s="52" t="s">
+      <c r="A238" s="33"/>
+      <c r="B238" s="33"/>
+      <c r="C238" s="51"/>
+      <c r="D238" s="50" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="35"/>
-      <c r="B239" s="35"/>
-      <c r="C239" s="53"/>
-      <c r="D239" s="52" t="s">
+      <c r="A239" s="33"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="51"/>
+      <c r="D239" s="50" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="35"/>
-      <c r="B240" s="35"/>
-      <c r="C240" s="53"/>
-      <c r="D240" s="52" t="s">
+      <c r="A240" s="33"/>
+      <c r="B240" s="33"/>
+      <c r="C240" s="51"/>
+      <c r="D240" s="50" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="35"/>
-      <c r="B241" s="35"/>
-      <c r="C241" s="53"/>
-      <c r="D241" s="52" t="s">
+      <c r="A241" s="33"/>
+      <c r="B241" s="33"/>
+      <c r="C241" s="51"/>
+      <c r="D241" s="50" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="35"/>
-      <c r="B242" s="35"/>
-      <c r="C242" s="87" t="s">
+      <c r="A242" s="33"/>
+      <c r="B242" s="33"/>
+      <c r="C242" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="D242" s="52" t="s">
+      <c r="D242" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="35"/>
-      <c r="B243" s="35"/>
-      <c r="C243" s="86" t="s">
+      <c r="A243" s="33"/>
+      <c r="B243" s="33"/>
+      <c r="C243" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="D243" s="52" t="s">
+      <c r="D243" s="50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="35"/>
-      <c r="B244" s="35"/>
-      <c r="C244" s="53"/>
-      <c r="D244" s="52" t="s">
+      <c r="A244" s="33"/>
+      <c r="B244" s="33"/>
+      <c r="C244" s="51"/>
+      <c r="D244" s="50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="245" ht="153" spans="1:4">
-      <c r="A245" s="35"/>
-      <c r="B245" s="35"/>
-      <c r="C245" s="86" t="s">
+      <c r="A245" s="33"/>
+      <c r="B245" s="33"/>
+      <c r="C245" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="D245" s="52" t="s">
+      <c r="D245" s="50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="35"/>
-      <c r="B246" s="35"/>
-      <c r="C246" s="86" t="s">
+      <c r="A246" s="33"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D246" s="52" t="s">
+      <c r="D246" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="35"/>
-      <c r="B247" s="35"/>
-      <c r="C247" s="86" t="s">
+      <c r="A247" s="33"/>
+      <c r="B247" s="33"/>
+      <c r="C247" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="D247" s="52" t="s">
+      <c r="D247" s="50" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="35"/>
-      <c r="B248" s="35"/>
-      <c r="C248" s="53"/>
-      <c r="D248" s="52" t="s">
+      <c r="A248" s="33"/>
+      <c r="B248" s="33"/>
+      <c r="C248" s="51"/>
+      <c r="D248" s="50" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="35"/>
-      <c r="B249" s="35"/>
-      <c r="C249" s="53"/>
-      <c r="D249" s="52" t="s">
+      <c r="A249" s="33"/>
+      <c r="B249" s="33"/>
+      <c r="C249" s="51"/>
+      <c r="D249" s="50" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="35"/>
-      <c r="B250" s="35"/>
-      <c r="C250" s="53"/>
-      <c r="D250" s="52" t="s">
+      <c r="A250" s="33"/>
+      <c r="B250" s="33"/>
+      <c r="C250" s="51"/>
+      <c r="D250" s="50" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="35"/>
-      <c r="B251" s="35"/>
-      <c r="C251" s="53"/>
-      <c r="D251" s="52" t="s">
+      <c r="A251" s="33"/>
+      <c r="B251" s="33"/>
+      <c r="C251" s="51"/>
+      <c r="D251" s="50" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="35"/>
-      <c r="B252" s="35"/>
-      <c r="C252" s="53"/>
-      <c r="D252" s="52" t="s">
+      <c r="A252" s="33"/>
+      <c r="B252" s="33"/>
+      <c r="C252" s="51"/>
+      <c r="D252" s="50" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="35"/>
-      <c r="B253" s="35"/>
-      <c r="C253" s="53"/>
-      <c r="D253" s="52" t="s">
+      <c r="A253" s="33"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="51"/>
+      <c r="D253" s="50" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="35"/>
-      <c r="B254" s="35"/>
-      <c r="C254" s="86" t="s">
+      <c r="A254" s="33"/>
+      <c r="B254" s="33"/>
+      <c r="C254" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="D254" s="52" t="s">
+      <c r="D254" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="35"/>
-      <c r="B255" s="35"/>
-      <c r="C255" s="86" t="s">
+      <c r="A255" s="33"/>
+      <c r="B255" s="33"/>
+      <c r="C255" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="D255" s="52" t="s">
+      <c r="D255" s="50" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="35"/>
-      <c r="B256" s="35"/>
-      <c r="C256" s="53"/>
-      <c r="D256" s="88" t="s">
+      <c r="A256" s="33"/>
+      <c r="B256" s="33"/>
+      <c r="C256" s="51"/>
+      <c r="D256" s="86" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="35"/>
-      <c r="B257" s="35"/>
-      <c r="C257" s="53"/>
-      <c r="D257" s="88" t="s">
+      <c r="A257" s="33"/>
+      <c r="B257" s="33"/>
+      <c r="C257" s="51"/>
+      <c r="D257" s="86" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="35"/>
-      <c r="B258" s="35"/>
-      <c r="C258" s="86" t="s">
+      <c r="A258" s="33"/>
+      <c r="B258" s="33"/>
+      <c r="C258" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="D258" s="52" t="s">
+      <c r="D258" s="50" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="35"/>
-      <c r="B259" s="35"/>
-      <c r="C259" s="53"/>
-      <c r="D259" s="52" t="s">
+      <c r="A259" s="33"/>
+      <c r="B259" s="33"/>
+      <c r="C259" s="51"/>
+      <c r="D259" s="50" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="35"/>
-      <c r="B260" s="35"/>
-      <c r="C260" s="53"/>
-      <c r="D260" s="52" t="s">
+      <c r="A260" s="33"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="51"/>
+      <c r="D260" s="50" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="35"/>
-      <c r="B261" s="35"/>
-      <c r="C261" s="53"/>
-      <c r="D261" s="52" t="s">
+      <c r="A261" s="33"/>
+      <c r="B261" s="33"/>
+      <c r="C261" s="51"/>
+      <c r="D261" s="50" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="35"/>
-      <c r="B262" s="35"/>
-      <c r="C262" s="86" t="s">
+      <c r="A262" s="33"/>
+      <c r="B262" s="33"/>
+      <c r="C262" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="D262" s="52" t="s">
+      <c r="D262" s="50" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="35"/>
-      <c r="B263" s="35"/>
-      <c r="C263" s="89" t="s">
+      <c r="A263" s="33"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D263" s="90"/>
+      <c r="D263" s="88"/>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="35"/>
-      <c r="B264" s="35"/>
-      <c r="C264" s="91" t="s">
+      <c r="A264" s="33"/>
+      <c r="B264" s="33"/>
+      <c r="C264" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D264" s="61"/>
+      <c r="D264" s="59"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="28"/>
-      <c r="B265" s="28"/>
-      <c r="C265" s="29"/>
-      <c r="D265" s="30"/>
+      <c r="A265" s="26"/>
+      <c r="B265" s="26"/>
+      <c r="C265" s="27"/>
+      <c r="D265" s="28"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="44" t="s">
+      <c r="A266" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B266" s="49" t="s">
+      <c r="B266" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="C266" s="73" t="s">
+      <c r="C266" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D266" s="52"/>
+      <c r="D266" s="50"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="35"/>
-      <c r="B267" s="35"/>
-      <c r="C267" s="80" t="s">
+      <c r="A267" s="33"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="D267" s="92" t="s">
+      <c r="D267" s="90" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="35"/>
-      <c r="B268" s="35"/>
-      <c r="C268" s="80" t="s">
+      <c r="A268" s="33"/>
+      <c r="B268" s="33"/>
+      <c r="C268" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="D268" s="92" t="s">
+      <c r="D268" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="269" ht="25.5" spans="1:4">
-      <c r="A269" s="35"/>
-      <c r="B269" s="35"/>
-      <c r="C269" s="80" t="s">
+      <c r="A269" s="33"/>
+      <c r="B269" s="33"/>
+      <c r="C269" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="D269" s="72" t="s">
+      <c r="D269" s="70" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="35"/>
-      <c r="B270" s="35"/>
-      <c r="C270" s="80" t="s">
+      <c r="A270" s="33"/>
+      <c r="B270" s="33"/>
+      <c r="C270" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="D270" s="77" t="s">
+      <c r="D270" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="271" ht="38.25" spans="1:4">
-      <c r="A271" s="35"/>
-      <c r="B271" s="35"/>
-      <c r="C271" s="80" t="s">
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="D271" s="81" t="s">
+      <c r="D271" s="79" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="35"/>
-      <c r="B272" s="35"/>
-      <c r="C272" s="80" t="s">
+      <c r="A272" s="33"/>
+      <c r="B272" s="33"/>
+      <c r="C272" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="D272" s="77" t="s">
+      <c r="D272" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="273" ht="38.25" spans="1:4">
-      <c r="A273" s="35"/>
-      <c r="B273" s="35"/>
-      <c r="C273" s="80" t="s">
+      <c r="A273" s="33"/>
+      <c r="B273" s="33"/>
+      <c r="C273" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="D273" s="72" t="s">
+      <c r="D273" s="70" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="35"/>
-      <c r="B274" s="35"/>
-      <c r="C274" s="80" t="s">
+      <c r="A274" s="33"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="D274" s="77" t="s">
+      <c r="D274" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="275" ht="38.25" spans="1:4">
-      <c r="A275" s="35"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="80" t="s">
+      <c r="A275" s="33"/>
+      <c r="B275" s="33"/>
+      <c r="C275" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="D275" s="72" t="s">
+      <c r="D275" s="70" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="35"/>
-      <c r="B276" s="35"/>
-      <c r="C276" s="80" t="s">
+      <c r="A276" s="33"/>
+      <c r="B276" s="33"/>
+      <c r="C276" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="D276" s="92" t="s">
+      <c r="D276" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="35"/>
-      <c r="B277" s="35"/>
-      <c r="C277" s="51" t="s">
+      <c r="A277" s="33"/>
+      <c r="B277" s="33"/>
+      <c r="C277" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D277" s="55"/>
+      <c r="D277" s="53"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="35"/>
-      <c r="B278" s="35"/>
-      <c r="C278" s="60" t="s">
+      <c r="A278" s="33"/>
+      <c r="B278" s="33"/>
+      <c r="C278" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D278" s="61"/>
+      <c r="D278" s="59"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="28"/>
-      <c r="B279" s="28"/>
-      <c r="C279" s="29"/>
-      <c r="D279" s="30"/>
+      <c r="A279" s="26"/>
+      <c r="B279" s="26"/>
+      <c r="C279" s="27"/>
+      <c r="D279" s="28"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="49" t="s">
+      <c r="A280" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B280" s="49" t="s">
+      <c r="B280" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="C280" s="41" t="s">
+      <c r="C280" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D280" s="64"/>
+      <c r="D280" s="62"/>
     </row>
     <row r="281" ht="25.5" spans="1:4">
-      <c r="A281" s="35"/>
-      <c r="B281" s="35"/>
-      <c r="C281" s="93" t="s">
+      <c r="A281" s="33"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="D281" s="65" t="s">
+      <c r="D281" s="63" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="282" ht="25.5" spans="1:4">
-      <c r="A282" s="35"/>
-      <c r="B282" s="35"/>
-      <c r="C282" s="40" t="s">
+      <c r="A282" s="33"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="D282" s="65" t="s">
+      <c r="D282" s="63" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="35"/>
-      <c r="B283" s="35"/>
-      <c r="C283" s="40" t="s">
+      <c r="A283" s="33"/>
+      <c r="B283" s="33"/>
+      <c r="C283" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="D283" s="94" t="s">
+      <c r="D283" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="284" ht="63.75" spans="1:4">
-      <c r="A284" s="35"/>
-      <c r="B284" s="35"/>
-      <c r="C284" s="40" t="s">
+      <c r="A284" s="33"/>
+      <c r="B284" s="33"/>
+      <c r="C284" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="D284" s="65" t="s">
+      <c r="D284" s="63" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="285" ht="38.25" spans="1:4">
-      <c r="A285" s="35"/>
-      <c r="B285" s="35"/>
-      <c r="C285" s="93" t="s">
+      <c r="A285" s="33"/>
+      <c r="B285" s="33"/>
+      <c r="C285" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="D285" s="65" t="s">
+      <c r="D285" s="63" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="35"/>
-      <c r="B286" s="35"/>
-      <c r="C286" s="93" t="s">
+      <c r="A286" s="33"/>
+      <c r="B286" s="33"/>
+      <c r="C286" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="D286" s="92" t="s">
+      <c r="D286" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="287" ht="25.5" spans="1:4">
-      <c r="A287" s="35"/>
-      <c r="B287" s="35"/>
-      <c r="C287" s="93" t="s">
+      <c r="A287" s="33"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="D287" s="65" t="s">
+      <c r="D287" s="63" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="35"/>
-      <c r="B288" s="35"/>
-      <c r="C288" s="93" t="s">
+      <c r="A288" s="33"/>
+      <c r="B288" s="33"/>
+      <c r="C288" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="D288" s="92" t="s">
+      <c r="D288" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="289" ht="38.25" spans="1:4">
-      <c r="A289" s="35"/>
-      <c r="B289" s="35"/>
-      <c r="C289" s="93" t="s">
+      <c r="A289" s="33"/>
+      <c r="B289" s="33"/>
+      <c r="C289" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="D289" s="65" t="s">
+      <c r="D289" s="63" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="35"/>
-      <c r="B290" s="35"/>
-      <c r="C290" s="93" t="s">
+      <c r="A290" s="33"/>
+      <c r="B290" s="33"/>
+      <c r="C290" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="D290" s="92" t="s">
+      <c r="D290" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="291" ht="38.25" spans="1:4">
-      <c r="A291" s="35"/>
-      <c r="B291" s="35"/>
-      <c r="C291" s="93" t="s">
+      <c r="A291" s="33"/>
+      <c r="B291" s="33"/>
+      <c r="C291" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="D291" s="65" t="s">
+      <c r="D291" s="63" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="35"/>
-      <c r="B292" s="35"/>
-      <c r="C292" s="40" t="s">
+      <c r="A292" s="33"/>
+      <c r="B292" s="33"/>
+      <c r="C292" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="D292" s="92" t="s">
+      <c r="D292" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="293" ht="51" spans="1:4">
-      <c r="A293" s="35"/>
-      <c r="B293" s="35"/>
-      <c r="C293" s="93" t="s">
+      <c r="A293" s="33"/>
+      <c r="B293" s="33"/>
+      <c r="C293" s="91" t="s">
         <v>262</v>
       </c>
-      <c r="D293" s="65" t="s">
+      <c r="D293" s="63" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="35"/>
-      <c r="B294" s="35"/>
-      <c r="C294" s="40" t="s">
+      <c r="A294" s="33"/>
+      <c r="B294" s="33"/>
+      <c r="C294" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="D294" s="94" t="s">
+      <c r="D294" s="92" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="295" ht="51" spans="1:4">
-      <c r="A295" s="35"/>
-      <c r="B295" s="35"/>
-      <c r="C295" s="93" t="s">
+      <c r="A295" s="33"/>
+      <c r="B295" s="33"/>
+      <c r="C295" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="D295" s="65" t="s">
+      <c r="D295" s="63" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="296" ht="51" spans="1:4">
-      <c r="A296" s="35"/>
-      <c r="B296" s="35"/>
-      <c r="C296" s="93" t="s">
+      <c r="A296" s="33"/>
+      <c r="B296" s="33"/>
+      <c r="C296" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="D296" s="65" t="s">
+      <c r="D296" s="63" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="35"/>
-      <c r="B297" s="35"/>
-      <c r="C297" s="93" t="s">
+      <c r="A297" s="33"/>
+      <c r="B297" s="33"/>
+      <c r="C297" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="D297" s="94" t="s">
+      <c r="D297" s="92" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="298" ht="63.75" spans="1:4">
-      <c r="A298" s="35"/>
-      <c r="B298" s="35"/>
-      <c r="C298" s="93" t="s">
+      <c r="A298" s="33"/>
+      <c r="B298" s="33"/>
+      <c r="C298" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="D298" s="65" t="s">
+      <c r="D298" s="63" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="35"/>
-      <c r="B299" s="35"/>
-      <c r="C299" s="93" t="s">
+      <c r="A299" s="33"/>
+      <c r="B299" s="33"/>
+      <c r="C299" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="D299" s="94" t="s">
+      <c r="D299" s="92" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="300" ht="51" spans="1:4">
-      <c r="A300" s="35"/>
-      <c r="B300" s="35"/>
-      <c r="C300" s="93" t="s">
+      <c r="A300" s="33"/>
+      <c r="B300" s="33"/>
+      <c r="C300" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="D300" s="65" t="s">
+      <c r="D300" s="63" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="35"/>
-      <c r="B301" s="35"/>
-      <c r="C301" s="40" t="s">
+      <c r="A301" s="33"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="D301" s="94" t="s">
+      <c r="D301" s="92" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="35"/>
-      <c r="B302" s="35"/>
-      <c r="C302" s="95" t="s">
+      <c r="A302" s="33"/>
+      <c r="B302" s="33"/>
+      <c r="C302" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="D302" s="90"/>
+      <c r="D302" s="88"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="35"/>
-      <c r="B303" s="35"/>
-      <c r="C303" s="96" t="s">
+      <c r="A303" s="33"/>
+      <c r="B303" s="33"/>
+      <c r="C303" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D303" s="57"/>
+      <c r="D303" s="55"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="28"/>
-      <c r="B304" s="28"/>
-      <c r="C304" s="29"/>
-      <c r="D304" s="30"/>
+      <c r="A304" s="26"/>
+      <c r="B304" s="26"/>
+      <c r="C304" s="27"/>
+      <c r="D304" s="28"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="97" t="s">
+      <c r="A305" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="B305" s="97"/>
-      <c r="C305" s="97"/>
-      <c r="D305" s="97"/>
+      <c r="B305" s="95"/>
+      <c r="C305" s="95"/>
+      <c r="D305" s="95"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="25" t="s">
+      <c r="A306" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B306" s="26" t="s">
+      <c r="B306" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C306" s="68" t="s">
+      <c r="C306" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D306" s="27" t="s">
+      <c r="D306" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="98" t="s">
+      <c r="A307" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B307" s="99" t="s">
+      <c r="B307" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="C307" s="100" t="s">
+      <c r="C307" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="D307" s="101"/>
+      <c r="D307" s="99"/>
     </row>
     <row r="308" ht="25.5" spans="1:4">
-      <c r="A308" s="102"/>
-      <c r="B308" s="103"/>
-      <c r="C308" s="100" t="s">
+      <c r="A308" s="100"/>
+      <c r="B308" s="101"/>
+      <c r="C308" s="98" t="s">
         <v>276</v>
       </c>
-      <c r="D308" s="101" t="s">
+      <c r="D308" s="99" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="309" ht="25.5" spans="1:4">
-      <c r="A309" s="102"/>
-      <c r="B309" s="103"/>
-      <c r="C309" s="100" t="s">
+      <c r="A309" s="100"/>
+      <c r="B309" s="101"/>
+      <c r="C309" s="98" t="s">
         <v>278</v>
       </c>
-      <c r="D309" s="101" t="s">
+      <c r="D309" s="99" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="310" ht="25.5" spans="1:4">
-      <c r="A310" s="102"/>
-      <c r="B310" s="103"/>
-      <c r="C310" s="100" t="s">
+      <c r="A310" s="100"/>
+      <c r="B310" s="101"/>
+      <c r="C310" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="D310" s="101" t="s">
+      <c r="D310" s="99" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="102"/>
-      <c r="B311" s="103"/>
-      <c r="C311" s="100" t="s">
+      <c r="A311" s="100"/>
+      <c r="B311" s="101"/>
+      <c r="C311" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="D311" s="101" t="s">
+      <c r="D311" s="99" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="312" ht="89.25" spans="1:4">
-      <c r="A312" s="102"/>
-      <c r="B312" s="103"/>
-      <c r="C312" s="100" t="s">
+      <c r="A312" s="100"/>
+      <c r="B312" s="101"/>
+      <c r="C312" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="D312" s="101" t="s">
+      <c r="D312" s="99" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="102"/>
-      <c r="B313" s="103"/>
-      <c r="C313" s="100" t="s">
+      <c r="A313" s="100"/>
+      <c r="B313" s="101"/>
+      <c r="C313" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="D313" s="101" t="s">
+      <c r="D313" s="99" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="314" ht="38.25" spans="1:4">
-      <c r="A314" s="102"/>
-      <c r="B314" s="103"/>
-      <c r="C314" s="100" t="s">
+      <c r="A314" s="100"/>
+      <c r="B314" s="101"/>
+      <c r="C314" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="D314" s="101" t="s">
+      <c r="D314" s="99" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="102"/>
-      <c r="B315" s="103"/>
-      <c r="C315" s="100" t="s">
+      <c r="A315" s="100"/>
+      <c r="B315" s="101"/>
+      <c r="C315" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="D315" s="101" t="s">
+      <c r="D315" s="99" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="316" ht="89.25" spans="1:4">
-      <c r="A316" s="102"/>
-      <c r="B316" s="103"/>
-      <c r="C316" s="100" t="s">
+      <c r="A316" s="100"/>
+      <c r="B316" s="101"/>
+      <c r="C316" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="D316" s="101" t="s">
+      <c r="D316" s="99" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="102"/>
-      <c r="B317" s="103"/>
-      <c r="C317" s="100" t="s">
+      <c r="A317" s="100"/>
+      <c r="B317" s="101"/>
+      <c r="C317" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="D317" s="101" t="s">
+      <c r="D317" s="99" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="318" ht="63.75" spans="1:4">
-      <c r="A318" s="102"/>
-      <c r="B318" s="103"/>
-      <c r="C318" s="100" t="s">
+      <c r="A318" s="100"/>
+      <c r="B318" s="101"/>
+      <c r="C318" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D318" s="101" t="s">
+      <c r="D318" s="99" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="102"/>
-      <c r="B319" s="103"/>
-      <c r="C319" s="100" t="s">
+      <c r="A319" s="100"/>
+      <c r="B319" s="101"/>
+      <c r="C319" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D319" s="101" t="s">
+      <c r="D319" s="99" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="102"/>
-      <c r="B320" s="103"/>
-      <c r="C320" s="100" t="s">
+      <c r="A320" s="100"/>
+      <c r="B320" s="101"/>
+      <c r="C320" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="D320" s="101" t="s">
+      <c r="D320" s="99" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="102"/>
-      <c r="B321" s="103"/>
-      <c r="C321" s="100" t="s">
+      <c r="A321" s="100"/>
+      <c r="B321" s="101"/>
+      <c r="C321" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="D321" s="101" t="s">
+      <c r="D321" s="99" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="322" ht="25.5" spans="1:4">
-      <c r="A322" s="102"/>
-      <c r="B322" s="103"/>
-      <c r="C322" s="100" t="s">
+      <c r="A322" s="100"/>
+      <c r="B322" s="101"/>
+      <c r="C322" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="D322" s="101" t="s">
+      <c r="D322" s="99" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="102"/>
-      <c r="B323" s="103"/>
-      <c r="C323" s="100" t="s">
+      <c r="A323" s="100"/>
+      <c r="B323" s="101"/>
+      <c r="C323" s="98" t="s">
         <v>295</v>
       </c>
-      <c r="D323" s="101" t="s">
+      <c r="D323" s="99" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="102"/>
-      <c r="B324" s="103"/>
-      <c r="C324" s="100" t="s">
+      <c r="A324" s="100"/>
+      <c r="B324" s="101"/>
+      <c r="C324" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="D324" s="101"/>
+      <c r="D324" s="99"/>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="102"/>
-      <c r="B325" s="103"/>
-      <c r="C325" s="104" t="s">
+      <c r="A325" s="100"/>
+      <c r="B325" s="101"/>
+      <c r="C325" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D325" s="96"/>
+      <c r="D325" s="94"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="28"/>
-      <c r="B326" s="28"/>
-      <c r="C326" s="76"/>
-      <c r="D326" s="30"/>
+      <c r="A326" s="26"/>
+      <c r="B326" s="26"/>
+      <c r="C326" s="74"/>
+      <c r="D326" s="28"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="28"/>
-      <c r="B327" s="28"/>
-      <c r="C327" s="76"/>
-      <c r="D327" s="30"/>
+      <c r="A327" s="26"/>
+      <c r="B327" s="26"/>
+      <c r="C327" s="74"/>
+      <c r="D327" s="28"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="44" t="s">
+      <c r="A328" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B328" s="44" t="s">
+      <c r="B328" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="C328" s="73" t="s">
+      <c r="C328" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D328" s="86"/>
+      <c r="D328" s="84"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="35"/>
-      <c r="B329" s="35"/>
-      <c r="C329" s="79" t="s">
+      <c r="A329" s="33"/>
+      <c r="B329" s="33"/>
+      <c r="C329" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="D329" s="86" t="s">
+      <c r="D329" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="35"/>
-      <c r="B330" s="35"/>
-      <c r="C330" s="79" t="s">
+      <c r="A330" s="33"/>
+      <c r="B330" s="33"/>
+      <c r="C330" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="D330" s="86" t="s">
+      <c r="D330" s="84" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="35"/>
-      <c r="B331" s="35"/>
-      <c r="C331" s="79" t="s">
+      <c r="A331" s="33"/>
+      <c r="B331" s="33"/>
+      <c r="C331" s="77" t="s">
         <v>299</v>
       </c>
-      <c r="D331" s="86" t="s">
+      <c r="D331" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="35"/>
-      <c r="B332" s="35"/>
-      <c r="C332" s="79" t="s">
+      <c r="A332" s="33"/>
+      <c r="B332" s="33"/>
+      <c r="C332" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D332" s="86" t="s">
+      <c r="D332" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="35"/>
-      <c r="B333" s="35"/>
-      <c r="C333" s="79" t="s">
+      <c r="A333" s="33"/>
+      <c r="B333" s="33"/>
+      <c r="C333" s="77" t="s">
         <v>301</v>
       </c>
-      <c r="D333" s="86" t="s">
+      <c r="D333" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="35"/>
-      <c r="B334" s="35"/>
-      <c r="C334" s="79" t="s">
+      <c r="A334" s="33"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="D334" s="86" t="s">
+      <c r="D334" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="35"/>
-      <c r="B335" s="35"/>
-      <c r="C335" s="79" t="s">
+      <c r="A335" s="33"/>
+      <c r="B335" s="33"/>
+      <c r="C335" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="D335" s="86" t="s">
+      <c r="D335" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="35"/>
-      <c r="B336" s="35"/>
-      <c r="C336" s="54" t="s">
+      <c r="A336" s="33"/>
+      <c r="B336" s="33"/>
+      <c r="C336" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D336" s="37"/>
+      <c r="D336" s="35"/>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="35"/>
-      <c r="B337" s="35"/>
-      <c r="C337" s="104" t="s">
+      <c r="A337" s="33"/>
+      <c r="B337" s="33"/>
+      <c r="C337" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D337" s="96"/>
+      <c r="D337" s="94"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="28"/>
-      <c r="B338" s="28"/>
-      <c r="C338" s="76"/>
-      <c r="D338" s="30"/>
+      <c r="A338" s="26"/>
+      <c r="B338" s="26"/>
+      <c r="C338" s="74"/>
+      <c r="D338" s="28"/>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="44" t="s">
+      <c r="A339" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B339" s="44" t="s">
+      <c r="B339" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="C339" s="54" t="s">
+      <c r="C339" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="D339" s="86" t="s">
+      <c r="D339" s="84" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="35"/>
-      <c r="B340" s="35"/>
-      <c r="C340" s="83"/>
-      <c r="D340" s="86" t="s">
+      <c r="A340" s="33"/>
+      <c r="B340" s="33"/>
+      <c r="C340" s="81"/>
+      <c r="D340" s="84" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="35"/>
-      <c r="B341" s="35"/>
-      <c r="C341" s="83"/>
-      <c r="D341" s="86" t="s">
+      <c r="A341" s="33"/>
+      <c r="B341" s="33"/>
+      <c r="C341" s="81"/>
+      <c r="D341" s="84" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="35"/>
-      <c r="B342" s="35"/>
-      <c r="C342" s="83"/>
-      <c r="D342" s="86" t="s">
+      <c r="A342" s="33"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="81"/>
+      <c r="D342" s="84" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="35"/>
-      <c r="B343" s="35"/>
-      <c r="C343" s="83"/>
-      <c r="D343" s="86" t="s">
+      <c r="A343" s="33"/>
+      <c r="B343" s="33"/>
+      <c r="C343" s="81"/>
+      <c r="D343" s="84" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="35"/>
-      <c r="B344" s="35"/>
-      <c r="C344" s="83"/>
-      <c r="D344" s="86" t="s">
+      <c r="A344" s="33"/>
+      <c r="B344" s="33"/>
+      <c r="C344" s="81"/>
+      <c r="D344" s="84" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="35"/>
-      <c r="B345" s="35"/>
-      <c r="C345" s="83"/>
-      <c r="D345" s="86" t="s">
+      <c r="A345" s="33"/>
+      <c r="B345" s="33"/>
+      <c r="C345" s="81"/>
+      <c r="D345" s="84" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="35"/>
-      <c r="B346" s="35"/>
-      <c r="C346" s="83"/>
-      <c r="D346" s="86" t="s">
+      <c r="A346" s="33"/>
+      <c r="B346" s="33"/>
+      <c r="C346" s="81"/>
+      <c r="D346" s="84" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="35"/>
-      <c r="B347" s="35"/>
-      <c r="C347" s="83"/>
-      <c r="D347" s="86" t="s">
+      <c r="A347" s="33"/>
+      <c r="B347" s="33"/>
+      <c r="C347" s="81"/>
+      <c r="D347" s="84" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="35"/>
-      <c r="B348" s="35"/>
-      <c r="C348" s="79" t="s">
+      <c r="A348" s="33"/>
+      <c r="B348" s="33"/>
+      <c r="C348" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="D348" s="86" t="s">
+      <c r="D348" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="35"/>
-      <c r="B349" s="35"/>
-      <c r="C349" s="79" t="s">
+      <c r="A349" s="33"/>
+      <c r="B349" s="33"/>
+      <c r="C349" s="77" t="s">
         <v>316</v>
       </c>
-      <c r="D349" s="86" t="s">
+      <c r="D349" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="35"/>
-      <c r="B350" s="35"/>
-      <c r="C350" s="79" t="s">
+      <c r="A350" s="33"/>
+      <c r="B350" s="33"/>
+      <c r="C350" s="77" t="s">
         <v>317</v>
       </c>
-      <c r="D350" s="86" t="s">
+      <c r="D350" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="35"/>
-      <c r="B351" s="35"/>
-      <c r="C351" s="79" t="s">
+      <c r="A351" s="33"/>
+      <c r="B351" s="33"/>
+      <c r="C351" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="D351" s="86" t="s">
+      <c r="D351" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="35"/>
-      <c r="B352" s="35"/>
-      <c r="C352" s="54" t="s">
+      <c r="A352" s="33"/>
+      <c r="B352" s="33"/>
+      <c r="C352" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D352" s="37"/>
+      <c r="D352" s="35"/>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="35"/>
-      <c r="B353" s="35"/>
-      <c r="C353" s="104" t="s">
+      <c r="A353" s="33"/>
+      <c r="B353" s="33"/>
+      <c r="C353" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D353" s="96"/>
+      <c r="D353" s="94"/>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="28"/>
-      <c r="B354" s="28"/>
-      <c r="C354" s="76"/>
-      <c r="D354" s="30"/>
+      <c r="A354" s="26"/>
+      <c r="B354" s="26"/>
+      <c r="C354" s="74"/>
+      <c r="D354" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -7198,12 +7171,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D426"/>
+  <dimension ref="A1:D414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A348" sqref="A348:A426"/>
+      <selection pane="bottomLeft" activeCell="C288" sqref="C288:C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -9176,7 +9149,7 @@
       <c r="D243" s="3"/>
     </row>
     <row r="244" ht="11" customHeight="1" spans="1:4">
-      <c r="A244" s="18" t="s">
+      <c r="A244" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B244" s="17" t="s">
@@ -9190,7 +9163,7 @@
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="19"/>
+      <c r="A245" s="4"/>
       <c r="B245" s="17"/>
       <c r="C245" s="6"/>
       <c r="D245" s="9" t="s">
@@ -9198,7 +9171,7 @@
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="19"/>
+      <c r="A246" s="4"/>
       <c r="B246" s="17"/>
       <c r="C246" s="6"/>
       <c r="D246" s="1" t="s">
@@ -9206,7 +9179,7 @@
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="19"/>
+      <c r="A247" s="4"/>
       <c r="B247" s="17"/>
       <c r="C247" s="6"/>
       <c r="D247" s="9" t="s">
@@ -9214,7 +9187,7 @@
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="19"/>
+      <c r="A248" s="4"/>
       <c r="B248" s="17"/>
       <c r="C248" s="6"/>
       <c r="D248" s="9" t="s">
@@ -9222,1428 +9195,1332 @@
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="19"/>
+      <c r="A249" s="4"/>
       <c r="B249" s="17"/>
       <c r="C249" s="6"/>
       <c r="D249" s="9" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="19"/>
+    <row r="250" ht="15.75" spans="1:3">
+      <c r="A250" s="4"/>
       <c r="B250" s="17"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="9" t="s">
-        <v>490</v>
-      </c>
+      <c r="C250" s="12"/>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="19"/>
+      <c r="A251" s="4"/>
       <c r="B251" s="17"/>
-      <c r="C251" s="6"/>
+      <c r="C251" s="6" t="s">
+        <v>553</v>
+      </c>
       <c r="D251" s="9" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="19"/>
+      <c r="A252" s="4"/>
       <c r="B252" s="17"/>
       <c r="C252" s="6"/>
-      <c r="D252" s="9" t="s">
-        <v>492</v>
+      <c r="D252" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="19"/>
+      <c r="A253" s="4"/>
       <c r="B253" s="17"/>
       <c r="C253" s="6"/>
       <c r="D253" s="9" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="19"/>
+      <c r="A254" s="4"/>
       <c r="B254" s="17"/>
       <c r="C254" s="6"/>
       <c r="D254" s="9" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="19"/>
+      <c r="A255" s="4"/>
       <c r="B255" s="17"/>
       <c r="C255" s="6"/>
       <c r="D255" s="9" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="19"/>
+      <c r="A256" s="4"/>
       <c r="B256" s="17"/>
       <c r="C256" s="6"/>
       <c r="D256" s="9" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="19"/>
+      <c r="A257" s="4"/>
       <c r="B257" s="17"/>
       <c r="C257" s="6"/>
-      <c r="D257" s="9" t="s">
-        <v>556</v>
+      <c r="D257" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="19"/>
+      <c r="A258" s="4"/>
       <c r="B258" s="17"/>
       <c r="C258" s="6"/>
-      <c r="D258" s="9" t="s">
-        <v>557</v>
+      <c r="D258" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="19"/>
+      <c r="A259" s="4"/>
       <c r="B259" s="17"/>
       <c r="C259" s="6"/>
       <c r="D259" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="19"/>
+      <c r="A260" s="4"/>
       <c r="B260" s="17"/>
       <c r="C260" s="6"/>
       <c r="D260" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="19"/>
+      <c r="A261" s="4"/>
       <c r="B261" s="17"/>
       <c r="C261" s="6"/>
       <c r="D261" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="262" ht="15.75" spans="1:3">
-      <c r="A262" s="19"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="4"/>
       <c r="B262" s="17"/>
-      <c r="C262" s="12"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="9" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="19"/>
+      <c r="A263" s="4"/>
       <c r="B263" s="17"/>
-      <c r="C263" s="6" t="s">
-        <v>560</v>
-      </c>
+      <c r="C263" s="6"/>
       <c r="D263" s="9" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="19"/>
+      <c r="A264" s="4"/>
       <c r="B264" s="17"/>
       <c r="C264" s="6"/>
-      <c r="D264" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="19"/>
+      <c r="D264" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="265" ht="18" spans="1:4">
+      <c r="A265" s="4"/>
       <c r="B265" s="17"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="9" t="s">
-        <v>563</v>
-      </c>
+      <c r="C265" s="18"/>
+      <c r="D265" s="9"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="19"/>
+      <c r="A266" s="4"/>
       <c r="B266" s="17"/>
-      <c r="C266" s="6"/>
+      <c r="C266" s="6" t="s">
+        <v>568</v>
+      </c>
       <c r="D266" s="9" t="s">
-        <v>564</v>
+        <v>342</v>
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="19"/>
+      <c r="A267" s="4"/>
       <c r="B267" s="17"/>
       <c r="C267" s="6"/>
-      <c r="D267" s="9" t="s">
-        <v>565</v>
+      <c r="D267" s="7" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="19"/>
+      <c r="A268" s="4"/>
       <c r="B268" s="17"/>
       <c r="C268" s="6"/>
       <c r="D268" s="9" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="19"/>
+      <c r="A269" s="4"/>
       <c r="B269" s="17"/>
       <c r="C269" s="6"/>
-      <c r="D269" s="1" t="s">
-        <v>567</v>
+      <c r="D269" s="7" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="19"/>
+      <c r="A270" s="4"/>
       <c r="B270" s="17"/>
       <c r="C270" s="6"/>
-      <c r="D270" s="1" t="s">
-        <v>568</v>
+      <c r="D270" s="9" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="19"/>
+      <c r="A271" s="4"/>
       <c r="B271" s="17"/>
       <c r="C271" s="6"/>
-      <c r="D271" s="1" t="s">
-        <v>569</v>
+      <c r="D271" s="7" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="19"/>
+      <c r="A272" s="4"/>
       <c r="B272" s="17"/>
       <c r="C272" s="6"/>
-      <c r="D272" s="1" t="s">
-        <v>570</v>
+      <c r="D272" s="9" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="19"/>
+      <c r="A273" s="4"/>
       <c r="B273" s="17"/>
       <c r="C273" s="6"/>
-      <c r="D273" s="1" t="s">
-        <v>571</v>
+      <c r="D273" s="7" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="19"/>
+      <c r="A274" s="4"/>
       <c r="B274" s="17"/>
       <c r="C274" s="6"/>
       <c r="D274" s="9" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="19"/>
+      <c r="A275" s="4"/>
       <c r="B275" s="17"/>
       <c r="C275" s="6"/>
       <c r="D275" s="9" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="19"/>
+      <c r="A276" s="4"/>
       <c r="B276" s="17"/>
       <c r="C276" s="6"/>
       <c r="D276" s="9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="277" ht="18" spans="1:4">
-      <c r="A277" s="19"/>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="4"/>
       <c r="B277" s="17"/>
-      <c r="C277" s="20"/>
-      <c r="D277" s="9"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="9" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="19"/>
+      <c r="A278" s="4"/>
       <c r="B278" s="17"/>
-      <c r="C278" s="6" t="s">
-        <v>575</v>
-      </c>
+      <c r="C278" s="6"/>
       <c r="D278" s="9" t="s">
-        <v>342</v>
+        <v>580</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="19"/>
+      <c r="A279" s="4"/>
       <c r="B279" s="17"/>
       <c r="C279" s="6"/>
-      <c r="D279" s="7" t="s">
-        <v>576</v>
+      <c r="D279" s="9" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="19"/>
+      <c r="A280" s="4"/>
       <c r="B280" s="17"/>
       <c r="C280" s="6"/>
       <c r="D280" s="9" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="19"/>
+      <c r="A281" s="4"/>
       <c r="B281" s="17"/>
       <c r="C281" s="6"/>
-      <c r="D281" s="7" t="s">
-        <v>578</v>
+      <c r="D281" s="9" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="19"/>
+      <c r="A282" s="4"/>
       <c r="B282" s="17"/>
       <c r="C282" s="6"/>
-      <c r="D282" s="9" t="s">
-        <v>579</v>
+      <c r="D282" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="19"/>
+      <c r="A283" s="4"/>
       <c r="B283" s="17"/>
       <c r="C283" s="6"/>
-      <c r="D283" s="7" t="s">
-        <v>580</v>
+      <c r="D283" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="19"/>
+      <c r="A284" s="4"/>
       <c r="B284" s="17"/>
       <c r="C284" s="6"/>
-      <c r="D284" s="9" t="s">
-        <v>581</v>
+      <c r="D284" s="1" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="19"/>
+      <c r="A285" s="4"/>
       <c r="B285" s="17"/>
       <c r="C285" s="6"/>
-      <c r="D285" s="7" t="s">
-        <v>582</v>
+      <c r="D285" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="19"/>
+      <c r="A286" s="4"/>
       <c r="B286" s="17"/>
       <c r="C286" s="6"/>
-      <c r="D286" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="19"/>
+      <c r="D286" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="287" ht="15.75" spans="1:4">
+      <c r="A287" s="4"/>
       <c r="B287" s="17"/>
-      <c r="C287" s="6"/>
-      <c r="D287" s="9" t="s">
-        <v>584</v>
-      </c>
+      <c r="C287" s="8"/>
+      <c r="D287" s="19"/>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="19"/>
+      <c r="A288" s="4"/>
       <c r="B288" s="17"/>
-      <c r="C288" s="6"/>
+      <c r="C288" s="6" t="s">
+        <v>589</v>
+      </c>
       <c r="D288" s="9" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="19"/>
+      <c r="A289" s="4"/>
       <c r="B289" s="17"/>
       <c r="C289" s="6"/>
       <c r="D289" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="19"/>
+      <c r="A290" s="4"/>
       <c r="B290" s="17"/>
       <c r="C290" s="6"/>
       <c r="D290" s="9" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="19"/>
+      <c r="A291" s="4"/>
       <c r="B291" s="17"/>
       <c r="C291" s="6"/>
       <c r="D291" s="9" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="19"/>
+      <c r="A292" s="4"/>
       <c r="B292" s="17"/>
       <c r="C292" s="6"/>
       <c r="D292" s="9" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="19"/>
+      <c r="A293" s="4"/>
       <c r="B293" s="17"/>
       <c r="C293" s="6"/>
       <c r="D293" s="9" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="19"/>
+      <c r="A294" s="4"/>
       <c r="B294" s="17"/>
       <c r="C294" s="6"/>
-      <c r="D294" s="1" t="s">
-        <v>591</v>
+      <c r="D294" s="9" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="19"/>
+      <c r="A295" s="4"/>
       <c r="B295" s="17"/>
       <c r="C295" s="6"/>
-      <c r="D295" s="1" t="s">
-        <v>592</v>
+      <c r="D295" s="9" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="19"/>
+      <c r="A296" s="4"/>
       <c r="B296" s="17"/>
       <c r="C296" s="6"/>
-      <c r="D296" s="1" t="s">
-        <v>593</v>
+      <c r="D296" s="9" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="19"/>
+      <c r="A297" s="4"/>
       <c r="B297" s="17"/>
       <c r="C297" s="6"/>
-      <c r="D297" s="1" t="s">
-        <v>594</v>
+      <c r="D297" s="9" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="19"/>
+      <c r="A298" s="4"/>
       <c r="B298" s="17"/>
       <c r="C298" s="6"/>
-      <c r="D298" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="299" ht="15.75" spans="1:4">
-      <c r="A299" s="19"/>
+      <c r="D298" s="9" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="4"/>
       <c r="B299" s="17"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="21"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="9" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="19"/>
+      <c r="A300" s="4"/>
       <c r="B300" s="17"/>
-      <c r="C300" s="6" t="s">
-        <v>596</v>
-      </c>
+      <c r="C300" s="6"/>
       <c r="D300" s="9" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="19"/>
+      <c r="A301" s="4"/>
       <c r="B301" s="17"/>
       <c r="C301" s="6"/>
       <c r="D301" s="9" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="19"/>
+      <c r="A302" s="4"/>
       <c r="B302" s="17"/>
       <c r="C302" s="6"/>
       <c r="D302" s="9" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="19"/>
+      <c r="A303" s="4"/>
       <c r="B303" s="17"/>
       <c r="C303" s="6"/>
       <c r="D303" s="9" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="19"/>
+      <c r="A304" s="4"/>
       <c r="B304" s="17"/>
       <c r="C304" s="6"/>
       <c r="D304" s="9" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="19"/>
+      <c r="A305" s="4"/>
       <c r="B305" s="17"/>
       <c r="C305" s="6"/>
       <c r="D305" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="19"/>
+      <c r="A306" s="4"/>
       <c r="B306" s="17"/>
       <c r="C306" s="6"/>
       <c r="D306" s="9" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="19"/>
+      <c r="A307" s="4"/>
       <c r="B307" s="17"/>
       <c r="C307" s="6"/>
       <c r="D307" s="9" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="19"/>
+      <c r="A308" s="4"/>
       <c r="B308" s="17"/>
       <c r="C308" s="6"/>
       <c r="D308" s="9" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="19"/>
+      <c r="A309" s="4"/>
       <c r="B309" s="17"/>
       <c r="C309" s="6"/>
       <c r="D309" s="9" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="19"/>
+      <c r="A310" s="4"/>
       <c r="B310" s="17"/>
       <c r="C310" s="6"/>
       <c r="D310" s="9" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="19"/>
+      <c r="A311" s="4"/>
       <c r="B311" s="17"/>
       <c r="C311" s="6"/>
       <c r="D311" s="9" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="19"/>
+      <c r="A312" s="4"/>
       <c r="B312" s="17"/>
       <c r="C312" s="6"/>
       <c r="D312" s="9" t="s">
-        <v>609</v>
+        <v>342</v>
       </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="19"/>
+      <c r="A313" s="4"/>
       <c r="B313" s="17"/>
       <c r="C313" s="6"/>
       <c r="D313" s="9" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="19"/>
+      <c r="A314" s="4"/>
       <c r="B314" s="17"/>
       <c r="C314" s="6"/>
       <c r="D314" s="9" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="19"/>
+      <c r="A315" s="4"/>
       <c r="B315" s="17"/>
       <c r="C315" s="6"/>
       <c r="D315" s="9" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="19"/>
+      <c r="A316" s="4"/>
       <c r="B316" s="17"/>
       <c r="C316" s="6"/>
       <c r="D316" s="9" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="19"/>
+      <c r="A317" s="4"/>
       <c r="B317" s="17"/>
       <c r="C317" s="6"/>
       <c r="D317" s="9" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="19"/>
+      <c r="A318" s="4"/>
       <c r="B318" s="17"/>
       <c r="C318" s="6"/>
       <c r="D318" s="9" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="19"/>
+      <c r="A319" s="4"/>
       <c r="B319" s="17"/>
       <c r="C319" s="6"/>
       <c r="D319" s="9" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="19"/>
+      <c r="A320" s="4"/>
       <c r="B320" s="17"/>
       <c r="C320" s="6"/>
       <c r="D320" s="9" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="19"/>
+      <c r="A321" s="4"/>
       <c r="B321" s="17"/>
       <c r="C321" s="6"/>
       <c r="D321" s="9" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="322" spans="1:4">
-      <c r="A322" s="19"/>
+      <c r="A322" s="4"/>
       <c r="B322" s="17"/>
       <c r="C322" s="6"/>
       <c r="D322" s="9" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="19"/>
+      <c r="A323" s="4"/>
       <c r="B323" s="17"/>
       <c r="C323" s="6"/>
       <c r="D323" s="9" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="19"/>
+      <c r="A324" s="4"/>
       <c r="B324" s="17"/>
       <c r="C324" s="6"/>
       <c r="D324" s="9" t="s">
-        <v>342</v>
+        <v>597</v>
       </c>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="19"/>
+      <c r="A325" s="4"/>
       <c r="B325" s="17"/>
       <c r="C325" s="6"/>
       <c r="D325" s="9" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="19"/>
+      <c r="A326" s="4"/>
       <c r="B326" s="17"/>
       <c r="C326" s="6"/>
       <c r="D326" s="9" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="19"/>
+      <c r="A327" s="4"/>
       <c r="B327" s="17"/>
       <c r="C327" s="6"/>
       <c r="D327" s="9" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="19"/>
+      <c r="A328" s="4"/>
       <c r="B328" s="17"/>
       <c r="C328" s="6"/>
       <c r="D328" s="9" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="19"/>
+      <c r="A329" s="4"/>
       <c r="B329" s="17"/>
       <c r="C329" s="6"/>
       <c r="D329" s="9" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="19"/>
+      <c r="A330" s="4"/>
       <c r="B330" s="17"/>
       <c r="C330" s="6"/>
       <c r="D330" s="9" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="19"/>
+      <c r="A331" s="4"/>
       <c r="B331" s="17"/>
       <c r="C331" s="6"/>
       <c r="D331" s="9" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="19"/>
+      <c r="A332" s="4"/>
       <c r="B332" s="17"/>
       <c r="C332" s="6"/>
       <c r="D332" s="9" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="19"/>
+      <c r="A333" s="4"/>
       <c r="B333" s="17"/>
       <c r="C333" s="6"/>
       <c r="D333" s="9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="19"/>
-      <c r="B334" s="17"/>
-      <c r="C334" s="6"/>
-      <c r="D334" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="19"/>
-      <c r="B335" s="17"/>
-      <c r="C335" s="6"/>
-      <c r="D335" s="9" t="s">
-        <v>630</v>
-      </c>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="334" ht="9" customHeight="1" spans="1:4">
+      <c r="A334" s="4"/>
+      <c r="B334" s="16"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
+    </row>
+    <row r="335" ht="24.75" spans="2:4">
+      <c r="B335" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C335" s="3"/>
+      <c r="D335" s="3"/>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="19"/>
-      <c r="B336" s="17"/>
-      <c r="C336" s="6"/>
+      <c r="A336" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C336" s="20" t="s">
+        <v>634</v>
+      </c>
       <c r="D336" s="9" t="s">
-        <v>604</v>
+        <v>548</v>
       </c>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="19"/>
-      <c r="B337" s="17"/>
-      <c r="C337" s="6"/>
+      <c r="A337" s="4"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="20"/>
       <c r="D337" s="9" t="s">
-        <v>631</v>
+        <v>342</v>
       </c>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="19"/>
-      <c r="B338" s="17"/>
-      <c r="C338" s="6"/>
+      <c r="A338" s="4"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="20"/>
       <c r="D338" s="9" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="19"/>
-      <c r="B339" s="17"/>
-      <c r="C339" s="6"/>
+      <c r="A339" s="4"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="20"/>
       <c r="D339" s="9" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="19"/>
-      <c r="B340" s="17"/>
-      <c r="C340" s="6"/>
+      <c r="A340" s="4"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="20"/>
       <c r="D340" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="19"/>
-      <c r="B341" s="17"/>
-      <c r="C341" s="6"/>
+      <c r="A341" s="4"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="20"/>
       <c r="D341" s="9" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="19"/>
-      <c r="B342" s="17"/>
-      <c r="C342" s="6"/>
+      <c r="A342" s="4"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="20"/>
       <c r="D342" s="9" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="19"/>
-      <c r="B343" s="17"/>
-      <c r="C343" s="6"/>
+      <c r="A343" s="4"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="20"/>
       <c r="D343" s="9" t="s">
-        <v>637</v>
+        <v>579</v>
       </c>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="19"/>
-      <c r="B344" s="17"/>
-      <c r="C344" s="6"/>
+      <c r="A344" s="4"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="20"/>
       <c r="D344" s="9" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="19"/>
-      <c r="B345" s="17"/>
-      <c r="C345" s="6"/>
+      <c r="A345" s="4"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="20"/>
       <c r="D345" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="346" ht="9" customHeight="1" spans="1:4">
-      <c r="A346" s="19"/>
-      <c r="B346" s="16"/>
-      <c r="C346" s="14"/>
-      <c r="D346" s="14"/>
-    </row>
-    <row r="347" ht="24.75" spans="2:4">
-      <c r="B347" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="4"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="20"/>
+      <c r="D346" s="9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="4"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="20"/>
+      <c r="D347" s="9" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C348" s="22" t="s">
-        <v>641</v>
-      </c>
+      <c r="A348" s="4"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="20"/>
       <c r="D348" s="9" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="18"/>
+      <c r="A349" s="4"/>
       <c r="B349" s="5"/>
-      <c r="C349" s="22"/>
+      <c r="C349" s="20"/>
       <c r="D349" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="4"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="20"/>
+      <c r="D350" s="9" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="4"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="20"/>
+      <c r="D351" s="9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="4"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="20"/>
+      <c r="D352" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="4"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="20"/>
+      <c r="D353" s="9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="4"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="20"/>
+      <c r="D354" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="4"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="20"/>
+      <c r="D355" s="9" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="4"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="20"/>
+      <c r="D356" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="18"/>
-      <c r="B350" s="5"/>
-      <c r="C350" s="22"/>
-      <c r="D350" s="9" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="18"/>
-      <c r="B351" s="5"/>
-      <c r="C351" s="22"/>
-      <c r="D351" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="18"/>
-      <c r="B352" s="5"/>
-      <c r="C352" s="22"/>
-      <c r="D352" s="9" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="18"/>
-      <c r="B353" s="5"/>
-      <c r="C353" s="22"/>
-      <c r="D353" s="9" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="18"/>
-      <c r="B354" s="5"/>
-      <c r="C354" s="22"/>
-      <c r="D354" s="9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="18"/>
-      <c r="B355" s="5"/>
-      <c r="C355" s="22"/>
-      <c r="D355" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="18"/>
-      <c r="B356" s="5"/>
-      <c r="C356" s="22"/>
-      <c r="D356" s="9" t="s">
-        <v>647</v>
-      </c>
-    </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="18"/>
+      <c r="A357" s="4"/>
       <c r="B357" s="5"/>
-      <c r="C357" s="22"/>
+      <c r="C357" s="20"/>
       <c r="D357" s="9" t="s">
-        <v>594</v>
+        <v>650</v>
       </c>
     </row>
     <row r="358" spans="1:4">
-      <c r="A358" s="18"/>
+      <c r="A358" s="4"/>
       <c r="B358" s="5"/>
-      <c r="C358" s="22"/>
+      <c r="C358" s="20"/>
       <c r="D358" s="9" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="359" spans="1:4">
-      <c r="A359" s="18"/>
+      <c r="A359" s="4"/>
       <c r="B359" s="5"/>
-      <c r="C359" s="22"/>
+      <c r="C359" s="20"/>
       <c r="D359" s="9" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="360" spans="1:4">
-      <c r="A360" s="18"/>
+      <c r="A360" s="4"/>
       <c r="B360" s="5"/>
-      <c r="C360" s="22"/>
+      <c r="C360" s="20"/>
       <c r="D360" s="9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="4"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="20"/>
+      <c r="D361" s="9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="4"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="20"/>
+      <c r="D362" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="4"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="20"/>
+      <c r="D363" s="9" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="18"/>
-      <c r="B361" s="5"/>
-      <c r="C361" s="22"/>
-      <c r="D361" s="9" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="18"/>
-      <c r="B362" s="5"/>
-      <c r="C362" s="22"/>
-      <c r="D362" s="9" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="18"/>
-      <c r="B363" s="5"/>
-      <c r="C363" s="22"/>
-      <c r="D363" s="9" t="s">
-        <v>652</v>
-      </c>
-    </row>
     <row r="364" spans="1:4">
-      <c r="A364" s="18"/>
+      <c r="A364" s="4"/>
       <c r="B364" s="5"/>
-      <c r="C364" s="22"/>
+      <c r="C364" s="20"/>
       <c r="D364" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="4"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="20"/>
+      <c r="D365" s="9" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="4"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="20"/>
+      <c r="D366" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="4"/>
+      <c r="B367" s="5"/>
+      <c r="C367" s="20"/>
+      <c r="D367" s="9" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="4"/>
+      <c r="B368" s="5"/>
+      <c r="C368" s="20"/>
+      <c r="D368" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="4"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="20"/>
+      <c r="D369" s="9" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="4"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="20"/>
+      <c r="D370" s="9" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="4"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="20"/>
+      <c r="D371" s="9" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="18"/>
-      <c r="B365" s="5"/>
-      <c r="C365" s="22"/>
-      <c r="D365" s="9" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="18"/>
-      <c r="B366" s="5"/>
-      <c r="C366" s="22"/>
-      <c r="D366" s="9" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="18"/>
-      <c r="B367" s="5"/>
-      <c r="C367" s="22"/>
-      <c r="D367" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="18"/>
-      <c r="B368" s="5"/>
-      <c r="C368" s="22"/>
-      <c r="D368" s="9" t="s">
+    <row r="372" spans="1:4">
+      <c r="A372" s="4"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="20"/>
+      <c r="D372" s="9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="4"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="20"/>
+      <c r="D373" s="9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="4"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="20"/>
+      <c r="D374" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="18"/>
-      <c r="B369" s="5"/>
-      <c r="C369" s="22"/>
-      <c r="D369" s="9" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="18"/>
-      <c r="B370" s="5"/>
-      <c r="C370" s="22"/>
-      <c r="D370" s="9" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="18"/>
-      <c r="B371" s="5"/>
-      <c r="C371" s="22"/>
-      <c r="D371" s="9" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="18"/>
-      <c r="B372" s="5"/>
-      <c r="C372" s="22"/>
-      <c r="D372" s="9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="18"/>
-      <c r="B373" s="5"/>
-      <c r="C373" s="22"/>
-      <c r="D373" s="9" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="18"/>
-      <c r="B374" s="5"/>
-      <c r="C374" s="22"/>
-      <c r="D374" s="9" t="s">
-        <v>662</v>
-      </c>
-    </row>
     <row r="375" spans="1:4">
-      <c r="A375" s="18"/>
+      <c r="A375" s="4"/>
       <c r="B375" s="5"/>
-      <c r="C375" s="22"/>
+      <c r="C375" s="20"/>
       <c r="D375" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="4"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="20"/>
+      <c r="D376" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="4"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="20"/>
+      <c r="D377" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="4"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="20"/>
+      <c r="D378" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="4"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="20"/>
+      <c r="D379" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="4"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="20"/>
+      <c r="D380" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="4"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="20"/>
+      <c r="D381" s="9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="4"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="20"/>
+      <c r="D382" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="4"/>
+      <c r="B383" s="5"/>
+      <c r="C383" s="20"/>
+      <c r="D383" s="9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="4"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="20"/>
+      <c r="D384" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="4"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="20"/>
+      <c r="D385" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="4"/>
+      <c r="B386" s="5"/>
+      <c r="C386" s="20"/>
+      <c r="D386" s="9" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="18"/>
-      <c r="B376" s="5"/>
-      <c r="C376" s="22"/>
-      <c r="D376" s="9" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="18"/>
-      <c r="B377" s="5"/>
-      <c r="C377" s="22"/>
-      <c r="D377" s="9" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="18"/>
-      <c r="B378" s="5"/>
-      <c r="C378" s="22"/>
-      <c r="D378" s="9" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="18"/>
-      <c r="B379" s="5"/>
-      <c r="C379" s="22"/>
-      <c r="D379" s="9" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="18"/>
-      <c r="B380" s="5"/>
-      <c r="C380" s="22"/>
-      <c r="D380" s="9" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="18"/>
-      <c r="B381" s="5"/>
-      <c r="C381" s="22"/>
-      <c r="D381" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="18"/>
-      <c r="B382" s="5"/>
-      <c r="C382" s="22"/>
-      <c r="D382" s="9" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="18"/>
-      <c r="B383" s="5"/>
-      <c r="C383" s="22"/>
-      <c r="D383" s="9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="18"/>
-      <c r="B384" s="5"/>
-      <c r="C384" s="22"/>
-      <c r="D384" s="9" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="18"/>
-      <c r="B385" s="5"/>
-      <c r="C385" s="22"/>
-      <c r="D385" s="9" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="18"/>
-      <c r="B386" s="5"/>
-      <c r="C386" s="22"/>
-      <c r="D386" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="18"/>
+      <c r="A387" s="4"/>
       <c r="B387" s="5"/>
-      <c r="C387" s="22"/>
+      <c r="C387" s="20"/>
       <c r="D387" s="9" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" s="18"/>
+      <c r="A388" s="4"/>
       <c r="B388" s="5"/>
-      <c r="C388" s="22"/>
+      <c r="C388" s="20"/>
       <c r="D388" s="9" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="389" spans="1:4">
-      <c r="A389" s="18"/>
+      <c r="A389" s="4"/>
       <c r="B389" s="5"/>
-      <c r="C389" s="22"/>
+      <c r="C389" s="20"/>
       <c r="D389" s="9" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="18"/>
+      <c r="A390" s="4"/>
       <c r="B390" s="5"/>
-      <c r="C390" s="22"/>
+      <c r="C390" s="20"/>
       <c r="D390" s="9" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="391" spans="1:4">
-      <c r="A391" s="18"/>
+      <c r="A391" s="4"/>
       <c r="B391" s="5"/>
-      <c r="C391" s="22"/>
+      <c r="C391" s="20"/>
       <c r="D391" s="9" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="18"/>
+      <c r="A392" s="4"/>
       <c r="B392" s="5"/>
-      <c r="C392" s="22"/>
+      <c r="C392" s="20"/>
       <c r="D392" s="9" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="18"/>
+      <c r="A393" s="4"/>
       <c r="B393" s="5"/>
-      <c r="C393" s="22"/>
+      <c r="C393" s="20"/>
       <c r="D393" s="9" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="18"/>
+      <c r="A394" s="4"/>
       <c r="B394" s="5"/>
-      <c r="C394" s="22"/>
+      <c r="C394" s="20"/>
       <c r="D394" s="9" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="18"/>
+      <c r="A395" s="4"/>
       <c r="B395" s="5"/>
-      <c r="C395" s="22"/>
+      <c r="C395" s="20"/>
       <c r="D395" s="9" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="18"/>
+      <c r="A396" s="4"/>
       <c r="B396" s="5"/>
-      <c r="C396" s="22"/>
+      <c r="C396" s="20"/>
       <c r="D396" s="9" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" s="18"/>
+      <c r="A397" s="4"/>
       <c r="B397" s="5"/>
-      <c r="C397" s="22"/>
+      <c r="C397" s="20"/>
       <c r="D397" s="9" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="18"/>
+      <c r="A398" s="4"/>
       <c r="B398" s="5"/>
-      <c r="C398" s="22"/>
+      <c r="C398" s="20"/>
       <c r="D398" s="9" t="s">
-        <v>517</v>
+        <v>686</v>
       </c>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="18"/>
+      <c r="A399" s="4"/>
       <c r="B399" s="5"/>
-      <c r="C399" s="22"/>
+      <c r="C399" s="20"/>
       <c r="D399" s="9" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="18"/>
+      <c r="A400" s="4"/>
       <c r="B400" s="5"/>
-      <c r="C400" s="22"/>
+      <c r="C400" s="20"/>
       <c r="D400" s="9" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="18"/>
+      <c r="A401" s="4"/>
       <c r="B401" s="5"/>
-      <c r="C401" s="22"/>
+      <c r="C401" s="20"/>
       <c r="D401" s="9" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="18"/>
+      <c r="A402" s="4"/>
       <c r="B402" s="5"/>
-      <c r="C402" s="22"/>
+      <c r="C402" s="20"/>
       <c r="D402" s="9" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="18"/>
+      <c r="A403" s="4"/>
       <c r="B403" s="5"/>
-      <c r="C403" s="22"/>
+      <c r="C403" s="20"/>
       <c r="D403" s="9" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="18"/>
+      <c r="A404" s="4"/>
       <c r="B404" s="5"/>
-      <c r="C404" s="22"/>
+      <c r="C404" s="20"/>
       <c r="D404" s="9" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="405" spans="1:4">
-      <c r="A405" s="18"/>
+      <c r="A405" s="4"/>
       <c r="B405" s="5"/>
-      <c r="C405" s="22"/>
+      <c r="C405" s="20"/>
       <c r="D405" s="9" t="s">
-        <v>688</v>
+        <v>587</v>
       </c>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="18"/>
+      <c r="A406" s="4"/>
       <c r="B406" s="5"/>
-      <c r="C406" s="22"/>
+      <c r="C406" s="20"/>
       <c r="D406" s="9" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="18"/>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="407" ht="18" spans="1:4">
+      <c r="A407" s="4"/>
       <c r="B407" s="5"/>
-      <c r="C407" s="22"/>
-      <c r="D407" s="9" t="s">
-        <v>690</v>
-      </c>
+      <c r="C407" s="21"/>
+      <c r="D407" s="19"/>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="18"/>
+      <c r="A408" s="4"/>
       <c r="B408" s="5"/>
-      <c r="C408" s="22"/>
+      <c r="C408" s="20" t="s">
+        <v>694</v>
+      </c>
       <c r="D408" s="9" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="409" spans="1:4">
-      <c r="A409" s="18"/>
+      <c r="A409" s="4"/>
       <c r="B409" s="5"/>
-      <c r="C409" s="22"/>
+      <c r="C409" s="20"/>
       <c r="D409" s="9" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="18"/>
+      <c r="A410" s="4"/>
       <c r="B410" s="5"/>
-      <c r="C410" s="22"/>
+      <c r="C410" s="20"/>
       <c r="D410" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="18"/>
+      <c r="A411" s="4"/>
       <c r="B411" s="5"/>
-      <c r="C411" s="22"/>
+      <c r="C411" s="20"/>
       <c r="D411" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="18"/>
+      <c r="A412" s="4"/>
       <c r="B412" s="5"/>
-      <c r="C412" s="22"/>
+      <c r="C412" s="20"/>
       <c r="D412" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="413" spans="1:4">
-      <c r="A413" s="18"/>
+      <c r="A413" s="4"/>
       <c r="B413" s="5"/>
-      <c r="C413" s="22"/>
+      <c r="C413" s="20"/>
       <c r="D413" s="9" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="18"/>
-      <c r="B414" s="5"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="414" ht="10" customHeight="1" spans="1:4">
+      <c r="A414" s="4"/>
+      <c r="B414" s="22"/>
       <c r="C414" s="22"/>
-      <c r="D414" s="9" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="18"/>
-      <c r="B415" s="5"/>
-      <c r="C415" s="22"/>
-      <c r="D415" s="9" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="18"/>
-      <c r="B416" s="5"/>
-      <c r="C416" s="22"/>
-      <c r="D416" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="18"/>
-      <c r="B417" s="5"/>
-      <c r="C417" s="22"/>
-      <c r="D417" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="18"/>
-      <c r="B418" s="5"/>
-      <c r="C418" s="22"/>
-      <c r="D418" s="9" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="419" ht="18" spans="1:4">
-      <c r="A419" s="18"/>
-      <c r="B419" s="5"/>
-      <c r="C419" s="23"/>
-      <c r="D419" s="21"/>
-    </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="18"/>
-      <c r="B420" s="5"/>
-      <c r="C420" s="22" t="s">
-        <v>701</v>
-      </c>
-      <c r="D420" s="9" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="18"/>
-      <c r="B421" s="5"/>
-      <c r="C421" s="22"/>
-      <c r="D421" s="9" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="18"/>
-      <c r="B422" s="5"/>
-      <c r="C422" s="22"/>
-      <c r="D422" s="9" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="18"/>
-      <c r="B423" s="5"/>
-      <c r="C423" s="22"/>
-      <c r="D423" s="9" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="18"/>
-      <c r="B424" s="5"/>
-      <c r="C424" s="22"/>
-      <c r="D424" s="9" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="18"/>
-      <c r="B425" s="5"/>
-      <c r="C425" s="22"/>
-      <c r="D425" s="9" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="426" ht="10" customHeight="1" spans="1:4">
-      <c r="A426" s="18"/>
-      <c r="B426" s="24"/>
-      <c r="C426" s="24"/>
-      <c r="D426" s="24"/>
+      <c r="D414" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -10655,12 +10532,12 @@
     <mergeCell ref="B179:D179"/>
     <mergeCell ref="B211:D211"/>
     <mergeCell ref="B243:D243"/>
-    <mergeCell ref="B347:D347"/>
+    <mergeCell ref="B335:D335"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="A20:A102"/>
     <mergeCell ref="A104:A242"/>
-    <mergeCell ref="A244:A346"/>
-    <mergeCell ref="A348:A426"/>
+    <mergeCell ref="A244:A334"/>
+    <mergeCell ref="A336:A414"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="B20:B34"/>
     <mergeCell ref="B37:B77"/>
@@ -10669,8 +10546,8 @@
     <mergeCell ref="B149:B177"/>
     <mergeCell ref="B180:B209"/>
     <mergeCell ref="B212:B241"/>
-    <mergeCell ref="B244:B345"/>
-    <mergeCell ref="B348:B425"/>
+    <mergeCell ref="B244:B333"/>
+    <mergeCell ref="B336:B413"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C20:C26"/>
@@ -10694,12 +10571,12 @@
     <mergeCell ref="C212:C219"/>
     <mergeCell ref="C221:C227"/>
     <mergeCell ref="C229:C241"/>
-    <mergeCell ref="C244:C261"/>
-    <mergeCell ref="C263:C276"/>
-    <mergeCell ref="C278:C298"/>
-    <mergeCell ref="C300:C345"/>
-    <mergeCell ref="C348:C418"/>
-    <mergeCell ref="C420:C425"/>
+    <mergeCell ref="C244:C249"/>
+    <mergeCell ref="C251:C264"/>
+    <mergeCell ref="C266:C286"/>
+    <mergeCell ref="C288:C333"/>
+    <mergeCell ref="C336:C406"/>
+    <mergeCell ref="C408:C413"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="743">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -2317,16 +2317,142 @@
   <si>
     <t>6. Big Theta</t>
   </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>2. Architecture of Servlets</t>
+  </si>
+  <si>
+    <t>3. Servlets Life Cycle</t>
+  </si>
+  <si>
+    <t>4. Setting up Tomcat Web Server</t>
+  </si>
+  <si>
+    <t>2. Building and Deploying Your First Servlet</t>
+  </si>
+  <si>
+    <t>2. Creating a Basic Servlet - Hello World!</t>
+  </si>
+  <si>
+    <t>3. Deploying Servlet in Web Server</t>
+  </si>
+  <si>
+    <t>4. Summary</t>
+  </si>
+  <si>
+    <t>3. Working with Form and Query String Data</t>
+  </si>
+  <si>
+    <t>2. Handling GET Method in Servlets</t>
+  </si>
+  <si>
+    <t>3. Handling Form Data in Servlets</t>
+  </si>
+  <si>
+    <t>4. Handling POST Method in Servlets</t>
+  </si>
+  <si>
+    <t>4. Handling HTTP Requests and Responses</t>
+  </si>
+  <si>
+    <t>2. Reading HTTP Headers</t>
+  </si>
+  <si>
+    <t>3. Demo: Reading HTTP Headers</t>
+  </si>
+  <si>
+    <t>4. Setting HTTP Response Headers</t>
+  </si>
+  <si>
+    <t>5. Demo: Setting HTTP Response Headers</t>
+  </si>
+  <si>
+    <t>6. Setting HTTP Status Code</t>
+  </si>
+  <si>
+    <t>7. Demo: Setting HTTP Status Code</t>
+  </si>
+  <si>
+    <t>8. Summary</t>
+  </si>
+  <si>
+    <t>5. Intercepting HTTP Request with Filters</t>
+  </si>
+  <si>
+    <t>2. Servlet Filter Methods</t>
+  </si>
+  <si>
+    <t>3. Demo: Servlet Filter Methods</t>
+  </si>
+  <si>
+    <t>4. Filter Mapping in web.xml</t>
+  </si>
+  <si>
+    <t>6. Handling Exceptions in Servlets</t>
+  </si>
+  <si>
+    <t>2. web.xml Configuration</t>
+  </si>
+  <si>
+    <t>3. Request Attributes - Exceptions</t>
+  </si>
+  <si>
+    <t>4. Demo: Error Handler Servlet</t>
+  </si>
+  <si>
+    <t>7. Tracking Session Data</t>
+  </si>
+  <si>
+    <t>2. Hidden Form Fields</t>
+  </si>
+  <si>
+    <t>3. URL Rewriting</t>
+  </si>
+  <si>
+    <t>4. Handling Cookies in Servlets</t>
+  </si>
+  <si>
+    <t>5. Demo: Handling Cookies in Servlets</t>
+  </si>
+  <si>
+    <t>6. Handling Sessions in Servlets</t>
+  </si>
+  <si>
+    <t>7. Demo: Handling Sessions in Servlets</t>
+  </si>
+  <si>
+    <t>8. Packaging Servlets for Deployment</t>
+  </si>
+  <si>
+    <t>2. Creating Servlets in Packages</t>
+  </si>
+  <si>
+    <t>3. Package Servlets Deployment</t>
+  </si>
+  <si>
+    <t>9. Providing Servlet Metadata Using Annotations</t>
+  </si>
+  <si>
+    <t>2. @WebServlet</t>
+  </si>
+  <si>
+    <t>3. @WebInitParam</t>
+  </si>
+  <si>
+    <t>4. @WebFilter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2430,6 +2556,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2438,8 +2578,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2452,6 +2614,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -2459,30 +2629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2496,38 +2645,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2549,11 +2669,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2567,14 +2693,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2637,7 +2763,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2649,13 +2799,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,19 +2907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2691,7 +2931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2703,121 +2943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,6 +2987,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2876,13 +3011,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2904,33 +3043,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2958,10 +3075,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2979,135 +3105,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3167,6 +3293,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3728,3388 +3860,3388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" ht="25.5" spans="1:4">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="31" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:4">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="31" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="36" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" ht="38.25" spans="1:4">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="31" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:4">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="31" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="63.75" spans="1:4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:4">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" spans="1:4">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="38" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="38" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="38" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:4">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="38" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="38" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="36" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" ht="76.5" spans="1:4">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="38" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="38" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="39" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="38" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="76.5" spans="1:4">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="38" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="38" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="38" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="38" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:4">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="38" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="38" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="76.5" spans="1:4">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="38" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="38" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="38" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="35"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="41" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="41"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="36" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="34" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="34" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="34" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="34" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="34" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" ht="51" spans="1:4">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="34" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="34" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" ht="38.25" spans="1:4">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="34" t="s">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="34" t="s">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="34" t="s">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="35"/>
+      <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="36" t="s">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="37"/>
+      <c r="D68" s="39"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="34"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="34" t="s">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="36" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="34" t="s">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="34" t="s">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D73" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="34" t="s">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34" t="s">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="34" t="s">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="34" t="s">
+      <c r="D76" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="34" t="s">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="34" t="s">
+      <c r="D77" s="36" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="34" t="s">
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="34" t="s">
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="34" t="s">
+      <c r="D79" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="34" t="s">
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="34" t="s">
+      <c r="D80" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="34" t="s">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="34" t="s">
+      <c r="D81" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34" t="s">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="34" t="s">
+      <c r="D82" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="34" t="s">
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="36" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="34" t="s">
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="34" t="s">
+      <c r="A85" s="35"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="34" t="s">
+      <c r="A86" s="35"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="D86" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" spans="1:4">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="34" t="s">
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="36" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="88" ht="51" spans="1:4">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="34" t="s">
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="D88" s="36" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="34" t="s">
+      <c r="A89" s="35"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="35"/>
+      <c r="D89" s="37"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="36" t="s">
+      <c r="A90" s="35"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="37"/>
+      <c r="D90" s="39"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="28"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="44"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="46"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="C93" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="46" t="s">
+      <c r="D93" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="50"/>
+      <c r="D94" s="52"/>
     </row>
     <row r="95" ht="76.5" spans="1:4">
-      <c r="A95" s="51"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="49" t="s">
+      <c r="A95" s="53"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="52" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="51"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="49" t="s">
+      <c r="A96" s="53"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="50" t="s">
+      <c r="D96" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" ht="51" spans="1:4">
-      <c r="A97" s="51"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="49" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="98" ht="38.25" spans="1:4">
-      <c r="A98" s="51"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="49" t="s">
+      <c r="A98" s="53"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D98" s="50" t="s">
+      <c r="D98" s="52" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="51"/>
-      <c r="B99" s="51"/>
-      <c r="C99" s="49" t="s">
+      <c r="A99" s="53"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" ht="51" spans="1:4">
-      <c r="A100" s="51"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="49" t="s">
+      <c r="A100" s="53"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="52" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="51"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="49" t="s">
+      <c r="A101" s="53"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="50" t="s">
+      <c r="D101" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" ht="51" spans="1:4">
-      <c r="A102" s="51"/>
-      <c r="B102" s="51"/>
-      <c r="C102" s="49" t="s">
+      <c r="A102" s="53"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="52" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="51"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="49" t="s">
+      <c r="A103" s="53"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104" ht="38.25" spans="1:4">
-      <c r="A104" s="51"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="49" t="s">
+      <c r="A104" s="53"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D104" s="50" t="s">
+      <c r="D104" s="52" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="51"/>
-      <c r="B105" s="51"/>
-      <c r="C105" s="49" t="s">
+      <c r="A105" s="53"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="D105" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" ht="25.5" spans="1:4">
-      <c r="A106" s="51"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="49" t="s">
+      <c r="A106" s="53"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="50" t="s">
+      <c r="D106" s="52" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="51"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="49" t="s">
+      <c r="A107" s="53"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="50" t="s">
+      <c r="D107" s="52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="51"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="52" t="s">
+      <c r="A108" s="53"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="50" t="s">
+      <c r="D108" s="52" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="51"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="52" t="s">
+      <c r="A109" s="53"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="50" t="s">
+      <c r="D109" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="51"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="52" t="s">
+      <c r="A110" s="53"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="50" t="s">
+      <c r="D110" s="52" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="51"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="52" t="s">
+      <c r="A111" s="53"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D111" s="50" t="s">
+      <c r="D111" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="51"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="52" t="s">
+      <c r="A112" s="53"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="50" t="s">
+      <c r="D112" s="52" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="51"/>
-      <c r="B113" s="51"/>
-      <c r="C113" s="52" t="s">
+      <c r="A113" s="53"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D113" s="50" t="s">
+      <c r="D113" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="51"/>
-      <c r="B114" s="51"/>
-      <c r="C114" s="49" t="s">
+      <c r="A114" s="53"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="50" t="s">
+      <c r="D114" s="52" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="51"/>
-      <c r="B115" s="51"/>
-      <c r="C115" s="49" t="s">
+      <c r="A115" s="53"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D115" s="50" t="s">
+      <c r="D115" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="51"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="49" t="s">
+      <c r="A116" s="53"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="53"/>
+      <c r="D116" s="55"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="51"/>
-      <c r="B117" s="51"/>
-      <c r="C117" s="54" t="s">
+      <c r="A117" s="53"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="55"/>
+      <c r="D117" s="57"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="26"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="28"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="30"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="56"/>
+      <c r="D119" s="58"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="33"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="49" t="s">
+      <c r="A120" s="35"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D120" s="56" t="s">
+      <c r="D120" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="33"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="49" t="s">
+      <c r="A121" s="35"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D121" s="56" t="s">
+      <c r="D121" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="33"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="49" t="s">
+      <c r="A122" s="35"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D122" s="56" t="s">
+      <c r="D122" s="58" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="123" ht="38.25" spans="1:4">
-      <c r="A123" s="33"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="49" t="s">
+      <c r="A123" s="35"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D123" s="57" t="s">
+      <c r="D123" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="33"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="49" t="s">
+      <c r="A124" s="35"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D124" s="56" t="s">
+      <c r="D124" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" ht="25.5" spans="1:4">
-      <c r="A125" s="33"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="49" t="s">
+      <c r="A125" s="35"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D125" s="57" t="s">
+      <c r="D125" s="59" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="49" t="s">
+      <c r="A126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="56" t="s">
+      <c r="D126" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" ht="38.25" spans="1:4">
-      <c r="A127" s="33"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="49" t="s">
+      <c r="A127" s="35"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D127" s="57" t="s">
+      <c r="D127" s="59" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="49" t="s">
+      <c r="A128" s="35"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D128" s="56" t="s">
+      <c r="D128" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="49" t="s">
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D129" s="56" t="s">
+      <c r="D129" s="58" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="130" ht="38.25" spans="1:4">
-      <c r="A130" s="33"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="49" t="s">
+      <c r="A130" s="35"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D130" s="57" t="s">
+      <c r="D130" s="59" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="33"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="49" t="s">
+      <c r="A131" s="35"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="56" t="s">
+      <c r="D131" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="33"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="49" t="s">
+      <c r="A132" s="35"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D132" s="53"/>
+      <c r="D132" s="55"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="58" t="s">
+      <c r="A133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="59"/>
+      <c r="D133" s="61"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="26"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="28"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="30"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="47" t="s">
+      <c r="A135" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B135" s="60" t="s">
+      <c r="B135" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C135" s="49" t="s">
+      <c r="C135" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="53"/>
+      <c r="D135" s="55"/>
     </row>
     <row r="136" ht="76.5" spans="1:4">
-      <c r="A136" s="51"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="49" t="s">
+      <c r="A136" s="53"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D136" s="50" t="s">
+      <c r="D136" s="52" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="51"/>
-      <c r="B137" s="51"/>
-      <c r="C137" s="49" t="s">
+      <c r="A137" s="53"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D137" s="50" t="s">
+      <c r="D137" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="51"/>
-      <c r="B138" s="51"/>
-      <c r="C138" s="49" t="s">
+      <c r="A138" s="53"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D138" s="50" t="s">
+      <c r="D138" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="51"/>
-      <c r="B139" s="51"/>
-      <c r="C139" s="49" t="s">
+      <c r="A139" s="53"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="D139" s="50" t="s">
+      <c r="D139" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" ht="25.5" spans="1:4">
-      <c r="A140" s="51"/>
-      <c r="B140" s="51"/>
-      <c r="C140" s="49" t="s">
+      <c r="A140" s="53"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="57" t="s">
+      <c r="D140" s="59" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="51"/>
-      <c r="B141" s="51"/>
-      <c r="C141" s="49" t="s">
+      <c r="A141" s="53"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D141" s="50" t="s">
+      <c r="D141" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="51"/>
-      <c r="B142" s="51"/>
-      <c r="C142" s="49" t="s">
+      <c r="A142" s="53"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="D142" s="50" t="s">
+      <c r="D142" s="52" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="143" ht="63.75" spans="1:4">
-      <c r="A143" s="51"/>
-      <c r="B143" s="51"/>
-      <c r="C143" s="52" t="s">
+      <c r="A143" s="53"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="50" t="s">
+      <c r="D143" s="52" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="51"/>
-      <c r="B144" s="51"/>
-      <c r="C144" s="52" t="s">
+      <c r="A144" s="53"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D144" s="50" t="s">
+      <c r="D144" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" ht="51" spans="1:4">
-      <c r="A145" s="51"/>
-      <c r="B145" s="51"/>
-      <c r="C145" s="49" t="s">
+      <c r="A145" s="53"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="57" t="s">
+      <c r="D145" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="146" ht="51" spans="1:4">
-      <c r="A146" s="51"/>
-      <c r="B146" s="51"/>
-      <c r="C146" s="49" t="s">
+      <c r="A146" s="53"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="D146" s="57" t="s">
+      <c r="D146" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="51"/>
-      <c r="B147" s="51"/>
-      <c r="C147" s="49" t="s">
+      <c r="A147" s="53"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D147" s="50" t="s">
+      <c r="D147" s="52" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="51"/>
-      <c r="B148" s="51"/>
-      <c r="C148" s="49" t="s">
+      <c r="A148" s="53"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D148" s="57" t="s">
+      <c r="D148" s="59" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="51"/>
-      <c r="B149" s="51"/>
-      <c r="C149" s="49" t="s">
+      <c r="A149" s="53"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D149" s="50" t="s">
+      <c r="D149" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="51"/>
-      <c r="B150" s="51"/>
-      <c r="C150" s="49" t="s">
+      <c r="A150" s="53"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D150" s="57" t="s">
+      <c r="D150" s="59" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="51"/>
-      <c r="B151" s="51"/>
-      <c r="C151" s="49" t="s">
+      <c r="A151" s="53"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D151" s="50" t="s">
+      <c r="D151" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="51"/>
-      <c r="B152" s="51"/>
-      <c r="C152" s="61" t="s">
+      <c r="A152" s="53"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D152" s="62" t="s">
+      <c r="D152" s="64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="51"/>
-      <c r="B153" s="51"/>
-      <c r="C153" s="61" t="s">
+      <c r="A153" s="53"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D153" s="63" t="s">
+      <c r="D153" s="65" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="51"/>
-      <c r="B154" s="51"/>
-      <c r="C154" s="49" t="s">
+      <c r="A154" s="53"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="53"/>
+      <c r="D154" s="55"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="51"/>
-      <c r="B155" s="51"/>
-      <c r="C155" s="54" t="s">
+      <c r="A155" s="53"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="55"/>
+      <c r="D155" s="57"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="26"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="27"/>
-      <c r="D156" s="28"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="30"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="47" t="s">
+      <c r="A157" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B157" s="60" t="s">
+      <c r="B157" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="C157" s="49" t="s">
+      <c r="C157" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="53"/>
+      <c r="D157" s="55"/>
     </row>
     <row r="158" ht="38.25" spans="1:4">
-      <c r="A158" s="51"/>
-      <c r="B158" s="51"/>
-      <c r="C158" s="49" t="s">
+      <c r="A158" s="53"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D158" s="50" t="s">
+      <c r="D158" s="52" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="51"/>
-      <c r="B159" s="51"/>
-      <c r="C159" s="49" t="s">
+      <c r="A159" s="53"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="D159" s="50" t="s">
+      <c r="D159" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="160" ht="51" spans="1:4">
-      <c r="A160" s="51"/>
-      <c r="B160" s="51"/>
-      <c r="C160" s="49" t="s">
+      <c r="A160" s="53"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D160" s="50" t="s">
+      <c r="D160" s="52" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="161" ht="114.75" spans="1:4">
-      <c r="A161" s="51"/>
-      <c r="B161" s="51"/>
-      <c r="C161" s="49" t="s">
+      <c r="A161" s="53"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D161" s="50" t="s">
+      <c r="D161" s="52" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="51"/>
-      <c r="B162" s="51"/>
-      <c r="C162" s="49" t="s">
+      <c r="A162" s="53"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D162" s="50" t="s">
+      <c r="D162" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" ht="76.5" spans="1:4">
-      <c r="A163" s="51"/>
-      <c r="B163" s="51"/>
-      <c r="C163" s="49" t="s">
+      <c r="A163" s="53"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D163" s="50" t="s">
+      <c r="D163" s="52" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="51"/>
-      <c r="B164" s="51"/>
-      <c r="C164" s="49" t="s">
+      <c r="A164" s="53"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D164" s="50" t="s">
+      <c r="D164" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="165" ht="140.25" spans="1:4">
-      <c r="A165" s="51"/>
-      <c r="B165" s="51"/>
-      <c r="C165" s="49" t="s">
+      <c r="A165" s="53"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D165" s="50" t="s">
+      <c r="D165" s="52" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="51"/>
-      <c r="B166" s="51"/>
-      <c r="C166" s="49" t="s">
+      <c r="A166" s="53"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D166" s="50" t="s">
+      <c r="D166" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="167" ht="25.5" spans="1:4">
-      <c r="A167" s="51"/>
-      <c r="B167" s="51"/>
-      <c r="C167" s="49" t="s">
+      <c r="A167" s="53"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="D167" s="50" t="s">
+      <c r="D167" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="168" ht="38.25" spans="1:4">
-      <c r="A168" s="51"/>
-      <c r="B168" s="51"/>
-      <c r="C168" s="49" t="s">
+      <c r="A168" s="53"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D168" s="50" t="s">
+      <c r="D168" s="52" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="51"/>
-      <c r="B169" s="51"/>
-      <c r="C169" s="49" t="s">
+      <c r="A169" s="53"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D169" s="50" t="s">
+      <c r="D169" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="51"/>
-      <c r="B170" s="51"/>
-      <c r="C170" s="49" t="s">
+      <c r="A170" s="53"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D170" s="53"/>
+      <c r="D170" s="55"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="51"/>
-      <c r="B171" s="51"/>
-      <c r="C171" s="54" t="s">
+      <c r="A171" s="53"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D171" s="55"/>
+      <c r="D171" s="57"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="28"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="30"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="64"/>
-      <c r="B173" s="64"/>
-      <c r="C173" s="65" t="s">
+      <c r="A173" s="66"/>
+      <c r="B173" s="66"/>
+      <c r="C173" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D173" s="44"/>
+      <c r="D173" s="46"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="23" t="s">
+      <c r="A174" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="23" t="s">
+      <c r="B174" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C174" s="66" t="s">
+      <c r="C174" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="67" t="s">
+      <c r="D174" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="30" t="s">
+      <c r="A175" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="29" t="s">
+      <c r="B175" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C175" s="49" t="s">
+      <c r="C175" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D175" s="68"/>
+      <c r="D175" s="70"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="33"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="49" t="s">
+      <c r="A176" s="35"/>
+      <c r="B176" s="35"/>
+      <c r="C176" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="D176" s="68" t="s">
+      <c r="D176" s="70" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="33"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="49" t="s">
+      <c r="A177" s="35"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="D177" s="68" t="s">
+      <c r="D177" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="33"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="61" t="s">
+      <c r="A178" s="35"/>
+      <c r="B178" s="35"/>
+      <c r="C178" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="D178" s="69" t="s">
+      <c r="D178" s="71" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="179" ht="51" spans="1:4">
-      <c r="A179" s="33"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="61" t="s">
+      <c r="A179" s="35"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="D179" s="70" t="s">
+      <c r="D179" s="72" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="33"/>
-      <c r="B180" s="33"/>
-      <c r="C180" s="61" t="s">
+      <c r="A180" s="35"/>
+      <c r="B180" s="35"/>
+      <c r="C180" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="D180" s="69" t="s">
+      <c r="D180" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="181" ht="25.5" spans="1:4">
-      <c r="A181" s="33"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="49" t="s">
+      <c r="A181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D181" s="71" t="s">
+      <c r="D181" s="73" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="33"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="49" t="s">
+      <c r="A182" s="35"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D182" s="68" t="s">
+      <c r="D182" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" ht="25.5" spans="1:4">
-      <c r="A183" s="33"/>
-      <c r="B183" s="33"/>
-      <c r="C183" s="49" t="s">
+      <c r="A183" s="35"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="D183" s="71" t="s">
+      <c r="D183" s="73" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="33"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="49" t="s">
+      <c r="A184" s="35"/>
+      <c r="B184" s="35"/>
+      <c r="C184" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="72"/>
+      <c r="D184" s="74"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="33"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="58" t="s">
+      <c r="A185" s="35"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="73"/>
+      <c r="D185" s="75"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="26"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="74"/>
-      <c r="D186" s="45"/>
+      <c r="A186" s="28"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="76"/>
+      <c r="D186" s="47"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="30" t="s">
+      <c r="A187" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="29" t="s">
+      <c r="B187" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C187" s="49" t="s">
+      <c r="C187" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D187" s="68"/>
+      <c r="D187" s="70"/>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="33"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="61" t="s">
+      <c r="A188" s="35"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="D188" s="61" t="s">
+      <c r="D188" s="63" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="33"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="61" t="s">
+      <c r="A189" s="35"/>
+      <c r="B189" s="35"/>
+      <c r="C189" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="D189" s="61" t="s">
+      <c r="D189" s="63" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="33"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="61" t="s">
+      <c r="A190" s="35"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="D190" s="69" t="s">
+      <c r="D190" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="33"/>
-      <c r="B191" s="33"/>
-      <c r="C191" s="61" t="s">
+      <c r="A191" s="35"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="D191" s="61" t="s">
+      <c r="D191" s="63" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="33"/>
-      <c r="B192" s="33"/>
-      <c r="C192" s="61" t="s">
+      <c r="A192" s="35"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D192" s="61" t="s">
+      <c r="D192" s="63" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="33"/>
-      <c r="B193" s="33"/>
-      <c r="C193" s="61" t="s">
+      <c r="A193" s="35"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D193" s="69" t="s">
+      <c r="D193" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="33"/>
-      <c r="B194" s="33"/>
-      <c r="C194" s="61" t="s">
+      <c r="A194" s="35"/>
+      <c r="B194" s="35"/>
+      <c r="C194" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D194" s="61" t="s">
+      <c r="D194" s="63" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="33"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="61" t="s">
+      <c r="A195" s="35"/>
+      <c r="B195" s="35"/>
+      <c r="C195" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D195" s="69" t="s">
+      <c r="D195" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="33"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="61" t="s">
+      <c r="A196" s="35"/>
+      <c r="B196" s="35"/>
+      <c r="C196" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D196" s="69" t="s">
+      <c r="D196" s="71" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="33"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="61" t="s">
+      <c r="A197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D197" s="69" t="s">
+      <c r="D197" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" ht="25.5" spans="1:4">
-      <c r="A198" s="33"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="61" t="s">
+      <c r="A198" s="35"/>
+      <c r="B198" s="35"/>
+      <c r="C198" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="D198" s="70" t="s">
+      <c r="D198" s="72" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="199" ht="25.5" spans="1:4">
-      <c r="A199" s="33"/>
-      <c r="B199" s="33"/>
-      <c r="C199" s="61" t="s">
+      <c r="A199" s="35"/>
+      <c r="B199" s="35"/>
+      <c r="C199" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="D199" s="70" t="s">
+      <c r="D199" s="72" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="33"/>
-      <c r="B200" s="33"/>
-      <c r="C200" s="61" t="s">
+      <c r="A200" s="35"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="D200" s="69" t="s">
+      <c r="D200" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="33"/>
-      <c r="B201" s="33"/>
-      <c r="C201" s="61" t="s">
+      <c r="A201" s="35"/>
+      <c r="B201" s="35"/>
+      <c r="C201" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="D201" s="69" t="s">
+      <c r="D201" s="71" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="33"/>
-      <c r="B202" s="33"/>
-      <c r="C202" s="61" t="s">
+      <c r="A202" s="35"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="D202" s="69" t="s">
+      <c r="D202" s="71" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="33"/>
-      <c r="B203" s="33"/>
-      <c r="C203" s="61" t="s">
+      <c r="A203" s="35"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="D203" s="69" t="s">
+      <c r="D203" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="33"/>
-      <c r="B204" s="33"/>
-      <c r="C204" s="61" t="s">
+      <c r="A204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D204" s="75"/>
+      <c r="D204" s="77"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="33"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="58" t="s">
+      <c r="A205" s="35"/>
+      <c r="B205" s="35"/>
+      <c r="C205" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D205" s="73"/>
+      <c r="D205" s="75"/>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="26"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="74"/>
-      <c r="D206" s="45"/>
+      <c r="A206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="76"/>
+      <c r="D206" s="47"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="47" t="s">
+      <c r="A207" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B207" s="47" t="s">
+      <c r="B207" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C207" s="52" t="s">
+      <c r="C207" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D207" s="76"/>
+      <c r="D207" s="78"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="33"/>
-      <c r="B208" s="33"/>
-      <c r="C208" s="77" t="s">
+      <c r="A208" s="35"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="D208" s="76" t="s">
+      <c r="D208" s="78" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="33"/>
-      <c r="B209" s="33"/>
-      <c r="C209" s="77" t="s">
+      <c r="A209" s="35"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="D209" s="76" t="s">
+      <c r="D209" s="78" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="33"/>
-      <c r="B210" s="33"/>
-      <c r="C210" s="77" t="s">
+      <c r="A210" s="35"/>
+      <c r="B210" s="35"/>
+      <c r="C210" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="D210" s="76" t="s">
+      <c r="D210" s="78" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="33"/>
-      <c r="B211" s="33"/>
-      <c r="C211" s="77" t="s">
+      <c r="A211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="D211" s="76" t="s">
+      <c r="D211" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="33"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="78" t="s">
+      <c r="A212" s="35"/>
+      <c r="B212" s="35"/>
+      <c r="C212" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="D212" s="79" t="s">
+      <c r="D212" s="81" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="33"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="78" t="s">
+      <c r="A213" s="35"/>
+      <c r="B213" s="35"/>
+      <c r="C213" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="D213" s="79" t="s">
+      <c r="D213" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="33"/>
-      <c r="B214" s="33"/>
-      <c r="C214" s="77" t="s">
+      <c r="A214" s="35"/>
+      <c r="B214" s="35"/>
+      <c r="C214" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D214" s="76" t="s">
+      <c r="D214" s="78" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="33"/>
-      <c r="B215" s="33"/>
-      <c r="C215" s="77" t="s">
+      <c r="A215" s="35"/>
+      <c r="B215" s="35"/>
+      <c r="C215" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D215" s="76" t="s">
+      <c r="D215" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="33"/>
-      <c r="B216" s="33"/>
-      <c r="C216" s="77" t="s">
+      <c r="A216" s="35"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="D216" s="76" t="s">
+      <c r="D216" s="78" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="33"/>
-      <c r="B217" s="33"/>
-      <c r="C217" s="77" t="s">
+      <c r="A217" s="35"/>
+      <c r="B217" s="35"/>
+      <c r="C217" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="D217" s="76" t="s">
+      <c r="D217" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="33"/>
-      <c r="B218" s="33"/>
-      <c r="C218" s="77" t="s">
+      <c r="A218" s="35"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="D218" s="76" t="s">
+      <c r="D218" s="78" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="33"/>
-      <c r="B219" s="33"/>
-      <c r="C219" s="77" t="s">
+      <c r="A219" s="35"/>
+      <c r="B219" s="35"/>
+      <c r="C219" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="D219" s="76" t="s">
+      <c r="D219" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="33"/>
-      <c r="B220" s="33"/>
-      <c r="C220" s="77" t="s">
+      <c r="A220" s="35"/>
+      <c r="B220" s="35"/>
+      <c r="C220" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="D220" s="76" t="s">
+      <c r="D220" s="78" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="33"/>
-      <c r="B221" s="33"/>
-      <c r="C221" s="77" t="s">
+      <c r="A221" s="35"/>
+      <c r="B221" s="35"/>
+      <c r="C221" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="D221" s="76" t="s">
+      <c r="D221" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="33"/>
-      <c r="B222" s="33"/>
-      <c r="C222" s="49" t="s">
+      <c r="A222" s="35"/>
+      <c r="B222" s="35"/>
+      <c r="C222" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D222" s="72"/>
+      <c r="D222" s="74"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="33"/>
-      <c r="B223" s="33"/>
-      <c r="C223" s="58" t="s">
+      <c r="A223" s="35"/>
+      <c r="B223" s="35"/>
+      <c r="C223" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D223" s="73"/>
+      <c r="D223" s="75"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="26"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="74"/>
-      <c r="D224" s="45"/>
+      <c r="A224" s="28"/>
+      <c r="B224" s="28"/>
+      <c r="C224" s="76"/>
+      <c r="D224" s="47"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="42" t="s">
+      <c r="A225" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B225" s="42" t="s">
+      <c r="B225" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C225" s="49" t="s">
+      <c r="C225" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D225" s="68"/>
+      <c r="D225" s="70"/>
     </row>
     <row r="226" ht="89.25" spans="1:4">
-      <c r="A226" s="33"/>
-      <c r="B226" s="33"/>
-      <c r="C226" s="80" t="s">
+      <c r="A226" s="35"/>
+      <c r="B226" s="35"/>
+      <c r="C226" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="D226" s="79" t="s">
+      <c r="D226" s="81" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="227" ht="51" spans="1:4">
-      <c r="A227" s="33"/>
-      <c r="B227" s="33"/>
-      <c r="C227" s="80" t="s">
+      <c r="A227" s="35"/>
+      <c r="B227" s="35"/>
+      <c r="C227" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="D227" s="79" t="s">
+      <c r="D227" s="81" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="33"/>
-      <c r="B228" s="33"/>
-      <c r="C228" s="80" t="s">
+      <c r="A228" s="35"/>
+      <c r="B228" s="35"/>
+      <c r="C228" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="D228" s="75" t="s">
+      <c r="D228" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="229" ht="63.75" spans="1:4">
-      <c r="A229" s="33"/>
-      <c r="B229" s="33"/>
-      <c r="C229" s="80" t="s">
+      <c r="A229" s="35"/>
+      <c r="B229" s="35"/>
+      <c r="C229" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="D229" s="79" t="s">
+      <c r="D229" s="81" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="33"/>
-      <c r="B230" s="33"/>
-      <c r="C230" s="80" t="s">
+      <c r="A230" s="35"/>
+      <c r="B230" s="35"/>
+      <c r="C230" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="D230" s="75" t="s">
+      <c r="D230" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="33"/>
-      <c r="B231" s="33"/>
-      <c r="C231" s="72" t="s">
+      <c r="A231" s="35"/>
+      <c r="B231" s="35"/>
+      <c r="C231" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="D231" s="81"/>
+      <c r="D231" s="83"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="33"/>
-      <c r="B232" s="33"/>
-      <c r="C232" s="58" t="s">
+      <c r="A232" s="35"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D232" s="73"/>
+      <c r="D232" s="75"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="26"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="74"/>
-      <c r="D233" s="45"/>
+      <c r="A233" s="28"/>
+      <c r="B233" s="28"/>
+      <c r="C233" s="76"/>
+      <c r="D233" s="47"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="64"/>
-      <c r="B234" s="64"/>
-      <c r="C234" s="82" t="s">
+      <c r="A234" s="66"/>
+      <c r="B234" s="66"/>
+      <c r="C234" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="D234" s="83"/>
+      <c r="D234" s="85"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="23" t="s">
+      <c r="A235" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B235" s="23" t="s">
+      <c r="B235" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C235" s="23" t="s">
+      <c r="C235" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="46" t="s">
+      <c r="D235" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="42" t="s">
+      <c r="A236" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="42" t="s">
+      <c r="B236" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="C236" s="84" t="s">
+      <c r="C236" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D236" s="50"/>
+      <c r="D236" s="52"/>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="33"/>
-      <c r="B237" s="33"/>
-      <c r="C237" s="84" t="s">
+      <c r="A237" s="35"/>
+      <c r="B237" s="35"/>
+      <c r="C237" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="D237" s="50" t="s">
+      <c r="D237" s="52" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="33"/>
-      <c r="B238" s="33"/>
-      <c r="C238" s="51"/>
-      <c r="D238" s="50" t="s">
+      <c r="A238" s="35"/>
+      <c r="B238" s="35"/>
+      <c r="C238" s="53"/>
+      <c r="D238" s="52" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="33"/>
-      <c r="B239" s="33"/>
-      <c r="C239" s="51"/>
-      <c r="D239" s="50" t="s">
+      <c r="A239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="53"/>
+      <c r="D239" s="52" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="33"/>
-      <c r="B240" s="33"/>
-      <c r="C240" s="51"/>
-      <c r="D240" s="50" t="s">
+      <c r="A240" s="35"/>
+      <c r="B240" s="35"/>
+      <c r="C240" s="53"/>
+      <c r="D240" s="52" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="33"/>
-      <c r="B241" s="33"/>
-      <c r="C241" s="51"/>
-      <c r="D241" s="50" t="s">
+      <c r="A241" s="35"/>
+      <c r="B241" s="35"/>
+      <c r="C241" s="53"/>
+      <c r="D241" s="52" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="33"/>
-      <c r="B242" s="33"/>
-      <c r="C242" s="85" t="s">
+      <c r="A242" s="35"/>
+      <c r="B242" s="35"/>
+      <c r="C242" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="D242" s="50" t="s">
+      <c r="D242" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="33"/>
-      <c r="B243" s="33"/>
-      <c r="C243" s="84" t="s">
+      <c r="A243" s="35"/>
+      <c r="B243" s="35"/>
+      <c r="C243" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D243" s="50" t="s">
+      <c r="D243" s="52" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="33"/>
-      <c r="B244" s="33"/>
-      <c r="C244" s="51"/>
-      <c r="D244" s="50" t="s">
+      <c r="A244" s="35"/>
+      <c r="B244" s="35"/>
+      <c r="C244" s="53"/>
+      <c r="D244" s="52" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="245" ht="153" spans="1:4">
-      <c r="A245" s="33"/>
-      <c r="B245" s="33"/>
-      <c r="C245" s="84" t="s">
+      <c r="A245" s="35"/>
+      <c r="B245" s="35"/>
+      <c r="C245" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="D245" s="50" t="s">
+      <c r="D245" s="52" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="33"/>
-      <c r="B246" s="33"/>
-      <c r="C246" s="84" t="s">
+      <c r="A246" s="35"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="D246" s="50" t="s">
+      <c r="D246" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="33"/>
-      <c r="B247" s="33"/>
-      <c r="C247" s="84" t="s">
+      <c r="A247" s="35"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="D247" s="50" t="s">
+      <c r="D247" s="52" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="33"/>
-      <c r="B248" s="33"/>
-      <c r="C248" s="51"/>
-      <c r="D248" s="50" t="s">
+      <c r="A248" s="35"/>
+      <c r="B248" s="35"/>
+      <c r="C248" s="53"/>
+      <c r="D248" s="52" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="33"/>
-      <c r="B249" s="33"/>
-      <c r="C249" s="51"/>
-      <c r="D249" s="50" t="s">
+      <c r="A249" s="35"/>
+      <c r="B249" s="35"/>
+      <c r="C249" s="53"/>
+      <c r="D249" s="52" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="33"/>
-      <c r="B250" s="33"/>
-      <c r="C250" s="51"/>
-      <c r="D250" s="50" t="s">
+      <c r="A250" s="35"/>
+      <c r="B250" s="35"/>
+      <c r="C250" s="53"/>
+      <c r="D250" s="52" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="33"/>
-      <c r="B251" s="33"/>
-      <c r="C251" s="51"/>
-      <c r="D251" s="50" t="s">
+      <c r="A251" s="35"/>
+      <c r="B251" s="35"/>
+      <c r="C251" s="53"/>
+      <c r="D251" s="52" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="33"/>
-      <c r="B252" s="33"/>
-      <c r="C252" s="51"/>
-      <c r="D252" s="50" t="s">
+      <c r="A252" s="35"/>
+      <c r="B252" s="35"/>
+      <c r="C252" s="53"/>
+      <c r="D252" s="52" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="33"/>
-      <c r="B253" s="33"/>
-      <c r="C253" s="51"/>
-      <c r="D253" s="50" t="s">
+      <c r="A253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="53"/>
+      <c r="D253" s="52" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="33"/>
-      <c r="B254" s="33"/>
-      <c r="C254" s="84" t="s">
+      <c r="A254" s="35"/>
+      <c r="B254" s="35"/>
+      <c r="C254" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="D254" s="50" t="s">
+      <c r="D254" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="33"/>
-      <c r="B255" s="33"/>
-      <c r="C255" s="84" t="s">
+      <c r="A255" s="35"/>
+      <c r="B255" s="35"/>
+      <c r="C255" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="D255" s="50" t="s">
+      <c r="D255" s="52" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="33"/>
-      <c r="B256" s="33"/>
-      <c r="C256" s="51"/>
-      <c r="D256" s="86" t="s">
+      <c r="A256" s="35"/>
+      <c r="B256" s="35"/>
+      <c r="C256" s="53"/>
+      <c r="D256" s="88" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="33"/>
-      <c r="B257" s="33"/>
-      <c r="C257" s="51"/>
-      <c r="D257" s="86" t="s">
+      <c r="A257" s="35"/>
+      <c r="B257" s="35"/>
+      <c r="C257" s="53"/>
+      <c r="D257" s="88" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="33"/>
-      <c r="B258" s="33"/>
-      <c r="C258" s="84" t="s">
+      <c r="A258" s="35"/>
+      <c r="B258" s="35"/>
+      <c r="C258" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="D258" s="50" t="s">
+      <c r="D258" s="52" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="33"/>
-      <c r="B259" s="33"/>
-      <c r="C259" s="51"/>
-      <c r="D259" s="50" t="s">
+      <c r="A259" s="35"/>
+      <c r="B259" s="35"/>
+      <c r="C259" s="53"/>
+      <c r="D259" s="52" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="33"/>
-      <c r="B260" s="33"/>
-      <c r="C260" s="51"/>
-      <c r="D260" s="50" t="s">
+      <c r="A260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="53"/>
+      <c r="D260" s="52" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="33"/>
-      <c r="B261" s="33"/>
-      <c r="C261" s="51"/>
-      <c r="D261" s="50" t="s">
+      <c r="A261" s="35"/>
+      <c r="B261" s="35"/>
+      <c r="C261" s="53"/>
+      <c r="D261" s="52" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="33"/>
-      <c r="B262" s="33"/>
-      <c r="C262" s="84" t="s">
+      <c r="A262" s="35"/>
+      <c r="B262" s="35"/>
+      <c r="C262" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="D262" s="50" t="s">
+      <c r="D262" s="52" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="87" t="s">
+      <c r="A263" s="35"/>
+      <c r="B263" s="35"/>
+      <c r="C263" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D263" s="88"/>
+      <c r="D263" s="90"/>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="33"/>
-      <c r="B264" s="33"/>
-      <c r="C264" s="89" t="s">
+      <c r="A264" s="35"/>
+      <c r="B264" s="35"/>
+      <c r="C264" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D264" s="59"/>
+      <c r="D264" s="61"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="26"/>
-      <c r="B265" s="26"/>
-      <c r="C265" s="27"/>
-      <c r="D265" s="28"/>
+      <c r="A265" s="28"/>
+      <c r="B265" s="28"/>
+      <c r="C265" s="29"/>
+      <c r="D265" s="30"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="42" t="s">
+      <c r="A266" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B266" s="47" t="s">
+      <c r="B266" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="C266" s="71" t="s">
+      <c r="C266" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D266" s="50"/>
+      <c r="D266" s="52"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="33"/>
-      <c r="B267" s="33"/>
-      <c r="C267" s="78" t="s">
+      <c r="A267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="D267" s="90" t="s">
+      <c r="D267" s="92" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="33"/>
-      <c r="B268" s="33"/>
-      <c r="C268" s="78" t="s">
+      <c r="A268" s="35"/>
+      <c r="B268" s="35"/>
+      <c r="C268" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="D268" s="90" t="s">
+      <c r="D268" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="269" ht="25.5" spans="1:4">
-      <c r="A269" s="33"/>
-      <c r="B269" s="33"/>
-      <c r="C269" s="78" t="s">
+      <c r="A269" s="35"/>
+      <c r="B269" s="35"/>
+      <c r="C269" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D269" s="70" t="s">
+      <c r="D269" s="72" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="33"/>
-      <c r="B270" s="33"/>
-      <c r="C270" s="78" t="s">
+      <c r="A270" s="35"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D270" s="75" t="s">
+      <c r="D270" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="271" ht="38.25" spans="1:4">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="78" t="s">
+      <c r="A271" s="35"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D271" s="79" t="s">
+      <c r="D271" s="81" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="33"/>
-      <c r="B272" s="33"/>
-      <c r="C272" s="78" t="s">
+      <c r="A272" s="35"/>
+      <c r="B272" s="35"/>
+      <c r="C272" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D272" s="75" t="s">
+      <c r="D272" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="273" ht="38.25" spans="1:4">
-      <c r="A273" s="33"/>
-      <c r="B273" s="33"/>
-      <c r="C273" s="78" t="s">
+      <c r="A273" s="35"/>
+      <c r="B273" s="35"/>
+      <c r="C273" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="D273" s="70" t="s">
+      <c r="D273" s="72" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="33"/>
-      <c r="B274" s="33"/>
-      <c r="C274" s="78" t="s">
+      <c r="A274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="D274" s="75" t="s">
+      <c r="D274" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="275" ht="38.25" spans="1:4">
-      <c r="A275" s="33"/>
-      <c r="B275" s="33"/>
-      <c r="C275" s="78" t="s">
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="D275" s="70" t="s">
+      <c r="D275" s="72" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="33"/>
-      <c r="B276" s="33"/>
-      <c r="C276" s="78" t="s">
+      <c r="A276" s="35"/>
+      <c r="B276" s="35"/>
+      <c r="C276" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="D276" s="90" t="s">
+      <c r="D276" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="33"/>
-      <c r="B277" s="33"/>
-      <c r="C277" s="49" t="s">
+      <c r="A277" s="35"/>
+      <c r="B277" s="35"/>
+      <c r="C277" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D277" s="53"/>
+      <c r="D277" s="55"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="33"/>
-      <c r="B278" s="33"/>
-      <c r="C278" s="58" t="s">
+      <c r="A278" s="35"/>
+      <c r="B278" s="35"/>
+      <c r="C278" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D278" s="59"/>
+      <c r="D278" s="61"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="26"/>
-      <c r="B279" s="26"/>
-      <c r="C279" s="27"/>
-      <c r="D279" s="28"/>
+      <c r="A279" s="28"/>
+      <c r="B279" s="28"/>
+      <c r="C279" s="29"/>
+      <c r="D279" s="30"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="47" t="s">
+      <c r="A280" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B280" s="47" t="s">
+      <c r="B280" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="C280" s="39" t="s">
+      <c r="C280" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D280" s="62"/>
+      <c r="D280" s="64"/>
     </row>
     <row r="281" ht="25.5" spans="1:4">
-      <c r="A281" s="33"/>
-      <c r="B281" s="33"/>
-      <c r="C281" s="91" t="s">
+      <c r="A281" s="35"/>
+      <c r="B281" s="35"/>
+      <c r="C281" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="D281" s="63" t="s">
+      <c r="D281" s="65" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="282" ht="25.5" spans="1:4">
-      <c r="A282" s="33"/>
-      <c r="B282" s="33"/>
-      <c r="C282" s="38" t="s">
+      <c r="A282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="D282" s="63" t="s">
+      <c r="D282" s="65" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="33"/>
-      <c r="B283" s="33"/>
-      <c r="C283" s="38" t="s">
+      <c r="A283" s="35"/>
+      <c r="B283" s="35"/>
+      <c r="C283" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="D283" s="92" t="s">
+      <c r="D283" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="284" ht="63.75" spans="1:4">
-      <c r="A284" s="33"/>
-      <c r="B284" s="33"/>
-      <c r="C284" s="38" t="s">
+      <c r="A284" s="35"/>
+      <c r="B284" s="35"/>
+      <c r="C284" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="D284" s="63" t="s">
+      <c r="D284" s="65" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="285" ht="38.25" spans="1:4">
-      <c r="A285" s="33"/>
-      <c r="B285" s="33"/>
-      <c r="C285" s="91" t="s">
+      <c r="A285" s="35"/>
+      <c r="B285" s="35"/>
+      <c r="C285" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="D285" s="63" t="s">
+      <c r="D285" s="65" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="33"/>
-      <c r="B286" s="33"/>
-      <c r="C286" s="91" t="s">
+      <c r="A286" s="35"/>
+      <c r="B286" s="35"/>
+      <c r="C286" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="D286" s="90" t="s">
+      <c r="D286" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="287" ht="25.5" spans="1:4">
-      <c r="A287" s="33"/>
-      <c r="B287" s="33"/>
-      <c r="C287" s="91" t="s">
+      <c r="A287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="D287" s="63" t="s">
+      <c r="D287" s="65" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="33"/>
-      <c r="B288" s="33"/>
-      <c r="C288" s="91" t="s">
+      <c r="A288" s="35"/>
+      <c r="B288" s="35"/>
+      <c r="C288" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="D288" s="90" t="s">
+      <c r="D288" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="289" ht="38.25" spans="1:4">
-      <c r="A289" s="33"/>
-      <c r="B289" s="33"/>
-      <c r="C289" s="91" t="s">
+      <c r="A289" s="35"/>
+      <c r="B289" s="35"/>
+      <c r="C289" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="D289" s="63" t="s">
+      <c r="D289" s="65" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="33"/>
-      <c r="B290" s="33"/>
-      <c r="C290" s="91" t="s">
+      <c r="A290" s="35"/>
+      <c r="B290" s="35"/>
+      <c r="C290" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="D290" s="90" t="s">
+      <c r="D290" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="291" ht="38.25" spans="1:4">
-      <c r="A291" s="33"/>
-      <c r="B291" s="33"/>
-      <c r="C291" s="91" t="s">
+      <c r="A291" s="35"/>
+      <c r="B291" s="35"/>
+      <c r="C291" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="D291" s="63" t="s">
+      <c r="D291" s="65" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="33"/>
-      <c r="B292" s="33"/>
-      <c r="C292" s="38" t="s">
+      <c r="A292" s="35"/>
+      <c r="B292" s="35"/>
+      <c r="C292" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="D292" s="90" t="s">
+      <c r="D292" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="293" ht="51" spans="1:4">
-      <c r="A293" s="33"/>
-      <c r="B293" s="33"/>
-      <c r="C293" s="91" t="s">
+      <c r="A293" s="35"/>
+      <c r="B293" s="35"/>
+      <c r="C293" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="D293" s="63" t="s">
+      <c r="D293" s="65" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="33"/>
-      <c r="B294" s="33"/>
-      <c r="C294" s="38" t="s">
+      <c r="A294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="D294" s="92" t="s">
+      <c r="D294" s="94" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="295" ht="51" spans="1:4">
-      <c r="A295" s="33"/>
-      <c r="B295" s="33"/>
-      <c r="C295" s="91" t="s">
+      <c r="A295" s="35"/>
+      <c r="B295" s="35"/>
+      <c r="C295" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="D295" s="63" t="s">
+      <c r="D295" s="65" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="296" ht="51" spans="1:4">
-      <c r="A296" s="33"/>
-      <c r="B296" s="33"/>
-      <c r="C296" s="91" t="s">
+      <c r="A296" s="35"/>
+      <c r="B296" s="35"/>
+      <c r="C296" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="D296" s="63" t="s">
+      <c r="D296" s="65" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="33"/>
-      <c r="B297" s="33"/>
-      <c r="C297" s="91" t="s">
+      <c r="A297" s="35"/>
+      <c r="B297" s="35"/>
+      <c r="C297" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="D297" s="92" t="s">
+      <c r="D297" s="94" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="298" ht="63.75" spans="1:4">
-      <c r="A298" s="33"/>
-      <c r="B298" s="33"/>
-      <c r="C298" s="91" t="s">
+      <c r="A298" s="35"/>
+      <c r="B298" s="35"/>
+      <c r="C298" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="D298" s="63" t="s">
+      <c r="D298" s="65" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="33"/>
-      <c r="B299" s="33"/>
-      <c r="C299" s="91" t="s">
+      <c r="A299" s="35"/>
+      <c r="B299" s="35"/>
+      <c r="C299" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="D299" s="92" t="s">
+      <c r="D299" s="94" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="300" ht="51" spans="1:4">
-      <c r="A300" s="33"/>
-      <c r="B300" s="33"/>
-      <c r="C300" s="91" t="s">
+      <c r="A300" s="35"/>
+      <c r="B300" s="35"/>
+      <c r="C300" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="D300" s="63" t="s">
+      <c r="D300" s="65" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="33"/>
-      <c r="B301" s="33"/>
-      <c r="C301" s="38" t="s">
+      <c r="A301" s="35"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="D301" s="92" t="s">
+      <c r="D301" s="94" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="33"/>
-      <c r="B302" s="33"/>
-      <c r="C302" s="93" t="s">
+      <c r="A302" s="35"/>
+      <c r="B302" s="35"/>
+      <c r="C302" s="95" t="s">
         <v>274</v>
       </c>
-      <c r="D302" s="88"/>
+      <c r="D302" s="90"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="33"/>
-      <c r="B303" s="33"/>
-      <c r="C303" s="94" t="s">
+      <c r="A303" s="35"/>
+      <c r="B303" s="35"/>
+      <c r="C303" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D303" s="55"/>
+      <c r="D303" s="57"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="26"/>
-      <c r="B304" s="26"/>
-      <c r="C304" s="27"/>
-      <c r="D304" s="28"/>
+      <c r="A304" s="28"/>
+      <c r="B304" s="28"/>
+      <c r="C304" s="29"/>
+      <c r="D304" s="30"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="95" t="s">
+      <c r="A305" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="B305" s="95"/>
-      <c r="C305" s="95"/>
-      <c r="D305" s="95"/>
+      <c r="B305" s="97"/>
+      <c r="C305" s="97"/>
+      <c r="D305" s="97"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="23" t="s">
+      <c r="A306" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B306" s="24" t="s">
+      <c r="B306" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C306" s="66" t="s">
+      <c r="C306" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D306" s="25" t="s">
+      <c r="D306" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="96" t="s">
+      <c r="A307" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B307" s="97" t="s">
+      <c r="B307" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="C307" s="98" t="s">
+      <c r="C307" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="D307" s="99"/>
+      <c r="D307" s="101"/>
     </row>
     <row r="308" ht="25.5" spans="1:4">
-      <c r="A308" s="100"/>
-      <c r="B308" s="101"/>
-      <c r="C308" s="98" t="s">
+      <c r="A308" s="102"/>
+      <c r="B308" s="103"/>
+      <c r="C308" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="D308" s="99" t="s">
+      <c r="D308" s="101" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="309" ht="25.5" spans="1:4">
-      <c r="A309" s="100"/>
-      <c r="B309" s="101"/>
-      <c r="C309" s="98" t="s">
+      <c r="A309" s="102"/>
+      <c r="B309" s="103"/>
+      <c r="C309" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="D309" s="99" t="s">
+      <c r="D309" s="101" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="310" ht="25.5" spans="1:4">
-      <c r="A310" s="100"/>
-      <c r="B310" s="101"/>
-      <c r="C310" s="98" t="s">
+      <c r="A310" s="102"/>
+      <c r="B310" s="103"/>
+      <c r="C310" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="D310" s="99" t="s">
+      <c r="D310" s="101" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="100"/>
-      <c r="B311" s="101"/>
-      <c r="C311" s="98" t="s">
+      <c r="A311" s="102"/>
+      <c r="B311" s="103"/>
+      <c r="C311" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="D311" s="99" t="s">
+      <c r="D311" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="312" ht="89.25" spans="1:4">
-      <c r="A312" s="100"/>
-      <c r="B312" s="101"/>
-      <c r="C312" s="98" t="s">
+      <c r="A312" s="102"/>
+      <c r="B312" s="103"/>
+      <c r="C312" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="D312" s="99" t="s">
+      <c r="D312" s="101" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="100"/>
-      <c r="B313" s="101"/>
-      <c r="C313" s="98" t="s">
+      <c r="A313" s="102"/>
+      <c r="B313" s="103"/>
+      <c r="C313" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="D313" s="99" t="s">
+      <c r="D313" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="314" ht="38.25" spans="1:4">
-      <c r="A314" s="100"/>
-      <c r="B314" s="101"/>
-      <c r="C314" s="98" t="s">
+      <c r="A314" s="102"/>
+      <c r="B314" s="103"/>
+      <c r="C314" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="D314" s="99" t="s">
+      <c r="D314" s="101" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="100"/>
-      <c r="B315" s="101"/>
-      <c r="C315" s="98" t="s">
+      <c r="A315" s="102"/>
+      <c r="B315" s="103"/>
+      <c r="C315" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="D315" s="99" t="s">
+      <c r="D315" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="316" ht="89.25" spans="1:4">
-      <c r="A316" s="100"/>
-      <c r="B316" s="101"/>
-      <c r="C316" s="98" t="s">
+      <c r="A316" s="102"/>
+      <c r="B316" s="103"/>
+      <c r="C316" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="D316" s="99" t="s">
+      <c r="D316" s="101" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="100"/>
-      <c r="B317" s="101"/>
-      <c r="C317" s="98" t="s">
+      <c r="A317" s="102"/>
+      <c r="B317" s="103"/>
+      <c r="C317" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="D317" s="99" t="s">
+      <c r="D317" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="318" ht="63.75" spans="1:4">
-      <c r="A318" s="100"/>
-      <c r="B318" s="101"/>
-      <c r="C318" s="98" t="s">
+      <c r="A318" s="102"/>
+      <c r="B318" s="103"/>
+      <c r="C318" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="D318" s="99" t="s">
+      <c r="D318" s="101" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="100"/>
-      <c r="B319" s="101"/>
-      <c r="C319" s="98" t="s">
+      <c r="A319" s="102"/>
+      <c r="B319" s="103"/>
+      <c r="C319" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="D319" s="99" t="s">
+      <c r="D319" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="100"/>
-      <c r="B320" s="101"/>
-      <c r="C320" s="98" t="s">
+      <c r="A320" s="102"/>
+      <c r="B320" s="103"/>
+      <c r="C320" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="D320" s="99" t="s">
+      <c r="D320" s="101" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="100"/>
-      <c r="B321" s="101"/>
-      <c r="C321" s="98" t="s">
+      <c r="A321" s="102"/>
+      <c r="B321" s="103"/>
+      <c r="C321" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="D321" s="99" t="s">
+      <c r="D321" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="322" ht="25.5" spans="1:4">
-      <c r="A322" s="100"/>
-      <c r="B322" s="101"/>
-      <c r="C322" s="98" t="s">
+      <c r="A322" s="102"/>
+      <c r="B322" s="103"/>
+      <c r="C322" s="100" t="s">
         <v>293</v>
       </c>
-      <c r="D322" s="99" t="s">
+      <c r="D322" s="101" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="100"/>
-      <c r="B323" s="101"/>
-      <c r="C323" s="98" t="s">
+      <c r="A323" s="102"/>
+      <c r="B323" s="103"/>
+      <c r="C323" s="100" t="s">
         <v>295</v>
       </c>
-      <c r="D323" s="99" t="s">
+      <c r="D323" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="100"/>
-      <c r="B324" s="101"/>
-      <c r="C324" s="98" t="s">
+      <c r="A324" s="102"/>
+      <c r="B324" s="103"/>
+      <c r="C324" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="D324" s="99"/>
+      <c r="D324" s="101"/>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="100"/>
-      <c r="B325" s="101"/>
-      <c r="C325" s="102" t="s">
+      <c r="A325" s="102"/>
+      <c r="B325" s="103"/>
+      <c r="C325" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D325" s="94"/>
+      <c r="D325" s="96"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="26"/>
-      <c r="B326" s="26"/>
-      <c r="C326" s="74"/>
-      <c r="D326" s="28"/>
+      <c r="A326" s="28"/>
+      <c r="B326" s="28"/>
+      <c r="C326" s="76"/>
+      <c r="D326" s="30"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="26"/>
-      <c r="B327" s="26"/>
-      <c r="C327" s="74"/>
-      <c r="D327" s="28"/>
+      <c r="A327" s="28"/>
+      <c r="B327" s="28"/>
+      <c r="C327" s="76"/>
+      <c r="D327" s="30"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="42" t="s">
+      <c r="A328" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B328" s="42" t="s">
+      <c r="B328" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="C328" s="71" t="s">
+      <c r="C328" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D328" s="84"/>
+      <c r="D328" s="86"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="33"/>
-      <c r="B329" s="33"/>
-      <c r="C329" s="77" t="s">
+      <c r="A329" s="35"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="D329" s="84" t="s">
+      <c r="D329" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="33"/>
-      <c r="B330" s="33"/>
-      <c r="C330" s="77" t="s">
+      <c r="A330" s="35"/>
+      <c r="B330" s="35"/>
+      <c r="C330" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="D330" s="84" t="s">
+      <c r="D330" s="86" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="33"/>
-      <c r="B331" s="33"/>
-      <c r="C331" s="77" t="s">
+      <c r="A331" s="35"/>
+      <c r="B331" s="35"/>
+      <c r="C331" s="79" t="s">
         <v>299</v>
       </c>
-      <c r="D331" s="84" t="s">
+      <c r="D331" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="33"/>
-      <c r="B332" s="33"/>
-      <c r="C332" s="77" t="s">
+      <c r="A332" s="35"/>
+      <c r="B332" s="35"/>
+      <c r="C332" s="79" t="s">
         <v>300</v>
       </c>
-      <c r="D332" s="84" t="s">
+      <c r="D332" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="33"/>
-      <c r="B333" s="33"/>
-      <c r="C333" s="77" t="s">
+      <c r="A333" s="35"/>
+      <c r="B333" s="35"/>
+      <c r="C333" s="79" t="s">
         <v>301</v>
       </c>
-      <c r="D333" s="84" t="s">
+      <c r="D333" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="33"/>
-      <c r="B334" s="33"/>
-      <c r="C334" s="77" t="s">
+      <c r="A334" s="35"/>
+      <c r="B334" s="35"/>
+      <c r="C334" s="79" t="s">
         <v>302</v>
       </c>
-      <c r="D334" s="84" t="s">
+      <c r="D334" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="33"/>
-      <c r="B335" s="33"/>
-      <c r="C335" s="77" t="s">
+      <c r="A335" s="35"/>
+      <c r="B335" s="35"/>
+      <c r="C335" s="79" t="s">
         <v>303</v>
       </c>
-      <c r="D335" s="84" t="s">
+      <c r="D335" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="33"/>
-      <c r="B336" s="33"/>
-      <c r="C336" s="52" t="s">
+      <c r="A336" s="35"/>
+      <c r="B336" s="35"/>
+      <c r="C336" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D336" s="35"/>
+      <c r="D336" s="37"/>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="33"/>
-      <c r="B337" s="33"/>
-      <c r="C337" s="102" t="s">
+      <c r="A337" s="35"/>
+      <c r="B337" s="35"/>
+      <c r="C337" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D337" s="94"/>
+      <c r="D337" s="96"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="26"/>
-      <c r="B338" s="26"/>
-      <c r="C338" s="74"/>
-      <c r="D338" s="28"/>
+      <c r="A338" s="28"/>
+      <c r="B338" s="28"/>
+      <c r="C338" s="76"/>
+      <c r="D338" s="30"/>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="42" t="s">
+      <c r="A339" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B339" s="42" t="s">
+      <c r="B339" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="C339" s="52" t="s">
+      <c r="C339" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="D339" s="84" t="s">
+      <c r="D339" s="86" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="33"/>
-      <c r="B340" s="33"/>
-      <c r="C340" s="81"/>
-      <c r="D340" s="84" t="s">
+      <c r="A340" s="35"/>
+      <c r="B340" s="35"/>
+      <c r="C340" s="83"/>
+      <c r="D340" s="86" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="33"/>
-      <c r="B341" s="33"/>
-      <c r="C341" s="81"/>
-      <c r="D341" s="84" t="s">
+      <c r="A341" s="35"/>
+      <c r="B341" s="35"/>
+      <c r="C341" s="83"/>
+      <c r="D341" s="86" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="33"/>
-      <c r="B342" s="33"/>
-      <c r="C342" s="81"/>
-      <c r="D342" s="84" t="s">
+      <c r="A342" s="35"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="83"/>
+      <c r="D342" s="86" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="33"/>
-      <c r="B343" s="33"/>
-      <c r="C343" s="81"/>
-      <c r="D343" s="84" t="s">
+      <c r="A343" s="35"/>
+      <c r="B343" s="35"/>
+      <c r="C343" s="83"/>
+      <c r="D343" s="86" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="33"/>
-      <c r="B344" s="33"/>
-      <c r="C344" s="81"/>
-      <c r="D344" s="84" t="s">
+      <c r="A344" s="35"/>
+      <c r="B344" s="35"/>
+      <c r="C344" s="83"/>
+      <c r="D344" s="86" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="33"/>
-      <c r="B345" s="33"/>
-      <c r="C345" s="81"/>
-      <c r="D345" s="84" t="s">
+      <c r="A345" s="35"/>
+      <c r="B345" s="35"/>
+      <c r="C345" s="83"/>
+      <c r="D345" s="86" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="33"/>
-      <c r="B346" s="33"/>
-      <c r="C346" s="81"/>
-      <c r="D346" s="84" t="s">
+      <c r="A346" s="35"/>
+      <c r="B346" s="35"/>
+      <c r="C346" s="83"/>
+      <c r="D346" s="86" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="33"/>
-      <c r="B347" s="33"/>
-      <c r="C347" s="81"/>
-      <c r="D347" s="84" t="s">
+      <c r="A347" s="35"/>
+      <c r="B347" s="35"/>
+      <c r="C347" s="83"/>
+      <c r="D347" s="86" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="33"/>
-      <c r="B348" s="33"/>
-      <c r="C348" s="77" t="s">
+      <c r="A348" s="35"/>
+      <c r="B348" s="35"/>
+      <c r="C348" s="79" t="s">
         <v>315</v>
       </c>
-      <c r="D348" s="84" t="s">
+      <c r="D348" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="33"/>
-      <c r="B349" s="33"/>
-      <c r="C349" s="77" t="s">
+      <c r="A349" s="35"/>
+      <c r="B349" s="35"/>
+      <c r="C349" s="79" t="s">
         <v>316</v>
       </c>
-      <c r="D349" s="84" t="s">
+      <c r="D349" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="33"/>
-      <c r="B350" s="33"/>
-      <c r="C350" s="77" t="s">
+      <c r="A350" s="35"/>
+      <c r="B350" s="35"/>
+      <c r="C350" s="79" t="s">
         <v>317</v>
       </c>
-      <c r="D350" s="84" t="s">
+      <c r="D350" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="33"/>
-      <c r="B351" s="33"/>
-      <c r="C351" s="77" t="s">
+      <c r="A351" s="35"/>
+      <c r="B351" s="35"/>
+      <c r="C351" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="D351" s="84" t="s">
+      <c r="D351" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="33"/>
-      <c r="B352" s="33"/>
-      <c r="C352" s="52" t="s">
+      <c r="A352" s="35"/>
+      <c r="B352" s="35"/>
+      <c r="C352" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D352" s="35"/>
+      <c r="D352" s="37"/>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="33"/>
-      <c r="B353" s="33"/>
-      <c r="C353" s="102" t="s">
+      <c r="A353" s="35"/>
+      <c r="B353" s="35"/>
+      <c r="C353" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D353" s="94"/>
+      <c r="D353" s="96"/>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="26"/>
-      <c r="B354" s="26"/>
-      <c r="C354" s="74"/>
-      <c r="D354" s="28"/>
+      <c r="A354" s="28"/>
+      <c r="B354" s="28"/>
+      <c r="C354" s="76"/>
+      <c r="D354" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -7171,12 +7303,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D414"/>
+  <dimension ref="A1:D474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C288" sqref="C288:C333"/>
+      <selection pane="bottomLeft" activeCell="D483" sqref="D483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -10522,8 +10654,485 @@
       <c r="C414" s="22"/>
       <c r="D414" s="22"/>
     </row>
+    <row r="415" ht="24.75" spans="2:4">
+      <c r="B415" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C415" s="3"/>
+      <c r="D415" s="3"/>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C416" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="24"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="6"/>
+      <c r="D417" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="24"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="6"/>
+      <c r="D418" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="24"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="6"/>
+      <c r="D419" s="9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="24"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="6"/>
+      <c r="D420" s="9" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="24"/>
+      <c r="B421" s="5"/>
+      <c r="C421" s="6"/>
+      <c r="D421" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="422" ht="15.75" spans="1:3">
+      <c r="A422" s="24"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="6"/>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="24"/>
+      <c r="B423" s="5"/>
+      <c r="C423" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="24"/>
+      <c r="B424" s="5"/>
+      <c r="C424" s="6"/>
+      <c r="D424" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="24"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="6"/>
+      <c r="D425" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="24"/>
+      <c r="B426" s="5"/>
+      <c r="C426" s="6"/>
+      <c r="D426" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="427" ht="15.75" spans="1:3">
+      <c r="A427" s="24"/>
+      <c r="B427" s="5"/>
+      <c r="C427" s="6"/>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="24"/>
+      <c r="B428" s="5"/>
+      <c r="C428" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="24"/>
+      <c r="B429" s="5"/>
+      <c r="C429" s="6"/>
+      <c r="D429" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="24"/>
+      <c r="B430" s="5"/>
+      <c r="C430" s="6"/>
+      <c r="D430" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="24"/>
+      <c r="B431" s="5"/>
+      <c r="C431" s="6"/>
+      <c r="D431" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="24"/>
+      <c r="B432" s="5"/>
+      <c r="C432" s="6"/>
+      <c r="D432" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="433" ht="15.75" spans="1:3">
+      <c r="A433" s="24"/>
+      <c r="B433" s="5"/>
+      <c r="C433" s="6"/>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="24"/>
+      <c r="B434" s="5"/>
+      <c r="C434" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="24"/>
+      <c r="B435" s="5"/>
+      <c r="C435" s="6"/>
+      <c r="D435" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="24"/>
+      <c r="B436" s="5"/>
+      <c r="C436" s="6"/>
+      <c r="D436" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="24"/>
+      <c r="B437" s="5"/>
+      <c r="C437" s="6"/>
+      <c r="D437" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="24"/>
+      <c r="B438" s="5"/>
+      <c r="C438" s="6"/>
+      <c r="D438" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="24"/>
+      <c r="B439" s="5"/>
+      <c r="C439" s="6"/>
+      <c r="D439" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="24"/>
+      <c r="B440" s="5"/>
+      <c r="C440" s="6"/>
+      <c r="D440" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="24"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="6"/>
+      <c r="D441" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="442" ht="15.75" spans="1:3">
+      <c r="A442" s="24"/>
+      <c r="B442" s="5"/>
+      <c r="C442" s="6"/>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="24"/>
+      <c r="B443" s="5"/>
+      <c r="C443" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="24"/>
+      <c r="B444" s="5"/>
+      <c r="C444" s="6"/>
+      <c r="D444" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="24"/>
+      <c r="B445" s="5"/>
+      <c r="C445" s="6"/>
+      <c r="D445" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="24"/>
+      <c r="B446" s="5"/>
+      <c r="C446" s="6"/>
+      <c r="D446" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="24"/>
+      <c r="B447" s="5"/>
+      <c r="C447" s="6"/>
+      <c r="D447" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="448" ht="15.75" spans="1:3">
+      <c r="A448" s="24"/>
+      <c r="B448" s="5"/>
+      <c r="C448" s="6"/>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="24"/>
+      <c r="B449" s="5"/>
+      <c r="C449" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="24"/>
+      <c r="B450" s="5"/>
+      <c r="C450" s="6"/>
+      <c r="D450" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="24"/>
+      <c r="B451" s="5"/>
+      <c r="C451" s="6"/>
+      <c r="D451" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="24"/>
+      <c r="B452" s="5"/>
+      <c r="C452" s="6"/>
+      <c r="D452" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="24"/>
+      <c r="B453" s="5"/>
+      <c r="C453" s="6"/>
+      <c r="D453" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="454" ht="15.75" spans="1:3">
+      <c r="A454" s="24"/>
+      <c r="B454" s="5"/>
+      <c r="C454" s="6"/>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="24"/>
+      <c r="B455" s="5"/>
+      <c r="C455" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="24"/>
+      <c r="B456" s="5"/>
+      <c r="C456" s="6"/>
+      <c r="D456" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="24"/>
+      <c r="B457" s="5"/>
+      <c r="C457" s="6"/>
+      <c r="D457" s="9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="24"/>
+      <c r="B458" s="5"/>
+      <c r="C458" s="6"/>
+      <c r="D458" s="9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="24"/>
+      <c r="B459" s="5"/>
+      <c r="C459" s="6"/>
+      <c r="D459" s="9" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="24"/>
+      <c r="B460" s="5"/>
+      <c r="C460" s="6"/>
+      <c r="D460" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="24"/>
+      <c r="B461" s="5"/>
+      <c r="C461" s="6"/>
+      <c r="D461" s="9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="24"/>
+      <c r="B462" s="5"/>
+      <c r="C462" s="6"/>
+      <c r="D462" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="463" ht="18" spans="1:4">
+      <c r="A463" s="24"/>
+      <c r="B463" s="5"/>
+      <c r="C463" s="21"/>
+      <c r="D463" s="9"/>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="24"/>
+      <c r="B464" s="5"/>
+      <c r="C464" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D464" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="24"/>
+      <c r="B465" s="5"/>
+      <c r="C465" s="6"/>
+      <c r="D465" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="24"/>
+      <c r="B466" s="5"/>
+      <c r="C466" s="6"/>
+      <c r="D466" s="9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="24"/>
+      <c r="B467" s="5"/>
+      <c r="C467" s="6"/>
+      <c r="D467" s="9" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="468" ht="15.75" spans="1:4">
+      <c r="A468" s="24"/>
+      <c r="B468" s="5"/>
+      <c r="C468" s="8"/>
+      <c r="D468" s="9"/>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="24"/>
+      <c r="B469" s="5"/>
+      <c r="C469" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="D469" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="24"/>
+      <c r="B470" s="5"/>
+      <c r="C470" s="6"/>
+      <c r="D470" s="9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="24"/>
+      <c r="B471" s="5"/>
+      <c r="C471" s="6"/>
+      <c r="D471" s="9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="24"/>
+      <c r="B472" s="5"/>
+      <c r="C472" s="6"/>
+      <c r="D472" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="24"/>
+      <c r="B473" s="5"/>
+      <c r="C473" s="6"/>
+      <c r="D473" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="474" ht="11" customHeight="1" spans="1:4">
+      <c r="A474" s="24"/>
+      <c r="B474" s="16"/>
+      <c r="C474" s="14"/>
+      <c r="D474" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="65">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B79:D79"/>
@@ -10533,11 +11142,13 @@
     <mergeCell ref="B211:D211"/>
     <mergeCell ref="B243:D243"/>
     <mergeCell ref="B335:D335"/>
+    <mergeCell ref="B415:D415"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="A20:A102"/>
     <mergeCell ref="A104:A242"/>
     <mergeCell ref="A244:A334"/>
     <mergeCell ref="A336:A414"/>
+    <mergeCell ref="A416:A474"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="B20:B34"/>
     <mergeCell ref="B37:B77"/>
@@ -10548,6 +11159,7 @@
     <mergeCell ref="B212:B241"/>
     <mergeCell ref="B244:B333"/>
     <mergeCell ref="B336:B413"/>
+    <mergeCell ref="B416:B473"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C20:C26"/>
@@ -10577,6 +11189,15 @@
     <mergeCell ref="C288:C333"/>
     <mergeCell ref="C336:C406"/>
     <mergeCell ref="C408:C413"/>
+    <mergeCell ref="C416:C421"/>
+    <mergeCell ref="C423:C426"/>
+    <mergeCell ref="C428:C432"/>
+    <mergeCell ref="C434:C441"/>
+    <mergeCell ref="C443:C447"/>
+    <mergeCell ref="C449:C453"/>
+    <mergeCell ref="C455:C462"/>
+    <mergeCell ref="C464:C467"/>
+    <mergeCell ref="C469:C473"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="785">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -2319,6 +2319,12 @@
     <t>6. Big Theta</t>
   </si>
   <si>
+    <t>Duration(hrs.)</t>
+  </si>
+  <si>
+    <t>40 days</t>
+  </si>
+  <si>
     <t>Day 11</t>
   </si>
   <si>
@@ -2361,19 +2367,19 @@
     <t>2. Reading HTTP Headers</t>
   </si>
   <si>
-    <t>3. Demo: Reading HTTP Headers</t>
+    <t>3. Assisted Practice: Reading HTTP Headers</t>
   </si>
   <si>
     <t>4. Setting HTTP Response Headers</t>
   </si>
   <si>
-    <t>5. Demo: Setting HTTP Response Headers</t>
+    <t>5. Assisted Practice: Setting HTTP Response Headers</t>
   </si>
   <si>
     <t>6. Setting HTTP Status Code</t>
   </si>
   <si>
-    <t>7. Demo: Setting HTTP Status Code</t>
+    <t>7. Assisted Practice: Setting HTTP Status Code</t>
   </si>
   <si>
     <t>8. Summary</t>
@@ -2385,7 +2391,7 @@
     <t>2. Servlet Filter Methods</t>
   </si>
   <si>
-    <t>3. Demo: Servlet Filter Methods</t>
+    <t>3. Assisted Practice: Servlet Filter Methods</t>
   </si>
   <si>
     <t>4. Filter Mapping in web.xml</t>
@@ -2400,7 +2406,7 @@
     <t>3. Request Attributes - Exceptions</t>
   </si>
   <si>
-    <t>4. Demo: Error Handler Servlet</t>
+    <t>4. Assisted Practice: Error Handler Servlet</t>
   </si>
   <si>
     <t>7. Tracking Session Data</t>
@@ -2415,13 +2421,13 @@
     <t>4. Handling Cookies in Servlets</t>
   </si>
   <si>
-    <t>5. Demo: Handling Cookies in Servlets</t>
+    <t>5. Assisted Practice: Handling Cookies in Servlets</t>
   </si>
   <si>
     <t>6. Handling Sessions in Servlets</t>
   </si>
   <si>
-    <t>7. Demo: Handling Sessions in Servlets</t>
+    <t>7. Assisted Practice: Handling Sessions in Servlets</t>
   </si>
   <si>
     <t>8. Packaging Servlets for Deployment</t>
@@ -2443,6 +2449,166 @@
   </si>
   <si>
     <t>4. @WebFilter</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Garbage Collection (GC) is a fundamental part of Java.                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn all aspects of garbage collection, including looking at what 'young' and 'old' generations are, how the JVM moves objects between eden and survivor spaces, how memory is promoted into the 'old' generation, how different garbage collectors work, and how they affect the running of your application.                                        Check out 'card tables' and how they help manage memory in the old generation.                                                     Examine each of the garbage collectors including the serial and parallel collectors; the CMS collector and the G1 collector.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Introduction to Relational Database and SQL</t>
+  </si>
+  <si>
+    <t>2. Relational Databases</t>
+  </si>
+  <si>
+    <t>3. Assisted Practice: Relational Database</t>
+  </si>
+  <si>
+    <t>3. Introduction to JDBC</t>
+  </si>
+  <si>
+    <t>2. Assisted Practice: Loading the Driver</t>
+  </si>
+  <si>
+    <t>3. JDBC Interfaces</t>
+  </si>
+  <si>
+    <t>4. Connections and it's types</t>
+  </si>
+  <si>
+    <t>5. ResultSet and it's types</t>
+  </si>
+  <si>
+    <t>6. Summary</t>
+  </si>
+  <si>
+    <t>4. Connecting to a Database</t>
+  </si>
+  <si>
+    <t>2. Closing Connections</t>
+  </si>
+  <si>
+    <t>3. Assisted Practice: Closing Connections</t>
+  </si>
+  <si>
+    <t>4. Demonstration: JDBC – Create, Select And Delete MySQL Database</t>
+  </si>
+  <si>
+    <t>CREATING DATABASE</t>
+  </si>
+  <si>
+    <t>SELECT DATABASE</t>
+  </si>
+  <si>
+    <t>DELETING DATABASE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Being able to read and write data to a relational database is an absolute, must-have skill when working with Java applications.                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Gain the ability to access and modify data in relational databases using the JDBC API.                                                             Learn how to connect the JDBC API to a database.                                               Discover how to read and update data in a database using the JDBC API. </t>
+    </r>
+  </si>
+  <si>
+    <t>5. Using PreparedStatements</t>
+  </si>
+  <si>
+    <t>2. Create and Execute Queries with a PreparedStatement</t>
+  </si>
+  <si>
+    <t>3. Using PreparedStatement's Execute Method</t>
+  </si>
+  <si>
+    <t>4. Parameterizing PreparedStatement</t>
+  </si>
+  <si>
+    <t>5. Assisted Practice: Parameterizing PreparedStatement</t>
+  </si>
+  <si>
+    <t>6. Working with Data from a PreparedStatement</t>
+  </si>
+  <si>
+    <t>2. JDBC ResultSet</t>
+  </si>
+  <si>
+    <t>3. Assisted Practice: Using ResultSet</t>
+  </si>
+  <si>
+    <t>4. Using JDBC's GetObject</t>
+  </si>
+  <si>
+    <t>5. Assisted Practice: Using GetObject</t>
+  </si>
+  <si>
+    <t>6. Binding JDBC Parameters</t>
+  </si>
+  <si>
+    <t>7. Assisted Practice: Binding JDBC Parameters</t>
+  </si>
+  <si>
+    <t>7. Working with a CallableStatement</t>
+  </si>
+  <si>
+    <t>2. Assisted Practice: Callable Statements</t>
+  </si>
+  <si>
+    <t>3. In Parameters</t>
+  </si>
+  <si>
+    <t>4. Assisted Practice: In Parameters</t>
+  </si>
+  <si>
+    <t>5. Out Parameters</t>
+  </si>
+  <si>
+    <t>6. Assisted Practice: Out Parameters</t>
+  </si>
+  <si>
+    <t>7. In/Out Parameters</t>
+  </si>
+  <si>
+    <t>8. Assisted Practice: In/Out Parameters</t>
+  </si>
+  <si>
+    <t>9. JDBC Stored Procedures with Exception Handling</t>
   </si>
 </sst>
 </file>
@@ -2450,12 +2616,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2571,106 +2737,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2686,7 +2754,92 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2704,6 +2857,26 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2764,7 +2937,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2776,19 +2961,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2806,7 +3003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2824,7 +3021,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2836,13 +3057,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2854,13 +3099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2872,79 +3111,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2988,17 +3161,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3018,25 +3200,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3068,17 +3252,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -3088,15 +3261,15 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3106,131 +3279,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3253,6 +3426,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3268,12 +3442,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3284,13 +3464,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -7346,7 +7519,7 @@
       <c r="C3" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7354,7 +7527,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7362,7 +7535,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7370,7 +7543,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7378,7 +7551,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7386,7 +7559,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7394,7 +7567,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7402,7 +7575,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7410,14 +7583,14 @@
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:4">
@@ -7426,7 +7599,7 @@
       <c r="C13" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="17" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7450,7 +7623,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7458,7 +7631,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7466,15 +7639,15 @@
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="17" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7488,7 +7661,7 @@
       <c r="C20" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="17" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7543,7 +7716,7 @@
     <row r="27" ht="15.75" spans="1:4">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4">
@@ -7606,9 +7779,9 @@
     </row>
     <row r="35" ht="9" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" ht="24.75" spans="1:4">
       <c r="A36" s="4"/>
@@ -7650,7 +7823,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="17" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7665,8 +7838,8 @@
     <row r="42" ht="15.75" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4"/>
@@ -7760,7 +7933,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="20" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7768,7 +7941,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="20" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7792,7 +7965,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="20" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7807,7 +7980,7 @@
     <row r="60" ht="16" customHeight="1" spans="1:4">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="15"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="7"/>
     </row>
     <row r="61" ht="16" customHeight="1" spans="1:4">
@@ -7848,7 +8021,7 @@
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="20" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7856,7 +8029,7 @@
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="20" t="s">
         <v>385</v>
       </c>
     </row>
@@ -7879,7 +8052,7 @@
     <row r="69" ht="15.75" spans="1:3">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="15"/>
+      <c r="C69" s="18"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4"/>
@@ -7919,7 +8092,7 @@
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="20" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7927,7 +8100,7 @@
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="20" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7949,9 +8122,9 @@
     </row>
     <row r="78" ht="9" customHeight="1" spans="1:4">
       <c r="A78" s="4"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" ht="24.75" spans="1:4">
       <c r="A79" s="4"/>
@@ -7993,7 +8166,7 @@
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="17" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8009,7 +8182,7 @@
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="17" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8048,8 +8221,8 @@
     <row r="90" ht="15.75" spans="1:4">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="20"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4"/>
@@ -8113,7 +8286,7 @@
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="20" t="s">
         <v>415</v>
       </c>
     </row>
@@ -8129,22 +8302,22 @@
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="20" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="19" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="102" ht="10" customHeight="1" spans="1:4">
       <c r="A102" s="4"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
     </row>
     <row r="103" ht="24.75" spans="2:4">
       <c r="B103" s="3" t="s">
@@ -8187,7 +8360,7 @@
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="17" t="s">
         <v>422</v>
       </c>
     </row>
@@ -8203,7 +8376,7 @@
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="17" t="s">
         <v>424</v>
       </c>
     </row>
@@ -8251,7 +8424,7 @@
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="20" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8259,7 +8432,7 @@
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="17" t="s">
+      <c r="D116" s="20" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8267,7 +8440,7 @@
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="17" t="s">
+      <c r="D117" s="20" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8275,7 +8448,7 @@
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="17" t="s">
+      <c r="D118" s="20" t="s">
         <v>433</v>
       </c>
     </row>
@@ -8283,7 +8456,7 @@
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
-      <c r="D119" s="17" t="s">
+      <c r="D119" s="20" t="s">
         <v>434</v>
       </c>
     </row>
@@ -8291,7 +8464,7 @@
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="17" t="s">
+      <c r="D120" s="20" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8299,15 +8472,15 @@
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
-      <c r="D121" s="17" t="s">
+      <c r="D121" s="20" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="122" ht="15.75" spans="1:4">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="17"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="20"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4"/>
@@ -8331,7 +8504,7 @@
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="20" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8339,7 +8512,7 @@
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="17" t="s">
+      <c r="D126" s="20" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8347,7 +8520,7 @@
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="17" t="s">
+      <c r="D127" s="20" t="s">
         <v>442</v>
       </c>
     </row>
@@ -8355,7 +8528,7 @@
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
-      <c r="D128" s="17" t="s">
+      <c r="D128" s="20" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8363,7 +8536,7 @@
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
-      <c r="D129" s="17" t="s">
+      <c r="D129" s="20" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8371,7 +8544,7 @@
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="20" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8379,7 +8552,7 @@
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="20" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8411,7 +8584,7 @@
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="20" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8419,7 +8592,7 @@
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="17" t="s">
+      <c r="D136" s="20" t="s">
         <v>451</v>
       </c>
     </row>
@@ -8442,7 +8615,7 @@
     <row r="139" ht="15.75" spans="1:4">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
-      <c r="C139" s="15"/>
+      <c r="C139" s="18"/>
       <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4">
@@ -8505,9 +8678,9 @@
     </row>
     <row r="147" ht="9" customHeight="1" spans="1:4">
       <c r="A147" s="4"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
     </row>
     <row r="148" ht="24.75" spans="1:4">
       <c r="A148" s="4"/>
@@ -8525,7 +8698,7 @@
       <c r="C149" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="D149" s="13" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8533,7 +8706,7 @@
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6"/>
-      <c r="D150" s="12"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4"/>
@@ -8595,7 +8768,7 @@
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
-      <c r="D158" s="17"/>
+      <c r="D158" s="20"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4"/>
@@ -8697,7 +8870,7 @@
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="17" t="s">
+      <c r="D171" s="20" t="s">
         <v>478</v>
       </c>
     </row>
@@ -8705,7 +8878,7 @@
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="17" t="s">
+      <c r="D172" s="20" t="s">
         <v>479</v>
       </c>
     </row>
@@ -8729,7 +8902,7 @@
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
-      <c r="D175" s="17" t="s">
+      <c r="D175" s="20" t="s">
         <v>482</v>
       </c>
     </row>
@@ -8751,9 +8924,9 @@
     </row>
     <row r="178" ht="18" spans="1:4">
       <c r="A178" s="4"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
     </row>
     <row r="179" ht="24.75" spans="1:4">
       <c r="A179" s="4"/>
@@ -8765,7 +8938,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="4"/>
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C180" s="6" t="s">
@@ -8777,7 +8950,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="4"/>
-      <c r="B181" s="18"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="6"/>
       <c r="D181" s="1" t="s">
         <v>486</v>
@@ -8785,7 +8958,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="4"/>
-      <c r="B182" s="18"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="6"/>
       <c r="D182" s="7" t="s">
         <v>487</v>
@@ -8793,7 +8966,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="4"/>
-      <c r="B183" s="18"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="6"/>
       <c r="D183" s="7" t="s">
         <v>488</v>
@@ -8801,7 +8974,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="4"/>
-      <c r="B184" s="18"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="6"/>
       <c r="D184" s="7" t="s">
         <v>489</v>
@@ -8809,7 +8982,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="4"/>
-      <c r="B185" s="18"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="6"/>
       <c r="D185" s="7" t="s">
         <v>490</v>
@@ -8817,7 +8990,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="4"/>
-      <c r="B186" s="18"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="6"/>
       <c r="D186" s="7" t="s">
         <v>491</v>
@@ -8825,7 +8998,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="4"/>
-      <c r="B187" s="18"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="6"/>
       <c r="D187" s="7" t="s">
         <v>492</v>
@@ -8833,7 +9006,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="4"/>
-      <c r="B188" s="18"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="6"/>
       <c r="D188" s="7" t="s">
         <v>493</v>
@@ -8841,7 +9014,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="4"/>
-      <c r="B189" s="18"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="6"/>
       <c r="D189" s="7" t="s">
         <v>494</v>
@@ -8849,7 +9022,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="4"/>
-      <c r="B190" s="18"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="6"/>
       <c r="D190" s="7" t="s">
         <v>495</v>
@@ -8857,7 +9030,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="4"/>
-      <c r="B191" s="18"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="6"/>
       <c r="D191" s="7" t="s">
         <v>496</v>
@@ -8865,7 +9038,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="4"/>
-      <c r="B192" s="18"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="6"/>
       <c r="D192" s="7" t="s">
         <v>497</v>
@@ -8873,7 +9046,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="4"/>
-      <c r="B193" s="18"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="6"/>
       <c r="D193" s="7" t="s">
         <v>498</v>
@@ -8881,7 +9054,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="4"/>
-      <c r="B194" s="18"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="6"/>
       <c r="D194" s="1" t="s">
         <v>499</v>
@@ -8889,7 +9062,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="4"/>
-      <c r="B195" s="18"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="6"/>
       <c r="D195" s="1" t="s">
         <v>500</v>
@@ -8897,7 +9070,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="4"/>
-      <c r="B196" s="18"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="6"/>
       <c r="D196" s="1" t="s">
         <v>501</v>
@@ -8905,12 +9078,12 @@
     </row>
     <row r="197" ht="15.75" spans="1:3">
       <c r="A197" s="4"/>
-      <c r="B197" s="18"/>
-      <c r="C197" s="15"/>
+      <c r="B197" s="21"/>
+      <c r="C197" s="18"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="4"/>
-      <c r="B198" s="18"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="6" t="s">
         <v>502</v>
       </c>
@@ -8920,7 +9093,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="4"/>
-      <c r="B199" s="18"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="6"/>
       <c r="D199" s="7" t="s">
         <v>504</v>
@@ -8928,7 +9101,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="4"/>
-      <c r="B200" s="18"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="6"/>
       <c r="D200" s="7" t="s">
         <v>505</v>
@@ -8936,7 +9109,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="4"/>
-      <c r="B201" s="18"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="6"/>
       <c r="D201" s="7" t="s">
         <v>506</v>
@@ -8944,7 +9117,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="4"/>
-      <c r="B202" s="18"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="6"/>
       <c r="D202" s="7" t="s">
         <v>507</v>
@@ -8952,11 +9125,11 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="4"/>
-      <c r="B203" s="18"/>
+      <c r="B203" s="21"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="4"/>
-      <c r="B204" s="18"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="6" t="s">
         <v>508</v>
       </c>
@@ -8966,7 +9139,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="4"/>
-      <c r="B205" s="18"/>
+      <c r="B205" s="21"/>
       <c r="C205" s="6"/>
       <c r="D205" s="7" t="s">
         <v>510</v>
@@ -8974,7 +9147,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="4"/>
-      <c r="B206" s="18"/>
+      <c r="B206" s="21"/>
       <c r="C206" s="6"/>
       <c r="D206" s="7" t="s">
         <v>511</v>
@@ -8982,7 +9155,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="4"/>
-      <c r="B207" s="18"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="6"/>
       <c r="D207" s="7" t="s">
         <v>512</v>
@@ -8990,7 +9163,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="4"/>
-      <c r="B208" s="18"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="6"/>
       <c r="D208" s="7" t="s">
         <v>513</v>
@@ -8998,7 +9171,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="4"/>
-      <c r="B209" s="18"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="6"/>
       <c r="D209" s="7" t="s">
         <v>514</v>
@@ -9006,9 +9179,9 @@
     </row>
     <row r="210" ht="10" customHeight="1" spans="1:4">
       <c r="A210" s="4"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
     </row>
     <row r="211" ht="24.75" spans="1:4">
       <c r="A211" s="4"/>
@@ -9020,7 +9193,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="4"/>
-      <c r="B212" s="18" t="s">
+      <c r="B212" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C212" s="6" t="s">
@@ -9032,7 +9205,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="4"/>
-      <c r="B213" s="18"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="6"/>
       <c r="D213" s="7" t="s">
         <v>518</v>
@@ -9040,7 +9213,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="4"/>
-      <c r="B214" s="18"/>
+      <c r="B214" s="21"/>
       <c r="C214" s="6"/>
       <c r="D214" s="7" t="s">
         <v>519</v>
@@ -9048,7 +9221,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="4"/>
-      <c r="B215" s="18"/>
+      <c r="B215" s="21"/>
       <c r="C215" s="6"/>
       <c r="D215" s="7" t="s">
         <v>520</v>
@@ -9056,7 +9229,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="4"/>
-      <c r="B216" s="18"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="6"/>
       <c r="D216" s="7" t="s">
         <v>521</v>
@@ -9064,7 +9237,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="4"/>
-      <c r="B217" s="18"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="6"/>
       <c r="D217" s="7" t="s">
         <v>522</v>
@@ -9072,15 +9245,15 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="4"/>
-      <c r="B218" s="18"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="6"/>
-      <c r="D218" s="14" t="s">
+      <c r="D218" s="16" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="4"/>
-      <c r="B219" s="18"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="6"/>
       <c r="D219" s="7" t="s">
         <v>524</v>
@@ -9088,13 +9261,13 @@
     </row>
     <row r="220" ht="24.75" spans="1:4">
       <c r="A220" s="4"/>
-      <c r="B220" s="18"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="4"/>
-      <c r="B221" s="18"/>
+      <c r="B221" s="21"/>
       <c r="C221" s="6" t="s">
         <v>525</v>
       </c>
@@ -9104,7 +9277,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="4"/>
-      <c r="B222" s="18"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="6"/>
       <c r="D222" s="1" t="s">
         <v>526</v>
@@ -9112,7 +9285,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="4"/>
-      <c r="B223" s="18"/>
+      <c r="B223" s="21"/>
       <c r="C223" s="6"/>
       <c r="D223" s="1" t="s">
         <v>527</v>
@@ -9120,7 +9293,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="4"/>
-      <c r="B224" s="18"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="6"/>
       <c r="D224" s="1" t="s">
         <v>528</v>
@@ -9128,7 +9301,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="4"/>
-      <c r="B225" s="18"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="6"/>
       <c r="D225" s="1" t="s">
         <v>529</v>
@@ -9136,7 +9309,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="4"/>
-      <c r="B226" s="18"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="6"/>
       <c r="D226" s="1" t="s">
         <v>530</v>
@@ -9144,7 +9317,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="4"/>
-      <c r="B227" s="18"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="6"/>
       <c r="D227" s="1" t="s">
         <v>531</v>
@@ -9152,13 +9325,13 @@
     </row>
     <row r="228" ht="15.75" spans="1:4">
       <c r="A228" s="4"/>
-      <c r="B228" s="18"/>
+      <c r="B228" s="21"/>
       <c r="C228" s="6"/>
       <c r="D228" s="7"/>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="4"/>
-      <c r="B229" s="18"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="6" t="s">
         <v>532</v>
       </c>
@@ -9168,7 +9341,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="4"/>
-      <c r="B230" s="18"/>
+      <c r="B230" s="21"/>
       <c r="C230" s="6"/>
       <c r="D230" s="7" t="s">
         <v>534</v>
@@ -9176,7 +9349,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="4"/>
-      <c r="B231" s="18"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="6"/>
       <c r="D231" s="7" t="s">
         <v>535</v>
@@ -9184,7 +9357,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="4"/>
-      <c r="B232" s="18"/>
+      <c r="B232" s="21"/>
       <c r="C232" s="6"/>
       <c r="D232" s="7" t="s">
         <v>536</v>
@@ -9192,7 +9365,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="4"/>
-      <c r="B233" s="18"/>
+      <c r="B233" s="21"/>
       <c r="C233" s="6"/>
       <c r="D233" s="7" t="s">
         <v>537</v>
@@ -9200,7 +9373,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="4"/>
-      <c r="B234" s="18"/>
+      <c r="B234" s="21"/>
       <c r="C234" s="6"/>
       <c r="D234" s="7" t="s">
         <v>538</v>
@@ -9208,23 +9381,23 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="4"/>
-      <c r="B235" s="18"/>
+      <c r="B235" s="21"/>
       <c r="C235" s="6"/>
-      <c r="D235" s="14" t="s">
+      <c r="D235" s="16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="4"/>
-      <c r="B236" s="18"/>
+      <c r="B236" s="21"/>
       <c r="C236" s="6"/>
-      <c r="D236" s="14" t="s">
+      <c r="D236" s="16" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="4"/>
-      <c r="B237" s="18"/>
+      <c r="B237" s="21"/>
       <c r="C237" s="6"/>
       <c r="D237" s="7" t="s">
         <v>541</v>
@@ -9232,7 +9405,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="4"/>
-      <c r="B238" s="18"/>
+      <c r="B238" s="21"/>
       <c r="C238" s="6"/>
       <c r="D238" s="7" t="s">
         <v>542</v>
@@ -9240,7 +9413,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="4"/>
-      <c r="B239" s="18"/>
+      <c r="B239" s="21"/>
       <c r="C239" s="6"/>
       <c r="D239" s="7" t="s">
         <v>543</v>
@@ -9248,7 +9421,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="4"/>
-      <c r="B240" s="18"/>
+      <c r="B240" s="21"/>
       <c r="C240" s="6"/>
       <c r="D240" s="7" t="s">
         <v>544</v>
@@ -9256,7 +9429,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="4"/>
-      <c r="B241" s="18"/>
+      <c r="B241" s="21"/>
       <c r="C241" s="6"/>
       <c r="D241" s="1" t="s">
         <v>545</v>
@@ -9264,9 +9437,9 @@
     </row>
     <row r="242" ht="8" customHeight="1" spans="1:4">
       <c r="A242" s="4"/>
-      <c r="B242" s="10"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="11"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
     </row>
     <row r="243" ht="24.75" spans="2:4">
       <c r="B243" s="3" t="s">
@@ -9279,7 +9452,7 @@
       <c r="A244" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B244" s="18" t="s">
+      <c r="B244" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C244" s="6" t="s">
@@ -9291,7 +9464,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="4"/>
-      <c r="B245" s="18"/>
+      <c r="B245" s="21"/>
       <c r="C245" s="6"/>
       <c r="D245" s="7" t="s">
         <v>342</v>
@@ -9299,7 +9472,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="4"/>
-      <c r="B246" s="18"/>
+      <c r="B246" s="21"/>
       <c r="C246" s="6"/>
       <c r="D246" s="1" t="s">
         <v>549</v>
@@ -9307,7 +9480,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="4"/>
-      <c r="B247" s="18"/>
+      <c r="B247" s="21"/>
       <c r="C247" s="6"/>
       <c r="D247" s="7" t="s">
         <v>550</v>
@@ -9315,7 +9488,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="4"/>
-      <c r="B248" s="18"/>
+      <c r="B248" s="21"/>
       <c r="C248" s="6"/>
       <c r="D248" s="7" t="s">
         <v>551</v>
@@ -9323,7 +9496,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="4"/>
-      <c r="B249" s="18"/>
+      <c r="B249" s="21"/>
       <c r="C249" s="6"/>
       <c r="D249" s="7" t="s">
         <v>552</v>
@@ -9331,12 +9504,12 @@
     </row>
     <row r="250" ht="15.75" spans="1:3">
       <c r="A250" s="4"/>
-      <c r="B250" s="18"/>
-      <c r="C250" s="15"/>
+      <c r="B250" s="21"/>
+      <c r="C250" s="18"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="4"/>
-      <c r="B251" s="18"/>
+      <c r="B251" s="21"/>
       <c r="C251" s="6" t="s">
         <v>553</v>
       </c>
@@ -9346,7 +9519,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="4"/>
-      <c r="B252" s="18"/>
+      <c r="B252" s="21"/>
       <c r="C252" s="6"/>
       <c r="D252" s="1" t="s">
         <v>555</v>
@@ -9354,7 +9527,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="4"/>
-      <c r="B253" s="18"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="6"/>
       <c r="D253" s="7" t="s">
         <v>556</v>
@@ -9362,7 +9535,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="4"/>
-      <c r="B254" s="18"/>
+      <c r="B254" s="21"/>
       <c r="C254" s="6"/>
       <c r="D254" s="7" t="s">
         <v>557</v>
@@ -9370,7 +9543,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="4"/>
-      <c r="B255" s="18"/>
+      <c r="B255" s="21"/>
       <c r="C255" s="6"/>
       <c r="D255" s="7" t="s">
         <v>558</v>
@@ -9378,7 +9551,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="4"/>
-      <c r="B256" s="18"/>
+      <c r="B256" s="21"/>
       <c r="C256" s="6"/>
       <c r="D256" s="7" t="s">
         <v>559</v>
@@ -9386,7 +9559,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="4"/>
-      <c r="B257" s="18"/>
+      <c r="B257" s="21"/>
       <c r="C257" s="6"/>
       <c r="D257" s="1" t="s">
         <v>560</v>
@@ -9394,7 +9567,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="4"/>
-      <c r="B258" s="18"/>
+      <c r="B258" s="21"/>
       <c r="C258" s="6"/>
       <c r="D258" s="1" t="s">
         <v>561</v>
@@ -9402,7 +9575,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="4"/>
-      <c r="B259" s="18"/>
+      <c r="B259" s="21"/>
       <c r="C259" s="6"/>
       <c r="D259" s="1" t="s">
         <v>562</v>
@@ -9410,7 +9583,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="4"/>
-      <c r="B260" s="18"/>
+      <c r="B260" s="21"/>
       <c r="C260" s="6"/>
       <c r="D260" s="1" t="s">
         <v>563</v>
@@ -9418,7 +9591,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="4"/>
-      <c r="B261" s="18"/>
+      <c r="B261" s="21"/>
       <c r="C261" s="6"/>
       <c r="D261" s="1" t="s">
         <v>564</v>
@@ -9426,7 +9599,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="4"/>
-      <c r="B262" s="18"/>
+      <c r="B262" s="21"/>
       <c r="C262" s="6"/>
       <c r="D262" s="7" t="s">
         <v>565</v>
@@ -9434,7 +9607,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="4"/>
-      <c r="B263" s="18"/>
+      <c r="B263" s="21"/>
       <c r="C263" s="6"/>
       <c r="D263" s="7" t="s">
         <v>566</v>
@@ -9442,7 +9615,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="4"/>
-      <c r="B264" s="18"/>
+      <c r="B264" s="21"/>
       <c r="C264" s="6"/>
       <c r="D264" s="7" t="s">
         <v>567</v>
@@ -9450,13 +9623,13 @@
     </row>
     <row r="265" ht="18" spans="1:4">
       <c r="A265" s="4"/>
-      <c r="B265" s="18"/>
-      <c r="C265" s="19"/>
+      <c r="B265" s="21"/>
+      <c r="C265" s="15"/>
       <c r="D265" s="7"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="4"/>
-      <c r="B266" s="18"/>
+      <c r="B266" s="21"/>
       <c r="C266" s="6" t="s">
         <v>568</v>
       </c>
@@ -9466,15 +9639,15 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="4"/>
-      <c r="B267" s="18"/>
+      <c r="B267" s="21"/>
       <c r="C267" s="6"/>
-      <c r="D267" s="12" t="s">
+      <c r="D267" s="13" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="4"/>
-      <c r="B268" s="18"/>
+      <c r="B268" s="21"/>
       <c r="C268" s="6"/>
       <c r="D268" s="7" t="s">
         <v>570</v>
@@ -9482,15 +9655,15 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="4"/>
-      <c r="B269" s="18"/>
+      <c r="B269" s="21"/>
       <c r="C269" s="6"/>
-      <c r="D269" s="12" t="s">
+      <c r="D269" s="13" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="4"/>
-      <c r="B270" s="18"/>
+      <c r="B270" s="21"/>
       <c r="C270" s="6"/>
       <c r="D270" s="7" t="s">
         <v>572</v>
@@ -9498,15 +9671,15 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="4"/>
-      <c r="B271" s="18"/>
+      <c r="B271" s="21"/>
       <c r="C271" s="6"/>
-      <c r="D271" s="12" t="s">
+      <c r="D271" s="13" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="4"/>
-      <c r="B272" s="18"/>
+      <c r="B272" s="21"/>
       <c r="C272" s="6"/>
       <c r="D272" s="7" t="s">
         <v>574</v>
@@ -9514,15 +9687,15 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="4"/>
-      <c r="B273" s="18"/>
+      <c r="B273" s="21"/>
       <c r="C273" s="6"/>
-      <c r="D273" s="12" t="s">
+      <c r="D273" s="13" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="4"/>
-      <c r="B274" s="18"/>
+      <c r="B274" s="21"/>
       <c r="C274" s="6"/>
       <c r="D274" s="7" t="s">
         <v>576</v>
@@ -9530,7 +9703,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="4"/>
-      <c r="B275" s="18"/>
+      <c r="B275" s="21"/>
       <c r="C275" s="6"/>
       <c r="D275" s="7" t="s">
         <v>577</v>
@@ -9538,7 +9711,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="4"/>
-      <c r="B276" s="18"/>
+      <c r="B276" s="21"/>
       <c r="C276" s="6"/>
       <c r="D276" s="7" t="s">
         <v>578</v>
@@ -9546,7 +9719,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="4"/>
-      <c r="B277" s="18"/>
+      <c r="B277" s="21"/>
       <c r="C277" s="6"/>
       <c r="D277" s="7" t="s">
         <v>579</v>
@@ -9554,7 +9727,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="4"/>
-      <c r="B278" s="18"/>
+      <c r="B278" s="21"/>
       <c r="C278" s="6"/>
       <c r="D278" s="7" t="s">
         <v>580</v>
@@ -9562,7 +9735,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="4"/>
-      <c r="B279" s="18"/>
+      <c r="B279" s="21"/>
       <c r="C279" s="6"/>
       <c r="D279" s="7" t="s">
         <v>581</v>
@@ -9570,7 +9743,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="4"/>
-      <c r="B280" s="18"/>
+      <c r="B280" s="21"/>
       <c r="C280" s="6"/>
       <c r="D280" s="7" t="s">
         <v>582</v>
@@ -9578,7 +9751,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="4"/>
-      <c r="B281" s="18"/>
+      <c r="B281" s="21"/>
       <c r="C281" s="6"/>
       <c r="D281" s="7" t="s">
         <v>583</v>
@@ -9586,7 +9759,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="4"/>
-      <c r="B282" s="18"/>
+      <c r="B282" s="21"/>
       <c r="C282" s="6"/>
       <c r="D282" s="1" t="s">
         <v>584</v>
@@ -9594,7 +9767,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="4"/>
-      <c r="B283" s="18"/>
+      <c r="B283" s="21"/>
       <c r="C283" s="6"/>
       <c r="D283" s="1" t="s">
         <v>585</v>
@@ -9602,7 +9775,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="4"/>
-      <c r="B284" s="18"/>
+      <c r="B284" s="21"/>
       <c r="C284" s="6"/>
       <c r="D284" s="1" t="s">
         <v>586</v>
@@ -9610,7 +9783,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="4"/>
-      <c r="B285" s="18"/>
+      <c r="B285" s="21"/>
       <c r="C285" s="6"/>
       <c r="D285" s="1" t="s">
         <v>587</v>
@@ -9618,7 +9791,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="4"/>
-      <c r="B286" s="18"/>
+      <c r="B286" s="21"/>
       <c r="C286" s="6"/>
       <c r="D286" s="1" t="s">
         <v>588</v>
@@ -9626,13 +9799,13 @@
     </row>
     <row r="287" ht="15.75" spans="1:4">
       <c r="A287" s="4"/>
-      <c r="B287" s="18"/>
-      <c r="C287" s="9"/>
-      <c r="D287" s="20"/>
+      <c r="B287" s="21"/>
+      <c r="C287" s="10"/>
+      <c r="D287" s="8"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="4"/>
-      <c r="B288" s="18"/>
+      <c r="B288" s="21"/>
       <c r="C288" s="6" t="s">
         <v>589</v>
       </c>
@@ -9642,7 +9815,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="4"/>
-      <c r="B289" s="18"/>
+      <c r="B289" s="21"/>
       <c r="C289" s="6"/>
       <c r="D289" s="7" t="s">
         <v>591</v>
@@ -9650,7 +9823,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="4"/>
-      <c r="B290" s="18"/>
+      <c r="B290" s="21"/>
       <c r="C290" s="6"/>
       <c r="D290" s="7" t="s">
         <v>592</v>
@@ -9658,7 +9831,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="4"/>
-      <c r="B291" s="18"/>
+      <c r="B291" s="21"/>
       <c r="C291" s="6"/>
       <c r="D291" s="7" t="s">
         <v>593</v>
@@ -9666,7 +9839,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="4"/>
-      <c r="B292" s="18"/>
+      <c r="B292" s="21"/>
       <c r="C292" s="6"/>
       <c r="D292" s="7" t="s">
         <v>594</v>
@@ -9674,7 +9847,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="4"/>
-      <c r="B293" s="18"/>
+      <c r="B293" s="21"/>
       <c r="C293" s="6"/>
       <c r="D293" s="7" t="s">
         <v>595</v>
@@ -9682,7 +9855,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="4"/>
-      <c r="B294" s="18"/>
+      <c r="B294" s="21"/>
       <c r="C294" s="6"/>
       <c r="D294" s="7" t="s">
         <v>596</v>
@@ -9690,7 +9863,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="4"/>
-      <c r="B295" s="18"/>
+      <c r="B295" s="21"/>
       <c r="C295" s="6"/>
       <c r="D295" s="7" t="s">
         <v>597</v>
@@ -9698,7 +9871,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="4"/>
-      <c r="B296" s="18"/>
+      <c r="B296" s="21"/>
       <c r="C296" s="6"/>
       <c r="D296" s="7" t="s">
         <v>598</v>
@@ -9706,7 +9879,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="4"/>
-      <c r="B297" s="18"/>
+      <c r="B297" s="21"/>
       <c r="C297" s="6"/>
       <c r="D297" s="7" t="s">
         <v>599</v>
@@ -9714,7 +9887,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="4"/>
-      <c r="B298" s="18"/>
+      <c r="B298" s="21"/>
       <c r="C298" s="6"/>
       <c r="D298" s="7" t="s">
         <v>600</v>
@@ -9722,7 +9895,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="4"/>
-      <c r="B299" s="18"/>
+      <c r="B299" s="21"/>
       <c r="C299" s="6"/>
       <c r="D299" s="7" t="s">
         <v>601</v>
@@ -9730,7 +9903,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="4"/>
-      <c r="B300" s="18"/>
+      <c r="B300" s="21"/>
       <c r="C300" s="6"/>
       <c r="D300" s="7" t="s">
         <v>602</v>
@@ -9738,7 +9911,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="4"/>
-      <c r="B301" s="18"/>
+      <c r="B301" s="21"/>
       <c r="C301" s="6"/>
       <c r="D301" s="7" t="s">
         <v>603</v>
@@ -9746,7 +9919,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="4"/>
-      <c r="B302" s="18"/>
+      <c r="B302" s="21"/>
       <c r="C302" s="6"/>
       <c r="D302" s="7" t="s">
         <v>604</v>
@@ -9754,7 +9927,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="4"/>
-      <c r="B303" s="18"/>
+      <c r="B303" s="21"/>
       <c r="C303" s="6"/>
       <c r="D303" s="7" t="s">
         <v>605</v>
@@ -9762,7 +9935,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="4"/>
-      <c r="B304" s="18"/>
+      <c r="B304" s="21"/>
       <c r="C304" s="6"/>
       <c r="D304" s="7" t="s">
         <v>606</v>
@@ -9770,7 +9943,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="4"/>
-      <c r="B305" s="18"/>
+      <c r="B305" s="21"/>
       <c r="C305" s="6"/>
       <c r="D305" s="7" t="s">
         <v>607</v>
@@ -9778,7 +9951,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="4"/>
-      <c r="B306" s="18"/>
+      <c r="B306" s="21"/>
       <c r="C306" s="6"/>
       <c r="D306" s="7" t="s">
         <v>608</v>
@@ -9786,7 +9959,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="4"/>
-      <c r="B307" s="18"/>
+      <c r="B307" s="21"/>
       <c r="C307" s="6"/>
       <c r="D307" s="7" t="s">
         <v>609</v>
@@ -9794,7 +9967,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="4"/>
-      <c r="B308" s="18"/>
+      <c r="B308" s="21"/>
       <c r="C308" s="6"/>
       <c r="D308" s="7" t="s">
         <v>610</v>
@@ -9802,7 +9975,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="4"/>
-      <c r="B309" s="18"/>
+      <c r="B309" s="21"/>
       <c r="C309" s="6"/>
       <c r="D309" s="7" t="s">
         <v>611</v>
@@ -9810,7 +9983,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="4"/>
-      <c r="B310" s="18"/>
+      <c r="B310" s="21"/>
       <c r="C310" s="6"/>
       <c r="D310" s="7" t="s">
         <v>612</v>
@@ -9818,7 +9991,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="4"/>
-      <c r="B311" s="18"/>
+      <c r="B311" s="21"/>
       <c r="C311" s="6"/>
       <c r="D311" s="7" t="s">
         <v>613</v>
@@ -9826,7 +9999,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="4"/>
-      <c r="B312" s="18"/>
+      <c r="B312" s="21"/>
       <c r="C312" s="6"/>
       <c r="D312" s="7" t="s">
         <v>342</v>
@@ -9834,7 +10007,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="4"/>
-      <c r="B313" s="18"/>
+      <c r="B313" s="21"/>
       <c r="C313" s="6"/>
       <c r="D313" s="7" t="s">
         <v>614</v>
@@ -9842,7 +10015,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="4"/>
-      <c r="B314" s="18"/>
+      <c r="B314" s="21"/>
       <c r="C314" s="6"/>
       <c r="D314" s="7" t="s">
         <v>615</v>
@@ -9850,7 +10023,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="4"/>
-      <c r="B315" s="18"/>
+      <c r="B315" s="21"/>
       <c r="C315" s="6"/>
       <c r="D315" s="7" t="s">
         <v>616</v>
@@ -9858,7 +10031,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="4"/>
-      <c r="B316" s="18"/>
+      <c r="B316" s="21"/>
       <c r="C316" s="6"/>
       <c r="D316" s="7" t="s">
         <v>617</v>
@@ -9866,7 +10039,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="4"/>
-      <c r="B317" s="18"/>
+      <c r="B317" s="21"/>
       <c r="C317" s="6"/>
       <c r="D317" s="7" t="s">
         <v>618</v>
@@ -9874,7 +10047,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="4"/>
-      <c r="B318" s="18"/>
+      <c r="B318" s="21"/>
       <c r="C318" s="6"/>
       <c r="D318" s="7" t="s">
         <v>619</v>
@@ -9882,7 +10055,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="4"/>
-      <c r="B319" s="18"/>
+      <c r="B319" s="21"/>
       <c r="C319" s="6"/>
       <c r="D319" s="7" t="s">
         <v>620</v>
@@ -9890,7 +10063,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="4"/>
-      <c r="B320" s="18"/>
+      <c r="B320" s="21"/>
       <c r="C320" s="6"/>
       <c r="D320" s="7" t="s">
         <v>621</v>
@@ -9898,7 +10071,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="4"/>
-      <c r="B321" s="18"/>
+      <c r="B321" s="21"/>
       <c r="C321" s="6"/>
       <c r="D321" s="7" t="s">
         <v>622</v>
@@ -9906,7 +10079,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="4"/>
-      <c r="B322" s="18"/>
+      <c r="B322" s="21"/>
       <c r="C322" s="6"/>
       <c r="D322" s="7" t="s">
         <v>587</v>
@@ -9914,7 +10087,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="4"/>
-      <c r="B323" s="18"/>
+      <c r="B323" s="21"/>
       <c r="C323" s="6"/>
       <c r="D323" s="7" t="s">
         <v>623</v>
@@ -9922,7 +10095,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="4"/>
-      <c r="B324" s="18"/>
+      <c r="B324" s="21"/>
       <c r="C324" s="6"/>
       <c r="D324" s="7" t="s">
         <v>597</v>
@@ -9930,7 +10103,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="4"/>
-      <c r="B325" s="18"/>
+      <c r="B325" s="21"/>
       <c r="C325" s="6"/>
       <c r="D325" s="7" t="s">
         <v>624</v>
@@ -9938,7 +10111,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="4"/>
-      <c r="B326" s="18"/>
+      <c r="B326" s="21"/>
       <c r="C326" s="6"/>
       <c r="D326" s="7" t="s">
         <v>625</v>
@@ -9946,7 +10119,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="4"/>
-      <c r="B327" s="18"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="6"/>
       <c r="D327" s="7" t="s">
         <v>626</v>
@@ -9954,7 +10127,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="4"/>
-      <c r="B328" s="18"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="6"/>
       <c r="D328" s="7" t="s">
         <v>627</v>
@@ -9962,7 +10135,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="4"/>
-      <c r="B329" s="18"/>
+      <c r="B329" s="21"/>
       <c r="C329" s="6"/>
       <c r="D329" s="7" t="s">
         <v>628</v>
@@ -9970,7 +10143,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="4"/>
-      <c r="B330" s="18"/>
+      <c r="B330" s="21"/>
       <c r="C330" s="6"/>
       <c r="D330" s="7" t="s">
         <v>629</v>
@@ -9978,7 +10151,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="4"/>
-      <c r="B331" s="18"/>
+      <c r="B331" s="21"/>
       <c r="C331" s="6"/>
       <c r="D331" s="7" t="s">
         <v>630</v>
@@ -9986,7 +10159,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="4"/>
-      <c r="B332" s="18"/>
+      <c r="B332" s="21"/>
       <c r="C332" s="6"/>
       <c r="D332" s="7" t="s">
         <v>631</v>
@@ -9994,7 +10167,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="4"/>
-      <c r="B333" s="18"/>
+      <c r="B333" s="21"/>
       <c r="C333" s="6"/>
       <c r="D333" s="7" t="s">
         <v>587</v>
@@ -10002,9 +10175,9 @@
     </row>
     <row r="334" ht="9" customHeight="1" spans="1:4">
       <c r="A334" s="4"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="11"/>
-      <c r="D334" s="11"/>
+      <c r="B334" s="11"/>
+      <c r="C334" s="12"/>
+      <c r="D334" s="12"/>
     </row>
     <row r="335" ht="24.75" spans="2:4">
       <c r="B335" s="3" t="s">
@@ -10020,7 +10193,7 @@
       <c r="B336" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C336" s="21" t="s">
+      <c r="C336" s="14" t="s">
         <v>634</v>
       </c>
       <c r="D336" s="7" t="s">
@@ -10030,7 +10203,7 @@
     <row r="337" spans="1:4">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
-      <c r="C337" s="21"/>
+      <c r="C337" s="14"/>
       <c r="D337" s="7" t="s">
         <v>342</v>
       </c>
@@ -10038,7 +10211,7 @@
     <row r="338" spans="1:4">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
-      <c r="C338" s="21"/>
+      <c r="C338" s="14"/>
       <c r="D338" s="7" t="s">
         <v>635</v>
       </c>
@@ -10046,7 +10219,7 @@
     <row r="339" spans="1:4">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
-      <c r="C339" s="21"/>
+      <c r="C339" s="14"/>
       <c r="D339" s="7" t="s">
         <v>636</v>
       </c>
@@ -10054,7 +10227,7 @@
     <row r="340" spans="1:4">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
-      <c r="C340" s="21"/>
+      <c r="C340" s="14"/>
       <c r="D340" s="7" t="s">
         <v>637</v>
       </c>
@@ -10062,7 +10235,7 @@
     <row r="341" spans="1:4">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
-      <c r="C341" s="21"/>
+      <c r="C341" s="14"/>
       <c r="D341" s="7" t="s">
         <v>638</v>
       </c>
@@ -10070,7 +10243,7 @@
     <row r="342" spans="1:4">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
-      <c r="C342" s="21"/>
+      <c r="C342" s="14"/>
       <c r="D342" s="7" t="s">
         <v>639</v>
       </c>
@@ -10078,7 +10251,7 @@
     <row r="343" spans="1:4">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
-      <c r="C343" s="21"/>
+      <c r="C343" s="14"/>
       <c r="D343" s="7" t="s">
         <v>579</v>
       </c>
@@ -10086,7 +10259,7 @@
     <row r="344" spans="1:4">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
-      <c r="C344" s="21"/>
+      <c r="C344" s="14"/>
       <c r="D344" s="7" t="s">
         <v>640</v>
       </c>
@@ -10094,7 +10267,7 @@
     <row r="345" spans="1:4">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
-      <c r="C345" s="21"/>
+      <c r="C345" s="14"/>
       <c r="D345" s="7" t="s">
         <v>587</v>
       </c>
@@ -10102,7 +10275,7 @@
     <row r="346" spans="1:4">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
-      <c r="C346" s="21"/>
+      <c r="C346" s="14"/>
       <c r="D346" s="7" t="s">
         <v>641</v>
       </c>
@@ -10110,7 +10283,7 @@
     <row r="347" spans="1:4">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
-      <c r="C347" s="21"/>
+      <c r="C347" s="14"/>
       <c r="D347" s="7" t="s">
         <v>642</v>
       </c>
@@ -10118,7 +10291,7 @@
     <row r="348" spans="1:4">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
-      <c r="C348" s="21"/>
+      <c r="C348" s="14"/>
       <c r="D348" s="7" t="s">
         <v>517</v>
       </c>
@@ -10126,7 +10299,7 @@
     <row r="349" spans="1:4">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
-      <c r="C349" s="21"/>
+      <c r="C349" s="14"/>
       <c r="D349" s="7" t="s">
         <v>643</v>
       </c>
@@ -10134,7 +10307,7 @@
     <row r="350" spans="1:4">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
-      <c r="C350" s="21"/>
+      <c r="C350" s="14"/>
       <c r="D350" s="7" t="s">
         <v>644</v>
       </c>
@@ -10142,7 +10315,7 @@
     <row r="351" spans="1:4">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
-      <c r="C351" s="21"/>
+      <c r="C351" s="14"/>
       <c r="D351" s="7" t="s">
         <v>645</v>
       </c>
@@ -10150,7 +10323,7 @@
     <row r="352" spans="1:4">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
-      <c r="C352" s="21"/>
+      <c r="C352" s="14"/>
       <c r="D352" s="7" t="s">
         <v>646</v>
       </c>
@@ -10158,7 +10331,7 @@
     <row r="353" spans="1:4">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
-      <c r="C353" s="21"/>
+      <c r="C353" s="14"/>
       <c r="D353" s="7" t="s">
         <v>647</v>
       </c>
@@ -10166,7 +10339,7 @@
     <row r="354" spans="1:4">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
-      <c r="C354" s="21"/>
+      <c r="C354" s="14"/>
       <c r="D354" s="7" t="s">
         <v>648</v>
       </c>
@@ -10174,7 +10347,7 @@
     <row r="355" spans="1:4">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
-      <c r="C355" s="21"/>
+      <c r="C355" s="14"/>
       <c r="D355" s="7" t="s">
         <v>649</v>
       </c>
@@ -10182,7 +10355,7 @@
     <row r="356" spans="1:4">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
-      <c r="C356" s="21"/>
+      <c r="C356" s="14"/>
       <c r="D356" s="7" t="s">
         <v>342</v>
       </c>
@@ -10190,7 +10363,7 @@
     <row r="357" spans="1:4">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
-      <c r="C357" s="21"/>
+      <c r="C357" s="14"/>
       <c r="D357" s="7" t="s">
         <v>650</v>
       </c>
@@ -10198,7 +10371,7 @@
     <row r="358" spans="1:4">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
-      <c r="C358" s="21"/>
+      <c r="C358" s="14"/>
       <c r="D358" s="7" t="s">
         <v>651</v>
       </c>
@@ -10206,7 +10379,7 @@
     <row r="359" spans="1:4">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
-      <c r="C359" s="21"/>
+      <c r="C359" s="14"/>
       <c r="D359" s="7" t="s">
         <v>652</v>
       </c>
@@ -10214,7 +10387,7 @@
     <row r="360" spans="1:4">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
-      <c r="C360" s="21"/>
+      <c r="C360" s="14"/>
       <c r="D360" s="7" t="s">
         <v>653</v>
       </c>
@@ -10222,7 +10395,7 @@
     <row r="361" spans="1:4">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
-      <c r="C361" s="21"/>
+      <c r="C361" s="14"/>
       <c r="D361" s="7" t="s">
         <v>654</v>
       </c>
@@ -10230,7 +10403,7 @@
     <row r="362" spans="1:4">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
-      <c r="C362" s="21"/>
+      <c r="C362" s="14"/>
       <c r="D362" s="7" t="s">
         <v>655</v>
       </c>
@@ -10238,7 +10411,7 @@
     <row r="363" spans="1:4">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
-      <c r="C363" s="21"/>
+      <c r="C363" s="14"/>
       <c r="D363" s="7" t="s">
         <v>517</v>
       </c>
@@ -10246,7 +10419,7 @@
     <row r="364" spans="1:4">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
-      <c r="C364" s="21"/>
+      <c r="C364" s="14"/>
       <c r="D364" s="7" t="s">
         <v>656</v>
       </c>
@@ -10254,7 +10427,7 @@
     <row r="365" spans="1:4">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
-      <c r="C365" s="21"/>
+      <c r="C365" s="14"/>
       <c r="D365" s="7" t="s">
         <v>657</v>
       </c>
@@ -10262,7 +10435,7 @@
     <row r="366" spans="1:4">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
-      <c r="C366" s="21"/>
+      <c r="C366" s="14"/>
       <c r="D366" s="7" t="s">
         <v>658</v>
       </c>
@@ -10270,7 +10443,7 @@
     <row r="367" spans="1:4">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
-      <c r="C367" s="21"/>
+      <c r="C367" s="14"/>
       <c r="D367" s="7" t="s">
         <v>659</v>
       </c>
@@ -10278,7 +10451,7 @@
     <row r="368" spans="1:4">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
-      <c r="C368" s="21"/>
+      <c r="C368" s="14"/>
       <c r="D368" s="7" t="s">
         <v>660</v>
       </c>
@@ -10286,7 +10459,7 @@
     <row r="369" spans="1:4">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
-      <c r="C369" s="21"/>
+      <c r="C369" s="14"/>
       <c r="D369" s="7" t="s">
         <v>661</v>
       </c>
@@ -10294,7 +10467,7 @@
     <row r="370" spans="1:4">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
-      <c r="C370" s="21"/>
+      <c r="C370" s="14"/>
       <c r="D370" s="7" t="s">
         <v>662</v>
       </c>
@@ -10302,7 +10475,7 @@
     <row r="371" spans="1:4">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
-      <c r="C371" s="21"/>
+      <c r="C371" s="14"/>
       <c r="D371" s="7" t="s">
         <v>653</v>
       </c>
@@ -10310,7 +10483,7 @@
     <row r="372" spans="1:4">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
-      <c r="C372" s="21"/>
+      <c r="C372" s="14"/>
       <c r="D372" s="7" t="s">
         <v>663</v>
       </c>
@@ -10318,7 +10491,7 @@
     <row r="373" spans="1:4">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
-      <c r="C373" s="21"/>
+      <c r="C373" s="14"/>
       <c r="D373" s="7" t="s">
         <v>664</v>
       </c>
@@ -10326,7 +10499,7 @@
     <row r="374" spans="1:4">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
-      <c r="C374" s="21"/>
+      <c r="C374" s="14"/>
       <c r="D374" s="7" t="s">
         <v>342</v>
       </c>
@@ -10334,7 +10507,7 @@
     <row r="375" spans="1:4">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
-      <c r="C375" s="21"/>
+      <c r="C375" s="14"/>
       <c r="D375" s="7" t="s">
         <v>665</v>
       </c>
@@ -10342,7 +10515,7 @@
     <row r="376" spans="1:4">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
-      <c r="C376" s="21"/>
+      <c r="C376" s="14"/>
       <c r="D376" s="7" t="s">
         <v>666</v>
       </c>
@@ -10350,7 +10523,7 @@
     <row r="377" spans="1:4">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
-      <c r="C377" s="21"/>
+      <c r="C377" s="14"/>
       <c r="D377" s="7" t="s">
         <v>667</v>
       </c>
@@ -10358,7 +10531,7 @@
     <row r="378" spans="1:4">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
-      <c r="C378" s="21"/>
+      <c r="C378" s="14"/>
       <c r="D378" s="7" t="s">
         <v>668</v>
       </c>
@@ -10366,7 +10539,7 @@
     <row r="379" spans="1:4">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
-      <c r="C379" s="21"/>
+      <c r="C379" s="14"/>
       <c r="D379" s="7" t="s">
         <v>669</v>
       </c>
@@ -10374,7 +10547,7 @@
     <row r="380" spans="1:4">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
-      <c r="C380" s="21"/>
+      <c r="C380" s="14"/>
       <c r="D380" s="7" t="s">
         <v>670</v>
       </c>
@@ -10382,7 +10555,7 @@
     <row r="381" spans="1:4">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
-      <c r="C381" s="21"/>
+      <c r="C381" s="14"/>
       <c r="D381" s="7" t="s">
         <v>653</v>
       </c>
@@ -10390,7 +10563,7 @@
     <row r="382" spans="1:4">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
-      <c r="C382" s="21"/>
+      <c r="C382" s="14"/>
       <c r="D382" s="7" t="s">
         <v>671</v>
       </c>
@@ -10398,7 +10571,7 @@
     <row r="383" spans="1:4">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
-      <c r="C383" s="21"/>
+      <c r="C383" s="14"/>
       <c r="D383" s="7" t="s">
         <v>672</v>
       </c>
@@ -10406,7 +10579,7 @@
     <row r="384" spans="1:4">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
-      <c r="C384" s="21"/>
+      <c r="C384" s="14"/>
       <c r="D384" s="7" t="s">
         <v>673</v>
       </c>
@@ -10414,7 +10587,7 @@
     <row r="385" spans="1:4">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
-      <c r="C385" s="21"/>
+      <c r="C385" s="14"/>
       <c r="D385" s="7" t="s">
         <v>674</v>
       </c>
@@ -10422,7 +10595,7 @@
     <row r="386" spans="1:4">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
-      <c r="C386" s="21"/>
+      <c r="C386" s="14"/>
       <c r="D386" s="7" t="s">
         <v>517</v>
       </c>
@@ -10430,7 +10603,7 @@
     <row r="387" spans="1:4">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
-      <c r="C387" s="21"/>
+      <c r="C387" s="14"/>
       <c r="D387" s="7" t="s">
         <v>675</v>
       </c>
@@ -10438,7 +10611,7 @@
     <row r="388" spans="1:4">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
-      <c r="C388" s="21"/>
+      <c r="C388" s="14"/>
       <c r="D388" s="7" t="s">
         <v>676</v>
       </c>
@@ -10446,7 +10619,7 @@
     <row r="389" spans="1:4">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
-      <c r="C389" s="21"/>
+      <c r="C389" s="14"/>
       <c r="D389" s="7" t="s">
         <v>677</v>
       </c>
@@ -10454,7 +10627,7 @@
     <row r="390" spans="1:4">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
-      <c r="C390" s="21"/>
+      <c r="C390" s="14"/>
       <c r="D390" s="7" t="s">
         <v>678</v>
       </c>
@@ -10462,7 +10635,7 @@
     <row r="391" spans="1:4">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
-      <c r="C391" s="21"/>
+      <c r="C391" s="14"/>
       <c r="D391" s="7" t="s">
         <v>679</v>
       </c>
@@ -10470,7 +10643,7 @@
     <row r="392" spans="1:4">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
-      <c r="C392" s="21"/>
+      <c r="C392" s="14"/>
       <c r="D392" s="7" t="s">
         <v>680</v>
       </c>
@@ -10478,7 +10651,7 @@
     <row r="393" spans="1:4">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
-      <c r="C393" s="21"/>
+      <c r="C393" s="14"/>
       <c r="D393" s="7" t="s">
         <v>681</v>
       </c>
@@ -10486,7 +10659,7 @@
     <row r="394" spans="1:4">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
-      <c r="C394" s="21"/>
+      <c r="C394" s="14"/>
       <c r="D394" s="7" t="s">
         <v>682</v>
       </c>
@@ -10494,7 +10667,7 @@
     <row r="395" spans="1:4">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
-      <c r="C395" s="21"/>
+      <c r="C395" s="14"/>
       <c r="D395" s="7" t="s">
         <v>683</v>
       </c>
@@ -10502,7 +10675,7 @@
     <row r="396" spans="1:4">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
-      <c r="C396" s="21"/>
+      <c r="C396" s="14"/>
       <c r="D396" s="7" t="s">
         <v>684</v>
       </c>
@@ -10510,7 +10683,7 @@
     <row r="397" spans="1:4">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
-      <c r="C397" s="21"/>
+      <c r="C397" s="14"/>
       <c r="D397" s="7" t="s">
         <v>685</v>
       </c>
@@ -10518,7 +10691,7 @@
     <row r="398" spans="1:4">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
-      <c r="C398" s="21"/>
+      <c r="C398" s="14"/>
       <c r="D398" s="7" t="s">
         <v>686</v>
       </c>
@@ -10526,7 +10699,7 @@
     <row r="399" spans="1:4">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
-      <c r="C399" s="21"/>
+      <c r="C399" s="14"/>
       <c r="D399" s="7" t="s">
         <v>687</v>
       </c>
@@ -10534,7 +10707,7 @@
     <row r="400" spans="1:4">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
-      <c r="C400" s="21"/>
+      <c r="C400" s="14"/>
       <c r="D400" s="7" t="s">
         <v>688</v>
       </c>
@@ -10542,7 +10715,7 @@
     <row r="401" spans="1:4">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
-      <c r="C401" s="21"/>
+      <c r="C401" s="14"/>
       <c r="D401" s="7" t="s">
         <v>689</v>
       </c>
@@ -10550,7 +10723,7 @@
     <row r="402" spans="1:4">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
-      <c r="C402" s="21"/>
+      <c r="C402" s="14"/>
       <c r="D402" s="7" t="s">
         <v>690</v>
       </c>
@@ -10558,7 +10731,7 @@
     <row r="403" spans="1:4">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
-      <c r="C403" s="21"/>
+      <c r="C403" s="14"/>
       <c r="D403" s="7" t="s">
         <v>691</v>
       </c>
@@ -10566,7 +10739,7 @@
     <row r="404" spans="1:4">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
-      <c r="C404" s="21"/>
+      <c r="C404" s="14"/>
       <c r="D404" s="7" t="s">
         <v>692</v>
       </c>
@@ -10574,7 +10747,7 @@
     <row r="405" spans="1:4">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
-      <c r="C405" s="21"/>
+      <c r="C405" s="14"/>
       <c r="D405" s="7" t="s">
         <v>587</v>
       </c>
@@ -10582,7 +10755,7 @@
     <row r="406" spans="1:4">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
-      <c r="C406" s="21"/>
+      <c r="C406" s="14"/>
       <c r="D406" s="7" t="s">
         <v>693</v>
       </c>
@@ -10590,13 +10763,13 @@
     <row r="407" ht="18" spans="1:4">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
-      <c r="C407" s="8"/>
-      <c r="D407" s="20"/>
+      <c r="C407" s="9"/>
+      <c r="D407" s="8"/>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
-      <c r="C408" s="21" t="s">
+      <c r="C408" s="14" t="s">
         <v>694</v>
       </c>
       <c r="D408" s="7" t="s">
@@ -10606,7 +10779,7 @@
     <row r="409" spans="1:4">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
-      <c r="C409" s="21"/>
+      <c r="C409" s="14"/>
       <c r="D409" s="7" t="s">
         <v>696</v>
       </c>
@@ -10614,7 +10787,7 @@
     <row r="410" spans="1:4">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
-      <c r="C410" s="21"/>
+      <c r="C410" s="14"/>
       <c r="D410" s="7" t="s">
         <v>697</v>
       </c>
@@ -10622,7 +10795,7 @@
     <row r="411" spans="1:4">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
-      <c r="C411" s="21"/>
+      <c r="C411" s="14"/>
       <c r="D411" s="7" t="s">
         <v>698</v>
       </c>
@@ -10630,7 +10803,7 @@
     <row r="412" spans="1:4">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
-      <c r="C412" s="21"/>
+      <c r="C412" s="14"/>
       <c r="D412" s="7" t="s">
         <v>699</v>
       </c>
@@ -10638,7 +10811,7 @@
     <row r="413" spans="1:4">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
-      <c r="C413" s="21"/>
+      <c r="C413" s="14"/>
       <c r="D413" s="7" t="s">
         <v>700</v>
       </c>
@@ -10713,24 +10886,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="$A110:$XFD110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="44.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="89.5714285714286" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.2857142857143" style="1"/>
+    <col min="4" max="4" width="87.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" ht="16.5" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10743,15 +10917,21 @@
       <c r="D1" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" ht="24.75" spans="2:4">
+      <c r="E1" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" ht="23" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="21" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -10765,7 +10945,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -10773,31 +10953,31 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -10805,85 +10985,87 @@
         <v>552</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:3">
+    <row r="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" customFormat="1" customHeight="1" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:4">
+    <row r="11" customFormat="1" customHeight="1" spans="1:4">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:4">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:4">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" customHeight="1" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" spans="1:3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" customHeight="1" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="1" customHeight="1" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:4">
+    <row r="16" customFormat="1" customHeight="1" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:4">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:4">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" customHeight="1" spans="1:4">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:4">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -10891,117 +11073,119 @@
         <v>552</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="1:3">
+    <row r="20" customFormat="1" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="1:4">
+    <row r="22" customFormat="1" customHeight="1" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="1:4">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" spans="1:4">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" customHeight="1" spans="1:4">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="1:4">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="1:4">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="1:4">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" spans="1:4">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" customHeight="1" spans="1:4">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" spans="1:4">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" customHeight="1" spans="1:4">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" spans="1:3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" customHeight="1" spans="1:4">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="1:4">
+    <row r="31" customFormat="1" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" spans="1:4">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" customHeight="1" spans="1:4">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" spans="1:4">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" customHeight="1" spans="1:4">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" spans="1:4">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" customHeight="1" spans="1:4">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -11009,46 +11193,47 @@
         <v>552</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="1:3">
+    <row r="35" customFormat="1" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" customFormat="1" customHeight="1" spans="1:4">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="1:4">
+    <row r="37" customFormat="1" customHeight="1" spans="1:4">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" spans="1:4">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" customHeight="1" spans="1:4">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" spans="1:4">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" customHeight="1" spans="1:4">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -11056,91 +11241,94 @@
         <v>552</v>
       </c>
     </row>
-    <row r="41" ht="15.75" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" spans="1:4">
+      <c r="C42" s="6"/>
+      <c r="D42" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" spans="1:4">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" spans="1:4">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" spans="1:4">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" spans="1:4">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" spans="1:4">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" spans="1:4">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="49" ht="18" spans="1:4">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="50" ht="18" spans="1:4">
+      <c r="C49" s="9"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="7"/>
+      <c r="C50" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="6" t="s">
-        <v>736</v>
-      </c>
+      <c r="C51" s="6"/>
       <c r="D51" s="7" t="s">
-        <v>342</v>
+        <v>739</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -11148,7 +11336,7 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -11156,31 +11344,31 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="1:4">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" spans="1:4">
+      <c r="C54" s="10"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="7"/>
+      <c r="C55" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="6" t="s">
-        <v>739</v>
-      </c>
+      <c r="C56" s="6"/>
       <c r="D56" s="7" t="s">
-        <v>342</v>
+        <v>742</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -11188,7 +11376,7 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -11196,7 +11384,7 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -11204,37 +11392,398 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="7" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="60" ht="9" customHeight="1" spans="1:4">
       <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" ht="24.75" spans="2:4">
+      <c r="B61" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" ht="15.75" spans="2:4">
+      <c r="B62" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" spans="2:4">
+      <c r="B63" s="5"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="5"/>
+      <c r="C64" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="5"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="5"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="5"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="68" ht="18" spans="2:4">
+      <c r="B68" s="5"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="5"/>
+      <c r="C69" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="5"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="7" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="5"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="5"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="5"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="5"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="75" ht="18" spans="2:4">
+      <c r="B75" s="5"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="5"/>
+      <c r="C76" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="5"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="5"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="5"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="5"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="5"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="5"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="83" ht="21" customHeight="1" spans="3:4">
+      <c r="C83" s="14"/>
+      <c r="D83" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="61" ht="11" customHeight="1" spans="1:4">
-      <c r="A61" s="4"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+    <row r="84" ht="15.75" spans="2:4">
+      <c r="B84" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="13"/>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="5"/>
+      <c r="C85" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="5"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="5"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="5"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="5"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="90" ht="12" customHeight="1" spans="2:4">
+      <c r="B90" s="5"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="91" ht="12" customHeight="1" spans="2:4">
+      <c r="B91" s="5"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="5"/>
+      <c r="C92" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="5"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="5"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="5"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="5"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="5"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="5"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="5"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="1" spans="2:4">
+      <c r="B100" s="5"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="5"/>
+      <c r="C101" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="5"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="5"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="5"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="5"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="5"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="7" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="5"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="5"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="13" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="5"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="5"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" ht="9" customHeight="1" spans="2:4">
+      <c r="B111" s="11"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="21">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A3:A61"/>
-    <mergeCell ref="B3:B60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A3:A60"/>
+    <mergeCell ref="B3:B59"/>
+    <mergeCell ref="B62:B82"/>
+    <mergeCell ref="B84:B110"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C21:C28"/>
     <mergeCell ref="C30:C34"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="C101:C110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -2454,27 +2454,7 @@
     <t>Day 12</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Garbage Collection (GC) is a fundamental part of Java.                                                                                                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Learn all aspects of garbage collection, including looking at what 'young' and 'old' generations are, how the JVM moves objects between eden and survivor spaces, how memory is promoted into the 'old' generation, how different garbage collectors work, and how they affect the running of your application.                                        Check out 'card tables' and how they help manage memory in the old generation.                                                     Examine each of the garbage collectors including the serial and parallel collectors; the CMS collector and the G1 collector.</t>
-    </r>
+    <t>Database Applications using JDBC</t>
   </si>
   <si>
     <t>2. Introduction to Relational Database and SQL</t>
@@ -2617,8 +2597,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -2723,8 +2703,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2737,8 +2732,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2754,7 +2824,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2768,109 +2845,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2943,6 +2923,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2961,7 +2947,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2973,7 +2995,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2985,55 +3055,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3045,73 +3091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3164,8 +3144,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3185,42 +3165,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3243,9 +3191,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3258,10 +3208,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3279,131 +3259,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4015,8 +3995,8 @@
   <sheetPr/>
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119:B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -10889,9 +10869,9 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="$A110:$XFD110"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="848">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -2505,29 +2505,6 @@
     <t>DELETING DATABASE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Being able to read and write data to a relational database is an absolute, must-have skill when working with Java applications.                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Gain the ability to access and modify data in relational databases using the JDBC API.                                                             Learn how to connect the JDBC API to a database.                                               Discover how to read and update data in a database using the JDBC API. </t>
-    </r>
-  </si>
-  <si>
     <t>5. Using PreparedStatements</t>
   </si>
   <si>
@@ -2589,6 +2566,199 @@
   </si>
   <si>
     <t>9. JDBC Stored Procedures with Exception Handling</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Persistence using Hibernate
+</t>
+  </si>
+  <si>
+    <t>1. Introduction to Hibernate</t>
+  </si>
+  <si>
+    <t>1. What's in This Course</t>
+  </si>
+  <si>
+    <t>2. Hibernate Features</t>
+  </si>
+  <si>
+    <t>3. Hibernate Architecture</t>
+  </si>
+  <si>
+    <t>2. Hibernate Configuration</t>
+  </si>
+  <si>
+    <t>1. Hibernate Configuration</t>
+  </si>
+  <si>
+    <t>2. Assisted Practice: Hibernate using XML</t>
+  </si>
+  <si>
+    <t>Database Table Setup</t>
+  </si>
+  <si>
+    <t>Hibernate Project Dependencies</t>
+  </si>
+  <si>
+    <t>Domain Model Classes</t>
+  </si>
+  <si>
+    <t>Hibernate Mapping XML Configuration</t>
+  </si>
+  <si>
+    <t>Hibernate Configuration Files</t>
+  </si>
+  <si>
+    <t>Hibernate SessionFactory</t>
+  </si>
+  <si>
+    <t>Hibernate XML Configuration Test</t>
+  </si>
+  <si>
+    <t>3. Assisted Practice: Hibernate using Annotations</t>
+  </si>
+  <si>
+    <t>Hibernate Annotation Configuration Test</t>
+  </si>
+  <si>
+    <t>4. Assisted Practice: Hibernate using Java Configuration</t>
+  </si>
+  <si>
+    <t>Hibernate Java Configuration Test</t>
+  </si>
+  <si>
+    <t>3. Collection Mapping and Logging in Hibernate</t>
+  </si>
+  <si>
+    <t>1. Hibernate Collection Mapping</t>
+  </si>
+  <si>
+    <t>2. Assisted Practice: Mapping Set in Collection using XML file</t>
+  </si>
+  <si>
+    <t>Create the Configuration file</t>
+  </si>
+  <si>
+    <t>Create Test class</t>
+  </si>
+  <si>
+    <t>3. Assisted Practice: Mapping Bag in Collection using XML file</t>
+  </si>
+  <si>
+    <t>4. Assisted Practice: Mapping List in Collection using XML file</t>
+  </si>
+  <si>
+    <t>5. Assisted Practice: Mapping Map in Collection using XML file</t>
+  </si>
+  <si>
+    <t>6. Hibernate Logging</t>
+  </si>
+  <si>
+    <t>7. Assisted Practice: Hibernate logging by Log4j using xml file</t>
+  </si>
+  <si>
+    <t>Specify log4j2 dependency</t>
+  </si>
+  <si>
+    <t>2. Configure Hibernate logging using log4j2 via log4j2.xml file</t>
+  </si>
+  <si>
+    <t>8. Assisted Practice: Hibernate logging by Log4j using properties file</t>
+  </si>
+  <si>
+    <t>5. Entity Relationships</t>
+  </si>
+  <si>
+    <t>1. Introducing Entity Relationships</t>
+  </si>
+  <si>
+    <t>2. Demo: Define One-to-many and Many-to-one Relationships</t>
+  </si>
+  <si>
+    <t>3. Demo: Define Many-to-many Relationships</t>
+  </si>
+  <si>
+    <t>4. Annotations for Relationship Definition</t>
+  </si>
+  <si>
+    <t>5. Demo: Join Tables on One Column</t>
+  </si>
+  <si>
+    <t>6. Demo: Join Tables on Multiple Columns</t>
+  </si>
+  <si>
+    <t>7. Embeddable Classes</t>
+  </si>
+  <si>
+    <t>8. Demo: Embedding Classes in Entities</t>
+  </si>
+  <si>
+    <t>9. Demo: Embedding Collections of Classes in Entities</t>
+  </si>
+  <si>
+    <t>10. Demo: Embedding Maps of Classes in Entities</t>
+  </si>
+  <si>
+    <t>11. Queries and Relationship Direction</t>
+  </si>
+  <si>
+    <t>6. Hibernate Mapping using XML</t>
+  </si>
+  <si>
+    <t>1. What's in This Module</t>
+  </si>
+  <si>
+    <t>2. Process Flow</t>
+  </si>
+  <si>
+    <t>3. Entity Relationship Diagram</t>
+  </si>
+  <si>
+    <t>4. Assisted Practice: Hibernate One-to-One With Primary Key XML Mapping</t>
+  </si>
+  <si>
+    <t>Creating database and tables</t>
+  </si>
+  <si>
+    <t>Setting up Eclipse project</t>
+  </si>
+  <si>
+    <t>Writing Hibernate Model Classes</t>
+  </si>
+  <si>
+    <t>Writing Hibernate Mapping Files</t>
+  </si>
+  <si>
+    <t>Writing Hibernate Configuration File</t>
+  </si>
+  <si>
+    <t>Coding a Test Program</t>
+  </si>
+  <si>
+    <t>5. Entity Relationship Diagram</t>
+  </si>
+  <si>
+    <t>6. Assisted Practice: Hibernate One-to-One With Foreign Key XML Mapping</t>
+  </si>
+  <si>
+    <t>7. Entity Relationship Diagram</t>
+  </si>
+  <si>
+    <t>8. Assisted Practice: Hibernate One-to-Many XML Mapping</t>
+  </si>
+  <si>
+    <t>9. Entity Relationship Diagram</t>
+  </si>
+  <si>
+    <t>10. Assisted Practice: Hibernate One-to-Many Join Table XML Mapping</t>
+  </si>
+  <si>
+    <t>11. Entity Relationship Diagram</t>
+  </si>
+  <si>
+    <t>12. Assisted Practice: Hibernate Many-to-Many  XML Mapping</t>
   </si>
 </sst>
 </file>
@@ -2596,12 +2766,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2703,6 +2873,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2718,24 +2902,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2746,15 +2918,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2778,23 +2942,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2816,14 +2966,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2853,11 +2995,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="41">
@@ -2917,49 +3080,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2971,19 +3104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3001,13 +3122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3019,19 +3140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3043,7 +3152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3061,13 +3170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3079,7 +3194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3091,13 +3206,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3137,15 +3300,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3191,17 +3345,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -3238,18 +3381,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3259,131 +3422,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10866,12 +11029,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101:D110"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112:D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -11388,7 +11551,10 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" ht="15.75" spans="2:4">
+    <row r="62" ht="15.75" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B62" s="5" t="s">
         <v>746</v>
       </c>
@@ -11399,12 +11565,14 @@
         <v>462</v>
       </c>
     </row>
-    <row r="63" ht="15.75" spans="2:4">
+    <row r="63" ht="15.75" spans="1:4">
+      <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="10"/>
       <c r="D63" s="13"/>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="1:4">
+      <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="14" t="s">
         <v>747</v>
@@ -11413,33 +11581,38 @@
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="1:4">
+      <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="14"/>
       <c r="D65" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="1:4">
+      <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="14"/>
       <c r="D66" s="7" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="1:4">
+      <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="14"/>
       <c r="D67" s="7" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="68" ht="18" spans="2:4">
+    <row r="68" ht="18" spans="1:4">
+      <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="15"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="1:4">
+      <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="14" t="s">
         <v>750</v>
@@ -11448,47 +11621,54 @@
         <v>342</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="1:4">
+      <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="14"/>
       <c r="D70" s="7" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="1:4">
+      <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="14"/>
       <c r="D71" s="7" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="1:4">
+      <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="14"/>
       <c r="D72" s="7" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="1:4">
+      <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="14"/>
       <c r="D73" s="7" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="1:4">
+      <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="14"/>
       <c r="D74" s="7" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="75" ht="18" spans="2:4">
+    <row r="75" ht="18" spans="1:4">
+      <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="15"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="1:4">
+      <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="14" t="s">
         <v>756</v>
@@ -11497,258 +11677,1010 @@
         <v>342</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="1:4">
+      <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="14"/>
       <c r="D77" s="7" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="1:4">
+      <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="14"/>
       <c r="D78" s="7" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="1:4">
+      <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="14"/>
       <c r="D79" s="7" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="1:4">
+      <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="14"/>
       <c r="D80" s="7" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="1:4">
+      <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="14"/>
       <c r="D81" s="7" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="1:4">
+      <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="14"/>
       <c r="D82" s="7" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="83" ht="21" customHeight="1" spans="3:4">
+    <row r="83" ht="21" customHeight="1" spans="1:4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="14"/>
       <c r="D83" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="84" ht="15.75" spans="2:4">
-      <c r="B84" s="5" t="s">
-        <v>763</v>
-      </c>
+    <row r="84" ht="15.75" spans="1:4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="10"/>
       <c r="D84" s="13"/>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="1:4">
+      <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="1:4">
+      <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="14"/>
       <c r="D86" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="14"/>
       <c r="D87" s="7" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="14"/>
       <c r="D88" s="7" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="14"/>
       <c r="D89" s="7" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="90" ht="12" customHeight="1" spans="2:4">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="90" ht="12" customHeight="1" spans="1:4">
+      <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="14"/>
       <c r="D90" s="7" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="91" ht="12" customHeight="1" spans="2:4">
+    <row r="91" ht="12" customHeight="1" spans="1:4">
+      <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="14"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="1:4">
+      <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="1:4">
+      <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="14"/>
       <c r="D93" s="7" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="14"/>
       <c r="D94" s="7" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="14"/>
       <c r="D95" s="7" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="14"/>
       <c r="D96" s="7" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="14"/>
       <c r="D97" s="7" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="14"/>
       <c r="D98" s="7" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="14"/>
       <c r="D99" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="100" ht="11" customHeight="1" spans="2:4">
+    <row r="100" ht="11" customHeight="1" spans="1:4">
+      <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="15"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="1:4">
+      <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="1:4">
+      <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="14"/>
       <c r="D102" s="7" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="14"/>
       <c r="D103" s="7" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="14"/>
       <c r="D104" s="7" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="14"/>
       <c r="D105" s="7" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="14"/>
       <c r="D106" s="7" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="14"/>
       <c r="D107" s="7" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="14"/>
       <c r="D108" s="13" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="14"/>
       <c r="D109" s="7" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="14"/>
       <c r="D110" s="7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="111" ht="9" customHeight="1" spans="2:4">
+    <row r="111" ht="9" customHeight="1" spans="1:4">
+      <c r="A111" s="4"/>
       <c r="B111" s="11"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
     </row>
+    <row r="112" ht="24.75" spans="2:4">
+      <c r="B112" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" ht="15.75" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" spans="1:4">
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="13"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="118" ht="18" spans="1:4">
+      <c r="A118" s="4"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" spans="1:4">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="13"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="16" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="7" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="7" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="145" ht="18" spans="1:4">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="7" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="13" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="4"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="7" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="4"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="7" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="157" ht="18" spans="1:4">
+      <c r="A157" s="4"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="4"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="4"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="4"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="4"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="4"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="4"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="4"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="4"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="4"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="4"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="4"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="4"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="4"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="4"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="4"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="4"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="4"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="4"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="4"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="4"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="4"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="4"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="4"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="4"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="4"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="4"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="4"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="4"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="4"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="200" ht="18" spans="1:4">
+      <c r="A200" s="4"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="29">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B112:D112"/>
     <mergeCell ref="A3:A60"/>
+    <mergeCell ref="A62:A111"/>
+    <mergeCell ref="A113:A200"/>
     <mergeCell ref="B3:B59"/>
-    <mergeCell ref="B62:B82"/>
-    <mergeCell ref="B84:B110"/>
+    <mergeCell ref="B62:B110"/>
+    <mergeCell ref="B113:B199"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C15:C19"/>
@@ -11764,6 +12696,11 @@
     <mergeCell ref="C85:C90"/>
     <mergeCell ref="C92:C99"/>
     <mergeCell ref="C101:C110"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C119:C131"/>
+    <mergeCell ref="C133:C144"/>
+    <mergeCell ref="C146:C156"/>
+    <mergeCell ref="C158:C199"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="864">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -2571,8 +2571,7 @@
     <t>Day 13</t>
   </si>
   <si>
-    <t xml:space="preserve">Object Persistence using Hibernate
-</t>
+    <t>Object Persistence using Hibernate</t>
   </si>
   <si>
     <t>1. Introduction to Hibernate</t>
@@ -2759,6 +2758,54 @@
   </si>
   <si>
     <t>12. Assisted Practice: Hibernate Many-to-Many  XML Mapping</t>
+  </si>
+  <si>
+    <t>13.Eager/Lazy Loading In Hibernate</t>
+  </si>
+  <si>
+    <t>14.Integration of Hibernate with Spring</t>
+  </si>
+  <si>
+    <t>Model Class or Entity Bean</t>
+  </si>
+  <si>
+    <t>DAO Classes</t>
+  </si>
+  <si>
+    <t>Spring Bean Configuration File for Hibernate 3 Integration</t>
+  </si>
+  <si>
+    <t>Spring 4 Hibernate 3 Test Program</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Java EE: Java Server Pages</t>
+  </si>
+  <si>
+    <t>2. JSP Life Cycle</t>
+  </si>
+  <si>
+    <t>3. JSP Development Models</t>
+  </si>
+  <si>
+    <t>4. Course Outline</t>
+  </si>
+  <si>
+    <t>2. JSP Fundamentals</t>
+  </si>
+  <si>
+    <t>2. Demo: Creating First JSP Page - Hello World</t>
+  </si>
+  <si>
+    <t>3. Expression Tag</t>
+  </si>
+  <si>
+    <t>4. Declaration Tag</t>
+  </si>
+  <si>
+    <t>5. Scriptlet Tag</t>
   </si>
 </sst>
 </file>
@@ -2766,10 +2813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2873,23 +2920,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2902,49 +2943,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2956,24 +2958,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2989,7 +2976,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3004,7 +3007,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3012,6 +3015,50 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3080,19 +3127,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3104,7 +3163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3122,7 +3181,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3134,19 +3235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,13 +3253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3176,55 +3265,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3242,25 +3301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3304,21 +3351,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3328,41 +3360,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3385,26 +3389,69 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3422,131 +3469,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11029,12 +11076,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112:D200"/>
+      <selection pane="bottomLeft" activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -11962,66 +12009,66 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" ht="15.75" spans="1:4">
+    <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>462</v>
+      <c r="C113" s="14" t="s">
+        <v>786</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" spans="1:4">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="14" t="s">
-        <v>786</v>
-      </c>
+      <c r="C115" s="14"/>
       <c r="D115" s="7" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="116" ht="18" spans="1:4">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="1" t="s">
-        <v>788</v>
-      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="118" ht="18" spans="1:4">
+      <c r="C117" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="7"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="7" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
-      <c r="C119" s="14" t="s">
-        <v>790</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>791</v>
+      <c r="C119" s="14"/>
+      <c r="D119" s="7" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -12029,7 +12076,7 @@
       <c r="B120" s="5"/>
       <c r="C120" s="14"/>
       <c r="D120" s="7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -12037,7 +12084,7 @@
       <c r="B121" s="5"/>
       <c r="C121" s="14"/>
       <c r="D121" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -12045,7 +12092,7 @@
       <c r="B122" s="5"/>
       <c r="C122" s="14"/>
       <c r="D122" s="7" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -12053,15 +12100,15 @@
       <c r="B123" s="5"/>
       <c r="C123" s="14"/>
       <c r="D123" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="14"/>
-      <c r="D124" s="7" t="s">
-        <v>796</v>
+      <c r="D124" s="13" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -12069,15 +12116,15 @@
       <c r="B125" s="5"/>
       <c r="C125" s="14"/>
       <c r="D125" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="14"/>
-      <c r="D126" s="13" t="s">
-        <v>798</v>
+      <c r="D126" s="7" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -12085,7 +12132,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="14"/>
       <c r="D127" s="7" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -12093,7 +12140,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="14"/>
       <c r="D128" s="7" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -12101,47 +12148,47 @@
       <c r="B129" s="5"/>
       <c r="C129" s="14"/>
       <c r="D129" s="7" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" spans="1:4">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="7" t="s">
-        <v>802</v>
-      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="13"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="14"/>
+      <c r="C131" s="14" t="s">
+        <v>804</v>
+      </c>
       <c r="D131" s="7" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" spans="1:4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="13"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="1" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
-      <c r="C133" s="14" t="s">
-        <v>804</v>
-      </c>
+      <c r="C133" s="14"/>
       <c r="D133" s="7" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="14"/>
-      <c r="D134" s="1" t="s">
-        <v>806</v>
+      <c r="D134" s="7" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -12149,7 +12196,7 @@
       <c r="B135" s="5"/>
       <c r="C135" s="14"/>
       <c r="D135" s="7" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -12157,7 +12204,7 @@
       <c r="B136" s="5"/>
       <c r="C136" s="14"/>
       <c r="D136" s="7" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -12165,15 +12212,15 @@
       <c r="B137" s="5"/>
       <c r="C137" s="14"/>
       <c r="D137" s="7" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="14"/>
-      <c r="D138" s="7" t="s">
-        <v>810</v>
+      <c r="D138" s="16" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -12181,15 +12228,15 @@
       <c r="B139" s="5"/>
       <c r="C139" s="14"/>
       <c r="D139" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="14"/>
-      <c r="D140" s="16" t="s">
-        <v>812</v>
+      <c r="D140" s="7" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -12197,7 +12244,7 @@
       <c r="B141" s="5"/>
       <c r="C141" s="14"/>
       <c r="D141" s="7" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -12205,39 +12252,39 @@
       <c r="B142" s="5"/>
       <c r="C142" s="14"/>
       <c r="D142" s="7" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="143" ht="18" spans="1:4">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="7" t="s">
-        <v>815</v>
-      </c>
+      <c r="C143" s="15"/>
+      <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="7" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="145" ht="18" spans="1:4">
+      <c r="C144" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="7"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="7" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
-      <c r="C146" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>818</v>
+      <c r="C146" s="14"/>
+      <c r="D146" s="7" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -12245,7 +12292,7 @@
       <c r="B147" s="5"/>
       <c r="C147" s="14"/>
       <c r="D147" s="7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -12253,7 +12300,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="14"/>
       <c r="D148" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -12261,7 +12308,7 @@
       <c r="B149" s="5"/>
       <c r="C149" s="14"/>
       <c r="D149" s="7" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -12269,15 +12316,15 @@
       <c r="B150" s="5"/>
       <c r="C150" s="14"/>
       <c r="D150" s="7" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="14"/>
-      <c r="D151" s="7" t="s">
-        <v>823</v>
+      <c r="D151" s="13" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -12285,15 +12332,15 @@
       <c r="B152" s="5"/>
       <c r="C152" s="14"/>
       <c r="D152" s="7" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="14"/>
-      <c r="D153" s="13" t="s">
-        <v>825</v>
+      <c r="D153" s="7" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -12301,39 +12348,39 @@
       <c r="B154" s="5"/>
       <c r="C154" s="14"/>
       <c r="D154" s="7" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="155" ht="18" spans="1:4">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="7" t="s">
-        <v>827</v>
-      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
-      <c r="C156" s="14"/>
+      <c r="C156" s="14" t="s">
+        <v>829</v>
+      </c>
       <c r="D156" s="7" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="157" ht="18" spans="1:4">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="7"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="7" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
-      <c r="C158" s="14" t="s">
-        <v>829</v>
-      </c>
+      <c r="C158" s="14"/>
       <c r="D158" s="7" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -12341,7 +12388,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="14"/>
       <c r="D159" s="7" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -12349,7 +12396,7 @@
       <c r="B160" s="5"/>
       <c r="C160" s="14"/>
       <c r="D160" s="7" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -12357,7 +12404,7 @@
       <c r="B161" s="5"/>
       <c r="C161" s="14"/>
       <c r="D161" s="7" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -12365,7 +12412,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="14"/>
       <c r="D162" s="7" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -12373,7 +12420,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="14"/>
       <c r="D163" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -12381,7 +12428,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="14"/>
       <c r="D164" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -12389,7 +12436,7 @@
       <c r="B165" s="5"/>
       <c r="C165" s="14"/>
       <c r="D165" s="7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -12397,7 +12444,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="14"/>
       <c r="D166" s="7" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -12405,7 +12452,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="14"/>
       <c r="D167" s="7" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -12413,7 +12460,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="14"/>
       <c r="D168" s="7" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -12421,7 +12468,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="14"/>
       <c r="D169" s="7" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -12429,7 +12476,7 @@
       <c r="B170" s="5"/>
       <c r="C170" s="14"/>
       <c r="D170" s="7" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -12437,7 +12484,7 @@
       <c r="B171" s="5"/>
       <c r="C171" s="14"/>
       <c r="D171" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -12445,7 +12492,7 @@
       <c r="B172" s="5"/>
       <c r="C172" s="14"/>
       <c r="D172" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -12453,7 +12500,7 @@
       <c r="B173" s="5"/>
       <c r="C173" s="14"/>
       <c r="D173" s="7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -12461,7 +12508,7 @@
       <c r="B174" s="5"/>
       <c r="C174" s="14"/>
       <c r="D174" s="7" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -12469,39 +12516,39 @@
       <c r="B175" s="5"/>
       <c r="C175" s="14"/>
       <c r="D175" s="7" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="14"/>
-      <c r="D176" s="7" t="s">
-        <v>842</v>
+      <c r="D176" s="1" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="14"/>
-      <c r="D177" s="7" t="s">
-        <v>843</v>
+      <c r="D177" s="1" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="14"/>
-      <c r="D178" s="1" t="s">
-        <v>834</v>
+      <c r="D178" s="7" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="14"/>
-      <c r="D179" s="1" t="s">
-        <v>835</v>
+      <c r="D179" s="7" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -12509,7 +12556,7 @@
       <c r="B180" s="5"/>
       <c r="C180" s="14"/>
       <c r="D180" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -12517,23 +12564,23 @@
       <c r="B181" s="5"/>
       <c r="C181" s="14"/>
       <c r="D181" s="7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="14"/>
-      <c r="D182" s="7" t="s">
-        <v>838</v>
+      <c r="D182" s="1" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="14"/>
-      <c r="D183" s="7" t="s">
-        <v>839</v>
+      <c r="D183" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -12541,7 +12588,7 @@
       <c r="B184" s="5"/>
       <c r="C184" s="14"/>
       <c r="D184" s="1" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -12549,23 +12596,23 @@
       <c r="B185" s="5"/>
       <c r="C185" s="14"/>
       <c r="D185" s="1" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="14"/>
-      <c r="D186" s="1" t="s">
-        <v>834</v>
+      <c r="D186" s="7" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="14"/>
-      <c r="D187" s="1" t="s">
-        <v>835</v>
+      <c r="D187" s="7" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -12573,7 +12620,7 @@
       <c r="B188" s="5"/>
       <c r="C188" s="14"/>
       <c r="D188" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -12581,23 +12628,23 @@
       <c r="B189" s="5"/>
       <c r="C189" s="14"/>
       <c r="D189" s="7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="14"/>
-      <c r="D190" s="7" t="s">
-        <v>838</v>
+      <c r="D190" s="1" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="14"/>
-      <c r="D191" s="7" t="s">
-        <v>839</v>
+      <c r="D191" s="1" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -12605,7 +12652,7 @@
       <c r="B192" s="5"/>
       <c r="C192" s="14"/>
       <c r="D192" s="1" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -12613,23 +12660,23 @@
       <c r="B193" s="5"/>
       <c r="C193" s="14"/>
       <c r="D193" s="1" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="14"/>
-      <c r="D194" s="1" t="s">
-        <v>834</v>
+      <c r="D194" s="7" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="14"/>
-      <c r="D195" s="1" t="s">
-        <v>835</v>
+      <c r="D195" s="7" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -12637,7 +12684,7 @@
       <c r="B196" s="5"/>
       <c r="C196" s="14"/>
       <c r="D196" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -12645,42 +12692,266 @@
       <c r="B197" s="5"/>
       <c r="C197" s="14"/>
       <c r="D197" s="7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="14"/>
-      <c r="D198" s="7" t="s">
-        <v>838</v>
+      <c r="D198" s="1" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="14"/>
-      <c r="D199" s="7" t="s">
+      <c r="D199" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="4"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="4"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="4"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="4"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="4"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="4"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="7" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="200" ht="18" spans="1:4">
-      <c r="A200" s="4"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
+    <row r="206" spans="1:4">
+      <c r="A206" s="4"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="4"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="4"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="7" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="4"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="4"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="4"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="14"/>
+      <c r="D211" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="212" ht="9" customHeight="1" spans="1:4">
+      <c r="A212" s="4"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+    </row>
+    <row r="213" ht="24.75" spans="2:4">
+      <c r="B213" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" ht="18" spans="1:4">
+      <c r="A214" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="4"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="4"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="4"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="14"/>
+      <c r="D217" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="4"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="14"/>
+      <c r="D218" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="4"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" spans="1:4">
+      <c r="A220" s="4"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="13"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="4"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="4"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="4"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="14"/>
+      <c r="D223" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="4"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="4"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="4"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="227" ht="10" customHeight="1" spans="1:4">
+      <c r="A227" s="4"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="34">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B213:D213"/>
     <mergeCell ref="A3:A60"/>
     <mergeCell ref="A62:A111"/>
-    <mergeCell ref="A113:A200"/>
+    <mergeCell ref="A113:A212"/>
+    <mergeCell ref="A214:A227"/>
     <mergeCell ref="B3:B59"/>
     <mergeCell ref="B62:B110"/>
-    <mergeCell ref="B113:B199"/>
+    <mergeCell ref="B113:B211"/>
+    <mergeCell ref="B214:B226"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C15:C19"/>
@@ -12696,11 +12967,13 @@
     <mergeCell ref="C85:C90"/>
     <mergeCell ref="C92:C99"/>
     <mergeCell ref="C101:C110"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="C119:C131"/>
-    <mergeCell ref="C133:C144"/>
-    <mergeCell ref="C146:C156"/>
-    <mergeCell ref="C158:C199"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C117:C129"/>
+    <mergeCell ref="C131:C142"/>
+    <mergeCell ref="C144:C154"/>
+    <mergeCell ref="C156:C211"/>
+    <mergeCell ref="C215:C219"/>
+    <mergeCell ref="C221:C226"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="879">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -2319,12 +2319,6 @@
     <t>6. Big Theta</t>
   </si>
   <si>
-    <t>Duration(hrs.)</t>
-  </si>
-  <si>
-    <t>40 days</t>
-  </si>
-  <si>
     <t>Day 11</t>
   </si>
   <si>
@@ -2796,7 +2790,7 @@
     <t>2. JSP Fundamentals</t>
   </si>
   <si>
-    <t>2. Demo: Creating First JSP Page - Hello World</t>
+    <t>2. Assisted Practice: Creating First JSP Page - Hello World</t>
   </si>
   <si>
     <t>3. Expression Tag</t>
@@ -2806,6 +2800,57 @@
   </si>
   <si>
     <t>5. Scriptlet Tag</t>
+  </si>
+  <si>
+    <t>3. Working with Directives</t>
+  </si>
+  <si>
+    <t>2. @page Directive</t>
+  </si>
+  <si>
+    <t>3. Assisted Practice: @page Directive</t>
+  </si>
+  <si>
+    <t>4. @include Directive</t>
+  </si>
+  <si>
+    <t>5. @taglib Directive</t>
+  </si>
+  <si>
+    <t>4. Using the Request and Server Context through Built-in Objects</t>
+  </si>
+  <si>
+    <t>2. Request</t>
+  </si>
+  <si>
+    <t>3. Response</t>
+  </si>
+  <si>
+    <t>4. Out</t>
+  </si>
+  <si>
+    <t>5. PageContext</t>
+  </si>
+  <si>
+    <t>6. Session</t>
+  </si>
+  <si>
+    <t>7. Application</t>
+  </si>
+  <si>
+    <t>8. Config</t>
+  </si>
+  <si>
+    <t>9. Assisted Practice: Extending Virtual Training Company Application Using Built-in Objects</t>
+  </si>
+  <si>
+    <t>5. Handling Exceptions in JSP</t>
+  </si>
+  <si>
+    <t>2. Assisted Practice: Handling Exceptions in JSP</t>
+  </si>
+  <si>
+    <t>3. Summary</t>
   </si>
 </sst>
 </file>
@@ -2813,10 +2858,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2920,15 +2965,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2944,14 +2980,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2966,9 +3018,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2976,9 +3034,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2992,7 +3057,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3007,58 +3103,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3127,13 +3172,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3151,73 +3310,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3235,61 +3340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3301,13 +3352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3351,46 +3396,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3413,23 +3429,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3448,10 +3473,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3469,131 +3514,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11076,25 +11121,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D231" sqref="D231"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="44.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.1428571428571" style="1" customWidth="1"/>
     <col min="4" max="4" width="87.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.2857142857143" style="1"/>
+    <col min="5" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
+    <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11107,16 +11151,10 @@
       <c r="D1" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>702</v>
-      </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -11148,7 +11186,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
@@ -11156,7 +11194,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:4">
@@ -11164,7 +11202,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
@@ -11185,7 +11223,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>342</v>
@@ -11196,7 +11234,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:4">
@@ -11204,7 +11242,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:4">
@@ -11212,7 +11250,7 @@
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:4">
@@ -11225,7 +11263,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>342</v>
@@ -11236,7 +11274,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" customFormat="1" customHeight="1" spans="1:4">
@@ -11244,7 +11282,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="18" customFormat="1" customHeight="1" spans="1:4">
@@ -11252,7 +11290,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="1:4">
@@ -11273,7 +11311,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>342</v>
@@ -11284,7 +11322,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" customFormat="1" customHeight="1" spans="1:4">
@@ -11292,7 +11330,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" customFormat="1" customHeight="1" spans="1:4">
@@ -11300,7 +11338,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" customFormat="1" customHeight="1" spans="1:4">
@@ -11308,7 +11346,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" customFormat="1" customHeight="1" spans="1:4">
@@ -11316,7 +11354,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" customFormat="1" customHeight="1" spans="1:4">
@@ -11324,7 +11362,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" customFormat="1" customHeight="1" spans="1:4">
@@ -11332,7 +11370,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29" customFormat="1" customHeight="1" spans="1:4">
@@ -11345,7 +11383,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>342</v>
@@ -11356,7 +11394,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" customFormat="1" customHeight="1" spans="1:4">
@@ -11364,7 +11402,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" customFormat="1" customHeight="1" spans="1:4">
@@ -11372,7 +11410,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="1:4">
@@ -11393,7 +11431,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>342</v>
@@ -11404,7 +11442,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="38" customFormat="1" customHeight="1" spans="1:4">
@@ -11412,7 +11450,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" customFormat="1" customHeight="1" spans="1:4">
@@ -11420,7 +11458,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" customFormat="1" customHeight="1" spans="1:4">
@@ -11435,7 +11473,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>342</v>
@@ -11446,7 +11484,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11454,7 +11492,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -11462,7 +11500,7 @@
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -11470,7 +11508,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -11478,7 +11516,7 @@
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -11486,7 +11524,7 @@
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -11494,7 +11532,7 @@
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="49" ht="18" spans="1:4">
@@ -11507,7 +11545,7 @@
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>342</v>
@@ -11518,7 +11556,7 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -11526,7 +11564,7 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -11534,7 +11572,7 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="1:4">
@@ -11547,7 +11585,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>342</v>
@@ -11558,7 +11596,7 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -11566,7 +11604,7 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -11574,7 +11612,7 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -11593,7 +11631,7 @@
     </row>
     <row r="61" ht="24.75" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -11603,7 +11641,7 @@
         <v>14</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>462</v>
@@ -11622,7 +11660,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="14" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>342</v>
@@ -11633,7 +11671,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="14"/>
       <c r="D65" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -11641,7 +11679,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="14"/>
       <c r="D66" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11649,7 +11687,7 @@
       <c r="B67" s="5"/>
       <c r="C67" s="14"/>
       <c r="D67" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="68" ht="18" spans="1:4">
@@ -11662,7 +11700,7 @@
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="14" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>342</v>
@@ -11673,7 +11711,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="14"/>
       <c r="D70" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -11681,7 +11719,7 @@
       <c r="B71" s="5"/>
       <c r="C71" s="14"/>
       <c r="D71" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -11689,7 +11727,7 @@
       <c r="B72" s="5"/>
       <c r="C72" s="14"/>
       <c r="D72" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -11697,7 +11735,7 @@
       <c r="B73" s="5"/>
       <c r="C73" s="14"/>
       <c r="D73" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -11705,7 +11743,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="14"/>
       <c r="D74" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75" ht="18" spans="1:4">
@@ -11718,7 +11756,7 @@
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="14" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>342</v>
@@ -11729,7 +11767,7 @@
       <c r="B77" s="5"/>
       <c r="C77" s="14"/>
       <c r="D77" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -11737,7 +11775,7 @@
       <c r="B78" s="5"/>
       <c r="C78" s="14"/>
       <c r="D78" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -11745,7 +11783,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="14"/>
       <c r="D79" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -11753,7 +11791,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="14"/>
       <c r="D80" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -11761,7 +11799,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="14"/>
       <c r="D81" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -11769,7 +11807,7 @@
       <c r="B82" s="5"/>
       <c r="C82" s="14"/>
       <c r="D82" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="1:4">
@@ -11790,7 +11828,7 @@
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="14" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>342</v>
@@ -11801,7 +11839,7 @@
       <c r="B86" s="5"/>
       <c r="C86" s="14"/>
       <c r="D86" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -11809,7 +11847,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="14"/>
       <c r="D87" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -11817,7 +11855,7 @@
       <c r="B88" s="5"/>
       <c r="C88" s="14"/>
       <c r="D88" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -11825,7 +11863,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="14"/>
       <c r="D89" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="90" ht="12" customHeight="1" spans="1:4">
@@ -11833,7 +11871,7 @@
       <c r="B90" s="5"/>
       <c r="C90" s="14"/>
       <c r="D90" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" ht="12" customHeight="1" spans="1:4">
@@ -11846,7 +11884,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="14" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>342</v>
@@ -11857,7 +11895,7 @@
       <c r="B93" s="5"/>
       <c r="C93" s="14"/>
       <c r="D93" s="7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -11865,7 +11903,7 @@
       <c r="B94" s="5"/>
       <c r="C94" s="14"/>
       <c r="D94" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11873,7 +11911,7 @@
       <c r="B95" s="5"/>
       <c r="C95" s="14"/>
       <c r="D95" s="7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -11881,7 +11919,7 @@
       <c r="B96" s="5"/>
       <c r="C96" s="14"/>
       <c r="D96" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -11889,7 +11927,7 @@
       <c r="B97" s="5"/>
       <c r="C97" s="14"/>
       <c r="D97" s="7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -11897,7 +11935,7 @@
       <c r="B98" s="5"/>
       <c r="C98" s="14"/>
       <c r="D98" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -11905,7 +11943,7 @@
       <c r="B99" s="5"/>
       <c r="C99" s="14"/>
       <c r="D99" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="1" spans="1:4">
@@ -11918,7 +11956,7 @@
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="14" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>554</v>
@@ -11929,7 +11967,7 @@
       <c r="B102" s="5"/>
       <c r="C102" s="14"/>
       <c r="D102" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -11937,7 +11975,7 @@
       <c r="B103" s="5"/>
       <c r="C103" s="14"/>
       <c r="D103" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -11945,7 +11983,7 @@
       <c r="B104" s="5"/>
       <c r="C104" s="14"/>
       <c r="D104" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -11953,7 +11991,7 @@
       <c r="B105" s="5"/>
       <c r="C105" s="14"/>
       <c r="D105" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -11961,7 +11999,7 @@
       <c r="B106" s="5"/>
       <c r="C106" s="14"/>
       <c r="D106" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -11969,7 +12007,7 @@
       <c r="B107" s="5"/>
       <c r="C107" s="14"/>
       <c r="D107" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -11977,7 +12015,7 @@
       <c r="B108" s="5"/>
       <c r="C108" s="14"/>
       <c r="D108" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -11985,7 +12023,7 @@
       <c r="B109" s="5"/>
       <c r="C109" s="14"/>
       <c r="D109" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -12004,7 +12042,7 @@
     </row>
     <row r="112" ht="24.75" spans="2:4">
       <c r="B112" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -12014,13 +12052,13 @@
         <v>30</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>786</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -12028,7 +12066,7 @@
       <c r="B114" s="5"/>
       <c r="C114" s="14"/>
       <c r="D114" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -12036,7 +12074,7 @@
       <c r="B115" s="5"/>
       <c r="C115" s="14"/>
       <c r="D115" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="116" ht="18" spans="1:4">
@@ -12049,10 +12087,10 @@
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -12060,7 +12098,7 @@
       <c r="B118" s="5"/>
       <c r="C118" s="14"/>
       <c r="D118" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -12068,7 +12106,7 @@
       <c r="B119" s="5"/>
       <c r="C119" s="14"/>
       <c r="D119" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -12076,7 +12114,7 @@
       <c r="B120" s="5"/>
       <c r="C120" s="14"/>
       <c r="D120" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -12084,7 +12122,7 @@
       <c r="B121" s="5"/>
       <c r="C121" s="14"/>
       <c r="D121" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -12092,7 +12130,7 @@
       <c r="B122" s="5"/>
       <c r="C122" s="14"/>
       <c r="D122" s="7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -12100,7 +12138,7 @@
       <c r="B123" s="5"/>
       <c r="C123" s="14"/>
       <c r="D123" s="7" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -12108,7 +12146,7 @@
       <c r="B124" s="5"/>
       <c r="C124" s="14"/>
       <c r="D124" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -12116,7 +12154,7 @@
       <c r="B125" s="5"/>
       <c r="C125" s="14"/>
       <c r="D125" s="7" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -12124,7 +12162,7 @@
       <c r="B126" s="5"/>
       <c r="C126" s="14"/>
       <c r="D126" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -12132,7 +12170,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="14"/>
       <c r="D127" s="7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -12140,7 +12178,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="14"/>
       <c r="D128" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -12148,7 +12186,7 @@
       <c r="B129" s="5"/>
       <c r="C129" s="14"/>
       <c r="D129" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="130" ht="15.75" spans="1:4">
@@ -12161,10 +12199,10 @@
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -12172,7 +12210,7 @@
       <c r="B132" s="5"/>
       <c r="C132" s="14"/>
       <c r="D132" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -12180,7 +12218,7 @@
       <c r="B133" s="5"/>
       <c r="C133" s="14"/>
       <c r="D133" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -12188,7 +12226,7 @@
       <c r="B134" s="5"/>
       <c r="C134" s="14"/>
       <c r="D134" s="7" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -12196,7 +12234,7 @@
       <c r="B135" s="5"/>
       <c r="C135" s="14"/>
       <c r="D135" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -12204,7 +12242,7 @@
       <c r="B136" s="5"/>
       <c r="C136" s="14"/>
       <c r="D136" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -12212,7 +12250,7 @@
       <c r="B137" s="5"/>
       <c r="C137" s="14"/>
       <c r="D137" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -12220,7 +12258,7 @@
       <c r="B138" s="5"/>
       <c r="C138" s="14"/>
       <c r="D138" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -12228,7 +12266,7 @@
       <c r="B139" s="5"/>
       <c r="C139" s="14"/>
       <c r="D139" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -12236,7 +12274,7 @@
       <c r="B140" s="5"/>
       <c r="C140" s="14"/>
       <c r="D140" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -12244,7 +12282,7 @@
       <c r="B141" s="5"/>
       <c r="C141" s="14"/>
       <c r="D141" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -12252,7 +12290,7 @@
       <c r="B142" s="5"/>
       <c r="C142" s="14"/>
       <c r="D142" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="143" ht="18" spans="1:4">
@@ -12265,10 +12303,10 @@
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -12276,7 +12314,7 @@
       <c r="B145" s="5"/>
       <c r="C145" s="14"/>
       <c r="D145" s="7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -12284,7 +12322,7 @@
       <c r="B146" s="5"/>
       <c r="C146" s="14"/>
       <c r="D146" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -12292,7 +12330,7 @@
       <c r="B147" s="5"/>
       <c r="C147" s="14"/>
       <c r="D147" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -12300,7 +12338,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="14"/>
       <c r="D148" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -12308,7 +12346,7 @@
       <c r="B149" s="5"/>
       <c r="C149" s="14"/>
       <c r="D149" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -12316,7 +12354,7 @@
       <c r="B150" s="5"/>
       <c r="C150" s="14"/>
       <c r="D150" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -12324,7 +12362,7 @@
       <c r="B151" s="5"/>
       <c r="C151" s="14"/>
       <c r="D151" s="13" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -12332,7 +12370,7 @@
       <c r="B152" s="5"/>
       <c r="C152" s="14"/>
       <c r="D152" s="7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -12340,7 +12378,7 @@
       <c r="B153" s="5"/>
       <c r="C153" s="14"/>
       <c r="D153" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -12348,7 +12386,7 @@
       <c r="B154" s="5"/>
       <c r="C154" s="14"/>
       <c r="D154" s="7" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="155" ht="18" spans="1:4">
@@ -12361,10 +12399,10 @@
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -12372,7 +12410,7 @@
       <c r="B157" s="5"/>
       <c r="C157" s="14"/>
       <c r="D157" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -12380,7 +12418,7 @@
       <c r="B158" s="5"/>
       <c r="C158" s="14"/>
       <c r="D158" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -12388,7 +12426,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="14"/>
       <c r="D159" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -12396,7 +12434,7 @@
       <c r="B160" s="5"/>
       <c r="C160" s="14"/>
       <c r="D160" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -12404,7 +12442,7 @@
       <c r="B161" s="5"/>
       <c r="C161" s="14"/>
       <c r="D161" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -12412,7 +12450,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="14"/>
       <c r="D162" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -12420,7 +12458,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="14"/>
       <c r="D163" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -12428,7 +12466,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="14"/>
       <c r="D164" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -12436,7 +12474,7 @@
       <c r="B165" s="5"/>
       <c r="C165" s="14"/>
       <c r="D165" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -12444,7 +12482,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="14"/>
       <c r="D166" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -12452,7 +12490,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="14"/>
       <c r="D167" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -12460,7 +12498,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="14"/>
       <c r="D168" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -12468,7 +12506,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="14"/>
       <c r="D169" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -12476,7 +12514,7 @@
       <c r="B170" s="5"/>
       <c r="C170" s="14"/>
       <c r="D170" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -12484,7 +12522,7 @@
       <c r="B171" s="5"/>
       <c r="C171" s="14"/>
       <c r="D171" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -12492,7 +12530,7 @@
       <c r="B172" s="5"/>
       <c r="C172" s="14"/>
       <c r="D172" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -12500,7 +12538,7 @@
       <c r="B173" s="5"/>
       <c r="C173" s="14"/>
       <c r="D173" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -12508,7 +12546,7 @@
       <c r="B174" s="5"/>
       <c r="C174" s="14"/>
       <c r="D174" s="7" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -12516,7 +12554,7 @@
       <c r="B175" s="5"/>
       <c r="C175" s="14"/>
       <c r="D175" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -12524,7 +12562,7 @@
       <c r="B176" s="5"/>
       <c r="C176" s="14"/>
       <c r="D176" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -12532,7 +12570,7 @@
       <c r="B177" s="5"/>
       <c r="C177" s="14"/>
       <c r="D177" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -12540,7 +12578,7 @@
       <c r="B178" s="5"/>
       <c r="C178" s="14"/>
       <c r="D178" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -12548,7 +12586,7 @@
       <c r="B179" s="5"/>
       <c r="C179" s="14"/>
       <c r="D179" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -12556,7 +12594,7 @@
       <c r="B180" s="5"/>
       <c r="C180" s="14"/>
       <c r="D180" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -12564,7 +12602,7 @@
       <c r="B181" s="5"/>
       <c r="C181" s="14"/>
       <c r="D181" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -12572,7 +12610,7 @@
       <c r="B182" s="5"/>
       <c r="C182" s="14"/>
       <c r="D182" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -12580,7 +12618,7 @@
       <c r="B183" s="5"/>
       <c r="C183" s="14"/>
       <c r="D183" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -12588,7 +12626,7 @@
       <c r="B184" s="5"/>
       <c r="C184" s="14"/>
       <c r="D184" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -12596,7 +12634,7 @@
       <c r="B185" s="5"/>
       <c r="C185" s="14"/>
       <c r="D185" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -12604,7 +12642,7 @@
       <c r="B186" s="5"/>
       <c r="C186" s="14"/>
       <c r="D186" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -12612,7 +12650,7 @@
       <c r="B187" s="5"/>
       <c r="C187" s="14"/>
       <c r="D187" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -12620,7 +12658,7 @@
       <c r="B188" s="5"/>
       <c r="C188" s="14"/>
       <c r="D188" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -12628,7 +12666,7 @@
       <c r="B189" s="5"/>
       <c r="C189" s="14"/>
       <c r="D189" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -12636,7 +12674,7 @@
       <c r="B190" s="5"/>
       <c r="C190" s="14"/>
       <c r="D190" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -12644,7 +12682,7 @@
       <c r="B191" s="5"/>
       <c r="C191" s="14"/>
       <c r="D191" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -12652,7 +12690,7 @@
       <c r="B192" s="5"/>
       <c r="C192" s="14"/>
       <c r="D192" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -12660,7 +12698,7 @@
       <c r="B193" s="5"/>
       <c r="C193" s="14"/>
       <c r="D193" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -12668,7 +12706,7 @@
       <c r="B194" s="5"/>
       <c r="C194" s="14"/>
       <c r="D194" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -12676,7 +12714,7 @@
       <c r="B195" s="5"/>
       <c r="C195" s="14"/>
       <c r="D195" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -12684,7 +12722,7 @@
       <c r="B196" s="5"/>
       <c r="C196" s="14"/>
       <c r="D196" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -12692,7 +12730,7 @@
       <c r="B197" s="5"/>
       <c r="C197" s="14"/>
       <c r="D197" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -12700,7 +12738,7 @@
       <c r="B198" s="5"/>
       <c r="C198" s="14"/>
       <c r="D198" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -12708,7 +12746,7 @@
       <c r="B199" s="5"/>
       <c r="C199" s="14"/>
       <c r="D199" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -12716,7 +12754,7 @@
       <c r="B200" s="5"/>
       <c r="C200" s="14"/>
       <c r="D200" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -12724,7 +12762,7 @@
       <c r="B201" s="5"/>
       <c r="C201" s="14"/>
       <c r="D201" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -12732,7 +12770,7 @@
       <c r="B202" s="5"/>
       <c r="C202" s="14"/>
       <c r="D202" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -12740,7 +12778,7 @@
       <c r="B203" s="5"/>
       <c r="C203" s="14"/>
       <c r="D203" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -12748,7 +12786,7 @@
       <c r="B204" s="5"/>
       <c r="C204" s="14"/>
       <c r="D204" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -12756,7 +12794,7 @@
       <c r="B205" s="5"/>
       <c r="C205" s="14"/>
       <c r="D205" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -12764,7 +12802,7 @@
       <c r="B206" s="5"/>
       <c r="C206" s="14"/>
       <c r="D206" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -12772,7 +12810,7 @@
       <c r="B207" s="5"/>
       <c r="C207" s="14"/>
       <c r="D207" s="7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -12780,7 +12818,7 @@
       <c r="B208" s="5"/>
       <c r="C208" s="14"/>
       <c r="D208" s="7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -12788,7 +12826,7 @@
       <c r="B209" s="5"/>
       <c r="C209" s="14"/>
       <c r="D209" s="7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -12796,7 +12834,7 @@
       <c r="B210" s="5"/>
       <c r="C210" s="14"/>
       <c r="D210" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -12804,7 +12842,7 @@
       <c r="B211" s="5"/>
       <c r="C211" s="14"/>
       <c r="D211" s="7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="212" ht="9" customHeight="1" spans="1:4">
@@ -12815,7 +12853,7 @@
     </row>
     <row r="213" ht="24.75" spans="2:4">
       <c r="B213" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -12825,13 +12863,13 @@
         <v>50</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C214" s="14" t="s">
         <v>548</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>462</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -12849,7 +12887,7 @@
       <c r="B216" s="5"/>
       <c r="C216" s="14"/>
       <c r="D216" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -12857,7 +12895,7 @@
       <c r="B217" s="5"/>
       <c r="C217" s="14"/>
       <c r="D217" s="7" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -12865,7 +12903,7 @@
       <c r="B218" s="5"/>
       <c r="C218" s="14"/>
       <c r="D218" s="7" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -12886,7 +12924,7 @@
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="14" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>342</v>
@@ -12897,7 +12935,7 @@
       <c r="B222" s="5"/>
       <c r="C222" s="14"/>
       <c r="D222" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -12905,7 +12943,7 @@
       <c r="B223" s="5"/>
       <c r="C223" s="14"/>
       <c r="D223" s="7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -12913,7 +12951,7 @@
       <c r="B224" s="5"/>
       <c r="C224" s="14"/>
       <c r="D224" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -12921,7 +12959,7 @@
       <c r="B225" s="5"/>
       <c r="C225" s="14"/>
       <c r="D225" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -12929,17 +12967,193 @@
       <c r="B226" s="5"/>
       <c r="C226" s="14"/>
       <c r="D226" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="227" ht="10" customHeight="1" spans="1:4">
       <c r="A227" s="4"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="7"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="4"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="4"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="4"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="4"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="16" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="4"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="234" ht="18" spans="1:4">
+      <c r="A234" s="4"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="7"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="4"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="D235" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="4"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="16" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="4"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="16" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="4"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="16" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="16" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="4"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="16" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="4"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="16" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="4"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="16" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="4"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="16" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="4"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="245" ht="18" spans="1:4">
+      <c r="A245" s="4"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="16"/>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="4"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="D246" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="4"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="16" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="4"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="16" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="249" ht="9" customHeight="1" spans="1:4">
+      <c r="A249" s="4"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B112:D112"/>
@@ -12947,11 +13161,11 @@
     <mergeCell ref="A3:A60"/>
     <mergeCell ref="A62:A111"/>
     <mergeCell ref="A113:A212"/>
-    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="A214:A249"/>
     <mergeCell ref="B3:B59"/>
     <mergeCell ref="B62:B110"/>
     <mergeCell ref="B113:B211"/>
-    <mergeCell ref="B214:B226"/>
+    <mergeCell ref="B214:B248"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C15:C19"/>
@@ -12974,6 +13188,9 @@
     <mergeCell ref="C156:C211"/>
     <mergeCell ref="C215:C219"/>
     <mergeCell ref="C221:C226"/>
+    <mergeCell ref="C228:C233"/>
+    <mergeCell ref="C235:C244"/>
+    <mergeCell ref="C246:C248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
     <sheet name="Core Java" sheetId="2" r:id="rId2"/>
     <sheet name="Web Development and Database" sheetId="3" r:id="rId3"/>
     <sheet name="Spring" sheetId="4" r:id="rId4"/>
+    <sheet name="UI" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1338">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -2932,7 +2933,7 @@
     <t>4. Assisted Practice: Session Handling with Cookies</t>
   </si>
   <si>
-    <t>Day 18</t>
+    <t>Day 18-19</t>
   </si>
   <si>
     <t>Spring Framework:                           Spring Fundamentals</t>
@@ -3157,7 +3158,7 @@
     <t>5. Assisted Practice: Spring Custom Events</t>
   </si>
   <si>
-    <t>Day 19</t>
+    <t>Day 20-21</t>
   </si>
   <si>
     <t>Spring Framework:                           Spring MVC</t>
@@ -3295,7 +3296,7 @@
     <t>6. Assisted Practice: jQuery Integration</t>
   </si>
   <si>
-    <t>Day 20</t>
+    <t>Day 22</t>
   </si>
   <si>
     <t>Spring REST</t>
@@ -3328,7 +3329,7 @@
     <t>3. Validation API</t>
   </si>
   <si>
-    <t>Day 21</t>
+    <t>Day 23</t>
   </si>
   <si>
     <t>Spring JDBC</t>
@@ -3427,7 +3428,25 @@
     <t>11. Read SimpleJdbcInsert Assisted Practice</t>
   </si>
   <si>
-    <t>Day 22</t>
+    <t>7. Exceptions and Transactions</t>
+  </si>
+  <si>
+    <t>2. Overview</t>
+  </si>
+  <si>
+    <t>3. Demo Outline</t>
+  </si>
+  <si>
+    <t>4. Handling Exceptions Demo</t>
+  </si>
+  <si>
+    <t>5. Transactions</t>
+  </si>
+  <si>
+    <t>6. Transactions Demo</t>
+  </si>
+  <si>
+    <t>Day 24-25</t>
   </si>
   <si>
     <t>File Handling in Spring Boot</t>
@@ -3577,7 +3596,7 @@
     <t>6. Redirect HTTP requests to HTTPS</t>
   </si>
   <si>
-    <t>Day 23</t>
+    <t>Day 26-27</t>
   </si>
   <si>
     <t>JUnit 5 Testing</t>
@@ -3694,7 +3713,7 @@
     <t>4. Rule Support in JUnit 5</t>
   </si>
   <si>
-    <t>Day 24</t>
+    <t>Day 28</t>
   </si>
   <si>
     <t>1. SOAP Web Services</t>
@@ -4301,16 +4320,220 @@
       <t>Summary</t>
     </r>
   </si>
+  <si>
+    <t>Day 29</t>
+  </si>
+  <si>
+    <t>2. Introduction and Setting up Bootstrap</t>
+  </si>
+  <si>
+    <t>2. Using the Bootstrap CDN</t>
+  </si>
+  <si>
+    <t>3. Other Ways of Installing Bootstrap</t>
+  </si>
+  <si>
+    <t>4. Bootstrap Themes</t>
+  </si>
+  <si>
+    <t>3. Graphic Design and Responsive Layout</t>
+  </si>
+  <si>
+    <t>2. The Four Principles of Graphic Design</t>
+  </si>
+  <si>
+    <t>3. Background Colors</t>
+  </si>
+  <si>
+    <t>4. Containers and Rows</t>
+  </si>
+  <si>
+    <t>5. Media Breakpoints</t>
+  </si>
+  <si>
+    <t>6. The Grid System</t>
+  </si>
+  <si>
+    <t>7. Alignment and Offsets</t>
+  </si>
+  <si>
+    <t>8. Padding, Display, and Margins</t>
+  </si>
+  <si>
+    <t>9. Flexible Box</t>
+  </si>
+  <si>
+    <t>4. Bootstrap Navigation</t>
+  </si>
+  <si>
+    <t>2. Adding the Precoded Navbar</t>
+  </si>
+  <si>
+    <t>3. Hand Coding the Navbar</t>
+  </si>
+  <si>
+    <t>4. Navbar A.R.I.A. and data- Definitions</t>
+  </si>
+  <si>
+    <t>5. Navbar with a Dropdown</t>
+  </si>
+  <si>
+    <t>6. Other Navigation</t>
+  </si>
+  <si>
+    <t>7. Navbar Colors</t>
+  </si>
+  <si>
+    <t>8. Navbar with a Search Box</t>
+  </si>
+  <si>
+    <t>9. Breadcrumbs</t>
+  </si>
+  <si>
+    <t>10. Pagination</t>
+  </si>
+  <si>
+    <t>11. Animated Scroll</t>
+  </si>
+  <si>
+    <t>5. Adding Content with Typography</t>
+  </si>
+  <si>
+    <t>2. Headline Tags</t>
+  </si>
+  <si>
+    <t>3. Text Colors</t>
+  </si>
+  <si>
+    <t>4. Paragraphs and Blockquotes</t>
+  </si>
+  <si>
+    <t>5. Inline Tags</t>
+  </si>
+  <si>
+    <t>6. Lists</t>
+  </si>
+  <si>
+    <t>7. List-groups with JavaScript Behaviors</t>
+  </si>
+  <si>
+    <t>8. Responsive Floats</t>
+  </si>
+  <si>
+    <t>9. Fixed Elements and Justified Type</t>
+  </si>
+  <si>
+    <t>6. Buttons</t>
+  </si>
+  <si>
+    <t>2. Buttons with Color</t>
+  </si>
+  <si>
+    <t>3. Outlined Buttons with Color</t>
+  </si>
+  <si>
+    <t>4. Making Buttons with Other Tags</t>
+  </si>
+  <si>
+    <t>5. Button Groups</t>
+  </si>
+  <si>
+    <t>6. Button Groups with Drop Down Menus</t>
+  </si>
+  <si>
+    <t>7. Radio and Checkbox Buttons</t>
+  </si>
+  <si>
+    <t>8. Button Toolbars</t>
+  </si>
+  <si>
+    <t>9. Alerts</t>
+  </si>
+  <si>
+    <t>10. Badges</t>
+  </si>
+  <si>
+    <t>7. Images, Tables, and Cards</t>
+  </si>
+  <si>
+    <t>2. Images</t>
+  </si>
+  <si>
+    <t>3. Image Figures</t>
+  </si>
+  <si>
+    <t>4. Font Awesome</t>
+  </si>
+  <si>
+    <t>5. Cards</t>
+  </si>
+  <si>
+    <t>6. Cards with Colors and Shadows</t>
+  </si>
+  <si>
+    <t>7. Card Decks and Groups</t>
+  </si>
+  <si>
+    <t>8. Card Columns</t>
+  </si>
+  <si>
+    <t>9. Tables</t>
+  </si>
+  <si>
+    <t>10. Borders</t>
+  </si>
+  <si>
+    <t>11. Media Objects</t>
+  </si>
+  <si>
+    <t>8. Forms with Bootstrap</t>
+  </si>
+  <si>
+    <t>2.Setting up Your HTML Form</t>
+  </si>
+  <si>
+    <t>3. Styling Your Form</t>
+  </si>
+  <si>
+    <t>4. Check Form Classes</t>
+  </si>
+  <si>
+    <t>5. Inline Forms</t>
+  </si>
+  <si>
+    <t>6. Multi-column Forms</t>
+  </si>
+  <si>
+    <t>7. Validation Classes</t>
+  </si>
+  <si>
+    <t>8. Input Groups</t>
+  </si>
+  <si>
+    <t>9. Radios, Checkboxes, and Select Menus</t>
+  </si>
+  <si>
+    <t>9. JavaScript and Bootstrap BFF</t>
+  </si>
+  <si>
+    <t>2. Popovers</t>
+  </si>
+  <si>
+    <t>3. Scrollspy</t>
+  </si>
+  <si>
+    <t>4. Progress Bars</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -4429,19 +4652,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4449,14 +4689,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4471,17 +4736,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4493,17 +4759,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4517,55 +4787,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4652,7 +4875,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4664,31 +5007,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4700,31 +5037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4736,97 +5049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4872,9 +5095,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4888,11 +5137,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4912,17 +5176,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4937,46 +5190,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4988,131 +5211,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5141,14 +5364,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5734,8 +5957,8 @@
   <sheetPr/>
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187:B205"/>
+    <sheetView topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C307" sqref="$A307:$XFD353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -8686,7 +8909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" customHeight="1" spans="1:4">
       <c r="A307" s="100" t="s">
         <v>4</v>
       </c>
@@ -9238,7 +9461,7 @@
       <c r="C3" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>323</v>
       </c>
     </row>
@@ -9246,7 +9469,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>324</v>
       </c>
     </row>
@@ -9254,7 +9477,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>325</v>
       </c>
     </row>
@@ -9262,7 +9485,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>326</v>
       </c>
     </row>
@@ -9270,7 +9493,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>327</v>
       </c>
     </row>
@@ -9278,7 +9501,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>328</v>
       </c>
     </row>
@@ -9286,7 +9509,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9294,7 +9517,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9302,7 +9525,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>331</v>
       </c>
     </row>
@@ -9498,9 +9721,9 @@
     </row>
     <row r="35" ht="9" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" ht="24.75" spans="1:4">
       <c r="A36" s="4"/>
@@ -9841,9 +10064,9 @@
     </row>
     <row r="78" ht="9" customHeight="1" spans="1:4">
       <c r="A78" s="4"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" ht="24.75" spans="1:4">
       <c r="A79" s="4"/>
@@ -10034,9 +10257,9 @@
     </row>
     <row r="102" ht="10" customHeight="1" spans="1:4">
       <c r="A102" s="4"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
     </row>
     <row r="103" ht="24.75" spans="2:4">
       <c r="B103" s="3" t="s">
@@ -10397,9 +10620,9 @@
     </row>
     <row r="147" ht="9" customHeight="1" spans="1:4">
       <c r="A147" s="4"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
     </row>
     <row r="148" ht="24.75" spans="1:4">
       <c r="A148" s="4"/>
@@ -10417,7 +10640,7 @@
       <c r="C149" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="D149" s="10" t="s">
         <v>462</v>
       </c>
     </row>
@@ -10425,7 +10648,7 @@
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="14"/>
-      <c r="D150" s="12"/>
+      <c r="D150" s="10"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4"/>
@@ -10643,9 +10866,9 @@
     </row>
     <row r="178" ht="18" spans="1:4">
       <c r="A178" s="4"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
     </row>
     <row r="179" ht="24.75" spans="1:4">
       <c r="A179" s="4"/>
@@ -10898,9 +11121,9 @@
     </row>
     <row r="210" ht="10" customHeight="1" spans="1:4">
       <c r="A210" s="4"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
     </row>
     <row r="211" ht="24.75" spans="1:4">
       <c r="A211" s="4"/>
@@ -11156,9 +11379,9 @@
     </row>
     <row r="242" ht="8" customHeight="1" spans="1:4">
       <c r="A242" s="4"/>
-      <c r="B242" s="10"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="11"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
     </row>
     <row r="243" ht="24.75" spans="2:4">
       <c r="B243" s="3" t="s">
@@ -11360,7 +11583,7 @@
       <c r="A267" s="4"/>
       <c r="B267" s="25"/>
       <c r="C267" s="14"/>
-      <c r="D267" s="12" t="s">
+      <c r="D267" s="10" t="s">
         <v>569</v>
       </c>
     </row>
@@ -11376,7 +11599,7 @@
       <c r="A269" s="4"/>
       <c r="B269" s="25"/>
       <c r="C269" s="14"/>
-      <c r="D269" s="12" t="s">
+      <c r="D269" s="10" t="s">
         <v>571</v>
       </c>
     </row>
@@ -11392,7 +11615,7 @@
       <c r="A271" s="4"/>
       <c r="B271" s="25"/>
       <c r="C271" s="14"/>
-      <c r="D271" s="12" t="s">
+      <c r="D271" s="10" t="s">
         <v>573</v>
       </c>
     </row>
@@ -11408,7 +11631,7 @@
       <c r="A273" s="4"/>
       <c r="B273" s="25"/>
       <c r="C273" s="14"/>
-      <c r="D273" s="12" t="s">
+      <c r="D273" s="10" t="s">
         <v>575</v>
       </c>
     </row>
@@ -11894,9 +12117,9 @@
     </row>
     <row r="334" ht="9" customHeight="1" spans="1:4">
       <c r="A334" s="4"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="11"/>
-      <c r="D334" s="11"/>
+      <c r="B334" s="11"/>
+      <c r="C334" s="12"/>
+      <c r="D334" s="12"/>
     </row>
     <row r="335" ht="24.75" spans="2:4">
       <c r="B335" s="3" t="s">
@@ -13109,9 +13332,9 @@
     </row>
     <row r="60" ht="9" customHeight="1" spans="1:4">
       <c r="A60" s="4"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" ht="24.75" spans="2:4">
       <c r="B61" s="3" t="s">
@@ -13130,7 +13353,7 @@
       <c r="C62" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="10" t="s">
         <v>462</v>
       </c>
     </row>
@@ -13138,7 +13361,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="17"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4"/>
@@ -13242,7 +13465,7 @@
       <c r="C76" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="10" t="s">
         <v>342</v>
       </c>
     </row>
@@ -13306,7 +13529,7 @@
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="17"/>
-      <c r="D84" s="12"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4"/>
@@ -13442,7 +13665,7 @@
       <c r="C101" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="10" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13498,7 +13721,7 @@
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="10" t="s">
         <v>780</v>
       </c>
     </row>
@@ -13520,9 +13743,9 @@
     </row>
     <row r="111" ht="9" customHeight="1" spans="1:4">
       <c r="A111" s="4"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
     </row>
     <row r="112" ht="24.75" spans="2:4">
       <c r="B112" s="3" t="s">
@@ -13629,7 +13852,7 @@
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="12" t="s">
+      <c r="D124" s="10" t="s">
         <v>796</v>
       </c>
     </row>
@@ -13677,7 +13900,7 @@
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="17"/>
-      <c r="D130" s="12"/>
+      <c r="D130" s="10"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4"/>
@@ -13789,7 +14012,7 @@
       <c r="C144" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D144" s="10" t="s">
         <v>816</v>
       </c>
     </row>
@@ -13845,7 +14068,7 @@
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="12" t="s">
+      <c r="D151" s="10" t="s">
         <v>823</v>
       </c>
     </row>
@@ -14331,9 +14554,9 @@
     </row>
     <row r="212" ht="9" customHeight="1" spans="1:4">
       <c r="A212" s="4"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
     </row>
     <row r="213" ht="24.75" spans="2:4">
       <c r="B213" s="3" t="s">
@@ -14352,7 +14575,7 @@
       <c r="C214" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D214" s="12" t="s">
+      <c r="D214" s="10" t="s">
         <v>462</v>
       </c>
     </row>
@@ -14360,7 +14583,7 @@
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="12"/>
+      <c r="D215" s="10"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="4"/>
@@ -14408,7 +14631,7 @@
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="17"/>
-      <c r="D221" s="12"/>
+      <c r="D221" s="10"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="4"/>
@@ -14900,9 +15123,9 @@
     </row>
     <row r="283" ht="9" customHeight="1" spans="1:4">
       <c r="A283" s="4"/>
-      <c r="B283" s="10"/>
-      <c r="C283" s="11"/>
-      <c r="D283" s="11"/>
+      <c r="B283" s="11"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -14956,12 +15179,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D447" sqref="D447"/>
+      <selection pane="bottomLeft" activeCell="B333" sqref="B333:D333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -15666,9 +15889,9 @@
     </row>
     <row r="86" ht="9" customHeight="1" spans="1:4">
       <c r="A86" s="4"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
     </row>
     <row r="87" ht="24.75" spans="1:4">
       <c r="A87" s="4"/>
@@ -15686,7 +15909,7 @@
       <c r="C88" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="10" t="s">
         <v>462</v>
       </c>
     </row>
@@ -15694,7 +15917,7 @@
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="12"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4"/>
@@ -16184,9 +16407,9 @@
     </row>
     <row r="151" ht="9" customHeight="1" spans="1:4">
       <c r="A151" s="4"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
     </row>
     <row r="152" ht="24.75" spans="2:4">
       <c r="B152" s="3" t="s">
@@ -16291,9 +16514,9 @@
     </row>
     <row r="164" ht="9" customHeight="1" spans="1:4">
       <c r="A164" s="4"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
     </row>
     <row r="165" ht="24.75" spans="2:4">
       <c r="B165" s="3" t="s">
@@ -16384,7 +16607,7 @@
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="17"/>
-      <c r="D175" s="12"/>
+      <c r="D175" s="10"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="4"/>
@@ -16660,95 +16883,95 @@
         <v>973</v>
       </c>
     </row>
-    <row r="210" ht="9" customHeight="1" spans="1:4">
+    <row r="210" ht="12" customHeight="1" spans="1:4">
       <c r="A210" s="4"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-    </row>
-    <row r="211" ht="24.75" spans="2:4">
-      <c r="B211" s="3" t="s">
+      <c r="B210" s="5"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" ht="12" customHeight="1" spans="1:4">
+      <c r="A211" s="4"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C212" s="6" t="s">
+      <c r="D211" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="212" ht="12" customHeight="1" spans="1:4">
+      <c r="A212" s="4"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="D212" s="7" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+    </row>
+    <row r="213" ht="12" customHeight="1" spans="1:4">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
       <c r="D213" s="7" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="214" ht="12" customHeight="1" spans="1:4">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
       <c r="D214" s="7" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="215" ht="12" customHeight="1" spans="1:4">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
       <c r="D215" s="7" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="216" ht="12" customHeight="1" spans="1:4">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
       <c r="D216" s="7" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="217" ht="12" customHeight="1" spans="1:4">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
       <c r="D217" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="218" ht="9" customHeight="1" spans="1:4">
+      <c r="A218" s="4"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+    </row>
+    <row r="219" ht="24.75" spans="2:4">
+      <c r="B219" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="4"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="7" t="s">
+      <c r="D220" s="7" t="s">
         <v>1078</v>
-      </c>
-    </row>
-    <row r="219" ht="18.75" spans="1:4">
-      <c r="A219" s="4"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="15" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="4"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="7" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -16756,7 +16979,7 @@
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
       <c r="D221" s="7" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -16764,7 +16987,7 @@
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
       <c r="D222" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -16772,7 +16995,7 @@
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
       <c r="D223" s="7" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -16780,7 +17003,7 @@
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
       <c r="D224" s="7" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -16788,7 +17011,7 @@
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
       <c r="D225" s="7" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -16796,15 +17019,15 @@
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
       <c r="D226" s="7" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="227" ht="18.75" spans="1:4">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
-      <c r="D227" s="7" t="s">
-        <v>1087</v>
+      <c r="D227" s="15" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -16812,7 +17035,7 @@
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
       <c r="D228" s="7" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -16820,23 +17043,23 @@
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
       <c r="D229" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="230" ht="15.75" spans="1:4">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="7"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="7" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="6"/>
+      <c r="D231" s="7" t="s">
         <v>1089</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -16847,20 +17070,20 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="233" ht="18" spans="1:4">
+    <row r="233" spans="1:4">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
-      <c r="C233" s="8"/>
-      <c r="D233" s="7"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="7" t="s">
+        <v>1091</v>
+      </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
-      <c r="C234" s="6" t="s">
-        <v>1091</v>
-      </c>
+      <c r="C234" s="6"/>
       <c r="D234" s="7" t="s">
-        <v>462</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -16868,15 +17091,15 @@
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
       <c r="D235" s="7" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="236" ht="30" spans="1:4">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
-      <c r="D236" s="16" t="s">
-        <v>1093</v>
+      <c r="D236" s="7" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -16884,23 +17107,23 @@
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
       <c r="D237" s="7" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" spans="1:4">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="7" t="s">
-        <v>1095</v>
-      </c>
+      <c r="C238" s="14"/>
+      <c r="D238" s="7"/>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
-      <c r="C239" s="6"/>
+      <c r="C239" s="6" t="s">
+        <v>1095</v>
+      </c>
       <c r="D239" s="7" t="s">
-        <v>1096</v>
+        <v>342</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -16908,41 +17131,39 @@
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
       <c r="D240" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="241" ht="12" customHeight="1" spans="1:4">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="241" ht="18" spans="1:4">
       <c r="A241" s="4"/>
-      <c r="B241" s="18"/>
-      <c r="C241" s="14"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="8"/>
       <c r="D241" s="7"/>
     </row>
-    <row r="242" ht="18" spans="1:4">
+    <row r="242" spans="1:4">
       <c r="A242" s="4"/>
-      <c r="B242" s="5" t="s">
-        <v>173</v>
-      </c>
+      <c r="B242" s="5"/>
       <c r="C242" s="6" t="s">
-        <v>548</v>
+        <v>1097</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="243" customHeight="1" spans="1:4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-    </row>
-    <row r="244" ht="39" customHeight="1" spans="1:4">
+      <c r="C243" s="6"/>
+      <c r="D243" s="7" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="244" ht="30" spans="1:4">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
-      <c r="C244" s="6" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D244" s="7" t="s">
-        <v>1098</v>
+      <c r="C244" s="6"/>
+      <c r="D244" s="16" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -16950,7 +17171,7 @@
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
       <c r="D245" s="7" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -16958,7 +17179,7 @@
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
       <c r="D246" s="7" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -16966,47 +17187,49 @@
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
       <c r="D247" s="7" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="248" ht="15.75" spans="1:4">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
-      <c r="C248" s="14"/>
-      <c r="D248" s="7"/>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="C248" s="6"/>
+      <c r="D248" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="249" ht="12" customHeight="1" spans="1:4">
       <c r="A249" s="4"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="6" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="B249" s="18"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="7"/>
+    </row>
+    <row r="250" ht="18" spans="1:4">
       <c r="A250" s="4"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="6"/>
+      <c r="B250" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="D250" s="7" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="251" customHeight="1" spans="1:4">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="7" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+    </row>
+    <row r="252" ht="39" customHeight="1" spans="1:4">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
-      <c r="C252" s="6"/>
+      <c r="C252" s="6" t="s">
+        <v>1103</v>
+      </c>
       <c r="D252" s="7" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -17014,39 +17237,39 @@
       <c r="B253" s="5"/>
       <c r="C253" s="6"/>
       <c r="D253" s="7" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="254" ht="15.75" spans="1:4">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
-      <c r="C254" s="14"/>
-      <c r="D254" s="7"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="7" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
-      <c r="C255" s="6" t="s">
-        <v>1108</v>
-      </c>
+      <c r="C255" s="6"/>
       <c r="D255" s="7" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" spans="1:4">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="7" t="s">
-        <v>1110</v>
-      </c>
+      <c r="C256" s="14"/>
+      <c r="D256" s="7"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
-      <c r="C257" s="6"/>
+      <c r="C257" s="6" t="s">
+        <v>1108</v>
+      </c>
       <c r="D257" s="7" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -17054,7 +17277,7 @@
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
       <c r="D258" s="7" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -17062,41 +17285,39 @@
       <c r="B259" s="5"/>
       <c r="C259" s="6"/>
       <c r="D259" s="7" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="260" ht="18.75" spans="1:4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="4"/>
-      <c r="B260" s="18"/>
-      <c r="C260" s="14"/>
-      <c r="D260" s="7"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="7" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="4"/>
-      <c r="B261" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>1114</v>
-      </c>
+      <c r="B261" s="5"/>
+      <c r="C261" s="6"/>
       <c r="D261" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="262" ht="15.75" spans="1:4">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="7" t="s">
-        <v>1115</v>
-      </c>
+      <c r="C262" s="14"/>
+      <c r="D262" s="7"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="4"/>
       <c r="B263" s="5"/>
-      <c r="C263" s="6"/>
+      <c r="C263" s="6" t="s">
+        <v>1114</v>
+      </c>
       <c r="D263" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -17104,7 +17325,7 @@
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
       <c r="D264" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -17112,7 +17333,7 @@
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
       <c r="D265" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -17120,7 +17341,7 @@
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
       <c r="D266" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -17128,50 +17349,49 @@
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
       <c r="D267" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="268" ht="10" customHeight="1" spans="1:4">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="268" ht="18.75" spans="1:4">
       <c r="A268" s="4"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="11"/>
-      <c r="D268" s="11"/>
-    </row>
-    <row r="269" ht="24.75" spans="2:4">
-      <c r="B269" s="3" t="s">
+      <c r="B268" s="18"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="7"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="4"/>
+      <c r="B269" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C269" s="6" t="s">
         <v>1120</v>
       </c>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-    </row>
-    <row r="270" customHeight="1" spans="1:4">
-      <c r="A270" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B270" s="5" t="s">
+      <c r="D269" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="4"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="7" t="s">
         <v>1121</v>
       </c>
-      <c r="C270" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="271" customHeight="1" spans="1:4">
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
-      <c r="C271" s="14"/>
-      <c r="D271" s="7"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="7" t="s">
+        <v>1122</v>
+      </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
-      <c r="C272" s="6" t="s">
-        <v>1122</v>
-      </c>
+      <c r="C272" s="6"/>
       <c r="D272" s="7" t="s">
-        <v>342</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -17179,7 +17399,7 @@
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
       <c r="D273" s="7" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -17187,7 +17407,7 @@
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
       <c r="D274" s="7" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -17195,47 +17415,50 @@
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
       <c r="D275" s="7" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="276" ht="10" customHeight="1" spans="1:4">
       <c r="A276" s="4"/>
-      <c r="B276" s="5"/>
-      <c r="C276" s="6"/>
-      <c r="D276" s="7" t="s">
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+    </row>
+    <row r="277" ht="24.75" spans="2:4">
+      <c r="B277" s="3" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="4"/>
-      <c r="B277" s="5"/>
-      <c r="C277" s="6"/>
-      <c r="D277" s="7" t="s">
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+    </row>
+    <row r="278" customHeight="1" spans="1:4">
+      <c r="A278" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B278" s="5" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="4"/>
-      <c r="B278" s="5"/>
-      <c r="C278" s="6"/>
+      <c r="C278" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="D278" s="7" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="279" ht="18.75" spans="1:4">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="279" customHeight="1" spans="1:4">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="15" t="s">
-        <v>1129</v>
-      </c>
+      <c r="C279" s="14"/>
+      <c r="D279" s="7"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
-      <c r="C280" s="6"/>
+      <c r="C280" s="6" t="s">
+        <v>1128</v>
+      </c>
       <c r="D280" s="7" t="s">
-        <v>1130</v>
+        <v>342</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -17243,23 +17466,23 @@
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
       <c r="D281" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="282" ht="15.75" spans="1:4">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
-      <c r="C282" s="14"/>
-      <c r="D282" s="7"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="7" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
-      <c r="C283" s="6" t="s">
+      <c r="C283" s="6"/>
+      <c r="D283" s="7" t="s">
         <v>1131</v>
-      </c>
-      <c r="D283" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -17286,11 +17509,11 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" ht="18.75" spans="1:4">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
-      <c r="D287" s="7" t="s">
+      <c r="D287" s="15" t="s">
         <v>1135</v>
       </c>
     </row>
@@ -17298,7 +17521,7 @@
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
-      <c r="D288" s="16" t="s">
+      <c r="D288" s="7" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -17307,23 +17530,23 @@
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
       <c r="D289" s="7" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="290" ht="15.75" spans="1:4">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
-      <c r="C290" s="6"/>
-      <c r="D290" s="7" t="s">
-        <v>1138</v>
-      </c>
+      <c r="C290" s="14"/>
+      <c r="D290" s="7"/>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
-      <c r="C291" s="6"/>
+      <c r="C291" s="6" t="s">
+        <v>1137</v>
+      </c>
       <c r="D291" s="7" t="s">
-        <v>1139</v>
+        <v>342</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -17331,23 +17554,23 @@
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
       <c r="D292" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="293" ht="15.75" spans="1:4">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
-      <c r="C293" s="14"/>
-      <c r="D293" s="7"/>
-    </row>
-    <row r="294" ht="14" customHeight="1" spans="1:4">
+      <c r="C293" s="6"/>
+      <c r="D293" s="7" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
-      <c r="C294" s="6" t="s">
+      <c r="C294" s="6"/>
+      <c r="D294" s="7" t="s">
         <v>1140</v>
-      </c>
-      <c r="D294" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -17362,7 +17585,7 @@
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
-      <c r="D296" s="7" t="s">
+      <c r="D296" s="16" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -17379,39 +17602,39 @@
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
       <c r="D298" s="7" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="299" ht="15.75" spans="1:4">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
-      <c r="C299" s="14"/>
-      <c r="D299" s="7"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="7" t="s">
+        <v>1145</v>
+      </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
-      <c r="C300" s="6" t="s">
-        <v>1144</v>
-      </c>
+      <c r="C300" s="6"/>
       <c r="D300" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="301" ht="15.75" spans="1:4">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
-      <c r="C301" s="6"/>
-      <c r="D301" s="7" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="C301" s="14"/>
+      <c r="D301" s="7"/>
+    </row>
+    <row r="302" ht="14" customHeight="1" spans="1:4">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
-      <c r="C302" s="6"/>
+      <c r="C302" s="6" t="s">
+        <v>1146</v>
+      </c>
       <c r="D302" s="7" t="s">
-        <v>1146</v>
+        <v>342</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -17443,23 +17666,23 @@
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
       <c r="D306" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="307" ht="15.75" spans="1:4">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
-      <c r="C307" s="6"/>
-      <c r="D307" s="7" t="s">
-        <v>1110</v>
-      </c>
+      <c r="C307" s="14"/>
+      <c r="D307" s="7"/>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
-      <c r="C308" s="6"/>
+      <c r="C308" s="6" t="s">
+        <v>1150</v>
+      </c>
       <c r="D308" s="7" t="s">
-        <v>1111</v>
+        <v>342</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -17467,7 +17690,7 @@
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
       <c r="D309" s="7" t="s">
-        <v>1112</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -17475,23 +17698,23 @@
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
       <c r="D310" s="7" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="311" ht="15.75" spans="1:4">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
-      <c r="C311" s="14"/>
-      <c r="D311" s="7"/>
+      <c r="C311" s="6"/>
+      <c r="D311" s="7" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
-      <c r="C312" s="6" t="s">
-        <v>1150</v>
-      </c>
+      <c r="C312" s="6"/>
       <c r="D312" s="7" t="s">
-        <v>342</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -17499,7 +17722,7 @@
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
       <c r="D313" s="7" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -17507,7 +17730,7 @@
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
       <c r="D314" s="7" t="s">
-        <v>1152</v>
+        <v>395</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -17515,7 +17738,7 @@
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
       <c r="D315" s="7" t="s">
-        <v>1153</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -17523,7 +17746,7 @@
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
       <c r="D316" s="7" t="s">
-        <v>1154</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -17531,31 +17754,31 @@
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
       <c r="D317" s="7" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="318" ht="15.75" spans="1:4">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
-      <c r="C318" s="14"/>
-      <c r="D318" s="7"/>
-    </row>
-    <row r="319" spans="1:4">
+      <c r="C318" s="6"/>
+      <c r="D318" s="7" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="319" ht="15.75" spans="1:4">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
-      <c r="C319" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D319" s="7" t="s">
-        <v>342</v>
-      </c>
+      <c r="C319" s="14"/>
+      <c r="D319" s="7"/>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
-      <c r="C320" s="6"/>
+      <c r="C320" s="6" t="s">
+        <v>1156</v>
+      </c>
       <c r="D320" s="7" t="s">
-        <v>1156</v>
+        <v>342</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -17579,97 +17802,97 @@
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
       <c r="D323" s="7" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="324" ht="9" customHeight="1" spans="2:4">
-      <c r="B324" s="11"/>
-      <c r="C324" s="11"/>
-      <c r="D324" s="11"/>
-    </row>
-    <row r="325" ht="24.75" spans="2:4">
-      <c r="B325" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="C325" s="3"/>
-      <c r="D325" s="3"/>
-    </row>
-    <row r="326" ht="18.75" spans="1:4">
-      <c r="A326" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C326" s="6" t="s">
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="4"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="D326" s="19" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="327" ht="18.75" spans="1:4">
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="4"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="326" ht="15.75" spans="1:4">
+      <c r="A326" s="4"/>
+      <c r="B326" s="5"/>
+      <c r="C326" s="14"/>
+      <c r="D326" s="7"/>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
-      <c r="C327" s="6"/>
-      <c r="D327" s="19" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="328" ht="18.75" spans="1:4">
+      <c r="C327" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
-      <c r="D328" s="19" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="329" ht="18.75" spans="1:4">
+      <c r="D328" s="7" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
-      <c r="D329" s="19" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="330" ht="18.75" spans="1:4">
+      <c r="D329" s="7" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
-      <c r="D330" s="19" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="331" ht="18.75" spans="1:4">
+      <c r="D330" s="7" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
-      <c r="D331" s="19" t="s">
+      <c r="D331" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="332" ht="9" customHeight="1" spans="2:4">
+      <c r="B332" s="12"/>
+      <c r="C332" s="12"/>
+      <c r="D332" s="12"/>
+    </row>
+    <row r="333" ht="24.75" spans="2:4">
+      <c r="B333" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C333" s="3"/>
+      <c r="D333" s="3"/>
+    </row>
+    <row r="334" ht="18.75" spans="1:4">
+      <c r="A334" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C334" s="6" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="332" ht="18.75" spans="1:4">
-      <c r="A332" s="4"/>
-      <c r="B332" s="5"/>
-      <c r="C332" s="6"/>
-      <c r="D332" s="19" t="s">
+      <c r="D334" s="19" t="s">
         <v>1167</v>
-      </c>
-    </row>
-    <row r="333" ht="18.75" spans="1:4">
-      <c r="A333" s="4"/>
-      <c r="B333" s="5"/>
-      <c r="C333" s="6"/>
-      <c r="D333" s="19" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="334" ht="18.75" spans="1:4">
-      <c r="A334" s="4"/>
-      <c r="B334" s="5"/>
-      <c r="C334" s="6"/>
-      <c r="D334" s="19" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="335" ht="18.75" spans="1:4">
@@ -17677,7 +17900,7 @@
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
       <c r="D335" s="19" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="336" ht="18.75" spans="1:4">
@@ -17685,7 +17908,7 @@
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
       <c r="D336" s="19" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="337" ht="18.75" spans="1:4">
@@ -17693,7 +17916,7 @@
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
       <c r="D337" s="19" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="338" ht="18.75" spans="1:4">
@@ -17701,7 +17924,7 @@
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
       <c r="D338" s="19" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="339" ht="18.75" spans="1:4">
@@ -17709,7 +17932,7 @@
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
       <c r="D339" s="19" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="340" ht="18.75" spans="1:4">
@@ -17717,7 +17940,7 @@
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
       <c r="D340" s="19" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="341" ht="18.75" spans="1:4">
@@ -17725,23 +17948,23 @@
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
       <c r="D341" s="19" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="342" ht="24.75" spans="1:4">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="342" ht="18.75" spans="1:4">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
-      <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="19" t="s">
+        <v>1175</v>
+      </c>
     </row>
     <row r="343" ht="18.75" spans="1:4">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
-      <c r="C343" s="6" t="s">
-        <v>1177</v>
-      </c>
+      <c r="C343" s="6"/>
       <c r="D343" s="19" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="344" ht="18.75" spans="1:4">
@@ -17749,7 +17972,7 @@
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
       <c r="D344" s="19" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="345" ht="18.75" spans="1:4">
@@ -17757,7 +17980,7 @@
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
       <c r="D345" s="19" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="346" ht="18.75" spans="1:4">
@@ -17765,7 +17988,7 @@
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
       <c r="D346" s="19" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="347" ht="18.75" spans="1:4">
@@ -17773,7 +17996,7 @@
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
       <c r="D347" s="19" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="348" ht="18.75" spans="1:4">
@@ -17781,7 +18004,7 @@
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
       <c r="D348" s="19" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="349" ht="18.75" spans="1:4">
@@ -17789,23 +18012,23 @@
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
       <c r="D349" s="19" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="350" ht="18.75" spans="1:4">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="350" ht="24.75" spans="1:4">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
-      <c r="C350" s="6"/>
-      <c r="D350" s="19" t="s">
-        <v>1185</v>
-      </c>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
     </row>
     <row r="351" ht="18.75" spans="1:4">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
-      <c r="C351" s="6"/>
+      <c r="C351" s="6" t="s">
+        <v>1183</v>
+      </c>
       <c r="D351" s="19" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="352" ht="18.75" spans="1:4">
@@ -17813,7 +18036,7 @@
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
       <c r="D352" s="19" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="353" ht="18.75" spans="1:4">
@@ -17821,7 +18044,7 @@
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
       <c r="D353" s="19" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="354" ht="18.75" spans="1:4">
@@ -17829,7 +18052,7 @@
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
       <c r="D354" s="19" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="355" ht="18.75" spans="1:4">
@@ -17837,7 +18060,7 @@
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
       <c r="D355" s="19" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="356" ht="18.75" spans="1:4">
@@ -17845,7 +18068,7 @@
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
       <c r="D356" s="19" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="357" ht="18.75" spans="1:4">
@@ -17853,7 +18076,7 @@
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
       <c r="D357" s="19" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="358" ht="18.75" spans="1:4">
@@ -17861,7 +18084,7 @@
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
       <c r="D358" s="19" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="359" ht="18.75" spans="1:4">
@@ -17869,7 +18092,7 @@
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
       <c r="D359" s="19" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="360" ht="18.75" spans="1:4">
@@ -17877,7 +18100,7 @@
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
       <c r="D360" s="19" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="361" ht="18.75" spans="1:4">
@@ -17885,7 +18108,7 @@
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
       <c r="D361" s="19" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="362" ht="18.75" spans="1:4">
@@ -17893,7 +18116,7 @@
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
       <c r="D362" s="19" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="363" ht="18.75" spans="1:4">
@@ -17901,7 +18124,7 @@
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
       <c r="D363" s="19" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="364" ht="18.75" spans="1:4">
@@ -17909,7 +18132,7 @@
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
       <c r="D364" s="19" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="365" ht="18.75" spans="1:4">
@@ -17917,7 +18140,7 @@
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
       <c r="D365" s="19" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="366" ht="18.75" spans="1:4">
@@ -17925,7 +18148,7 @@
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
       <c r="D366" s="19" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="367" ht="18.75" spans="1:4">
@@ -17933,7 +18156,7 @@
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
       <c r="D367" s="19" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="368" ht="18.75" spans="1:4">
@@ -17941,7 +18164,7 @@
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
       <c r="D368" s="19" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="369" ht="18.75" spans="1:4">
@@ -17949,7 +18172,7 @@
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
       <c r="D369" s="19" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="370" ht="18.75" spans="1:4">
@@ -17957,7 +18180,7 @@
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
       <c r="D370" s="19" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="371" ht="18.75" spans="1:4">
@@ -17965,7 +18188,7 @@
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
       <c r="D371" s="19" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="372" ht="18.75" spans="1:4">
@@ -17973,7 +18196,7 @@
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
       <c r="D372" s="19" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="373" ht="18.75" spans="1:4">
@@ -17981,47 +18204,45 @@
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
       <c r="D373" s="19" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="374" ht="24.75" spans="1:4">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="374" ht="18.75" spans="1:4">
       <c r="A374" s="4"/>
-      <c r="B374" s="3"/>
-      <c r="C374" s="3"/>
-      <c r="D374" s="3"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="6"/>
+      <c r="D374" s="19" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="375" ht="18.75" spans="1:4">
       <c r="A375" s="4"/>
-      <c r="B375" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C375" s="8" t="s">
-        <v>462</v>
-      </c>
+      <c r="B375" s="5"/>
+      <c r="C375" s="6"/>
       <c r="D375" s="19" t="s">
-        <v>462</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="376" ht="18.75" spans="1:4">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
-      <c r="C376" s="8"/>
-      <c r="D376" s="19"/>
+      <c r="C376" s="6"/>
+      <c r="D376" s="19" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="377" ht="18.75" spans="1:4">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
-      <c r="C377" s="9" t="s">
+      <c r="C377" s="6"/>
+      <c r="D377" s="19" t="s">
         <v>1210</v>
-      </c>
-      <c r="D377" s="19" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="378" ht="18.75" spans="1:4">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
-      <c r="C378" s="9"/>
+      <c r="C378" s="6"/>
       <c r="D378" s="19" t="s">
         <v>1211</v>
       </c>
@@ -18029,7 +18250,7 @@
     <row r="379" ht="18.75" spans="1:4">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
-      <c r="C379" s="9"/>
+      <c r="C379" s="6"/>
       <c r="D379" s="19" t="s">
         <v>1212</v>
       </c>
@@ -18037,7 +18258,7 @@
     <row r="380" ht="18.75" spans="1:4">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
-      <c r="C380" s="9"/>
+      <c r="C380" s="6"/>
       <c r="D380" s="19" t="s">
         <v>1213</v>
       </c>
@@ -18045,41 +18266,43 @@
     <row r="381" ht="18.75" spans="1:4">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
-      <c r="C381" s="9"/>
+      <c r="C381" s="6"/>
       <c r="D381" s="19" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="382" ht="18.75" spans="1:4">
+    <row r="382" ht="24.75" spans="1:4">
       <c r="A382" s="4"/>
-      <c r="B382" s="5"/>
-      <c r="C382" s="9"/>
-      <c r="D382" s="19"/>
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
+      <c r="D382" s="3"/>
     </row>
     <row r="383" ht="18.75" spans="1:4">
       <c r="A383" s="4"/>
-      <c r="B383" s="5"/>
-      <c r="C383" s="9" t="s">
+      <c r="B383" s="5" t="s">
         <v>1215</v>
       </c>
+      <c r="C383" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="D383" s="19" t="s">
-        <v>342</v>
+        <v>462</v>
       </c>
     </row>
     <row r="384" ht="18.75" spans="1:4">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
-      <c r="C384" s="9"/>
-      <c r="D384" s="19" t="s">
-        <v>1216</v>
-      </c>
+      <c r="C384" s="8"/>
+      <c r="D384" s="19"/>
     </row>
     <row r="385" ht="18.75" spans="1:4">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
-      <c r="C385" s="9"/>
+      <c r="C385" s="9" t="s">
+        <v>1216</v>
+      </c>
       <c r="D385" s="19" t="s">
-        <v>1217</v>
+        <v>342</v>
       </c>
     </row>
     <row r="386" ht="18.75" spans="1:4">
@@ -18087,7 +18310,7 @@
       <c r="B386" s="5"/>
       <c r="C386" s="9"/>
       <c r="D386" s="19" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="387" ht="18.75" spans="1:4">
@@ -18095,7 +18318,7 @@
       <c r="B387" s="5"/>
       <c r="C387" s="9"/>
       <c r="D387" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="388" ht="18.75" spans="1:4">
@@ -18103,7 +18326,7 @@
       <c r="B388" s="5"/>
       <c r="C388" s="9"/>
       <c r="D388" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="389" ht="18.75" spans="1:4">
@@ -18111,54 +18334,54 @@
       <c r="B389" s="5"/>
       <c r="C389" s="9"/>
       <c r="D389" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="390" ht="18.75" spans="1:4">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="9"/>
-      <c r="D390" s="19" t="s">
-        <v>1222</v>
-      </c>
+      <c r="D390" s="19"/>
     </row>
     <row r="391" ht="18.75" spans="1:4">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
-      <c r="C391" s="9"/>
+      <c r="C391" s="9" t="s">
+        <v>1221</v>
+      </c>
       <c r="D391" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="392" ht="18.75" spans="1:2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="392" ht="18.75" spans="1:4">
       <c r="A392" s="4"/>
-      <c r="B392" s="18"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="9"/>
+      <c r="D392" s="19" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="393" ht="18.75" spans="1:4">
       <c r="A393" s="4"/>
-      <c r="B393" s="5" t="s">
+      <c r="B393" s="5"/>
+      <c r="C393" s="9"/>
+      <c r="D393" s="19" t="s">
         <v>1223</v>
-      </c>
-      <c r="C393" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D393" s="15" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="394" ht="18.75" spans="1:4">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
-      <c r="C394" s="19"/>
-      <c r="D394" s="19"/>
+      <c r="C394" s="9"/>
+      <c r="D394" s="19" t="s">
+        <v>1224</v>
+      </c>
     </row>
     <row r="395" ht="18.75" spans="1:4">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
-      <c r="C395" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D395" s="15" t="s">
+      <c r="C395" s="9"/>
+      <c r="D395" s="19" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -18166,7 +18389,7 @@
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="9"/>
-      <c r="D396" s="15" t="s">
+      <c r="D396" s="19" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -18174,7 +18397,7 @@
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="9"/>
-      <c r="D397" s="15" t="s">
+      <c r="D397" s="19" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -18182,48 +18405,48 @@
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="9"/>
-      <c r="D398" s="15" t="s">
+      <c r="D398" s="19" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="399" ht="18.75" spans="1:4">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
-      <c r="C399" s="19"/>
-      <c r="D399" s="19"/>
-    </row>
-    <row r="400" ht="18.75" spans="1:4">
+      <c r="C399" s="9"/>
+      <c r="D399" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="400" ht="18.75" spans="1:2">
       <c r="A400" s="4"/>
-      <c r="B400" s="5"/>
-      <c r="C400" s="9" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D400" s="15" t="s">
-        <v>1230</v>
-      </c>
+      <c r="B400" s="18"/>
     </row>
     <row r="401" ht="18.75" spans="1:4">
       <c r="A401" s="4"/>
-      <c r="B401" s="5"/>
-      <c r="C401" s="9"/>
+      <c r="B401" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="D401" s="15" t="s">
-        <v>1231</v>
+        <v>462</v>
       </c>
     </row>
     <row r="402" ht="18.75" spans="1:4">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
-      <c r="C402" s="9"/>
-      <c r="D402" s="15" t="s">
-        <v>1232</v>
-      </c>
+      <c r="C402" s="19"/>
+      <c r="D402" s="19"/>
     </row>
     <row r="403" ht="18.75" spans="1:4">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
-      <c r="C403" s="9"/>
+      <c r="C403" s="9" t="s">
+        <v>1230</v>
+      </c>
       <c r="D403" s="15" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="404" ht="18.75" spans="1:4">
@@ -18231,7 +18454,7 @@
       <c r="B404" s="5"/>
       <c r="C404" s="9"/>
       <c r="D404" s="15" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="405" ht="18.75" spans="1:4">
@@ -18239,7 +18462,7 @@
       <c r="B405" s="5"/>
       <c r="C405" s="9"/>
       <c r="D405" s="15" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="406" ht="18.75" spans="1:4">
@@ -18247,23 +18470,23 @@
       <c r="B406" s="5"/>
       <c r="C406" s="9"/>
       <c r="D406" s="15" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="407" ht="18.75" spans="1:4">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
-      <c r="C407" s="9"/>
-      <c r="D407" s="15" t="s">
-        <v>1237</v>
-      </c>
+      <c r="C407" s="19"/>
+      <c r="D407" s="19"/>
     </row>
     <row r="408" ht="18.75" spans="1:4">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
-      <c r="C408" s="9"/>
+      <c r="C408" s="9" t="s">
+        <v>1235</v>
+      </c>
       <c r="D408" s="15" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="409" ht="18.75" spans="1:4">
@@ -18271,7 +18494,7 @@
       <c r="B409" s="5"/>
       <c r="C409" s="9"/>
       <c r="D409" s="15" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="410" ht="18.75" spans="1:4">
@@ -18279,7 +18502,7 @@
       <c r="B410" s="5"/>
       <c r="C410" s="9"/>
       <c r="D410" s="15" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="411" ht="18.75" spans="1:4">
@@ -18287,7 +18510,7 @@
       <c r="B411" s="5"/>
       <c r="C411" s="9"/>
       <c r="D411" s="15" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="412" ht="18.75" spans="1:4">
@@ -18295,21 +18518,23 @@
       <c r="B412" s="5"/>
       <c r="C412" s="9"/>
       <c r="D412" s="15" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="413" ht="18.75" spans="1:4">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
+      <c r="C413" s="9"/>
+      <c r="D413" s="15" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="414" ht="18.75" spans="1:4">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
-      <c r="C414" s="9" t="s">
+      <c r="C414" s="9"/>
+      <c r="D414" s="15" t="s">
         <v>1242</v>
-      </c>
-      <c r="D414" s="15" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="415" ht="18.75" spans="1:4">
@@ -18317,7 +18542,7 @@
       <c r="B415" s="5"/>
       <c r="C415" s="9"/>
       <c r="D415" s="15" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="416" ht="18.75" spans="1:4">
@@ -18325,7 +18550,7 @@
       <c r="B416" s="5"/>
       <c r="C416" s="9"/>
       <c r="D416" s="15" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="417" ht="18.75" spans="1:4">
@@ -18333,7 +18558,7 @@
       <c r="B417" s="5"/>
       <c r="C417" s="9"/>
       <c r="D417" s="15" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="418" ht="18.75" spans="1:4">
@@ -18341,69 +18566,69 @@
       <c r="B418" s="5"/>
       <c r="C418" s="9"/>
       <c r="D418" s="15" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="419" ht="18.75" spans="1:4">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="9"/>
       <c r="D419" s="15" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="420" ht="18.75" spans="1:4">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="9"/>
       <c r="D420" s="15" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
-      <c r="C421" s="9"/>
-      <c r="D421" s="15" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
+    </row>
+    <row r="422" ht="18.75" spans="1:4">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
-    </row>
-    <row r="423" spans="1:4">
+      <c r="C422" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D422" s="15" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="423" ht="18.75" spans="1:4">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
-      <c r="C423" s="9" t="s">
-        <v>1251</v>
-      </c>
+      <c r="C423" s="9"/>
       <c r="D423" s="15" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="424" ht="18.75" spans="1:4">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="9"/>
       <c r="D424" s="15" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="425" ht="18.75" spans="1:4">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="9"/>
       <c r="D425" s="15" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="426" ht="18.75" spans="1:4">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="9"/>
       <c r="D426" s="15" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -18411,7 +18636,7 @@
       <c r="B427" s="5"/>
       <c r="C427" s="9"/>
       <c r="D427" s="15" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -18419,7 +18644,7 @@
       <c r="B428" s="5"/>
       <c r="C428" s="9"/>
       <c r="D428" s="15" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -18427,31 +18652,29 @@
       <c r="B429" s="5"/>
       <c r="C429" s="9"/>
       <c r="D429" s="15" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
-      <c r="C430" s="9"/>
-      <c r="D430" s="15" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="431" ht="18.75" spans="1:4">
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
-      <c r="C431" s="9"/>
+      <c r="C431" s="9" t="s">
+        <v>1257</v>
+      </c>
       <c r="D431" s="15" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="432" ht="18.75" spans="1:4">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="9"/>
       <c r="D432" s="15" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -18459,7 +18682,7 @@
       <c r="B433" s="5"/>
       <c r="C433" s="9"/>
       <c r="D433" s="15" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -18467,40 +18690,104 @@
       <c r="B434" s="5"/>
       <c r="C434" s="9"/>
       <c r="D434" s="15" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="4"/>
+      <c r="B435" s="5"/>
+      <c r="C435" s="9"/>
+      <c r="D435" s="15" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="4"/>
+      <c r="B436" s="5"/>
+      <c r="C436" s="9"/>
+      <c r="D436" s="15" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="435" ht="9" customHeight="1" spans="2:4">
-      <c r="B435" s="11"/>
-      <c r="C435" s="11"/>
-      <c r="D435" s="11"/>
+    <row r="437" spans="1:4">
+      <c r="A437" s="4"/>
+      <c r="B437" s="5"/>
+      <c r="C437" s="9"/>
+      <c r="D437" s="15" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="4"/>
+      <c r="B438" s="5"/>
+      <c r="C438" s="9"/>
+      <c r="D438" s="15" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="439" ht="18.75" spans="1:4">
+      <c r="A439" s="4"/>
+      <c r="B439" s="5"/>
+      <c r="C439" s="9"/>
+      <c r="D439" s="15" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="440" ht="18.75" spans="1:4">
+      <c r="A440" s="4"/>
+      <c r="B440" s="5"/>
+      <c r="C440" s="9"/>
+      <c r="D440" s="15" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="4"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="9"/>
+      <c r="D441" s="15" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="4"/>
+      <c r="B442" s="5"/>
+      <c r="C442" s="9"/>
+      <c r="D442" s="15" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="443" ht="9" customHeight="1" spans="2:4">
+      <c r="B443" s="12"/>
+      <c r="C443" s="12"/>
+      <c r="D443" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="67">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B152:D152"/>
     <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B269:D269"/>
-    <mergeCell ref="B325:D325"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B277:D277"/>
+    <mergeCell ref="B333:D333"/>
     <mergeCell ref="A3:A151"/>
     <mergeCell ref="A153:A164"/>
-    <mergeCell ref="A166:A210"/>
-    <mergeCell ref="A212:A268"/>
-    <mergeCell ref="A270:A323"/>
-    <mergeCell ref="A326:A434"/>
+    <mergeCell ref="A166:A218"/>
+    <mergeCell ref="A220:A276"/>
+    <mergeCell ref="A278:A331"/>
+    <mergeCell ref="A334:A442"/>
     <mergeCell ref="B3:B85"/>
     <mergeCell ref="B88:B150"/>
     <mergeCell ref="B153:B163"/>
     <mergeCell ref="B166:B209"/>
-    <mergeCell ref="B212:B240"/>
-    <mergeCell ref="B242:B259"/>
-    <mergeCell ref="B261:B267"/>
-    <mergeCell ref="B270:B323"/>
-    <mergeCell ref="B326:B373"/>
-    <mergeCell ref="B375:B391"/>
-    <mergeCell ref="B393:B434"/>
+    <mergeCell ref="B220:B248"/>
+    <mergeCell ref="B250:B267"/>
+    <mergeCell ref="B269:B275"/>
+    <mergeCell ref="B278:B331"/>
+    <mergeCell ref="B334:B381"/>
+    <mergeCell ref="B383:B399"/>
+    <mergeCell ref="B401:B442"/>
     <mergeCell ref="C5:C14"/>
     <mergeCell ref="C16:C33"/>
     <mergeCell ref="C35:C41"/>
@@ -18522,27 +18809,772 @@
     <mergeCell ref="C176:C184"/>
     <mergeCell ref="C186:C196"/>
     <mergeCell ref="C198:C209"/>
-    <mergeCell ref="C212:C229"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="C234:C240"/>
-    <mergeCell ref="C244:C247"/>
-    <mergeCell ref="C249:C253"/>
-    <mergeCell ref="C255:C259"/>
-    <mergeCell ref="C261:C267"/>
-    <mergeCell ref="C272:C281"/>
-    <mergeCell ref="C283:C292"/>
-    <mergeCell ref="C294:C298"/>
-    <mergeCell ref="C300:C310"/>
-    <mergeCell ref="C312:C317"/>
-    <mergeCell ref="C319:C323"/>
-    <mergeCell ref="C326:C341"/>
-    <mergeCell ref="C343:C373"/>
-    <mergeCell ref="C377:C381"/>
-    <mergeCell ref="C383:C391"/>
-    <mergeCell ref="C395:C398"/>
-    <mergeCell ref="C400:C412"/>
-    <mergeCell ref="C414:C421"/>
-    <mergeCell ref="C423:C434"/>
+    <mergeCell ref="C211:C217"/>
+    <mergeCell ref="C220:C237"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="C242:C248"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="C257:C261"/>
+    <mergeCell ref="C263:C267"/>
+    <mergeCell ref="C269:C275"/>
+    <mergeCell ref="C280:C289"/>
+    <mergeCell ref="C291:C300"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="C308:C318"/>
+    <mergeCell ref="C320:C325"/>
+    <mergeCell ref="C327:C331"/>
+    <mergeCell ref="C334:C349"/>
+    <mergeCell ref="C351:C381"/>
+    <mergeCell ref="C385:C389"/>
+    <mergeCell ref="C391:C399"/>
+    <mergeCell ref="C403:C406"/>
+    <mergeCell ref="C408:C420"/>
+    <mergeCell ref="C422:C429"/>
+    <mergeCell ref="C431:C442"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82:C86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="44.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="89.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.2857142857143" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" ht="23" customHeight="1" spans="2:4">
+      <c r="B2" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" ht="23" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" ht="10" customHeight="1" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="34" ht="18" spans="1:4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" ht="18" spans="1:4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="57" ht="12" customHeight="1" spans="1:4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="10" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="70" ht="18" spans="1:4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" ht="18.75" spans="1:4">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" ht="18.75" spans="1:4">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" ht="18.75" spans="1:4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="84" ht="18.75" spans="1:4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="85" ht="18.75" spans="1:4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="86" ht="18.75" spans="1:4">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="87" ht="9" customHeight="1" spans="1:4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A3:A87"/>
+    <mergeCell ref="B3:B86"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="C22:C33"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="C46:C56"/>
+    <mergeCell ref="C58:C69"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="C82:C86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -5269,9 +5269,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -5397,17 +5397,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5416,6 +5408,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5428,23 +5428,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5458,16 +5442,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5496,18 +5480,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5520,14 +5520,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5535,6 +5528,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5621,7 +5621,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5633,7 +5735,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5645,127 +5789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5777,31 +5801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5848,56 +5848,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5934,18 +5897,55 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5963,131 +5963,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6724,8 +6724,8 @@
   <sheetPr/>
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C307" sqref="$A307:$XFD353"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267:D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -19609,7 +19609,7 @@
   <sheetPr/>
   <dimension ref="A1:D349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Web Development and Database" sheetId="3" r:id="rId3"/>
     <sheet name="Spring" sheetId="4" r:id="rId4"/>
     <sheet name="UI" sheetId="5" r:id="rId5"/>
+    <sheet name="DevOps" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="1626">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -5262,16 +5263,163 @@
   <si>
     <t>14. Checklists and Summary</t>
   </si>
+  <si>
+    <t>Day 36</t>
+  </si>
+  <si>
+    <t>2. Getting Started with Selenium</t>
+  </si>
+  <si>
+    <t>2. Selenium First Look</t>
+  </si>
+  <si>
+    <t>3. Selenium and WebDriver</t>
+  </si>
+  <si>
+    <t>4. WebDriver First Look</t>
+  </si>
+  <si>
+    <t>5. Why Automated?</t>
+  </si>
+  <si>
+    <t>3. Using the Selenium IDE</t>
+  </si>
+  <si>
+    <t>3. Selenium IDE</t>
+  </si>
+  <si>
+    <t>4. Installing</t>
+  </si>
+  <si>
+    <t>5. Understanding Selenium IDE</t>
+  </si>
+  <si>
+    <t>6. Recording a Test</t>
+  </si>
+  <si>
+    <t>7. Running the Test</t>
+  </si>
+  <si>
+    <t>8. Selenese</t>
+  </si>
+  <si>
+    <t>9. Looking at Commands</t>
+  </si>
+  <si>
+    <t>10. Creating Commands</t>
+  </si>
+  <si>
+    <t>11. Verifications</t>
+  </si>
+  <si>
+    <t>12. Using Assert and Verify</t>
+  </si>
+  <si>
+    <t>13. Creating Test Suites</t>
+  </si>
+  <si>
+    <t>14. Exporting</t>
+  </si>
+  <si>
+    <t>15. Other Features</t>
+  </si>
+  <si>
+    <t>16. Summary</t>
+  </si>
+  <si>
+    <t>4. Understanding WebDriver</t>
+  </si>
+  <si>
+    <t>2. What Is WebDriver?</t>
+  </si>
+  <si>
+    <t>3. Setting up WebDriver</t>
+  </si>
+  <si>
+    <t>4. Fixing System Properties</t>
+  </si>
+  <si>
+    <t>5. Other Browsers</t>
+  </si>
+  <si>
+    <t>6. Finding Elements</t>
+  </si>
+  <si>
+    <t>7. A Simple Script</t>
+  </si>
+  <si>
+    <t>8. Page Elements</t>
+  </si>
+  <si>
+    <t>9. A More Complex Script</t>
+  </si>
+  <si>
+    <t>10. Clicking the Image</t>
+  </si>
+  <si>
+    <t>11. Assert and Verify</t>
+  </si>
+  <si>
+    <t>5. Applying Advanced WebDriver Techniques</t>
+  </si>
+  <si>
+    <t>2. Radio Buttons</t>
+  </si>
+  <si>
+    <t>3. Choosing a Radio Button</t>
+  </si>
+  <si>
+    <t>4. Getting a Radio Button Value</t>
+  </si>
+  <si>
+    <t>5. Checkboxes</t>
+  </si>
+  <si>
+    <t>6. Selecting a Checkbox</t>
+  </si>
+  <si>
+    <t>7. Select Items</t>
+  </si>
+  <si>
+    <t>8. Using Select</t>
+  </si>
+  <si>
+    <t>10. Getting Table Data</t>
+  </si>
+  <si>
+    <t>11. XPath</t>
+  </si>
+  <si>
+    <t>12. Explicit Waits</t>
+  </si>
+  <si>
+    <t>13. Using the Explicit Wait</t>
+  </si>
+  <si>
+    <t>15. PopUps</t>
+  </si>
+  <si>
+    <t>16. Alerts and Key Presses</t>
+  </si>
+  <si>
+    <t>17. Switching windows</t>
+  </si>
+  <si>
+    <t>18. Take Screenshot</t>
+  </si>
+  <si>
+    <t>19. Summary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -5397,7 +5545,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5419,31 +5581,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5473,29 +5621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -5506,6 +5631,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5526,8 +5658,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5535,6 +5675,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5621,19 +5769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5645,43 +5793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5699,7 +5811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5711,13 +5829,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5735,73 +5925,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5845,37 +5993,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5905,16 +6042,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5942,16 +6079,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5963,131 +6111,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6113,17 +6261,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6724,7 +6872,7 @@
   <sheetPr/>
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+    <sheetView topLeftCell="A264" workbookViewId="0">
       <selection activeCell="C267" sqref="C267:D270"/>
     </sheetView>
   </sheetViews>
@@ -10228,7 +10376,7 @@
       <c r="C3" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>323</v>
       </c>
     </row>
@@ -10236,7 +10384,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>324</v>
       </c>
     </row>
@@ -10244,7 +10392,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>325</v>
       </c>
     </row>
@@ -10252,7 +10400,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>326</v>
       </c>
     </row>
@@ -10260,7 +10408,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>327</v>
       </c>
     </row>
@@ -10268,7 +10416,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>328</v>
       </c>
     </row>
@@ -10276,7 +10424,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>329</v>
       </c>
     </row>
@@ -10284,7 +10432,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>330</v>
       </c>
     </row>
@@ -10292,7 +10440,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>331</v>
       </c>
     </row>
@@ -10488,9 +10636,9 @@
     </row>
     <row r="35" ht="9" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" ht="24.75" spans="1:4">
       <c r="A36" s="4"/>
@@ -10831,9 +10979,9 @@
     </row>
     <row r="78" ht="9" customHeight="1" spans="1:4">
       <c r="A78" s="4"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" ht="24.75" spans="1:4">
       <c r="A79" s="4"/>
@@ -11024,9 +11172,9 @@
     </row>
     <row r="102" ht="10" customHeight="1" spans="1:4">
       <c r="A102" s="4"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
     </row>
     <row r="103" ht="24.75" spans="2:4">
       <c r="B103" s="3" t="s">
@@ -11387,9 +11535,9 @@
     </row>
     <row r="147" ht="9" customHeight="1" spans="1:4">
       <c r="A147" s="4"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
     </row>
     <row r="148" ht="24.75" spans="1:4">
       <c r="A148" s="4"/>
@@ -11407,7 +11555,7 @@
       <c r="C149" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="12" t="s">
         <v>462</v>
       </c>
     </row>
@@ -11415,7 +11563,7 @@
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
-      <c r="D150" s="10"/>
+      <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4"/>
@@ -11633,9 +11781,9 @@
     </row>
     <row r="178" ht="18" spans="1:4">
       <c r="A178" s="4"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
     </row>
     <row r="179" ht="24.75" spans="1:4">
       <c r="A179" s="4"/>
@@ -11888,9 +12036,9 @@
     </row>
     <row r="210" ht="10" customHeight="1" spans="1:4">
       <c r="A210" s="4"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
     </row>
     <row r="211" ht="24.75" spans="1:4">
       <c r="A211" s="4"/>
@@ -12146,9 +12294,9 @@
     </row>
     <row r="242" ht="8" customHeight="1" spans="1:4">
       <c r="A242" s="4"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
+      <c r="B242" s="9"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
     </row>
     <row r="243" ht="24.75" spans="2:4">
       <c r="B243" s="3" t="s">
@@ -12333,7 +12481,7 @@
     <row r="265" ht="18" spans="1:4">
       <c r="A265" s="4"/>
       <c r="B265" s="30"/>
-      <c r="C265" s="9"/>
+      <c r="C265" s="11"/>
       <c r="D265" s="7"/>
     </row>
     <row r="266" spans="1:4">
@@ -12350,7 +12498,7 @@
       <c r="A267" s="4"/>
       <c r="B267" s="30"/>
       <c r="C267" s="13"/>
-      <c r="D267" s="10" t="s">
+      <c r="D267" s="12" t="s">
         <v>569</v>
       </c>
     </row>
@@ -12366,7 +12514,7 @@
       <c r="A269" s="4"/>
       <c r="B269" s="30"/>
       <c r="C269" s="13"/>
-      <c r="D269" s="10" t="s">
+      <c r="D269" s="12" t="s">
         <v>571</v>
       </c>
     </row>
@@ -12382,7 +12530,7 @@
       <c r="A271" s="4"/>
       <c r="B271" s="30"/>
       <c r="C271" s="13"/>
-      <c r="D271" s="10" t="s">
+      <c r="D271" s="12" t="s">
         <v>573</v>
       </c>
     </row>
@@ -12398,7 +12546,7 @@
       <c r="A273" s="4"/>
       <c r="B273" s="30"/>
       <c r="C273" s="13"/>
-      <c r="D273" s="10" t="s">
+      <c r="D273" s="12" t="s">
         <v>575</v>
       </c>
     </row>
@@ -12884,9 +13032,9 @@
     </row>
     <row r="334" ht="9" customHeight="1" spans="1:4">
       <c r="A334" s="4"/>
-      <c r="B334" s="11"/>
-      <c r="C334" s="12"/>
-      <c r="D334" s="12"/>
+      <c r="B334" s="9"/>
+      <c r="C334" s="10"/>
+      <c r="D334" s="10"/>
     </row>
     <row r="335" ht="24.75" spans="2:4">
       <c r="B335" s="3" t="s">
@@ -14099,9 +14247,9 @@
     </row>
     <row r="60" ht="9" customHeight="1" spans="1:4">
       <c r="A60" s="4"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" ht="24.75" spans="2:4">
       <c r="B61" s="3" t="s">
@@ -14120,7 +14268,7 @@
       <c r="C62" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="12" t="s">
         <v>462</v>
       </c>
     </row>
@@ -14128,7 +14276,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="10"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4"/>
@@ -14167,7 +14315,7 @@
     <row r="68" ht="18" spans="1:4">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="9"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4">
@@ -14223,7 +14371,7 @@
     <row r="75" ht="18" spans="1:4">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="9"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4">
@@ -14232,7 +14380,7 @@
       <c r="C76" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="12" t="s">
         <v>342</v>
       </c>
     </row>
@@ -14296,7 +14444,7 @@
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="23"/>
-      <c r="D84" s="10"/>
+      <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4"/>
@@ -14423,7 +14571,7 @@
     <row r="100" ht="11" customHeight="1" spans="1:4">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="9"/>
+      <c r="C100" s="11"/>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4">
@@ -14432,7 +14580,7 @@
       <c r="C101" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="12" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14488,7 +14636,7 @@
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="12" t="s">
         <v>780</v>
       </c>
     </row>
@@ -14510,9 +14658,9 @@
     </row>
     <row r="111" ht="9" customHeight="1" spans="1:4">
       <c r="A111" s="4"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" ht="24.75" spans="2:4">
       <c r="B112" s="3" t="s">
@@ -14554,7 +14702,7 @@
     <row r="116" ht="18" spans="1:4">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="9"/>
+      <c r="C116" s="11"/>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4">
@@ -14619,7 +14767,7 @@
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="12" t="s">
         <v>796</v>
       </c>
     </row>
@@ -14667,7 +14815,7 @@
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="23"/>
-      <c r="D130" s="10"/>
+      <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4"/>
@@ -14770,7 +14918,7 @@
     <row r="143" ht="18" spans="1:4">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
-      <c r="C143" s="9"/>
+      <c r="C143" s="11"/>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4">
@@ -14779,7 +14927,7 @@
       <c r="C144" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" s="12" t="s">
         <v>816</v>
       </c>
     </row>
@@ -14835,7 +14983,7 @@
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="12" t="s">
         <v>823</v>
       </c>
     </row>
@@ -15321,9 +15469,9 @@
     </row>
     <row r="212" ht="9" customHeight="1" spans="1:4">
       <c r="A212" s="4"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
     </row>
     <row r="213" ht="24.75" spans="2:4">
       <c r="B213" s="3" t="s">
@@ -15342,7 +15490,7 @@
       <c r="C214" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D214" s="12" t="s">
         <v>462</v>
       </c>
     </row>
@@ -15350,7 +15498,7 @@
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="10"/>
+      <c r="D215" s="12"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="4"/>
@@ -15398,7 +15546,7 @@
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="23"/>
-      <c r="D221" s="10"/>
+      <c r="D221" s="12"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="4"/>
@@ -15890,9 +16038,9 @@
     </row>
     <row r="283" ht="9" customHeight="1" spans="1:4">
       <c r="A283" s="4"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="12"/>
-      <c r="D283" s="12"/>
+      <c r="B283" s="9"/>
+      <c r="C283" s="10"/>
+      <c r="D283" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -16601,7 +16749,7 @@
     <row r="79" ht="12" customHeight="1" spans="1:4">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="9"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4">
@@ -16656,9 +16804,9 @@
     </row>
     <row r="86" ht="9" customHeight="1" spans="1:4">
       <c r="A86" s="4"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" ht="24.75" spans="1:4">
       <c r="A87" s="4"/>
@@ -16676,7 +16824,7 @@
       <c r="C88" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="12" t="s">
         <v>462</v>
       </c>
     </row>
@@ -16684,7 +16832,7 @@
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="10"/>
+      <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4"/>
@@ -17174,9 +17322,9 @@
     </row>
     <row r="151" ht="9" customHeight="1" spans="1:4">
       <c r="A151" s="4"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
     </row>
     <row r="152" ht="24.75" spans="2:4">
       <c r="B152" s="3" t="s">
@@ -17281,9 +17429,9 @@
     </row>
     <row r="164" ht="9" customHeight="1" spans="1:4">
       <c r="A164" s="4"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
     </row>
     <row r="165" ht="24.75" spans="2:4">
       <c r="B165" s="3" t="s">
@@ -17374,7 +17522,7 @@
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="23"/>
-      <c r="D175" s="10"/>
+      <c r="D175" s="12"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="4"/>
@@ -17716,9 +17864,9 @@
     </row>
     <row r="218" ht="9" customHeight="1" spans="1:4">
       <c r="A218" s="4"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
     </row>
     <row r="219" ht="24.75" spans="2:4">
       <c r="B219" s="3" t="s">
@@ -18187,9 +18335,9 @@
     </row>
     <row r="276" ht="10" customHeight="1" spans="1:4">
       <c r="A276" s="4"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
+      <c r="B276" s="10"/>
+      <c r="C276" s="10"/>
+      <c r="D276" s="10"/>
     </row>
     <row r="277" ht="24.75" spans="2:4">
       <c r="B277" s="3" t="s">
@@ -18637,9 +18785,9 @@
       </c>
     </row>
     <row r="332" ht="9" customHeight="1" spans="2:4">
-      <c r="B332" s="12"/>
-      <c r="C332" s="12"/>
-      <c r="D332" s="12"/>
+      <c r="B332" s="10"/>
+      <c r="C332" s="10"/>
+      <c r="D332" s="10"/>
     </row>
     <row r="333" ht="24.75" spans="2:4">
       <c r="B333" s="3" t="s">
@@ -19065,7 +19213,7 @@
     <row r="385" ht="18.75" spans="1:4">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
-      <c r="C385" s="9" t="s">
+      <c r="C385" s="11" t="s">
         <v>1216</v>
       </c>
       <c r="D385" s="24" t="s">
@@ -19075,7 +19223,7 @@
     <row r="386" ht="18.75" spans="1:4">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
-      <c r="C386" s="9"/>
+      <c r="C386" s="11"/>
       <c r="D386" s="24" t="s">
         <v>1217</v>
       </c>
@@ -19083,7 +19231,7 @@
     <row r="387" ht="18.75" spans="1:4">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
-      <c r="C387" s="9"/>
+      <c r="C387" s="11"/>
       <c r="D387" s="24" t="s">
         <v>1218</v>
       </c>
@@ -19091,7 +19239,7 @@
     <row r="388" ht="18.75" spans="1:4">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
-      <c r="C388" s="9"/>
+      <c r="C388" s="11"/>
       <c r="D388" s="24" t="s">
         <v>1219</v>
       </c>
@@ -19099,7 +19247,7 @@
     <row r="389" ht="18.75" spans="1:4">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
-      <c r="C389" s="9"/>
+      <c r="C389" s="11"/>
       <c r="D389" s="24" t="s">
         <v>1220</v>
       </c>
@@ -19107,13 +19255,13 @@
     <row r="390" ht="18.75" spans="1:4">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
-      <c r="C390" s="9"/>
+      <c r="C390" s="11"/>
       <c r="D390" s="24"/>
     </row>
     <row r="391" ht="18.75" spans="1:4">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
-      <c r="C391" s="9" t="s">
+      <c r="C391" s="11" t="s">
         <v>1221</v>
       </c>
       <c r="D391" s="24" t="s">
@@ -19123,7 +19271,7 @@
     <row r="392" ht="18.75" spans="1:4">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
-      <c r="C392" s="9"/>
+      <c r="C392" s="11"/>
       <c r="D392" s="24" t="s">
         <v>1222</v>
       </c>
@@ -19131,7 +19279,7 @@
     <row r="393" ht="18.75" spans="1:4">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
-      <c r="C393" s="9"/>
+      <c r="C393" s="11"/>
       <c r="D393" s="24" t="s">
         <v>1223</v>
       </c>
@@ -19139,7 +19287,7 @@
     <row r="394" ht="18.75" spans="1:4">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
-      <c r="C394" s="9"/>
+      <c r="C394" s="11"/>
       <c r="D394" s="24" t="s">
         <v>1224</v>
       </c>
@@ -19147,7 +19295,7 @@
     <row r="395" ht="18.75" spans="1:4">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
-      <c r="C395" s="9"/>
+      <c r="C395" s="11"/>
       <c r="D395" s="24" t="s">
         <v>1225</v>
       </c>
@@ -19155,7 +19303,7 @@
     <row r="396" ht="18.75" spans="1:4">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
-      <c r="C396" s="9"/>
+      <c r="C396" s="11"/>
       <c r="D396" s="24" t="s">
         <v>1226</v>
       </c>
@@ -19163,7 +19311,7 @@
     <row r="397" ht="18.75" spans="1:4">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
-      <c r="C397" s="9"/>
+      <c r="C397" s="11"/>
       <c r="D397" s="24" t="s">
         <v>1227</v>
       </c>
@@ -19171,7 +19319,7 @@
     <row r="398" ht="18.75" spans="1:4">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
-      <c r="C398" s="9"/>
+      <c r="C398" s="11"/>
       <c r="D398" s="24" t="s">
         <v>1228</v>
       </c>
@@ -19179,7 +19327,7 @@
     <row r="399" ht="18.75" spans="1:4">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
-      <c r="C399" s="9"/>
+      <c r="C399" s="11"/>
       <c r="D399" s="24" t="s">
         <v>379</v>
       </c>
@@ -19209,7 +19357,7 @@
     <row r="403" ht="18.75" spans="1:4">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
-      <c r="C403" s="9" t="s">
+      <c r="C403" s="11" t="s">
         <v>1230</v>
       </c>
       <c r="D403" s="22" t="s">
@@ -19219,7 +19367,7 @@
     <row r="404" ht="18.75" spans="1:4">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
-      <c r="C404" s="9"/>
+      <c r="C404" s="11"/>
       <c r="D404" s="22" t="s">
         <v>1232</v>
       </c>
@@ -19227,7 +19375,7 @@
     <row r="405" ht="18.75" spans="1:4">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
-      <c r="C405" s="9"/>
+      <c r="C405" s="11"/>
       <c r="D405" s="22" t="s">
         <v>1233</v>
       </c>
@@ -19235,7 +19383,7 @@
     <row r="406" ht="18.75" spans="1:4">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
-      <c r="C406" s="9"/>
+      <c r="C406" s="11"/>
       <c r="D406" s="22" t="s">
         <v>1234</v>
       </c>
@@ -19249,7 +19397,7 @@
     <row r="408" ht="18.75" spans="1:4">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
-      <c r="C408" s="9" t="s">
+      <c r="C408" s="11" t="s">
         <v>1235</v>
       </c>
       <c r="D408" s="22" t="s">
@@ -19259,7 +19407,7 @@
     <row r="409" ht="18.75" spans="1:4">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
-      <c r="C409" s="9"/>
+      <c r="C409" s="11"/>
       <c r="D409" s="22" t="s">
         <v>1237</v>
       </c>
@@ -19267,7 +19415,7 @@
     <row r="410" ht="18.75" spans="1:4">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
-      <c r="C410" s="9"/>
+      <c r="C410" s="11"/>
       <c r="D410" s="22" t="s">
         <v>1238</v>
       </c>
@@ -19275,7 +19423,7 @@
     <row r="411" ht="18.75" spans="1:4">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
-      <c r="C411" s="9"/>
+      <c r="C411" s="11"/>
       <c r="D411" s="22" t="s">
         <v>1239</v>
       </c>
@@ -19283,7 +19431,7 @@
     <row r="412" ht="18.75" spans="1:4">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
-      <c r="C412" s="9"/>
+      <c r="C412" s="11"/>
       <c r="D412" s="22" t="s">
         <v>1240</v>
       </c>
@@ -19291,7 +19439,7 @@
     <row r="413" ht="18.75" spans="1:4">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
-      <c r="C413" s="9"/>
+      <c r="C413" s="11"/>
       <c r="D413" s="22" t="s">
         <v>1241</v>
       </c>
@@ -19299,7 +19447,7 @@
     <row r="414" ht="18.75" spans="1:4">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
-      <c r="C414" s="9"/>
+      <c r="C414" s="11"/>
       <c r="D414" s="22" t="s">
         <v>1242</v>
       </c>
@@ -19307,7 +19455,7 @@
     <row r="415" ht="18.75" spans="1:4">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
-      <c r="C415" s="9"/>
+      <c r="C415" s="11"/>
       <c r="D415" s="22" t="s">
         <v>1243</v>
       </c>
@@ -19315,7 +19463,7 @@
     <row r="416" ht="18.75" spans="1:4">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
-      <c r="C416" s="9"/>
+      <c r="C416" s="11"/>
       <c r="D416" s="22" t="s">
         <v>1244</v>
       </c>
@@ -19323,7 +19471,7 @@
     <row r="417" ht="18.75" spans="1:4">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
-      <c r="C417" s="9"/>
+      <c r="C417" s="11"/>
       <c r="D417" s="22" t="s">
         <v>1245</v>
       </c>
@@ -19331,7 +19479,7 @@
     <row r="418" ht="18.75" spans="1:4">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
-      <c r="C418" s="9"/>
+      <c r="C418" s="11"/>
       <c r="D418" s="22" t="s">
         <v>1246</v>
       </c>
@@ -19339,7 +19487,7 @@
     <row r="419" ht="18.75" spans="1:4">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
-      <c r="C419" s="9"/>
+      <c r="C419" s="11"/>
       <c r="D419" s="22" t="s">
         <v>1247</v>
       </c>
@@ -19347,7 +19495,7 @@
     <row r="420" ht="18.75" spans="1:4">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
-      <c r="C420" s="9"/>
+      <c r="C420" s="11"/>
       <c r="D420" s="22" t="s">
         <v>588</v>
       </c>
@@ -19359,7 +19507,7 @@
     <row r="422" ht="18.75" spans="1:4">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
-      <c r="C422" s="9" t="s">
+      <c r="C422" s="11" t="s">
         <v>1248</v>
       </c>
       <c r="D422" s="22" t="s">
@@ -19369,7 +19517,7 @@
     <row r="423" ht="18.75" spans="1:4">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
-      <c r="C423" s="9"/>
+      <c r="C423" s="11"/>
       <c r="D423" s="22" t="s">
         <v>1250</v>
       </c>
@@ -19377,7 +19525,7 @@
     <row r="424" ht="18.75" spans="1:4">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
-      <c r="C424" s="9"/>
+      <c r="C424" s="11"/>
       <c r="D424" s="22" t="s">
         <v>1251</v>
       </c>
@@ -19385,7 +19533,7 @@
     <row r="425" ht="18.75" spans="1:4">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
-      <c r="C425" s="9"/>
+      <c r="C425" s="11"/>
       <c r="D425" s="22" t="s">
         <v>1252</v>
       </c>
@@ -19393,7 +19541,7 @@
     <row r="426" ht="18.75" spans="1:4">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
-      <c r="C426" s="9"/>
+      <c r="C426" s="11"/>
       <c r="D426" s="22" t="s">
         <v>1253</v>
       </c>
@@ -19401,7 +19549,7 @@
     <row r="427" spans="1:4">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
-      <c r="C427" s="9"/>
+      <c r="C427" s="11"/>
       <c r="D427" s="22" t="s">
         <v>1254</v>
       </c>
@@ -19409,7 +19557,7 @@
     <row r="428" spans="1:4">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
-      <c r="C428" s="9"/>
+      <c r="C428" s="11"/>
       <c r="D428" s="22" t="s">
         <v>1255</v>
       </c>
@@ -19417,7 +19565,7 @@
     <row r="429" spans="1:4">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
-      <c r="C429" s="9"/>
+      <c r="C429" s="11"/>
       <c r="D429" s="22" t="s">
         <v>1256</v>
       </c>
@@ -19429,7 +19577,7 @@
     <row r="431" spans="1:4">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
-      <c r="C431" s="9" t="s">
+      <c r="C431" s="11" t="s">
         <v>1257</v>
       </c>
       <c r="D431" s="22" t="s">
@@ -19439,7 +19587,7 @@
     <row r="432" spans="1:4">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
-      <c r="C432" s="9"/>
+      <c r="C432" s="11"/>
       <c r="D432" s="22" t="s">
         <v>1259</v>
       </c>
@@ -19447,7 +19595,7 @@
     <row r="433" spans="1:4">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
-      <c r="C433" s="9"/>
+      <c r="C433" s="11"/>
       <c r="D433" s="22" t="s">
         <v>1260</v>
       </c>
@@ -19455,7 +19603,7 @@
     <row r="434" spans="1:4">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
-      <c r="C434" s="9"/>
+      <c r="C434" s="11"/>
       <c r="D434" s="22" t="s">
         <v>1261</v>
       </c>
@@ -19463,7 +19611,7 @@
     <row r="435" spans="1:4">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
-      <c r="C435" s="9"/>
+      <c r="C435" s="11"/>
       <c r="D435" s="22" t="s">
         <v>1262</v>
       </c>
@@ -19471,7 +19619,7 @@
     <row r="436" spans="1:4">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
-      <c r="C436" s="9"/>
+      <c r="C436" s="11"/>
       <c r="D436" s="22" t="s">
         <v>1263</v>
       </c>
@@ -19479,7 +19627,7 @@
     <row r="437" spans="1:4">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
-      <c r="C437" s="9"/>
+      <c r="C437" s="11"/>
       <c r="D437" s="22" t="s">
         <v>1264</v>
       </c>
@@ -19487,7 +19635,7 @@
     <row r="438" spans="1:4">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
-      <c r="C438" s="9"/>
+      <c r="C438" s="11"/>
       <c r="D438" s="22" t="s">
         <v>1265</v>
       </c>
@@ -19495,7 +19643,7 @@
     <row r="439" ht="18.75" spans="1:4">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
-      <c r="C439" s="9"/>
+      <c r="C439" s="11"/>
       <c r="D439" s="22" t="s">
         <v>1266</v>
       </c>
@@ -19503,7 +19651,7 @@
     <row r="440" ht="18.75" spans="1:4">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
-      <c r="C440" s="9"/>
+      <c r="C440" s="11"/>
       <c r="D440" s="22" t="s">
         <v>1267</v>
       </c>
@@ -19511,7 +19659,7 @@
     <row r="441" spans="1:4">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
-      <c r="C441" s="9"/>
+      <c r="C441" s="11"/>
       <c r="D441" s="22" t="s">
         <v>1268</v>
       </c>
@@ -19519,15 +19667,15 @@
     <row r="442" spans="1:4">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
-      <c r="C442" s="9"/>
+      <c r="C442" s="11"/>
       <c r="D442" s="22" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="443" ht="9" customHeight="1" spans="2:4">
-      <c r="B443" s="12"/>
-      <c r="C443" s="12"/>
-      <c r="D443" s="12"/>
+      <c r="B443" s="10"/>
+      <c r="C443" s="10"/>
+      <c r="D443" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -19610,7 +19758,7 @@
   <dimension ref="A1:D349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
     </sheetView>
@@ -20086,7 +20234,7 @@
     <row r="57" ht="12" customHeight="1" spans="1:4">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="9"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4">
@@ -20143,7 +20291,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="12" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -20325,9 +20473,9 @@
     </row>
     <row r="87" ht="9" customHeight="1" spans="1:4">
       <c r="A87" s="4"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" ht="24.75" spans="2:4">
       <c r="B88" s="3" t="s">
@@ -20850,9 +20998,9 @@
     </row>
     <row r="152" ht="10" customHeight="1" spans="1:4">
       <c r="A152" s="4"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" ht="24.75" spans="2:4">
       <c r="B153" s="3" t="s">
@@ -21355,9 +21503,9 @@
     </row>
     <row r="214" ht="11" customHeight="1" spans="1:4">
       <c r="A214" s="4"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="12"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
     </row>
     <row r="215" ht="24.75" spans="1:4">
       <c r="A215" s="4"/>
@@ -21544,7 +21692,7 @@
     <row r="237" ht="18.75" spans="1:4">
       <c r="A237" s="4"/>
       <c r="B237" s="16"/>
-      <c r="C237" s="9"/>
+      <c r="C237" s="11"/>
       <c r="D237" s="7"/>
     </row>
     <row r="238" spans="1:4">
@@ -22032,9 +22180,9 @@
     </row>
     <row r="297" ht="10" customHeight="1" spans="1:4">
       <c r="A297" s="4"/>
-      <c r="B297" s="11"/>
-      <c r="C297" s="12"/>
-      <c r="D297" s="12"/>
+      <c r="B297" s="9"/>
+      <c r="C297" s="10"/>
+      <c r="D297" s="10"/>
     </row>
     <row r="298" s="1" customFormat="1" ht="24" customHeight="1" spans="1:4">
       <c r="A298" s="18"/>
@@ -22251,9 +22399,9 @@
     </row>
     <row r="324" ht="11" customHeight="1" spans="1:4">
       <c r="A324" s="4"/>
-      <c r="B324" s="11"/>
-      <c r="C324" s="12"/>
-      <c r="D324" s="12"/>
+      <c r="B324" s="9"/>
+      <c r="C324" s="10"/>
+      <c r="D324" s="10"/>
     </row>
     <row r="325" ht="24.75" spans="2:4">
       <c r="B325" s="3" t="s">
@@ -22497,4 +22645,520 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="44.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="89.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.2857142857143" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" ht="23" customHeight="1" spans="2:4">
+      <c r="B2" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" ht="23" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" ht="10" customHeight="1" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="40" ht="18" spans="1:4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="59" ht="9" customHeight="1" spans="1:4">
+      <c r="A59" s="4"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A3:A59"/>
+    <mergeCell ref="B3:B58"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C11:C26"/>
+    <mergeCell ref="C28:C39"/>
+    <mergeCell ref="C41:C58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="1626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1658">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -5410,16 +5410,112 @@
   <si>
     <t>19. Summary</t>
   </si>
+  <si>
+    <t>Day 37</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>2. Setting up Your Development Environment</t>
+  </si>
+  <si>
+    <t>1.Course Agenda</t>
+  </si>
+  <si>
+    <t>2. Module Overview</t>
+  </si>
+  <si>
+    <t>3. The Case for Docker</t>
+  </si>
+  <si>
+    <t>4. Software Installation</t>
+  </si>
+  <si>
+    <t>5. Examine the Application</t>
+  </si>
+  <si>
+    <t>3.Create an Application Image</t>
+  </si>
+  <si>
+    <t>2. Understand Dockerfiles</t>
+  </si>
+  <si>
+    <t>3. Create a Custom Application Dockerfile</t>
+  </si>
+  <si>
+    <t>4. Using docker build</t>
+  </si>
+  <si>
+    <t>5. Build a Custom Application Image</t>
+  </si>
+  <si>
+    <t>6. Deploy an Application Image to a Registry</t>
+  </si>
+  <si>
+    <t>7. Use the VS Code Docker Extension</t>
+  </si>
+  <si>
+    <t>4. Run an Application Container</t>
+  </si>
+  <si>
+    <t>2. Run an Application Container</t>
+  </si>
+  <si>
+    <t>3. Using docker run</t>
+  </si>
+  <si>
+    <t>4. View Container Logs</t>
+  </si>
+  <si>
+    <t>5. Using Container Volumes</t>
+  </si>
+  <si>
+    <t>6. Create a Container Volume</t>
+  </si>
+  <si>
+    <t>5. Communicate between Multiple Containers</t>
+  </si>
+  <si>
+    <t>2. Create a Bridge Network</t>
+  </si>
+  <si>
+    <t>3. Run a Database Container in a Network</t>
+  </si>
+  <si>
+    <t>4. Run an Application Container in a Network</t>
+  </si>
+  <si>
+    <t>5. Shell into a Container</t>
+  </si>
+  <si>
+    <t>6. Building and Running Multiple Containers with Docker Compose</t>
+  </si>
+  <si>
+    <t>7. Using Docker Compose Commands</t>
+  </si>
+  <si>
+    <t>6. Container Deployment Using Docker Swarm</t>
+  </si>
+  <si>
+    <t>7. Container Scaling with Docker Swarm</t>
+  </si>
+  <si>
+    <t>8. Distribute Your App Across a Cluster</t>
+  </si>
+  <si>
+    <t>9. Setting up a Jenkins pipeline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -5544,35 +5640,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -5589,17 +5656,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5613,19 +5678,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5643,10 +5700,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5660,6 +5726,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -5667,14 +5756,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5692,6 +5781,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -5769,7 +5865,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5781,19 +5961,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5805,7 +6021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5817,115 +6033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5937,19 +6045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5993,30 +6089,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6028,15 +6100,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6056,6 +6119,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6067,6 +6154,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6093,13 +6189,13 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6111,131 +6207,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6267,6 +6363,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6275,9 +6374,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6872,8 +6968,8 @@
   <sheetPr/>
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267:D270"/>
+    <sheetView topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="C335" sqref="C335:D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -10373,74 +10469,74 @@
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="13" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="13" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="13" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="13" t="s">
         <v>331</v>
       </c>
     </row>
@@ -10453,7 +10549,7 @@
     <row r="13" ht="21" customHeight="1" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>332</v>
       </c>
       <c r="D13" s="26" t="s">
@@ -10463,7 +10559,7 @@
     <row r="14" ht="12" customHeight="1" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="7" t="s">
         <v>334</v>
       </c>
@@ -10471,7 +10567,7 @@
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="7" t="s">
         <v>335</v>
       </c>
@@ -10479,23 +10575,23 @@
     <row r="16" ht="18" customHeight="1" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="11" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="11" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="18" ht="28" customHeight="1" spans="1:4">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="26" t="s">
         <v>338</v>
       </c>
@@ -10515,7 +10611,7 @@
       <c r="B20" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>341</v>
       </c>
       <c r="D20" s="26" t="s">
@@ -10525,7 +10621,7 @@
     <row r="21" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="7" t="s">
         <v>343</v>
       </c>
@@ -10533,7 +10629,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="7" t="s">
         <v>344</v>
       </c>
@@ -10541,7 +10637,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="7" t="s">
         <v>345</v>
       </c>
@@ -10549,7 +10645,7 @@
     <row r="24" spans="1:4">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="7" t="s">
         <v>346</v>
       </c>
@@ -10557,7 +10653,7 @@
     <row r="25" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="7" t="s">
         <v>347</v>
       </c>
@@ -10565,7 +10661,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="7" t="s">
         <v>348</v>
       </c>
@@ -10579,7 +10675,7 @@
     <row r="28" spans="1:4">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>349</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -10589,7 +10685,7 @@
     <row r="29" spans="1:4">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="7" t="s">
         <v>350</v>
       </c>
@@ -10597,7 +10693,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="7" t="s">
         <v>351</v>
       </c>
@@ -10605,7 +10701,7 @@
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="7" t="s">
         <v>352</v>
       </c>
@@ -10613,7 +10709,7 @@
     <row r="32" spans="1:4">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="7" t="s">
         <v>353</v>
       </c>
@@ -10621,7 +10717,7 @@
     <row r="33" spans="1:4">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="7" t="s">
         <v>354</v>
       </c>
@@ -10629,7 +10725,7 @@
     <row r="34" spans="1:4">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="7" t="s">
         <v>355</v>
       </c>
@@ -10653,7 +10749,7 @@
       <c r="B37" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>357</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -10663,7 +10759,7 @@
     <row r="38" ht="20" customHeight="1" spans="1:4">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="7" t="s">
         <v>359</v>
       </c>
@@ -10671,7 +10767,7 @@
     <row r="39" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="7" t="s">
         <v>360</v>
       </c>
@@ -10679,7 +10775,7 @@
     <row r="40" ht="21" customHeight="1" spans="1:4">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="13"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="26" t="s">
         <v>361</v>
       </c>
@@ -10687,7 +10783,7 @@
     <row r="41" customHeight="1" spans="1:4">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="13"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="1" t="s">
         <v>362</v>
       </c>
@@ -10701,7 +10797,7 @@
     <row r="43" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>363</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -10711,7 +10807,7 @@
     <row r="44" spans="1:4">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="1" t="s">
         <v>365</v>
       </c>
@@ -10719,7 +10815,7 @@
     <row r="45" spans="1:4">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="1" t="s">
         <v>366</v>
       </c>
@@ -10727,7 +10823,7 @@
     <row r="46" spans="1:4">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="1" t="s">
         <v>367</v>
       </c>
@@ -10735,7 +10831,7 @@
     <row r="47" spans="1:4">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="1" t="s">
         <v>368</v>
       </c>
@@ -10743,7 +10839,7 @@
     <row r="48" spans="1:4">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="1" t="s">
         <v>369</v>
       </c>
@@ -10751,7 +10847,7 @@
     <row r="49" spans="1:4">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="7" t="s">
         <v>370</v>
       </c>
@@ -10763,7 +10859,7 @@
     <row r="51" ht="18" customHeight="1" spans="1:4">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="14" t="s">
         <v>371</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -10773,7 +10869,7 @@
     <row r="52" ht="18" customHeight="1" spans="1:4">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="1" t="s">
         <v>372</v>
       </c>
@@ -10781,7 +10877,7 @@
     <row r="53" ht="18" customHeight="1" spans="1:4">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="1" t="s">
         <v>373</v>
       </c>
@@ -10789,7 +10885,7 @@
     <row r="54" ht="16" customHeight="1" spans="1:4">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="29" t="s">
         <v>374</v>
       </c>
@@ -10797,7 +10893,7 @@
     <row r="55" ht="16" customHeight="1" spans="1:4">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="29" t="s">
         <v>375</v>
       </c>
@@ -10805,7 +10901,7 @@
     <row r="56" ht="16" customHeight="1" spans="1:4">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="1" t="s">
         <v>376</v>
       </c>
@@ -10813,7 +10909,7 @@
     <row r="57" ht="16" customHeight="1" spans="1:4">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="1" t="s">
         <v>377</v>
       </c>
@@ -10821,7 +10917,7 @@
     <row r="58" ht="16" customHeight="1" spans="1:4">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="29" t="s">
         <v>378</v>
       </c>
@@ -10829,7 +10925,7 @@
     <row r="59" ht="16" customHeight="1" spans="1:4">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="7" t="s">
         <v>379</v>
       </c>
@@ -10843,7 +10939,7 @@
     <row r="61" ht="16" customHeight="1" spans="1:4">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="14" t="s">
         <v>380</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -10853,7 +10949,7 @@
     <row r="62" ht="16" customHeight="1" spans="1:4">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="1" t="s">
         <v>381</v>
       </c>
@@ -10861,7 +10957,7 @@
     <row r="63" ht="16" customHeight="1" spans="1:4">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="1" t="s">
         <v>382</v>
       </c>
@@ -10869,7 +10965,7 @@
     <row r="64" ht="16" customHeight="1" spans="1:4">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="1" t="s">
         <v>383</v>
       </c>
@@ -10877,7 +10973,7 @@
     <row r="65" ht="16" customHeight="1" spans="1:4">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="29" t="s">
         <v>384</v>
       </c>
@@ -10885,7 +10981,7 @@
     <row r="66" ht="16" customHeight="1" spans="1:4">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="29" t="s">
         <v>385</v>
       </c>
@@ -10893,7 +10989,7 @@
     <row r="67" ht="16" customHeight="1" spans="1:4">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="1" t="s">
         <v>386</v>
       </c>
@@ -10901,7 +10997,7 @@
     <row r="68" spans="1:4">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="7" t="s">
         <v>370</v>
       </c>
@@ -10914,7 +11010,7 @@
     <row r="70" spans="1:4">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="14" t="s">
         <v>387</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -10924,7 +11020,7 @@
     <row r="71" spans="1:4">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="1" t="s">
         <v>389</v>
       </c>
@@ -10932,7 +11028,7 @@
     <row r="72" spans="1:4">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="1" t="s">
         <v>390</v>
       </c>
@@ -10940,7 +11036,7 @@
     <row r="73" spans="1:4">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="1" t="s">
         <v>391</v>
       </c>
@@ -10948,7 +11044,7 @@
     <row r="74" spans="1:4">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="29" t="s">
         <v>392</v>
       </c>
@@ -10956,7 +11052,7 @@
     <row r="75" spans="1:4">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="29" t="s">
         <v>393</v>
       </c>
@@ -10964,7 +11060,7 @@
     <row r="76" ht="17" customHeight="1" spans="1:4">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="1" t="s">
         <v>394</v>
       </c>
@@ -10972,7 +11068,7 @@
     <row r="77" customHeight="1" spans="1:4">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="1" t="s">
         <v>395</v>
       </c>
@@ -10996,7 +11092,7 @@
       <c r="B80" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="14" t="s">
         <v>397</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -11006,7 +11102,7 @@
     <row r="81" spans="1:4">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="7" t="s">
         <v>398</v>
       </c>
@@ -11014,7 +11110,7 @@
     <row r="82" spans="1:4">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="7" t="s">
         <v>399</v>
       </c>
@@ -11022,7 +11118,7 @@
     <row r="83" spans="1:4">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="26" t="s">
         <v>400</v>
       </c>
@@ -11030,7 +11126,7 @@
     <row r="84" spans="1:4">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="1" t="s">
         <v>401</v>
       </c>
@@ -11038,7 +11134,7 @@
     <row r="85" spans="1:4">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="26" t="s">
         <v>402</v>
       </c>
@@ -11046,7 +11142,7 @@
     <row r="86" spans="1:4">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="7" t="s">
         <v>403</v>
       </c>
@@ -11054,7 +11150,7 @@
     <row r="87" spans="1:4">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="7" t="s">
         <v>404</v>
       </c>
@@ -11062,7 +11158,7 @@
     <row r="88" spans="1:4">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="7" t="s">
         <v>405</v>
       </c>
@@ -11070,7 +11166,7 @@
     <row r="89" spans="1:4">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="7" t="s">
         <v>406</v>
       </c>
@@ -11084,7 +11180,7 @@
     <row r="91" spans="1:4">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="14" t="s">
         <v>407</v>
       </c>
       <c r="D91" s="7" t="s">
@@ -11094,7 +11190,7 @@
     <row r="92" spans="1:4">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="1" t="s">
         <v>409</v>
       </c>
@@ -11102,7 +11198,7 @@
     <row r="93" spans="1:4">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="1" t="s">
         <v>410</v>
       </c>
@@ -11110,7 +11206,7 @@
     <row r="94" spans="1:4">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="1" t="s">
         <v>411</v>
       </c>
@@ -11118,7 +11214,7 @@
     <row r="95" spans="1:4">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="1" t="s">
         <v>412</v>
       </c>
@@ -11126,7 +11222,7 @@
     <row r="96" spans="1:4">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="1" t="s">
         <v>413</v>
       </c>
@@ -11134,7 +11230,7 @@
     <row r="97" spans="1:4">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="1" t="s">
         <v>414</v>
       </c>
@@ -11142,7 +11238,7 @@
     <row r="98" spans="1:4">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="29" t="s">
         <v>415</v>
       </c>
@@ -11150,7 +11246,7 @@
     <row r="99" spans="1:4">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="1" t="s">
         <v>416</v>
       </c>
@@ -11158,7 +11254,7 @@
     <row r="100" spans="1:4">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="29" t="s">
         <v>406</v>
       </c>
@@ -11190,7 +11286,7 @@
       <c r="B104" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="14" t="s">
         <v>419</v>
       </c>
       <c r="D104" s="7" t="s">
@@ -11200,7 +11296,7 @@
     <row r="105" spans="1:4">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="13"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="7" t="s">
         <v>420</v>
       </c>
@@ -11208,7 +11304,7 @@
     <row r="106" spans="1:4">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="7" t="s">
         <v>421</v>
       </c>
@@ -11216,7 +11312,7 @@
     <row r="107" spans="1:4">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="13"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="26" t="s">
         <v>422</v>
       </c>
@@ -11224,7 +11320,7 @@
     <row r="108" spans="1:4">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="13"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="1" t="s">
         <v>423</v>
       </c>
@@ -11232,7 +11328,7 @@
     <row r="109" spans="1:4">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="14"/>
       <c r="D109" s="26" t="s">
         <v>424</v>
       </c>
@@ -11240,7 +11336,7 @@
     <row r="110" spans="1:4">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="13"/>
+      <c r="C110" s="14"/>
       <c r="D110" s="7" t="s">
         <v>425</v>
       </c>
@@ -11248,7 +11344,7 @@
     <row r="111" spans="1:4">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="14"/>
       <c r="D111" s="7" t="s">
         <v>426</v>
       </c>
@@ -11256,7 +11352,7 @@
     <row r="112" spans="1:4">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="7" t="s">
         <v>427</v>
       </c>
@@ -11264,7 +11360,7 @@
     <row r="113" spans="1:4">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="14"/>
       <c r="D113" s="7" t="s">
         <v>428</v>
       </c>
@@ -11272,7 +11368,7 @@
     <row r="114" spans="1:4">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="14"/>
       <c r="D114" s="7" t="s">
         <v>429</v>
       </c>
@@ -11280,7 +11376,7 @@
     <row r="115" spans="1:4">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="13"/>
+      <c r="C115" s="14"/>
       <c r="D115" s="29" t="s">
         <v>430</v>
       </c>
@@ -11288,7 +11384,7 @@
     <row r="116" spans="1:4">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="13"/>
+      <c r="C116" s="14"/>
       <c r="D116" s="29" t="s">
         <v>431</v>
       </c>
@@ -11296,7 +11392,7 @@
     <row r="117" spans="1:4">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="13"/>
+      <c r="C117" s="14"/>
       <c r="D117" s="29" t="s">
         <v>432</v>
       </c>
@@ -11304,7 +11400,7 @@
     <row r="118" spans="1:4">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="14"/>
       <c r="D118" s="29" t="s">
         <v>433</v>
       </c>
@@ -11312,7 +11408,7 @@
     <row r="119" spans="1:4">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
-      <c r="C119" s="13"/>
+      <c r="C119" s="14"/>
       <c r="D119" s="29" t="s">
         <v>434</v>
       </c>
@@ -11320,7 +11416,7 @@
     <row r="120" spans="1:4">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="13"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="29" t="s">
         <v>435</v>
       </c>
@@ -11328,7 +11424,7 @@
     <row r="121" spans="1:4">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="13"/>
+      <c r="C121" s="14"/>
       <c r="D121" s="29" t="s">
         <v>436</v>
       </c>
@@ -11342,7 +11438,7 @@
     <row r="123" spans="1:4">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="14" t="s">
         <v>437</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -11352,7 +11448,7 @@
     <row r="124" spans="1:4">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
-      <c r="C124" s="13"/>
+      <c r="C124" s="14"/>
       <c r="D124" s="1" t="s">
         <v>439</v>
       </c>
@@ -11360,7 +11456,7 @@
     <row r="125" spans="1:4">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
-      <c r="C125" s="13"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="29" t="s">
         <v>440</v>
       </c>
@@ -11368,7 +11464,7 @@
     <row r="126" spans="1:4">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
-      <c r="C126" s="13"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="29" t="s">
         <v>441</v>
       </c>
@@ -11376,7 +11472,7 @@
     <row r="127" spans="1:4">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
-      <c r="C127" s="13"/>
+      <c r="C127" s="14"/>
       <c r="D127" s="29" t="s">
         <v>442</v>
       </c>
@@ -11384,7 +11480,7 @@
     <row r="128" spans="1:4">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
-      <c r="C128" s="13"/>
+      <c r="C128" s="14"/>
       <c r="D128" s="29" t="s">
         <v>443</v>
       </c>
@@ -11392,7 +11488,7 @@
     <row r="129" spans="1:4">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
-      <c r="C129" s="13"/>
+      <c r="C129" s="14"/>
       <c r="D129" s="29" t="s">
         <v>444</v>
       </c>
@@ -11400,7 +11496,7 @@
     <row r="130" spans="1:4">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
-      <c r="C130" s="13"/>
+      <c r="C130" s="14"/>
       <c r="D130" s="29" t="s">
         <v>445</v>
       </c>
@@ -11408,7 +11504,7 @@
     <row r="131" spans="1:4">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="14"/>
       <c r="D131" s="29" t="s">
         <v>446</v>
       </c>
@@ -11416,7 +11512,7 @@
     <row r="132" spans="1:4">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
-      <c r="C132" s="13"/>
+      <c r="C132" s="14"/>
       <c r="D132" s="7" t="s">
         <v>447</v>
       </c>
@@ -11424,7 +11520,7 @@
     <row r="133" spans="1:4">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
-      <c r="C133" s="13"/>
+      <c r="C133" s="14"/>
       <c r="D133" s="1" t="s">
         <v>448</v>
       </c>
@@ -11432,7 +11528,7 @@
     <row r="134" spans="1:4">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
-      <c r="C134" s="13"/>
+      <c r="C134" s="14"/>
       <c r="D134" s="1" t="s">
         <v>449</v>
       </c>
@@ -11440,7 +11536,7 @@
     <row r="135" spans="1:4">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
-      <c r="C135" s="13"/>
+      <c r="C135" s="14"/>
       <c r="D135" s="29" t="s">
         <v>450</v>
       </c>
@@ -11448,7 +11544,7 @@
     <row r="136" spans="1:4">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
-      <c r="C136" s="13"/>
+      <c r="C136" s="14"/>
       <c r="D136" s="29" t="s">
         <v>451</v>
       </c>
@@ -11456,7 +11552,7 @@
     <row r="137" spans="1:4">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
-      <c r="C137" s="13"/>
+      <c r="C137" s="14"/>
       <c r="D137" s="1" t="s">
         <v>452</v>
       </c>
@@ -11464,7 +11560,7 @@
     <row r="138" spans="1:4">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="13"/>
+      <c r="C138" s="14"/>
       <c r="D138" s="7" t="s">
         <v>453</v>
       </c>
@@ -11478,7 +11574,7 @@
     <row r="140" spans="1:4">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="14" t="s">
         <v>454</v>
       </c>
       <c r="D140" s="7" t="s">
@@ -11488,7 +11584,7 @@
     <row r="141" spans="1:4">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
-      <c r="C141" s="13"/>
+      <c r="C141" s="14"/>
       <c r="D141" s="1" t="s">
         <v>455</v>
       </c>
@@ -11496,7 +11592,7 @@
     <row r="142" spans="1:4">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
-      <c r="C142" s="13"/>
+      <c r="C142" s="14"/>
       <c r="D142" s="7" t="s">
         <v>456</v>
       </c>
@@ -11504,7 +11600,7 @@
     <row r="143" spans="1:4">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
-      <c r="C143" s="13"/>
+      <c r="C143" s="14"/>
       <c r="D143" s="7" t="s">
         <v>457</v>
       </c>
@@ -11512,7 +11608,7 @@
     <row r="144" spans="1:4">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
-      <c r="C144" s="13"/>
+      <c r="C144" s="14"/>
       <c r="D144" s="7" t="s">
         <v>458</v>
       </c>
@@ -11520,7 +11616,7 @@
     <row r="145" spans="1:4">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
-      <c r="C145" s="13"/>
+      <c r="C145" s="14"/>
       <c r="D145" s="7" t="s">
         <v>459</v>
       </c>
@@ -11528,7 +11624,7 @@
     <row r="146" spans="1:4">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
-      <c r="C146" s="13"/>
+      <c r="C146" s="14"/>
       <c r="D146" s="1" t="s">
         <v>395</v>
       </c>
@@ -11552,23 +11648,23 @@
       <c r="B149" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="D149" s="13" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="12"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
-      <c r="C151" s="13"/>
+      <c r="C151" s="14"/>
       <c r="D151" s="7" t="s">
         <v>342</v>
       </c>
@@ -11576,7 +11672,7 @@
     <row r="152" spans="1:4">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
-      <c r="C152" s="13"/>
+      <c r="C152" s="14"/>
       <c r="D152" s="7" t="s">
         <v>463</v>
       </c>
@@ -11584,7 +11680,7 @@
     <row r="153" spans="1:4">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
-      <c r="C153" s="13"/>
+      <c r="C153" s="14"/>
       <c r="D153" s="7" t="s">
         <v>464</v>
       </c>
@@ -11592,7 +11688,7 @@
     <row r="154" spans="1:4">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
-      <c r="C154" s="13"/>
+      <c r="C154" s="14"/>
       <c r="D154" s="7" t="s">
         <v>465</v>
       </c>
@@ -11600,7 +11696,7 @@
     <row r="155" spans="1:4">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
-      <c r="C155" s="13"/>
+      <c r="C155" s="14"/>
       <c r="D155" s="7" t="s">
         <v>466</v>
       </c>
@@ -11608,7 +11704,7 @@
     <row r="156" spans="1:4">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
-      <c r="C156" s="13"/>
+      <c r="C156" s="14"/>
       <c r="D156" s="7" t="s">
         <v>467</v>
       </c>
@@ -11616,7 +11712,7 @@
     <row r="157" spans="1:4">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
-      <c r="C157" s="13"/>
+      <c r="C157" s="14"/>
       <c r="D157" s="7" t="s">
         <v>395</v>
       </c>
@@ -11624,13 +11720,13 @@
     <row r="158" ht="15.75" spans="1:4">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
-      <c r="C158" s="13"/>
+      <c r="C158" s="14"/>
       <c r="D158" s="29"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="14" t="s">
         <v>468</v>
       </c>
       <c r="D159" s="7" t="s">
@@ -11640,7 +11736,7 @@
     <row r="160" spans="1:4">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
-      <c r="C160" s="13"/>
+      <c r="C160" s="14"/>
       <c r="D160" s="7" t="s">
         <v>469</v>
       </c>
@@ -11648,7 +11744,7 @@
     <row r="161" spans="1:4">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
-      <c r="C161" s="13"/>
+      <c r="C161" s="14"/>
       <c r="D161" s="7" t="s">
         <v>470</v>
       </c>
@@ -11656,7 +11752,7 @@
     <row r="162" spans="1:4">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
-      <c r="C162" s="13"/>
+      <c r="C162" s="14"/>
       <c r="D162" s="7" t="s">
         <v>471</v>
       </c>
@@ -11664,7 +11760,7 @@
     <row r="163" spans="1:4">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
-      <c r="C163" s="13"/>
+      <c r="C163" s="14"/>
       <c r="D163" s="7" t="s">
         <v>472</v>
       </c>
@@ -11672,7 +11768,7 @@
     <row r="164" spans="1:4">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
-      <c r="C164" s="13"/>
+      <c r="C164" s="14"/>
       <c r="D164" s="7" t="s">
         <v>473</v>
       </c>
@@ -11680,7 +11776,7 @@
     <row r="165" spans="1:4">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
-      <c r="C165" s="13"/>
+      <c r="C165" s="14"/>
       <c r="D165" s="7" t="s">
         <v>474</v>
       </c>
@@ -11688,7 +11784,7 @@
     <row r="166" spans="1:4">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
-      <c r="C166" s="13"/>
+      <c r="C166" s="14"/>
       <c r="D166" s="7" t="s">
         <v>406</v>
       </c>
@@ -11700,7 +11796,7 @@
     <row r="168" spans="1:4">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="14" t="s">
         <v>475</v>
       </c>
       <c r="D168" s="7" t="s">
@@ -11710,7 +11806,7 @@
     <row r="169" spans="1:4">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
-      <c r="C169" s="13"/>
+      <c r="C169" s="14"/>
       <c r="D169" s="1" t="s">
         <v>476</v>
       </c>
@@ -11718,7 +11814,7 @@
     <row r="170" spans="1:4">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
-      <c r="C170" s="13"/>
+      <c r="C170" s="14"/>
       <c r="D170" s="1" t="s">
         <v>477</v>
       </c>
@@ -11726,7 +11822,7 @@
     <row r="171" spans="1:4">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
-      <c r="C171" s="13"/>
+      <c r="C171" s="14"/>
       <c r="D171" s="29" t="s">
         <v>478</v>
       </c>
@@ -11734,7 +11830,7 @@
     <row r="172" spans="1:4">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
-      <c r="C172" s="13"/>
+      <c r="C172" s="14"/>
       <c r="D172" s="29" t="s">
         <v>479</v>
       </c>
@@ -11742,7 +11838,7 @@
     <row r="173" spans="1:4">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
-      <c r="C173" s="13"/>
+      <c r="C173" s="14"/>
       <c r="D173" s="1" t="s">
         <v>480</v>
       </c>
@@ -11750,7 +11846,7 @@
     <row r="174" spans="1:4">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
-      <c r="C174" s="13"/>
+      <c r="C174" s="14"/>
       <c r="D174" s="7" t="s">
         <v>481</v>
       </c>
@@ -11758,7 +11854,7 @@
     <row r="175" spans="1:4">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
-      <c r="C175" s="13"/>
+      <c r="C175" s="14"/>
       <c r="D175" s="29" t="s">
         <v>482</v>
       </c>
@@ -11766,7 +11862,7 @@
     <row r="176" spans="1:4">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
-      <c r="C176" s="13"/>
+      <c r="C176" s="14"/>
       <c r="D176" s="7" t="s">
         <v>483</v>
       </c>
@@ -11774,7 +11870,7 @@
     <row r="177" spans="1:4">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
-      <c r="C177" s="13"/>
+      <c r="C177" s="14"/>
       <c r="D177" s="7" t="s">
         <v>406</v>
       </c>
@@ -11798,7 +11894,7 @@
       <c r="B180" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="14" t="s">
         <v>485</v>
       </c>
       <c r="D180" s="7" t="s">
@@ -11808,7 +11904,7 @@
     <row r="181" spans="1:4">
       <c r="A181" s="4"/>
       <c r="B181" s="30"/>
-      <c r="C181" s="13"/>
+      <c r="C181" s="14"/>
       <c r="D181" s="1" t="s">
         <v>486</v>
       </c>
@@ -11816,7 +11912,7 @@
     <row r="182" spans="1:4">
       <c r="A182" s="4"/>
       <c r="B182" s="30"/>
-      <c r="C182" s="13"/>
+      <c r="C182" s="14"/>
       <c r="D182" s="7" t="s">
         <v>487</v>
       </c>
@@ -11824,7 +11920,7 @@
     <row r="183" spans="1:4">
       <c r="A183" s="4"/>
       <c r="B183" s="30"/>
-      <c r="C183" s="13"/>
+      <c r="C183" s="14"/>
       <c r="D183" s="7" t="s">
         <v>488</v>
       </c>
@@ -11832,7 +11928,7 @@
     <row r="184" spans="1:4">
       <c r="A184" s="4"/>
       <c r="B184" s="30"/>
-      <c r="C184" s="13"/>
+      <c r="C184" s="14"/>
       <c r="D184" s="7" t="s">
         <v>489</v>
       </c>
@@ -11840,7 +11936,7 @@
     <row r="185" spans="1:4">
       <c r="A185" s="4"/>
       <c r="B185" s="30"/>
-      <c r="C185" s="13"/>
+      <c r="C185" s="14"/>
       <c r="D185" s="7" t="s">
         <v>490</v>
       </c>
@@ -11848,7 +11944,7 @@
     <row r="186" spans="1:4">
       <c r="A186" s="4"/>
       <c r="B186" s="30"/>
-      <c r="C186" s="13"/>
+      <c r="C186" s="14"/>
       <c r="D186" s="7" t="s">
         <v>491</v>
       </c>
@@ -11856,7 +11952,7 @@
     <row r="187" spans="1:4">
       <c r="A187" s="4"/>
       <c r="B187" s="30"/>
-      <c r="C187" s="13"/>
+      <c r="C187" s="14"/>
       <c r="D187" s="7" t="s">
         <v>492</v>
       </c>
@@ -11864,7 +11960,7 @@
     <row r="188" spans="1:4">
       <c r="A188" s="4"/>
       <c r="B188" s="30"/>
-      <c r="C188" s="13"/>
+      <c r="C188" s="14"/>
       <c r="D188" s="7" t="s">
         <v>493</v>
       </c>
@@ -11872,7 +11968,7 @@
     <row r="189" spans="1:4">
       <c r="A189" s="4"/>
       <c r="B189" s="30"/>
-      <c r="C189" s="13"/>
+      <c r="C189" s="14"/>
       <c r="D189" s="7" t="s">
         <v>494</v>
       </c>
@@ -11880,7 +11976,7 @@
     <row r="190" spans="1:4">
       <c r="A190" s="4"/>
       <c r="B190" s="30"/>
-      <c r="C190" s="13"/>
+      <c r="C190" s="14"/>
       <c r="D190" s="7" t="s">
         <v>495</v>
       </c>
@@ -11888,7 +11984,7 @@
     <row r="191" spans="1:4">
       <c r="A191" s="4"/>
       <c r="B191" s="30"/>
-      <c r="C191" s="13"/>
+      <c r="C191" s="14"/>
       <c r="D191" s="7" t="s">
         <v>496</v>
       </c>
@@ -11896,7 +11992,7 @@
     <row r="192" spans="1:4">
       <c r="A192" s="4"/>
       <c r="B192" s="30"/>
-      <c r="C192" s="13"/>
+      <c r="C192" s="14"/>
       <c r="D192" s="7" t="s">
         <v>497</v>
       </c>
@@ -11904,7 +12000,7 @@
     <row r="193" spans="1:4">
       <c r="A193" s="4"/>
       <c r="B193" s="30"/>
-      <c r="C193" s="13"/>
+      <c r="C193" s="14"/>
       <c r="D193" s="7" t="s">
         <v>498</v>
       </c>
@@ -11912,7 +12008,7 @@
     <row r="194" spans="1:4">
       <c r="A194" s="4"/>
       <c r="B194" s="30"/>
-      <c r="C194" s="13"/>
+      <c r="C194" s="14"/>
       <c r="D194" s="1" t="s">
         <v>499</v>
       </c>
@@ -11920,7 +12016,7 @@
     <row r="195" spans="1:4">
       <c r="A195" s="4"/>
       <c r="B195" s="30"/>
-      <c r="C195" s="13"/>
+      <c r="C195" s="14"/>
       <c r="D195" s="1" t="s">
         <v>500</v>
       </c>
@@ -11928,7 +12024,7 @@
     <row r="196" spans="1:4">
       <c r="A196" s="4"/>
       <c r="B196" s="30"/>
-      <c r="C196" s="13"/>
+      <c r="C196" s="14"/>
       <c r="D196" s="1" t="s">
         <v>501</v>
       </c>
@@ -11941,7 +12037,7 @@
     <row r="198" spans="1:4">
       <c r="A198" s="4"/>
       <c r="B198" s="30"/>
-      <c r="C198" s="13" t="s">
+      <c r="C198" s="14" t="s">
         <v>502</v>
       </c>
       <c r="D198" s="7" t="s">
@@ -11951,7 +12047,7 @@
     <row r="199" spans="1:4">
       <c r="A199" s="4"/>
       <c r="B199" s="30"/>
-      <c r="C199" s="13"/>
+      <c r="C199" s="14"/>
       <c r="D199" s="7" t="s">
         <v>504</v>
       </c>
@@ -11959,7 +12055,7 @@
     <row r="200" spans="1:4">
       <c r="A200" s="4"/>
       <c r="B200" s="30"/>
-      <c r="C200" s="13"/>
+      <c r="C200" s="14"/>
       <c r="D200" s="7" t="s">
         <v>505</v>
       </c>
@@ -11967,7 +12063,7 @@
     <row r="201" spans="1:4">
       <c r="A201" s="4"/>
       <c r="B201" s="30"/>
-      <c r="C201" s="13"/>
+      <c r="C201" s="14"/>
       <c r="D201" s="7" t="s">
         <v>506</v>
       </c>
@@ -11975,7 +12071,7 @@
     <row r="202" spans="1:4">
       <c r="A202" s="4"/>
       <c r="B202" s="30"/>
-      <c r="C202" s="13"/>
+      <c r="C202" s="14"/>
       <c r="D202" s="7" t="s">
         <v>507</v>
       </c>
@@ -11987,7 +12083,7 @@
     <row r="204" spans="1:4">
       <c r="A204" s="4"/>
       <c r="B204" s="30"/>
-      <c r="C204" s="13" t="s">
+      <c r="C204" s="14" t="s">
         <v>508</v>
       </c>
       <c r="D204" s="7" t="s">
@@ -11997,7 +12093,7 @@
     <row r="205" spans="1:4">
       <c r="A205" s="4"/>
       <c r="B205" s="30"/>
-      <c r="C205" s="13"/>
+      <c r="C205" s="14"/>
       <c r="D205" s="7" t="s">
         <v>510</v>
       </c>
@@ -12005,7 +12101,7 @@
     <row r="206" spans="1:4">
       <c r="A206" s="4"/>
       <c r="B206" s="30"/>
-      <c r="C206" s="13"/>
+      <c r="C206" s="14"/>
       <c r="D206" s="7" t="s">
         <v>511</v>
       </c>
@@ -12013,7 +12109,7 @@
     <row r="207" spans="1:4">
       <c r="A207" s="4"/>
       <c r="B207" s="30"/>
-      <c r="C207" s="13"/>
+      <c r="C207" s="14"/>
       <c r="D207" s="7" t="s">
         <v>512</v>
       </c>
@@ -12021,7 +12117,7 @@
     <row r="208" spans="1:4">
       <c r="A208" s="4"/>
       <c r="B208" s="30"/>
-      <c r="C208" s="13"/>
+      <c r="C208" s="14"/>
       <c r="D208" s="7" t="s">
         <v>513</v>
       </c>
@@ -12029,7 +12125,7 @@
     <row r="209" spans="1:4">
       <c r="A209" s="4"/>
       <c r="B209" s="30"/>
-      <c r="C209" s="13"/>
+      <c r="C209" s="14"/>
       <c r="D209" s="7" t="s">
         <v>514</v>
       </c>
@@ -12053,7 +12149,7 @@
       <c r="B212" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C212" s="13" t="s">
+      <c r="C212" s="14" t="s">
         <v>516</v>
       </c>
       <c r="D212" s="7" t="s">
@@ -12063,7 +12159,7 @@
     <row r="213" spans="1:4">
       <c r="A213" s="4"/>
       <c r="B213" s="30"/>
-      <c r="C213" s="13"/>
+      <c r="C213" s="14"/>
       <c r="D213" s="7" t="s">
         <v>518</v>
       </c>
@@ -12071,7 +12167,7 @@
     <row r="214" spans="1:4">
       <c r="A214" s="4"/>
       <c r="B214" s="30"/>
-      <c r="C214" s="13"/>
+      <c r="C214" s="14"/>
       <c r="D214" s="7" t="s">
         <v>519</v>
       </c>
@@ -12079,7 +12175,7 @@
     <row r="215" spans="1:4">
       <c r="A215" s="4"/>
       <c r="B215" s="30"/>
-      <c r="C215" s="13"/>
+      <c r="C215" s="14"/>
       <c r="D215" s="7" t="s">
         <v>520</v>
       </c>
@@ -12087,7 +12183,7 @@
     <row r="216" spans="1:4">
       <c r="A216" s="4"/>
       <c r="B216" s="30"/>
-      <c r="C216" s="13"/>
+      <c r="C216" s="14"/>
       <c r="D216" s="7" t="s">
         <v>521</v>
       </c>
@@ -12095,7 +12191,7 @@
     <row r="217" spans="1:4">
       <c r="A217" s="4"/>
       <c r="B217" s="30"/>
-      <c r="C217" s="13"/>
+      <c r="C217" s="14"/>
       <c r="D217" s="7" t="s">
         <v>522</v>
       </c>
@@ -12103,15 +12199,15 @@
     <row r="218" spans="1:4">
       <c r="A218" s="4"/>
       <c r="B218" s="30"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="14" t="s">
+      <c r="C218" s="14"/>
+      <c r="D218" s="11" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="4"/>
       <c r="B219" s="30"/>
-      <c r="C219" s="13"/>
+      <c r="C219" s="14"/>
       <c r="D219" s="7" t="s">
         <v>524</v>
       </c>
@@ -12125,7 +12221,7 @@
     <row r="221" spans="1:4">
       <c r="A221" s="4"/>
       <c r="B221" s="30"/>
-      <c r="C221" s="13" t="s">
+      <c r="C221" s="14" t="s">
         <v>525</v>
       </c>
       <c r="D221" s="7" t="s">
@@ -12135,7 +12231,7 @@
     <row r="222" spans="1:4">
       <c r="A222" s="4"/>
       <c r="B222" s="30"/>
-      <c r="C222" s="13"/>
+      <c r="C222" s="14"/>
       <c r="D222" s="1" t="s">
         <v>526</v>
       </c>
@@ -12143,7 +12239,7 @@
     <row r="223" spans="1:4">
       <c r="A223" s="4"/>
       <c r="B223" s="30"/>
-      <c r="C223" s="13"/>
+      <c r="C223" s="14"/>
       <c r="D223" s="1" t="s">
         <v>527</v>
       </c>
@@ -12151,7 +12247,7 @@
     <row r="224" spans="1:4">
       <c r="A224" s="4"/>
       <c r="B224" s="30"/>
-      <c r="C224" s="13"/>
+      <c r="C224" s="14"/>
       <c r="D224" s="1" t="s">
         <v>528</v>
       </c>
@@ -12159,7 +12255,7 @@
     <row r="225" spans="1:4">
       <c r="A225" s="4"/>
       <c r="B225" s="30"/>
-      <c r="C225" s="13"/>
+      <c r="C225" s="14"/>
       <c r="D225" s="1" t="s">
         <v>529</v>
       </c>
@@ -12167,7 +12263,7 @@
     <row r="226" spans="1:4">
       <c r="A226" s="4"/>
       <c r="B226" s="30"/>
-      <c r="C226" s="13"/>
+      <c r="C226" s="14"/>
       <c r="D226" s="1" t="s">
         <v>530</v>
       </c>
@@ -12175,7 +12271,7 @@
     <row r="227" spans="1:4">
       <c r="A227" s="4"/>
       <c r="B227" s="30"/>
-      <c r="C227" s="13"/>
+      <c r="C227" s="14"/>
       <c r="D227" s="1" t="s">
         <v>531</v>
       </c>
@@ -12183,13 +12279,13 @@
     <row r="228" ht="15.75" spans="1:4">
       <c r="A228" s="4"/>
       <c r="B228" s="30"/>
-      <c r="C228" s="13"/>
+      <c r="C228" s="14"/>
       <c r="D228" s="7"/>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="4"/>
       <c r="B229" s="30"/>
-      <c r="C229" s="13" t="s">
+      <c r="C229" s="14" t="s">
         <v>532</v>
       </c>
       <c r="D229" s="7" t="s">
@@ -12199,7 +12295,7 @@
     <row r="230" spans="1:4">
       <c r="A230" s="4"/>
       <c r="B230" s="30"/>
-      <c r="C230" s="13"/>
+      <c r="C230" s="14"/>
       <c r="D230" s="7" t="s">
         <v>534</v>
       </c>
@@ -12207,7 +12303,7 @@
     <row r="231" spans="1:4">
       <c r="A231" s="4"/>
       <c r="B231" s="30"/>
-      <c r="C231" s="13"/>
+      <c r="C231" s="14"/>
       <c r="D231" s="7" t="s">
         <v>535</v>
       </c>
@@ -12215,7 +12311,7 @@
     <row r="232" spans="1:4">
       <c r="A232" s="4"/>
       <c r="B232" s="30"/>
-      <c r="C232" s="13"/>
+      <c r="C232" s="14"/>
       <c r="D232" s="7" t="s">
         <v>536</v>
       </c>
@@ -12223,7 +12319,7 @@
     <row r="233" spans="1:4">
       <c r="A233" s="4"/>
       <c r="B233" s="30"/>
-      <c r="C233" s="13"/>
+      <c r="C233" s="14"/>
       <c r="D233" s="7" t="s">
         <v>537</v>
       </c>
@@ -12231,7 +12327,7 @@
     <row r="234" spans="1:4">
       <c r="A234" s="4"/>
       <c r="B234" s="30"/>
-      <c r="C234" s="13"/>
+      <c r="C234" s="14"/>
       <c r="D234" s="7" t="s">
         <v>538</v>
       </c>
@@ -12239,23 +12335,23 @@
     <row r="235" spans="1:4">
       <c r="A235" s="4"/>
       <c r="B235" s="30"/>
-      <c r="C235" s="13"/>
-      <c r="D235" s="14" t="s">
+      <c r="C235" s="14"/>
+      <c r="D235" s="11" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="4"/>
       <c r="B236" s="30"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="14" t="s">
+      <c r="C236" s="14"/>
+      <c r="D236" s="11" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="4"/>
       <c r="B237" s="30"/>
-      <c r="C237" s="13"/>
+      <c r="C237" s="14"/>
       <c r="D237" s="7" t="s">
         <v>541</v>
       </c>
@@ -12263,7 +12359,7 @@
     <row r="238" spans="1:4">
       <c r="A238" s="4"/>
       <c r="B238" s="30"/>
-      <c r="C238" s="13"/>
+      <c r="C238" s="14"/>
       <c r="D238" s="7" t="s">
         <v>542</v>
       </c>
@@ -12271,7 +12367,7 @@
     <row r="239" spans="1:4">
       <c r="A239" s="4"/>
       <c r="B239" s="30"/>
-      <c r="C239" s="13"/>
+      <c r="C239" s="14"/>
       <c r="D239" s="7" t="s">
         <v>543</v>
       </c>
@@ -12279,7 +12375,7 @@
     <row r="240" spans="1:4">
       <c r="A240" s="4"/>
       <c r="B240" s="30"/>
-      <c r="C240" s="13"/>
+      <c r="C240" s="14"/>
       <c r="D240" s="7" t="s">
         <v>544</v>
       </c>
@@ -12287,7 +12383,7 @@
     <row r="241" spans="1:4">
       <c r="A241" s="4"/>
       <c r="B241" s="30"/>
-      <c r="C241" s="13"/>
+      <c r="C241" s="14"/>
       <c r="D241" s="1" t="s">
         <v>545</v>
       </c>
@@ -12312,7 +12408,7 @@
       <c r="B244" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C244" s="13" t="s">
+      <c r="C244" s="14" t="s">
         <v>547</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -12322,7 +12418,7 @@
     <row r="245" spans="1:4">
       <c r="A245" s="4"/>
       <c r="B245" s="30"/>
-      <c r="C245" s="13"/>
+      <c r="C245" s="14"/>
       <c r="D245" s="7" t="s">
         <v>342</v>
       </c>
@@ -12330,7 +12426,7 @@
     <row r="246" spans="1:4">
       <c r="A246" s="4"/>
       <c r="B246" s="30"/>
-      <c r="C246" s="13"/>
+      <c r="C246" s="14"/>
       <c r="D246" s="1" t="s">
         <v>549</v>
       </c>
@@ -12338,7 +12434,7 @@
     <row r="247" spans="1:4">
       <c r="A247" s="4"/>
       <c r="B247" s="30"/>
-      <c r="C247" s="13"/>
+      <c r="C247" s="14"/>
       <c r="D247" s="7" t="s">
         <v>550</v>
       </c>
@@ -12346,7 +12442,7 @@
     <row r="248" spans="1:4">
       <c r="A248" s="4"/>
       <c r="B248" s="30"/>
-      <c r="C248" s="13"/>
+      <c r="C248" s="14"/>
       <c r="D248" s="7" t="s">
         <v>551</v>
       </c>
@@ -12354,7 +12450,7 @@
     <row r="249" spans="1:4">
       <c r="A249" s="4"/>
       <c r="B249" s="30"/>
-      <c r="C249" s="13"/>
+      <c r="C249" s="14"/>
       <c r="D249" s="7" t="s">
         <v>552</v>
       </c>
@@ -12367,7 +12463,7 @@
     <row r="251" spans="1:4">
       <c r="A251" s="4"/>
       <c r="B251" s="30"/>
-      <c r="C251" s="13" t="s">
+      <c r="C251" s="14" t="s">
         <v>553</v>
       </c>
       <c r="D251" s="7" t="s">
@@ -12377,7 +12473,7 @@
     <row r="252" spans="1:4">
       <c r="A252" s="4"/>
       <c r="B252" s="30"/>
-      <c r="C252" s="13"/>
+      <c r="C252" s="14"/>
       <c r="D252" s="1" t="s">
         <v>555</v>
       </c>
@@ -12385,7 +12481,7 @@
     <row r="253" spans="1:4">
       <c r="A253" s="4"/>
       <c r="B253" s="30"/>
-      <c r="C253" s="13"/>
+      <c r="C253" s="14"/>
       <c r="D253" s="7" t="s">
         <v>556</v>
       </c>
@@ -12393,7 +12489,7 @@
     <row r="254" spans="1:4">
       <c r="A254" s="4"/>
       <c r="B254" s="30"/>
-      <c r="C254" s="13"/>
+      <c r="C254" s="14"/>
       <c r="D254" s="7" t="s">
         <v>557</v>
       </c>
@@ -12401,7 +12497,7 @@
     <row r="255" spans="1:4">
       <c r="A255" s="4"/>
       <c r="B255" s="30"/>
-      <c r="C255" s="13"/>
+      <c r="C255" s="14"/>
       <c r="D255" s="7" t="s">
         <v>558</v>
       </c>
@@ -12409,7 +12505,7 @@
     <row r="256" spans="1:4">
       <c r="A256" s="4"/>
       <c r="B256" s="30"/>
-      <c r="C256" s="13"/>
+      <c r="C256" s="14"/>
       <c r="D256" s="7" t="s">
         <v>559</v>
       </c>
@@ -12417,7 +12513,7 @@
     <row r="257" spans="1:4">
       <c r="A257" s="4"/>
       <c r="B257" s="30"/>
-      <c r="C257" s="13"/>
+      <c r="C257" s="14"/>
       <c r="D257" s="1" t="s">
         <v>560</v>
       </c>
@@ -12425,7 +12521,7 @@
     <row r="258" spans="1:4">
       <c r="A258" s="4"/>
       <c r="B258" s="30"/>
-      <c r="C258" s="13"/>
+      <c r="C258" s="14"/>
       <c r="D258" s="1" t="s">
         <v>561</v>
       </c>
@@ -12433,7 +12529,7 @@
     <row r="259" spans="1:4">
       <c r="A259" s="4"/>
       <c r="B259" s="30"/>
-      <c r="C259" s="13"/>
+      <c r="C259" s="14"/>
       <c r="D259" s="1" t="s">
         <v>562</v>
       </c>
@@ -12441,7 +12537,7 @@
     <row r="260" spans="1:4">
       <c r="A260" s="4"/>
       <c r="B260" s="30"/>
-      <c r="C260" s="13"/>
+      <c r="C260" s="14"/>
       <c r="D260" s="1" t="s">
         <v>563</v>
       </c>
@@ -12449,7 +12545,7 @@
     <row r="261" spans="1:4">
       <c r="A261" s="4"/>
       <c r="B261" s="30"/>
-      <c r="C261" s="13"/>
+      <c r="C261" s="14"/>
       <c r="D261" s="1" t="s">
         <v>564</v>
       </c>
@@ -12457,7 +12553,7 @@
     <row r="262" spans="1:4">
       <c r="A262" s="4"/>
       <c r="B262" s="30"/>
-      <c r="C262" s="13"/>
+      <c r="C262" s="14"/>
       <c r="D262" s="7" t="s">
         <v>565</v>
       </c>
@@ -12465,7 +12561,7 @@
     <row r="263" spans="1:4">
       <c r="A263" s="4"/>
       <c r="B263" s="30"/>
-      <c r="C263" s="13"/>
+      <c r="C263" s="14"/>
       <c r="D263" s="7" t="s">
         <v>566</v>
       </c>
@@ -12473,7 +12569,7 @@
     <row r="264" spans="1:4">
       <c r="A264" s="4"/>
       <c r="B264" s="30"/>
-      <c r="C264" s="13"/>
+      <c r="C264" s="14"/>
       <c r="D264" s="7" t="s">
         <v>567</v>
       </c>
@@ -12481,13 +12577,13 @@
     <row r="265" ht="18" spans="1:4">
       <c r="A265" s="4"/>
       <c r="B265" s="30"/>
-      <c r="C265" s="11"/>
+      <c r="C265" s="12"/>
       <c r="D265" s="7"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="4"/>
       <c r="B266" s="30"/>
-      <c r="C266" s="13" t="s">
+      <c r="C266" s="14" t="s">
         <v>568</v>
       </c>
       <c r="D266" s="7" t="s">
@@ -12497,15 +12593,15 @@
     <row r="267" spans="1:4">
       <c r="A267" s="4"/>
       <c r="B267" s="30"/>
-      <c r="C267" s="13"/>
-      <c r="D267" s="12" t="s">
+      <c r="C267" s="14"/>
+      <c r="D267" s="13" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="4"/>
       <c r="B268" s="30"/>
-      <c r="C268" s="13"/>
+      <c r="C268" s="14"/>
       <c r="D268" s="7" t="s">
         <v>570</v>
       </c>
@@ -12513,15 +12609,15 @@
     <row r="269" spans="1:4">
       <c r="A269" s="4"/>
       <c r="B269" s="30"/>
-      <c r="C269" s="13"/>
-      <c r="D269" s="12" t="s">
+      <c r="C269" s="14"/>
+      <c r="D269" s="13" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="4"/>
       <c r="B270" s="30"/>
-      <c r="C270" s="13"/>
+      <c r="C270" s="14"/>
       <c r="D270" s="7" t="s">
         <v>572</v>
       </c>
@@ -12529,15 +12625,15 @@
     <row r="271" spans="1:4">
       <c r="A271" s="4"/>
       <c r="B271" s="30"/>
-      <c r="C271" s="13"/>
-      <c r="D271" s="12" t="s">
+      <c r="C271" s="14"/>
+      <c r="D271" s="13" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="4"/>
       <c r="B272" s="30"/>
-      <c r="C272" s="13"/>
+      <c r="C272" s="14"/>
       <c r="D272" s="7" t="s">
         <v>574</v>
       </c>
@@ -12545,15 +12641,15 @@
     <row r="273" spans="1:4">
       <c r="A273" s="4"/>
       <c r="B273" s="30"/>
-      <c r="C273" s="13"/>
-      <c r="D273" s="12" t="s">
+      <c r="C273" s="14"/>
+      <c r="D273" s="13" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="4"/>
       <c r="B274" s="30"/>
-      <c r="C274" s="13"/>
+      <c r="C274" s="14"/>
       <c r="D274" s="7" t="s">
         <v>576</v>
       </c>
@@ -12561,7 +12657,7 @@
     <row r="275" spans="1:4">
       <c r="A275" s="4"/>
       <c r="B275" s="30"/>
-      <c r="C275" s="13"/>
+      <c r="C275" s="14"/>
       <c r="D275" s="7" t="s">
         <v>577</v>
       </c>
@@ -12569,7 +12665,7 @@
     <row r="276" spans="1:4">
       <c r="A276" s="4"/>
       <c r="B276" s="30"/>
-      <c r="C276" s="13"/>
+      <c r="C276" s="14"/>
       <c r="D276" s="7" t="s">
         <v>578</v>
       </c>
@@ -12577,7 +12673,7 @@
     <row r="277" spans="1:4">
       <c r="A277" s="4"/>
       <c r="B277" s="30"/>
-      <c r="C277" s="13"/>
+      <c r="C277" s="14"/>
       <c r="D277" s="7" t="s">
         <v>579</v>
       </c>
@@ -12585,7 +12681,7 @@
     <row r="278" spans="1:4">
       <c r="A278" s="4"/>
       <c r="B278" s="30"/>
-      <c r="C278" s="13"/>
+      <c r="C278" s="14"/>
       <c r="D278" s="7" t="s">
         <v>580</v>
       </c>
@@ -12593,7 +12689,7 @@
     <row r="279" spans="1:4">
       <c r="A279" s="4"/>
       <c r="B279" s="30"/>
-      <c r="C279" s="13"/>
+      <c r="C279" s="14"/>
       <c r="D279" s="7" t="s">
         <v>581</v>
       </c>
@@ -12601,7 +12697,7 @@
     <row r="280" spans="1:4">
       <c r="A280" s="4"/>
       <c r="B280" s="30"/>
-      <c r="C280" s="13"/>
+      <c r="C280" s="14"/>
       <c r="D280" s="7" t="s">
         <v>582</v>
       </c>
@@ -12609,7 +12705,7 @@
     <row r="281" spans="1:4">
       <c r="A281" s="4"/>
       <c r="B281" s="30"/>
-      <c r="C281" s="13"/>
+      <c r="C281" s="14"/>
       <c r="D281" s="7" t="s">
         <v>583</v>
       </c>
@@ -12617,7 +12713,7 @@
     <row r="282" spans="1:4">
       <c r="A282" s="4"/>
       <c r="B282" s="30"/>
-      <c r="C282" s="13"/>
+      <c r="C282" s="14"/>
       <c r="D282" s="1" t="s">
         <v>584</v>
       </c>
@@ -12625,7 +12721,7 @@
     <row r="283" spans="1:4">
       <c r="A283" s="4"/>
       <c r="B283" s="30"/>
-      <c r="C283" s="13"/>
+      <c r="C283" s="14"/>
       <c r="D283" s="1" t="s">
         <v>585</v>
       </c>
@@ -12633,7 +12729,7 @@
     <row r="284" spans="1:4">
       <c r="A284" s="4"/>
       <c r="B284" s="30"/>
-      <c r="C284" s="13"/>
+      <c r="C284" s="14"/>
       <c r="D284" s="1" t="s">
         <v>586</v>
       </c>
@@ -12641,7 +12737,7 @@
     <row r="285" spans="1:4">
       <c r="A285" s="4"/>
       <c r="B285" s="30"/>
-      <c r="C285" s="13"/>
+      <c r="C285" s="14"/>
       <c r="D285" s="1" t="s">
         <v>587</v>
       </c>
@@ -12649,7 +12745,7 @@
     <row r="286" spans="1:4">
       <c r="A286" s="4"/>
       <c r="B286" s="30"/>
-      <c r="C286" s="13"/>
+      <c r="C286" s="14"/>
       <c r="D286" s="1" t="s">
         <v>588</v>
       </c>
@@ -12663,7 +12759,7 @@
     <row r="288" spans="1:4">
       <c r="A288" s="4"/>
       <c r="B288" s="30"/>
-      <c r="C288" s="13" t="s">
+      <c r="C288" s="14" t="s">
         <v>589</v>
       </c>
       <c r="D288" s="7" t="s">
@@ -12673,7 +12769,7 @@
     <row r="289" spans="1:4">
       <c r="A289" s="4"/>
       <c r="B289" s="30"/>
-      <c r="C289" s="13"/>
+      <c r="C289" s="14"/>
       <c r="D289" s="7" t="s">
         <v>591</v>
       </c>
@@ -12681,7 +12777,7 @@
     <row r="290" spans="1:4">
       <c r="A290" s="4"/>
       <c r="B290" s="30"/>
-      <c r="C290" s="13"/>
+      <c r="C290" s="14"/>
       <c r="D290" s="7" t="s">
         <v>592</v>
       </c>
@@ -12689,7 +12785,7 @@
     <row r="291" spans="1:4">
       <c r="A291" s="4"/>
       <c r="B291" s="30"/>
-      <c r="C291" s="13"/>
+      <c r="C291" s="14"/>
       <c r="D291" s="7" t="s">
         <v>593</v>
       </c>
@@ -12697,7 +12793,7 @@
     <row r="292" spans="1:4">
       <c r="A292" s="4"/>
       <c r="B292" s="30"/>
-      <c r="C292" s="13"/>
+      <c r="C292" s="14"/>
       <c r="D292" s="7" t="s">
         <v>594</v>
       </c>
@@ -12705,7 +12801,7 @@
     <row r="293" spans="1:4">
       <c r="A293" s="4"/>
       <c r="B293" s="30"/>
-      <c r="C293" s="13"/>
+      <c r="C293" s="14"/>
       <c r="D293" s="7" t="s">
         <v>595</v>
       </c>
@@ -12713,7 +12809,7 @@
     <row r="294" spans="1:4">
       <c r="A294" s="4"/>
       <c r="B294" s="30"/>
-      <c r="C294" s="13"/>
+      <c r="C294" s="14"/>
       <c r="D294" s="7" t="s">
         <v>596</v>
       </c>
@@ -12721,7 +12817,7 @@
     <row r="295" spans="1:4">
       <c r="A295" s="4"/>
       <c r="B295" s="30"/>
-      <c r="C295" s="13"/>
+      <c r="C295" s="14"/>
       <c r="D295" s="7" t="s">
         <v>597</v>
       </c>
@@ -12729,7 +12825,7 @@
     <row r="296" spans="1:4">
       <c r="A296" s="4"/>
       <c r="B296" s="30"/>
-      <c r="C296" s="13"/>
+      <c r="C296" s="14"/>
       <c r="D296" s="7" t="s">
         <v>598</v>
       </c>
@@ -12737,7 +12833,7 @@
     <row r="297" spans="1:4">
       <c r="A297" s="4"/>
       <c r="B297" s="30"/>
-      <c r="C297" s="13"/>
+      <c r="C297" s="14"/>
       <c r="D297" s="7" t="s">
         <v>599</v>
       </c>
@@ -12745,7 +12841,7 @@
     <row r="298" spans="1:4">
       <c r="A298" s="4"/>
       <c r="B298" s="30"/>
-      <c r="C298" s="13"/>
+      <c r="C298" s="14"/>
       <c r="D298" s="7" t="s">
         <v>600</v>
       </c>
@@ -12753,7 +12849,7 @@
     <row r="299" spans="1:4">
       <c r="A299" s="4"/>
       <c r="B299" s="30"/>
-      <c r="C299" s="13"/>
+      <c r="C299" s="14"/>
       <c r="D299" s="7" t="s">
         <v>601</v>
       </c>
@@ -12761,7 +12857,7 @@
     <row r="300" spans="1:4">
       <c r="A300" s="4"/>
       <c r="B300" s="30"/>
-      <c r="C300" s="13"/>
+      <c r="C300" s="14"/>
       <c r="D300" s="7" t="s">
         <v>602</v>
       </c>
@@ -12769,7 +12865,7 @@
     <row r="301" spans="1:4">
       <c r="A301" s="4"/>
       <c r="B301" s="30"/>
-      <c r="C301" s="13"/>
+      <c r="C301" s="14"/>
       <c r="D301" s="7" t="s">
         <v>603</v>
       </c>
@@ -12777,7 +12873,7 @@
     <row r="302" spans="1:4">
       <c r="A302" s="4"/>
       <c r="B302" s="30"/>
-      <c r="C302" s="13"/>
+      <c r="C302" s="14"/>
       <c r="D302" s="7" t="s">
         <v>604</v>
       </c>
@@ -12785,7 +12881,7 @@
     <row r="303" spans="1:4">
       <c r="A303" s="4"/>
       <c r="B303" s="30"/>
-      <c r="C303" s="13"/>
+      <c r="C303" s="14"/>
       <c r="D303" s="7" t="s">
         <v>605</v>
       </c>
@@ -12793,7 +12889,7 @@
     <row r="304" spans="1:4">
       <c r="A304" s="4"/>
       <c r="B304" s="30"/>
-      <c r="C304" s="13"/>
+      <c r="C304" s="14"/>
       <c r="D304" s="7" t="s">
         <v>606</v>
       </c>
@@ -12801,7 +12897,7 @@
     <row r="305" spans="1:4">
       <c r="A305" s="4"/>
       <c r="B305" s="30"/>
-      <c r="C305" s="13"/>
+      <c r="C305" s="14"/>
       <c r="D305" s="7" t="s">
         <v>607</v>
       </c>
@@ -12809,7 +12905,7 @@
     <row r="306" spans="1:4">
       <c r="A306" s="4"/>
       <c r="B306" s="30"/>
-      <c r="C306" s="13"/>
+      <c r="C306" s="14"/>
       <c r="D306" s="7" t="s">
         <v>608</v>
       </c>
@@ -12817,7 +12913,7 @@
     <row r="307" spans="1:4">
       <c r="A307" s="4"/>
       <c r="B307" s="30"/>
-      <c r="C307" s="13"/>
+      <c r="C307" s="14"/>
       <c r="D307" s="7" t="s">
         <v>609</v>
       </c>
@@ -12825,7 +12921,7 @@
     <row r="308" spans="1:4">
       <c r="A308" s="4"/>
       <c r="B308" s="30"/>
-      <c r="C308" s="13"/>
+      <c r="C308" s="14"/>
       <c r="D308" s="7" t="s">
         <v>610</v>
       </c>
@@ -12833,7 +12929,7 @@
     <row r="309" spans="1:4">
       <c r="A309" s="4"/>
       <c r="B309" s="30"/>
-      <c r="C309" s="13"/>
+      <c r="C309" s="14"/>
       <c r="D309" s="7" t="s">
         <v>611</v>
       </c>
@@ -12841,7 +12937,7 @@
     <row r="310" spans="1:4">
       <c r="A310" s="4"/>
       <c r="B310" s="30"/>
-      <c r="C310" s="13"/>
+      <c r="C310" s="14"/>
       <c r="D310" s="7" t="s">
         <v>612</v>
       </c>
@@ -12849,7 +12945,7 @@
     <row r="311" spans="1:4">
       <c r="A311" s="4"/>
       <c r="B311" s="30"/>
-      <c r="C311" s="13"/>
+      <c r="C311" s="14"/>
       <c r="D311" s="7" t="s">
         <v>613</v>
       </c>
@@ -12857,7 +12953,7 @@
     <row r="312" spans="1:4">
       <c r="A312" s="4"/>
       <c r="B312" s="30"/>
-      <c r="C312" s="13"/>
+      <c r="C312" s="14"/>
       <c r="D312" s="7" t="s">
         <v>342</v>
       </c>
@@ -12865,7 +12961,7 @@
     <row r="313" spans="1:4">
       <c r="A313" s="4"/>
       <c r="B313" s="30"/>
-      <c r="C313" s="13"/>
+      <c r="C313" s="14"/>
       <c r="D313" s="7" t="s">
         <v>614</v>
       </c>
@@ -12873,7 +12969,7 @@
     <row r="314" spans="1:4">
       <c r="A314" s="4"/>
       <c r="B314" s="30"/>
-      <c r="C314" s="13"/>
+      <c r="C314" s="14"/>
       <c r="D314" s="7" t="s">
         <v>615</v>
       </c>
@@ -12881,7 +12977,7 @@
     <row r="315" spans="1:4">
       <c r="A315" s="4"/>
       <c r="B315" s="30"/>
-      <c r="C315" s="13"/>
+      <c r="C315" s="14"/>
       <c r="D315" s="7" t="s">
         <v>616</v>
       </c>
@@ -12889,7 +12985,7 @@
     <row r="316" spans="1:4">
       <c r="A316" s="4"/>
       <c r="B316" s="30"/>
-      <c r="C316" s="13"/>
+      <c r="C316" s="14"/>
       <c r="D316" s="7" t="s">
         <v>617</v>
       </c>
@@ -12897,7 +12993,7 @@
     <row r="317" spans="1:4">
       <c r="A317" s="4"/>
       <c r="B317" s="30"/>
-      <c r="C317" s="13"/>
+      <c r="C317" s="14"/>
       <c r="D317" s="7" t="s">
         <v>618</v>
       </c>
@@ -12905,7 +13001,7 @@
     <row r="318" spans="1:4">
       <c r="A318" s="4"/>
       <c r="B318" s="30"/>
-      <c r="C318" s="13"/>
+      <c r="C318" s="14"/>
       <c r="D318" s="7" t="s">
         <v>619</v>
       </c>
@@ -12913,7 +13009,7 @@
     <row r="319" spans="1:4">
       <c r="A319" s="4"/>
       <c r="B319" s="30"/>
-      <c r="C319" s="13"/>
+      <c r="C319" s="14"/>
       <c r="D319" s="7" t="s">
         <v>620</v>
       </c>
@@ -12921,7 +13017,7 @@
     <row r="320" spans="1:4">
       <c r="A320" s="4"/>
       <c r="B320" s="30"/>
-      <c r="C320" s="13"/>
+      <c r="C320" s="14"/>
       <c r="D320" s="7" t="s">
         <v>621</v>
       </c>
@@ -12929,7 +13025,7 @@
     <row r="321" spans="1:4">
       <c r="A321" s="4"/>
       <c r="B321" s="30"/>
-      <c r="C321" s="13"/>
+      <c r="C321" s="14"/>
       <c r="D321" s="7" t="s">
         <v>622</v>
       </c>
@@ -12937,7 +13033,7 @@
     <row r="322" spans="1:4">
       <c r="A322" s="4"/>
       <c r="B322" s="30"/>
-      <c r="C322" s="13"/>
+      <c r="C322" s="14"/>
       <c r="D322" s="7" t="s">
         <v>587</v>
       </c>
@@ -12945,7 +13041,7 @@
     <row r="323" spans="1:4">
       <c r="A323" s="4"/>
       <c r="B323" s="30"/>
-      <c r="C323" s="13"/>
+      <c r="C323" s="14"/>
       <c r="D323" s="7" t="s">
         <v>623</v>
       </c>
@@ -12953,7 +13049,7 @@
     <row r="324" spans="1:4">
       <c r="A324" s="4"/>
       <c r="B324" s="30"/>
-      <c r="C324" s="13"/>
+      <c r="C324" s="14"/>
       <c r="D324" s="7" t="s">
         <v>597</v>
       </c>
@@ -12961,7 +13057,7 @@
     <row r="325" spans="1:4">
       <c r="A325" s="4"/>
       <c r="B325" s="30"/>
-      <c r="C325" s="13"/>
+      <c r="C325" s="14"/>
       <c r="D325" s="7" t="s">
         <v>624</v>
       </c>
@@ -12969,7 +13065,7 @@
     <row r="326" spans="1:4">
       <c r="A326" s="4"/>
       <c r="B326" s="30"/>
-      <c r="C326" s="13"/>
+      <c r="C326" s="14"/>
       <c r="D326" s="7" t="s">
         <v>625</v>
       </c>
@@ -12977,7 +13073,7 @@
     <row r="327" spans="1:4">
       <c r="A327" s="4"/>
       <c r="B327" s="30"/>
-      <c r="C327" s="13"/>
+      <c r="C327" s="14"/>
       <c r="D327" s="7" t="s">
         <v>626</v>
       </c>
@@ -12985,7 +13081,7 @@
     <row r="328" spans="1:4">
       <c r="A328" s="4"/>
       <c r="B328" s="30"/>
-      <c r="C328" s="13"/>
+      <c r="C328" s="14"/>
       <c r="D328" s="7" t="s">
         <v>627</v>
       </c>
@@ -12993,7 +13089,7 @@
     <row r="329" spans="1:4">
       <c r="A329" s="4"/>
       <c r="B329" s="30"/>
-      <c r="C329" s="13"/>
+      <c r="C329" s="14"/>
       <c r="D329" s="7" t="s">
         <v>628</v>
       </c>
@@ -13001,7 +13097,7 @@
     <row r="330" spans="1:4">
       <c r="A330" s="4"/>
       <c r="B330" s="30"/>
-      <c r="C330" s="13"/>
+      <c r="C330" s="14"/>
       <c r="D330" s="7" t="s">
         <v>629</v>
       </c>
@@ -13009,7 +13105,7 @@
     <row r="331" spans="1:4">
       <c r="A331" s="4"/>
       <c r="B331" s="30"/>
-      <c r="C331" s="13"/>
+      <c r="C331" s="14"/>
       <c r="D331" s="7" t="s">
         <v>630</v>
       </c>
@@ -13017,7 +13113,7 @@
     <row r="332" spans="1:4">
       <c r="A332" s="4"/>
       <c r="B332" s="30"/>
-      <c r="C332" s="13"/>
+      <c r="C332" s="14"/>
       <c r="D332" s="7" t="s">
         <v>631</v>
       </c>
@@ -13025,7 +13121,7 @@
     <row r="333" spans="1:4">
       <c r="A333" s="4"/>
       <c r="B333" s="30"/>
-      <c r="C333" s="13"/>
+      <c r="C333" s="14"/>
       <c r="D333" s="7" t="s">
         <v>587</v>
       </c>
@@ -13788,7 +13884,7 @@
       <c r="B3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>342</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -13798,7 +13894,7 @@
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="7" t="s">
         <v>342</v>
       </c>
@@ -13806,7 +13902,7 @@
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="13"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="7" t="s">
         <v>702</v>
       </c>
@@ -13814,7 +13910,7 @@
     <row r="6" ht="18" customHeight="1" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="7" t="s">
         <v>703</v>
       </c>
@@ -13822,7 +13918,7 @@
     <row r="7" ht="21" customHeight="1" spans="1:4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="7" t="s">
         <v>704</v>
       </c>
@@ -13830,7 +13926,7 @@
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
         <v>552</v>
       </c>
@@ -13838,13 +13934,13 @@
     <row r="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>705</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -13854,7 +13950,7 @@
     <row r="11" customFormat="1" customHeight="1" spans="1:4">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="1" t="s">
         <v>706</v>
       </c>
@@ -13862,7 +13958,7 @@
     <row r="12" customFormat="1" customHeight="1" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>707</v>
       </c>
@@ -13870,7 +13966,7 @@
     <row r="13" customFormat="1" customHeight="1" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="1" t="s">
         <v>708</v>
       </c>
@@ -13878,13 +13974,13 @@
     <row r="14" customFormat="1" customHeight="1" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>709</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -13894,7 +13990,7 @@
     <row r="16" customFormat="1" customHeight="1" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="1" t="s">
         <v>710</v>
       </c>
@@ -13902,7 +13998,7 @@
     <row r="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="1" t="s">
         <v>711</v>
       </c>
@@ -13910,7 +14006,7 @@
     <row r="18" customFormat="1" customHeight="1" spans="1:4">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="1" t="s">
         <v>712</v>
       </c>
@@ -13918,7 +14014,7 @@
     <row r="19" customFormat="1" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="1" t="s">
         <v>552</v>
       </c>
@@ -13926,13 +14022,13 @@
     <row r="20" customFormat="1" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" customFormat="1" customHeight="1" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>713</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -13942,7 +14038,7 @@
     <row r="22" customFormat="1" customHeight="1" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="1" t="s">
         <v>714</v>
       </c>
@@ -13950,7 +14046,7 @@
     <row r="23" customFormat="1" customHeight="1" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="1" t="s">
         <v>715</v>
       </c>
@@ -13958,7 +14054,7 @@
     <row r="24" customFormat="1" customHeight="1" spans="1:4">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="1" t="s">
         <v>716</v>
       </c>
@@ -13966,7 +14062,7 @@
     <row r="25" customFormat="1" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="1" t="s">
         <v>717</v>
       </c>
@@ -13974,7 +14070,7 @@
     <row r="26" customFormat="1" customHeight="1" spans="1:4">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="1" t="s">
         <v>718</v>
       </c>
@@ -13982,7 +14078,7 @@
     <row r="27" customFormat="1" customHeight="1" spans="1:4">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="1" t="s">
         <v>719</v>
       </c>
@@ -13990,7 +14086,7 @@
     <row r="28" customFormat="1" customHeight="1" spans="1:4">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="1" t="s">
         <v>720</v>
       </c>
@@ -13998,13 +14094,13 @@
     <row r="29" customFormat="1" customHeight="1" spans="1:4">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>721</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -14014,7 +14110,7 @@
     <row r="31" customFormat="1" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="1" t="s">
         <v>722</v>
       </c>
@@ -14022,7 +14118,7 @@
     <row r="32" customFormat="1" customHeight="1" spans="1:4">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="1" t="s">
         <v>723</v>
       </c>
@@ -14030,7 +14126,7 @@
     <row r="33" customFormat="1" customHeight="1" spans="1:4">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="1" t="s">
         <v>724</v>
       </c>
@@ -14038,7 +14134,7 @@
     <row r="34" customFormat="1" customHeight="1" spans="1:4">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="1" t="s">
         <v>552</v>
       </c>
@@ -14046,13 +14142,13 @@
     <row r="35" customFormat="1" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" customFormat="1" customHeight="1" spans="1:4">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>725</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -14062,7 +14158,7 @@
     <row r="37" customFormat="1" customHeight="1" spans="1:4">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="1" t="s">
         <v>726</v>
       </c>
@@ -14070,7 +14166,7 @@
     <row r="38" customFormat="1" customHeight="1" spans="1:4">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="1" t="s">
         <v>727</v>
       </c>
@@ -14078,7 +14174,7 @@
     <row r="39" customFormat="1" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="1" t="s">
         <v>728</v>
       </c>
@@ -14086,7 +14182,7 @@
     <row r="40" customFormat="1" customHeight="1" spans="1:4">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="13"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="1" t="s">
         <v>552</v>
       </c>
@@ -14094,7 +14190,7 @@
     <row r="41" spans="1:4">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>729</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -14104,7 +14200,7 @@
     <row r="42" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="13"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="7" t="s">
         <v>730</v>
       </c>
@@ -14112,7 +14208,7 @@
     <row r="43" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="7" t="s">
         <v>731</v>
       </c>
@@ -14120,7 +14216,7 @@
     <row r="44" spans="1:4">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="7" t="s">
         <v>732</v>
       </c>
@@ -14128,7 +14224,7 @@
     <row r="45" spans="1:4">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="7" t="s">
         <v>733</v>
       </c>
@@ -14136,7 +14232,7 @@
     <row r="46" spans="1:4">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="7" t="s">
         <v>734</v>
       </c>
@@ -14144,7 +14240,7 @@
     <row r="47" spans="1:4">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="7" t="s">
         <v>735</v>
       </c>
@@ -14152,7 +14248,7 @@
     <row r="48" spans="1:4">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="7" t="s">
         <v>720</v>
       </c>
@@ -14166,7 +14262,7 @@
     <row r="50" spans="1:4">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>736</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -14176,7 +14272,7 @@
     <row r="51" spans="1:4">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="7" t="s">
         <v>737</v>
       </c>
@@ -14184,7 +14280,7 @@
     <row r="52" spans="1:4">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="7" t="s">
         <v>738</v>
       </c>
@@ -14192,7 +14288,7 @@
     <row r="53" spans="1:4">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="7" t="s">
         <v>708</v>
       </c>
@@ -14206,7 +14302,7 @@
     <row r="55" spans="1:4">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="14" t="s">
         <v>739</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -14216,7 +14312,7 @@
     <row r="56" spans="1:4">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="7" t="s">
         <v>740</v>
       </c>
@@ -14224,7 +14320,7 @@
     <row r="57" spans="1:4">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="7" t="s">
         <v>741</v>
       </c>
@@ -14232,7 +14328,7 @@
     <row r="58" spans="1:4">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="7" t="s">
         <v>742</v>
       </c>
@@ -14240,7 +14336,7 @@
     <row r="59" spans="1:4">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="7" t="s">
         <v>552</v>
       </c>
@@ -14265,10 +14361,10 @@
       <c r="B62" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="13" t="s">
         <v>462</v>
       </c>
     </row>
@@ -14276,7 +14372,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4"/>
@@ -14315,7 +14411,7 @@
     <row r="68" ht="18" spans="1:4">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="11"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4">
@@ -14324,7 +14420,7 @@
       <c r="C69" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="11" t="s">
         <v>342</v>
       </c>
     </row>
@@ -14371,7 +14467,7 @@
     <row r="75" ht="18" spans="1:4">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="11"/>
+      <c r="C75" s="12"/>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4">
@@ -14380,7 +14476,7 @@
       <c r="C76" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="13" t="s">
         <v>342</v>
       </c>
     </row>
@@ -14444,7 +14540,7 @@
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="23"/>
-      <c r="D84" s="12"/>
+      <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4"/>
@@ -14508,7 +14604,7 @@
       <c r="C92" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="11" t="s">
         <v>342</v>
       </c>
     </row>
@@ -14571,7 +14667,7 @@
     <row r="100" ht="11" customHeight="1" spans="1:4">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="11"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4">
@@ -14580,7 +14676,7 @@
       <c r="C101" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="13" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14636,7 +14732,7 @@
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="13" t="s">
         <v>780</v>
       </c>
     </row>
@@ -14702,7 +14798,7 @@
     <row r="116" ht="18" spans="1:4">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="11"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4">
@@ -14711,7 +14807,7 @@
       <c r="C117" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="11" t="s">
         <v>789</v>
       </c>
     </row>
@@ -14767,7 +14863,7 @@
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="12" t="s">
+      <c r="D124" s="13" t="s">
         <v>796</v>
       </c>
     </row>
@@ -14815,7 +14911,7 @@
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="23"/>
-      <c r="D130" s="12"/>
+      <c r="D130" s="13"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4"/>
@@ -14879,7 +14975,7 @@
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="14" t="s">
+      <c r="D138" s="11" t="s">
         <v>810</v>
       </c>
     </row>
@@ -14918,7 +15014,7 @@
     <row r="143" ht="18" spans="1:4">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
-      <c r="C143" s="11"/>
+      <c r="C143" s="12"/>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4">
@@ -14927,7 +15023,7 @@
       <c r="C144" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D144" s="13" t="s">
         <v>816</v>
       </c>
     </row>
@@ -14983,7 +15079,7 @@
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="12" t="s">
+      <c r="D151" s="13" t="s">
         <v>823</v>
       </c>
     </row>
@@ -15490,7 +15586,7 @@
       <c r="C214" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D214" s="12" t="s">
+      <c r="D214" s="13" t="s">
         <v>462</v>
       </c>
     </row>
@@ -15498,7 +15594,7 @@
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="12"/>
+      <c r="D215" s="13"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="4"/>
@@ -15538,7 +15634,7 @@
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="14" t="s">
+      <c r="D220" s="11" t="s">
         <v>552</v>
       </c>
     </row>
@@ -15546,7 +15642,7 @@
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="23"/>
-      <c r="D221" s="12"/>
+      <c r="D221" s="13"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="4"/>
@@ -15634,7 +15730,7 @@
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
-      <c r="D232" s="14" t="s">
+      <c r="D232" s="11" t="s">
         <v>865</v>
       </c>
     </row>
@@ -15666,7 +15762,7 @@
       <c r="C236" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="D236" s="14" t="s">
+      <c r="D236" s="11" t="s">
         <v>342</v>
       </c>
     </row>
@@ -15674,7 +15770,7 @@
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
-      <c r="D237" s="14" t="s">
+      <c r="D237" s="11" t="s">
         <v>868</v>
       </c>
     </row>
@@ -15682,7 +15778,7 @@
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
-      <c r="D238" s="14" t="s">
+      <c r="D238" s="11" t="s">
         <v>869</v>
       </c>
     </row>
@@ -15690,7 +15786,7 @@
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
-      <c r="D239" s="14" t="s">
+      <c r="D239" s="11" t="s">
         <v>870</v>
       </c>
     </row>
@@ -15698,7 +15794,7 @@
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
-      <c r="D240" s="14" t="s">
+      <c r="D240" s="11" t="s">
         <v>871</v>
       </c>
     </row>
@@ -15706,7 +15802,7 @@
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
-      <c r="D241" s="14" t="s">
+      <c r="D241" s="11" t="s">
         <v>872</v>
       </c>
     </row>
@@ -15714,7 +15810,7 @@
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
-      <c r="D242" s="14" t="s">
+      <c r="D242" s="11" t="s">
         <v>873</v>
       </c>
     </row>
@@ -15722,7 +15818,7 @@
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
-      <c r="D243" s="14" t="s">
+      <c r="D243" s="11" t="s">
         <v>874</v>
       </c>
     </row>
@@ -15730,7 +15826,7 @@
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
-      <c r="D244" s="14" t="s">
+      <c r="D244" s="11" t="s">
         <v>875</v>
       </c>
     </row>
@@ -15738,7 +15834,7 @@
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
-      <c r="D245" s="14" t="s">
+      <c r="D245" s="11" t="s">
         <v>406</v>
       </c>
     </row>
@@ -15746,7 +15842,7 @@
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
-      <c r="D246" s="14"/>
+      <c r="D246" s="11"/>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="4"/>
@@ -15754,7 +15850,7 @@
       <c r="C247" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="D247" s="14" t="s">
+      <c r="D247" s="11" t="s">
         <v>342</v>
       </c>
     </row>
@@ -15762,7 +15858,7 @@
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
-      <c r="D248" s="14" t="s">
+      <c r="D248" s="11" t="s">
         <v>877</v>
       </c>
     </row>
@@ -15770,7 +15866,7 @@
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
-      <c r="D249" s="14" t="s">
+      <c r="D249" s="11" t="s">
         <v>878</v>
       </c>
     </row>
@@ -15778,7 +15874,7 @@
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
-      <c r="D250" s="14"/>
+      <c r="D250" s="11"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="4"/>
@@ -15874,7 +15970,7 @@
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
-      <c r="D262" s="14"/>
+      <c r="D262" s="11"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="4"/>
@@ -15882,7 +15978,7 @@
       <c r="C263" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="D263" s="14" t="s">
+      <c r="D263" s="11" t="s">
         <v>342</v>
       </c>
     </row>
@@ -15890,7 +15986,7 @@
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
-      <c r="D264" s="14" t="s">
+      <c r="D264" s="11" t="s">
         <v>891</v>
       </c>
     </row>
@@ -15898,7 +15994,7 @@
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
-      <c r="D265" s="14" t="s">
+      <c r="D265" s="11" t="s">
         <v>892</v>
       </c>
     </row>
@@ -15906,7 +16002,7 @@
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
-      <c r="D266" s="14" t="s">
+      <c r="D266" s="11" t="s">
         <v>893</v>
       </c>
     </row>
@@ -15914,7 +16010,7 @@
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
-      <c r="D267" s="14" t="s">
+      <c r="D267" s="11" t="s">
         <v>894</v>
       </c>
     </row>
@@ -15922,7 +16018,7 @@
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="6"/>
-      <c r="D268" s="14" t="s">
+      <c r="D268" s="11" t="s">
         <v>753</v>
       </c>
     </row>
@@ -15930,13 +16026,13 @@
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
-      <c r="D269" s="14"/>
+      <c r="D269" s="11"/>
     </row>
     <row r="270" ht="11" customHeight="1" spans="1:4">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
-      <c r="D270" s="14"/>
+      <c r="D270" s="11"/>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="4"/>
@@ -15944,7 +16040,7 @@
       <c r="C271" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="D271" s="14" t="s">
+      <c r="D271" s="11" t="s">
         <v>342</v>
       </c>
     </row>
@@ -15952,7 +16048,7 @@
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
-      <c r="D272" s="14" t="s">
+      <c r="D272" s="11" t="s">
         <v>896</v>
       </c>
     </row>
@@ -15960,7 +16056,7 @@
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
-      <c r="D273" s="14" t="s">
+      <c r="D273" s="11" t="s">
         <v>897</v>
       </c>
     </row>
@@ -15968,7 +16064,7 @@
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
-      <c r="D274" s="14" t="s">
+      <c r="D274" s="11" t="s">
         <v>898</v>
       </c>
     </row>
@@ -15976,7 +16072,7 @@
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
-      <c r="D275" s="14" t="s">
+      <c r="D275" s="11" t="s">
         <v>899</v>
       </c>
     </row>
@@ -15984,7 +16080,7 @@
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
-      <c r="D276" s="14" t="s">
+      <c r="D276" s="11" t="s">
         <v>900</v>
       </c>
     </row>
@@ -15992,7 +16088,7 @@
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
-      <c r="D277" s="14" t="s">
+      <c r="D277" s="11" t="s">
         <v>395</v>
       </c>
     </row>
@@ -16000,7 +16096,7 @@
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
-      <c r="D278" s="14"/>
+      <c r="D278" s="11"/>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="4"/>
@@ -16008,7 +16104,7 @@
       <c r="C279" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="D279" s="14" t="s">
+      <c r="D279" s="11" t="s">
         <v>342</v>
       </c>
     </row>
@@ -16016,7 +16112,7 @@
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
-      <c r="D280" s="14" t="s">
+      <c r="D280" s="11" t="s">
         <v>902</v>
       </c>
     </row>
@@ -16024,7 +16120,7 @@
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
-      <c r="D281" s="14" t="s">
+      <c r="D281" s="11" t="s">
         <v>903</v>
       </c>
     </row>
@@ -16032,7 +16128,7 @@
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
-      <c r="D282" s="14" t="s">
+      <c r="D282" s="11" t="s">
         <v>904</v>
       </c>
     </row>
@@ -16749,7 +16845,7 @@
     <row r="79" ht="12" customHeight="1" spans="1:4">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="11"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4">
@@ -16824,7 +16920,7 @@
       <c r="C88" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="13" t="s">
         <v>462</v>
       </c>
     </row>
@@ -16832,7 +16928,7 @@
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="12"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4"/>
@@ -17350,7 +17446,7 @@
     <row r="154" ht="15.75" spans="1:4">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
-      <c r="C154" s="13"/>
+      <c r="C154" s="14"/>
       <c r="D154" s="7"/>
     </row>
     <row r="155" ht="18" spans="1:4">
@@ -17366,7 +17462,7 @@
     <row r="156" customHeight="1" spans="1:4">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
-      <c r="C156" s="13"/>
+      <c r="C156" s="14"/>
       <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4">
@@ -17398,7 +17494,7 @@
     <row r="160" ht="18.75" spans="1:4">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
-      <c r="C160" s="13"/>
+      <c r="C160" s="14"/>
       <c r="D160" s="22"/>
     </row>
     <row r="161" spans="1:4">
@@ -17498,7 +17594,7 @@
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="14" t="s">
+      <c r="D172" s="11" t="s">
         <v>1042</v>
       </c>
     </row>
@@ -17506,7 +17602,7 @@
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
-      <c r="D173" s="14" t="s">
+      <c r="D173" s="11" t="s">
         <v>1043</v>
       </c>
     </row>
@@ -17514,7 +17610,7 @@
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
-      <c r="D174" s="14" t="s">
+      <c r="D174" s="11" t="s">
         <v>395</v>
       </c>
     </row>
@@ -17522,7 +17618,7 @@
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="23"/>
-      <c r="D175" s="12"/>
+      <c r="D175" s="13"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="4"/>
@@ -17634,7 +17730,7 @@
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
-      <c r="D189" s="14" t="s">
+      <c r="D189" s="11" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -18028,7 +18124,7 @@
     <row r="238" ht="15.75" spans="1:4">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
-      <c r="C238" s="13"/>
+      <c r="C238" s="14"/>
       <c r="D238" s="7"/>
     </row>
     <row r="239" spans="1:4">
@@ -18077,7 +18173,7 @@
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
-      <c r="D244" s="14" t="s">
+      <c r="D244" s="11" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -18116,7 +18212,7 @@
     <row r="249" ht="12" customHeight="1" spans="1:4">
       <c r="A249" s="4"/>
       <c r="B249" s="15"/>
-      <c r="C249" s="13"/>
+      <c r="C249" s="14"/>
       <c r="D249" s="7"/>
     </row>
     <row r="250" ht="18" spans="1:4">
@@ -18174,7 +18270,7 @@
     <row r="256" ht="15.75" spans="1:4">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
-      <c r="C256" s="13"/>
+      <c r="C256" s="14"/>
       <c r="D256" s="7"/>
     </row>
     <row r="257" spans="1:4">
@@ -18222,7 +18318,7 @@
     <row r="262" ht="15.75" spans="1:4">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
-      <c r="C262" s="13"/>
+      <c r="C262" s="14"/>
       <c r="D262" s="7"/>
     </row>
     <row r="263" spans="1:4">
@@ -18270,7 +18366,7 @@
     <row r="268" ht="18.75" spans="1:4">
       <c r="A268" s="4"/>
       <c r="B268" s="15"/>
-      <c r="C268" s="13"/>
+      <c r="C268" s="14"/>
       <c r="D268" s="7"/>
     </row>
     <row r="269" spans="1:4">
@@ -18363,7 +18459,7 @@
     <row r="279" customHeight="1" spans="1:4">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
-      <c r="C279" s="13"/>
+      <c r="C279" s="14"/>
       <c r="D279" s="7"/>
     </row>
     <row r="280" spans="1:4">
@@ -18451,7 +18547,7 @@
     <row r="290" ht="15.75" spans="1:4">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
-      <c r="C290" s="13"/>
+      <c r="C290" s="14"/>
       <c r="D290" s="7"/>
     </row>
     <row r="291" spans="1:4">
@@ -18500,7 +18596,7 @@
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
-      <c r="D296" s="14" t="s">
+      <c r="D296" s="11" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -18539,7 +18635,7 @@
     <row r="301" ht="15.75" spans="1:4">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
-      <c r="C301" s="13"/>
+      <c r="C301" s="14"/>
       <c r="D301" s="7"/>
     </row>
     <row r="302" ht="14" customHeight="1" spans="1:4">
@@ -18587,7 +18683,7 @@
     <row r="307" ht="15.75" spans="1:4">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
-      <c r="C307" s="13"/>
+      <c r="C307" s="14"/>
       <c r="D307" s="7"/>
     </row>
     <row r="308" spans="1:4">
@@ -18683,7 +18779,7 @@
     <row r="319" ht="15.75" spans="1:4">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
-      <c r="C319" s="13"/>
+      <c r="C319" s="14"/>
       <c r="D319" s="7"/>
     </row>
     <row r="320" spans="1:4">
@@ -18739,7 +18835,7 @@
     <row r="326" ht="15.75" spans="1:4">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
-      <c r="C326" s="13"/>
+      <c r="C326" s="14"/>
       <c r="D326" s="7"/>
     </row>
     <row r="327" spans="1:4">
@@ -19213,7 +19309,7 @@
     <row r="385" ht="18.75" spans="1:4">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
-      <c r="C385" s="11" t="s">
+      <c r="C385" s="12" t="s">
         <v>1216</v>
       </c>
       <c r="D385" s="24" t="s">
@@ -19223,7 +19319,7 @@
     <row r="386" ht="18.75" spans="1:4">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
-      <c r="C386" s="11"/>
+      <c r="C386" s="12"/>
       <c r="D386" s="24" t="s">
         <v>1217</v>
       </c>
@@ -19231,7 +19327,7 @@
     <row r="387" ht="18.75" spans="1:4">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
-      <c r="C387" s="11"/>
+      <c r="C387" s="12"/>
       <c r="D387" s="24" t="s">
         <v>1218</v>
       </c>
@@ -19239,7 +19335,7 @@
     <row r="388" ht="18.75" spans="1:4">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
-      <c r="C388" s="11"/>
+      <c r="C388" s="12"/>
       <c r="D388" s="24" t="s">
         <v>1219</v>
       </c>
@@ -19247,7 +19343,7 @@
     <row r="389" ht="18.75" spans="1:4">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
-      <c r="C389" s="11"/>
+      <c r="C389" s="12"/>
       <c r="D389" s="24" t="s">
         <v>1220</v>
       </c>
@@ -19255,13 +19351,13 @@
     <row r="390" ht="18.75" spans="1:4">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
-      <c r="C390" s="11"/>
+      <c r="C390" s="12"/>
       <c r="D390" s="24"/>
     </row>
     <row r="391" ht="18.75" spans="1:4">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
-      <c r="C391" s="11" t="s">
+      <c r="C391" s="12" t="s">
         <v>1221</v>
       </c>
       <c r="D391" s="24" t="s">
@@ -19271,7 +19367,7 @@
     <row r="392" ht="18.75" spans="1:4">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
-      <c r="C392" s="11"/>
+      <c r="C392" s="12"/>
       <c r="D392" s="24" t="s">
         <v>1222</v>
       </c>
@@ -19279,7 +19375,7 @@
     <row r="393" ht="18.75" spans="1:4">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
-      <c r="C393" s="11"/>
+      <c r="C393" s="12"/>
       <c r="D393" s="24" t="s">
         <v>1223</v>
       </c>
@@ -19287,7 +19383,7 @@
     <row r="394" ht="18.75" spans="1:4">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
-      <c r="C394" s="11"/>
+      <c r="C394" s="12"/>
       <c r="D394" s="24" t="s">
         <v>1224</v>
       </c>
@@ -19295,7 +19391,7 @@
     <row r="395" ht="18.75" spans="1:4">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
-      <c r="C395" s="11"/>
+      <c r="C395" s="12"/>
       <c r="D395" s="24" t="s">
         <v>1225</v>
       </c>
@@ -19303,7 +19399,7 @@
     <row r="396" ht="18.75" spans="1:4">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
-      <c r="C396" s="11"/>
+      <c r="C396" s="12"/>
       <c r="D396" s="24" t="s">
         <v>1226</v>
       </c>
@@ -19311,7 +19407,7 @@
     <row r="397" ht="18.75" spans="1:4">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
-      <c r="C397" s="11"/>
+      <c r="C397" s="12"/>
       <c r="D397" s="24" t="s">
         <v>1227</v>
       </c>
@@ -19319,7 +19415,7 @@
     <row r="398" ht="18.75" spans="1:4">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
-      <c r="C398" s="11"/>
+      <c r="C398" s="12"/>
       <c r="D398" s="24" t="s">
         <v>1228</v>
       </c>
@@ -19327,7 +19423,7 @@
     <row r="399" ht="18.75" spans="1:4">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
-      <c r="C399" s="11"/>
+      <c r="C399" s="12"/>
       <c r="D399" s="24" t="s">
         <v>379</v>
       </c>
@@ -19357,7 +19453,7 @@
     <row r="403" ht="18.75" spans="1:4">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
-      <c r="C403" s="11" t="s">
+      <c r="C403" s="12" t="s">
         <v>1230</v>
       </c>
       <c r="D403" s="22" t="s">
@@ -19367,7 +19463,7 @@
     <row r="404" ht="18.75" spans="1:4">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
-      <c r="C404" s="11"/>
+      <c r="C404" s="12"/>
       <c r="D404" s="22" t="s">
         <v>1232</v>
       </c>
@@ -19375,7 +19471,7 @@
     <row r="405" ht="18.75" spans="1:4">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
-      <c r="C405" s="11"/>
+      <c r="C405" s="12"/>
       <c r="D405" s="22" t="s">
         <v>1233</v>
       </c>
@@ -19383,7 +19479,7 @@
     <row r="406" ht="18.75" spans="1:4">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
-      <c r="C406" s="11"/>
+      <c r="C406" s="12"/>
       <c r="D406" s="22" t="s">
         <v>1234</v>
       </c>
@@ -19397,7 +19493,7 @@
     <row r="408" ht="18.75" spans="1:4">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
-      <c r="C408" s="11" t="s">
+      <c r="C408" s="12" t="s">
         <v>1235</v>
       </c>
       <c r="D408" s="22" t="s">
@@ -19407,7 +19503,7 @@
     <row r="409" ht="18.75" spans="1:4">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
-      <c r="C409" s="11"/>
+      <c r="C409" s="12"/>
       <c r="D409" s="22" t="s">
         <v>1237</v>
       </c>
@@ -19415,7 +19511,7 @@
     <row r="410" ht="18.75" spans="1:4">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
-      <c r="C410" s="11"/>
+      <c r="C410" s="12"/>
       <c r="D410" s="22" t="s">
         <v>1238</v>
       </c>
@@ -19423,7 +19519,7 @@
     <row r="411" ht="18.75" spans="1:4">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
-      <c r="C411" s="11"/>
+      <c r="C411" s="12"/>
       <c r="D411" s="22" t="s">
         <v>1239</v>
       </c>
@@ -19431,7 +19527,7 @@
     <row r="412" ht="18.75" spans="1:4">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
-      <c r="C412" s="11"/>
+      <c r="C412" s="12"/>
       <c r="D412" s="22" t="s">
         <v>1240</v>
       </c>
@@ -19439,7 +19535,7 @@
     <row r="413" ht="18.75" spans="1:4">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
-      <c r="C413" s="11"/>
+      <c r="C413" s="12"/>
       <c r="D413" s="22" t="s">
         <v>1241</v>
       </c>
@@ -19447,7 +19543,7 @@
     <row r="414" ht="18.75" spans="1:4">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
-      <c r="C414" s="11"/>
+      <c r="C414" s="12"/>
       <c r="D414" s="22" t="s">
         <v>1242</v>
       </c>
@@ -19455,7 +19551,7 @@
     <row r="415" ht="18.75" spans="1:4">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
-      <c r="C415" s="11"/>
+      <c r="C415" s="12"/>
       <c r="D415" s="22" t="s">
         <v>1243</v>
       </c>
@@ -19463,7 +19559,7 @@
     <row r="416" ht="18.75" spans="1:4">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
-      <c r="C416" s="11"/>
+      <c r="C416" s="12"/>
       <c r="D416" s="22" t="s">
         <v>1244</v>
       </c>
@@ -19471,7 +19567,7 @@
     <row r="417" ht="18.75" spans="1:4">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
-      <c r="C417" s="11"/>
+      <c r="C417" s="12"/>
       <c r="D417" s="22" t="s">
         <v>1245</v>
       </c>
@@ -19479,7 +19575,7 @@
     <row r="418" ht="18.75" spans="1:4">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
-      <c r="C418" s="11"/>
+      <c r="C418" s="12"/>
       <c r="D418" s="22" t="s">
         <v>1246</v>
       </c>
@@ -19487,7 +19583,7 @@
     <row r="419" ht="18.75" spans="1:4">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
-      <c r="C419" s="11"/>
+      <c r="C419" s="12"/>
       <c r="D419" s="22" t="s">
         <v>1247</v>
       </c>
@@ -19495,7 +19591,7 @@
     <row r="420" ht="18.75" spans="1:4">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
-      <c r="C420" s="11"/>
+      <c r="C420" s="12"/>
       <c r="D420" s="22" t="s">
         <v>588</v>
       </c>
@@ -19507,7 +19603,7 @@
     <row r="422" ht="18.75" spans="1:4">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
-      <c r="C422" s="11" t="s">
+      <c r="C422" s="12" t="s">
         <v>1248</v>
       </c>
       <c r="D422" s="22" t="s">
@@ -19517,7 +19613,7 @@
     <row r="423" ht="18.75" spans="1:4">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
-      <c r="C423" s="11"/>
+      <c r="C423" s="12"/>
       <c r="D423" s="22" t="s">
         <v>1250</v>
       </c>
@@ -19525,7 +19621,7 @@
     <row r="424" ht="18.75" spans="1:4">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
-      <c r="C424" s="11"/>
+      <c r="C424" s="12"/>
       <c r="D424" s="22" t="s">
         <v>1251</v>
       </c>
@@ -19533,7 +19629,7 @@
     <row r="425" ht="18.75" spans="1:4">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
-      <c r="C425" s="11"/>
+      <c r="C425" s="12"/>
       <c r="D425" s="22" t="s">
         <v>1252</v>
       </c>
@@ -19541,7 +19637,7 @@
     <row r="426" ht="18.75" spans="1:4">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
-      <c r="C426" s="11"/>
+      <c r="C426" s="12"/>
       <c r="D426" s="22" t="s">
         <v>1253</v>
       </c>
@@ -19549,7 +19645,7 @@
     <row r="427" spans="1:4">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
-      <c r="C427" s="11"/>
+      <c r="C427" s="12"/>
       <c r="D427" s="22" t="s">
         <v>1254</v>
       </c>
@@ -19557,7 +19653,7 @@
     <row r="428" spans="1:4">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
-      <c r="C428" s="11"/>
+      <c r="C428" s="12"/>
       <c r="D428" s="22" t="s">
         <v>1255</v>
       </c>
@@ -19565,7 +19661,7 @@
     <row r="429" spans="1:4">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
-      <c r="C429" s="11"/>
+      <c r="C429" s="12"/>
       <c r="D429" s="22" t="s">
         <v>1256</v>
       </c>
@@ -19577,7 +19673,7 @@
     <row r="431" spans="1:4">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
-      <c r="C431" s="11" t="s">
+      <c r="C431" s="12" t="s">
         <v>1257</v>
       </c>
       <c r="D431" s="22" t="s">
@@ -19587,7 +19683,7 @@
     <row r="432" spans="1:4">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
-      <c r="C432" s="11"/>
+      <c r="C432" s="12"/>
       <c r="D432" s="22" t="s">
         <v>1259</v>
       </c>
@@ -19595,7 +19691,7 @@
     <row r="433" spans="1:4">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
-      <c r="C433" s="11"/>
+      <c r="C433" s="12"/>
       <c r="D433" s="22" t="s">
         <v>1260</v>
       </c>
@@ -19603,7 +19699,7 @@
     <row r="434" spans="1:4">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
-      <c r="C434" s="11"/>
+      <c r="C434" s="12"/>
       <c r="D434" s="22" t="s">
         <v>1261</v>
       </c>
@@ -19611,7 +19707,7 @@
     <row r="435" spans="1:4">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
-      <c r="C435" s="11"/>
+      <c r="C435" s="12"/>
       <c r="D435" s="22" t="s">
         <v>1262</v>
       </c>
@@ -19619,7 +19715,7 @@
     <row r="436" spans="1:4">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
-      <c r="C436" s="11"/>
+      <c r="C436" s="12"/>
       <c r="D436" s="22" t="s">
         <v>1263</v>
       </c>
@@ -19627,7 +19723,7 @@
     <row r="437" spans="1:4">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
-      <c r="C437" s="11"/>
+      <c r="C437" s="12"/>
       <c r="D437" s="22" t="s">
         <v>1264</v>
       </c>
@@ -19635,7 +19731,7 @@
     <row r="438" spans="1:4">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
-      <c r="C438" s="11"/>
+      <c r="C438" s="12"/>
       <c r="D438" s="22" t="s">
         <v>1265</v>
       </c>
@@ -19643,7 +19739,7 @@
     <row r="439" ht="18.75" spans="1:4">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
-      <c r="C439" s="11"/>
+      <c r="C439" s="12"/>
       <c r="D439" s="22" t="s">
         <v>1266</v>
       </c>
@@ -19651,7 +19747,7 @@
     <row r="440" ht="18.75" spans="1:4">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
-      <c r="C440" s="11"/>
+      <c r="C440" s="12"/>
       <c r="D440" s="22" t="s">
         <v>1267</v>
       </c>
@@ -19659,7 +19755,7 @@
     <row r="441" spans="1:4">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
-      <c r="C441" s="11"/>
+      <c r="C441" s="12"/>
       <c r="D441" s="22" t="s">
         <v>1268</v>
       </c>
@@ -19667,7 +19763,7 @@
     <row r="442" spans="1:4">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
-      <c r="C442" s="11"/>
+      <c r="C442" s="12"/>
       <c r="D442" s="22" t="s">
         <v>1269</v>
       </c>
@@ -20234,7 +20330,7 @@
     <row r="57" ht="12" customHeight="1" spans="1:4">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="11"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4">
@@ -20291,7 +20387,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="13" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -20517,7 +20613,7 @@
     <row r="92" ht="15.75" spans="1:4">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4">
@@ -20638,7 +20734,7 @@
       <c r="C107" s="6" t="s">
         <v>1357</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="11" t="s">
         <v>1358</v>
       </c>
     </row>
@@ -20646,7 +20742,7 @@
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="11" t="s">
         <v>1359</v>
       </c>
     </row>
@@ -20654,7 +20750,7 @@
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="11" t="s">
         <v>1360</v>
       </c>
     </row>
@@ -20766,7 +20862,7 @@
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="11" t="s">
         <v>1373</v>
       </c>
     </row>
@@ -21692,7 +21788,7 @@
     <row r="237" ht="18.75" spans="1:4">
       <c r="A237" s="4"/>
       <c r="B237" s="16"/>
-      <c r="C237" s="11"/>
+      <c r="C237" s="12"/>
       <c r="D237" s="7"/>
     </row>
     <row r="238" spans="1:4">
@@ -22650,12 +22746,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -23148,15 +23244,376 @@
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
     </row>
+    <row r="60" ht="24.75" spans="2:4">
+      <c r="B60" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" ht="18" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" ht="18" spans="1:4">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="69" ht="18" spans="1:4">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="11" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="11" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" ht="18" spans="1:4">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="86" ht="18" spans="1:4">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="7" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="7" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="7" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="95" ht="18" spans="1:4">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" ht="36" spans="1:4">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" ht="18" spans="1:4">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" ht="36" spans="1:4">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="7"/>
+    </row>
+    <row r="100" ht="36" spans="1:4">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" ht="18.75" spans="1:4">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" ht="36" customHeight="1" spans="1:4">
+      <c r="A102" s="4"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" ht="12" customHeight="1" spans="1:4">
+      <c r="A103" s="4"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="A3:A59"/>
+    <mergeCell ref="A61:A103"/>
     <mergeCell ref="B3:B58"/>
+    <mergeCell ref="B61:B102"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C11:C26"/>
     <mergeCell ref="C28:C39"/>
     <mergeCell ref="C41:C58"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C79:C85"/>
+    <mergeCell ref="C87:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TOC/Java Full Stack.xlsx
+++ b/TOC/Java Full Stack.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="1658">
   <si>
     <t>Learning Unit</t>
   </si>
@@ -5495,16 +5495,16 @@
     <t>7. Using Docker Compose Commands</t>
   </si>
   <si>
-    <t>6. Container Deployment Using Docker Swarm</t>
-  </si>
-  <si>
-    <t>7. Container Scaling with Docker Swarm</t>
-  </si>
-  <si>
-    <t>8. Distribute Your App Across a Cluster</t>
-  </si>
-  <si>
-    <t>9. Setting up a Jenkins pipeline</t>
+    <t>6. Taking Things to the Next Level with Docker Swarm</t>
+  </si>
+  <si>
+    <t>2. Taking Things to the Next Level with Docker Swarm</t>
+  </si>
+  <si>
+    <t>3. Deploying an app to a Swarm</t>
+  </si>
+  <si>
+    <t>7. Build and Publish a Docker image using Jenkins</t>
   </si>
 </sst>
 </file>
@@ -5512,9 +5512,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="41">
@@ -5640,22 +5640,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -5670,9 +5654,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5686,8 +5693,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5709,40 +5768,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5755,36 +5782,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5865,7 +5865,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5877,79 +5895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5961,55 +5907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6027,13 +5925,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6045,7 +6039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6089,17 +6089,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6119,26 +6119,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6160,9 +6169,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6175,27 +6186,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6207,131 +6207,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -22746,12 +22746,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -23535,77 +23535,62 @@
       <c r="C95" s="8"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" ht="36" spans="1:4">
+    <row r="96" ht="17" customHeight="1" spans="1:4">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6" t="s">
         <v>1654</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" ht="18" spans="1:4">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" ht="36" spans="1:4">
+      <c r="C97" s="6"/>
+      <c r="D97" s="7" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="6" t="s">
-        <v>1655</v>
-      </c>
+      <c r="C98" s="6"/>
       <c r="D98" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="99" ht="18" spans="1:4">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="7"/>
-    </row>
-    <row r="100" ht="36" spans="1:4">
+      <c r="C99" s="8"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" ht="36" customHeight="1" spans="1:4">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" ht="18.75" spans="1:4">
+    <row r="101" ht="12" customHeight="1" spans="1:4">
       <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" ht="36" customHeight="1" spans="1:4">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="6" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" ht="12" customHeight="1" spans="1:4">
-      <c r="A103" s="4"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="A3:A59"/>
-    <mergeCell ref="A61:A103"/>
+    <mergeCell ref="A61:A101"/>
     <mergeCell ref="B3:B58"/>
-    <mergeCell ref="B61:B102"/>
+    <mergeCell ref="B61:B100"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C11:C26"/>
     <mergeCell ref="C28:C39"/>
@@ -23614,6 +23599,7 @@
     <mergeCell ref="C70:C77"/>
     <mergeCell ref="C79:C85"/>
     <mergeCell ref="C87:C94"/>
+    <mergeCell ref="C96:C98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
